--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82AFB49-7CF0-432D-8A47-5698613F4EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1321634C-7C04-4E32-B8E3-2AE936772B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="17" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1265">
   <si>
     <t>Group Source</t>
   </si>
@@ -3473,9 +3473,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>Encounter.type</t>
-  </si>
-  <si>
     <t>InPatientEncounter</t>
   </si>
   <si>
@@ -3848,9 +3845,6 @@
   </si>
   <si>
     <t>Encounter.hospitalization.destination</t>
-  </si>
-  <si>
-    <t>of type Location ?</t>
   </si>
   <si>
     <t>Location.managingOrganization</t>
@@ -3949,7 +3943,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3968,6 +3962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4335,7 +4330,7 @@
         <v>http://hl7.eu/fhir/hdr/ConceptMap/encounter2FHIR-eu-hdr</v>
       </c>
       <c r="D2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E2" t="s">
         <v>1086</v>
@@ -4344,10 +4339,10 @@
         <v>1088</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="I2" t="s">
         <v>1135</v>
@@ -4365,7 +4360,7 @@
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hdrHeader2FHIR-eu-hdr</v>
       </c>
       <c r="D3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E3" t="s">
         <v>1086</v>
@@ -4374,10 +4369,10 @@
         <v>1088</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I3" t="s">
         <v>1135</v>
@@ -8601,7 +8596,7 @@
         <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D2" t="s">
         <v>946</v>
@@ -8689,10 +8684,10 @@
         <v>1100</v>
       </c>
       <c r="D7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>1228</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
@@ -8706,7 +8701,7 @@
         <v>1096</v>
       </c>
       <c r="D8" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>1072</v>
@@ -8723,7 +8718,7 @@
         <v>1102</v>
       </c>
       <c r="D9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1073</v>
@@ -8740,7 +8735,7 @@
         <v>1101</v>
       </c>
       <c r="D10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>1074</v>
@@ -8757,7 +8752,7 @@
         <v>1099</v>
       </c>
       <c r="D11" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>332</v>
@@ -8774,7 +8769,7 @@
         <v>1103</v>
       </c>
       <c r="D12" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>1075</v>
@@ -9072,21 +9067,21 @@
         <v>1113</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>946</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.75">
@@ -9100,7 +9095,7 @@
         <v>1106</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
@@ -9114,12 +9109,12 @@
         <v>1107</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>1100</v>
@@ -9128,7 +9123,7 @@
         <v>1109</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.75">
@@ -9142,7 +9137,7 @@
         <v>1105</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.75">
@@ -9156,7 +9151,7 @@
         <v>1111</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.75">
@@ -9170,7 +9165,7 @@
         <v>1110</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
@@ -9184,7 +9179,7 @@
         <v>1108</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.75">
@@ -9198,7 +9193,7 @@
         <v>1112</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.75">
@@ -9289,10 +9284,10 @@
         <v>1088</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="I2" t="s">
         <v>1135</v>
@@ -9322,7 +9317,7 @@
         <v>1134</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I3" t="s">
         <v>1135</v>
@@ -9352,7 +9347,7 @@
         <v>1134</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I4" t="s">
         <v>1135</v>
@@ -9379,10 +9374,10 @@
         <v>1088</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I5" t="s">
         <v>1135</v>
@@ -9410,10 +9405,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9455,10 +9450,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="C2" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A2</f>
@@ -9474,45 +9469,43 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1138</v>
+      </c>
       <c r="C3" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A2</f>
-        <v>Encounter.type</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A3</f>
+        <v>Encounter.note</v>
       </c>
       <c r="D3" t="str">
-        <f>EncounterEhn!D2</f>
-        <v>A.2.3.1 - Encounter type</v>
+        <f>EncounterEhn!D3</f>
+        <v>A.2.3.2 - Encounter note</v>
       </c>
       <c r="E3" t="s">
-        <v>1136</v>
+        <v>1237</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C4" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A3</f>
-        <v>Encounter.note</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A4</f>
+        <v>Encounter.admission</v>
       </c>
       <c r="D4" t="str">
-        <f>EncounterEhn!D3</f>
-        <v>A.2.3.2 - Encounter note</v>
+        <f>EncounterEhn!D4</f>
+        <v>A.2.3.3 - Admission</v>
       </c>
       <c r="E4" t="s">
         <v>1238</v>
@@ -9520,104 +9513,104 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C5" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A4</f>
-        <v>Encounter.admission</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A5</f>
+        <v>Encounter.admission.urgency</v>
       </c>
       <c r="D5" t="str">
-        <f>EncounterEhn!D4</f>
-        <v>A.2.3.3 - Admission</v>
+        <f>EncounterEhn!D5</f>
+        <v>A.2.3.3.1 - Admission urgency</v>
       </c>
       <c r="E5" t="s">
-        <v>1239</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C6" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A5</f>
-        <v>Encounter.admission.urgency</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A6</f>
+        <v>Encounter.admission.date</v>
       </c>
       <c r="D6" t="str">
-        <f>EncounterEhn!D5</f>
-        <v>A.2.3.3.1 - Admission urgency</v>
+        <f>EncounterEhn!D6</f>
+        <v>A.2.3.3.2 - Admission date</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C7" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A6</f>
-        <v>Encounter.admission.date</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A7</f>
+        <v>Encounter.admission.admitter</v>
       </c>
       <c r="D7" t="str">
-        <f>EncounterEhn!D6</f>
-        <v>A.2.3.3.2 - Admission date</v>
+        <f>EncounterEhn!D7</f>
+        <v>Admitting professional</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
       </c>
+      <c r="H7" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1139</v>
+        <v>1240</v>
       </c>
       <c r="C8" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A7</f>
-        <v>Encounter.admission.admitter</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
+        <v>Encounter.admission.admitter.identifier</v>
       </c>
       <c r="D8" t="str">
-        <f>EncounterEhn!D7</f>
-        <v>Admitting professional</v>
+        <f>EncounterEhn!D8</f>
+        <v>A.2.3.3.3 - Admitting professional ID</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>1242</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>1240</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1241</v>
@@ -9640,20 +9633,20 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C10" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
-        <v>Encounter.admission.admitter.identifier</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
+        <v>Encounter.admission.admitter.name</v>
       </c>
       <c r="D10" t="str">
-        <f>EncounterEhn!D8</f>
-        <v>A.2.3.3.3 - Admitting professional ID</v>
+        <f>EncounterEhn!D9</f>
+        <v>A.2.3.3.4 - Admitting professional name</v>
       </c>
       <c r="E10" t="s">
         <v>1244</v>
@@ -9661,66 +9654,66 @@
       <c r="G10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
+        <v>Encounter.admission.admitter.organizationID</v>
+      </c>
+      <c r="D11" t="str">
+        <f>EncounterEhn!D10</f>
+        <v>A.2.3.3.5 - Admitting organisation ID</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>1251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
-      <c r="A11" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C11" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
-        <v>Encounter.admission.admitter.name</v>
-      </c>
-      <c r="D11" t="str">
-        <f>EncounterEhn!D9</f>
-        <v>A.2.3.3.4 - Admitting professional name</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1245</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1248</v>
-      </c>
       <c r="C12" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
-        <v>Encounter.admission.admitter.organizationID</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A11</f>
+        <v>Encounter.admission.admitter.organization</v>
       </c>
       <c r="D12" t="str">
-        <f>EncounterEhn!D10</f>
-        <v>A.2.3.3.5 - Admitting organisation ID</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G12" t="s">
+        <f>EncounterEhn!D11</f>
+        <v>A.2.3.3.6 - Admitting organisation</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="s">
-        <v>1252</v>
-      </c>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="C13" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A11</f>
@@ -9730,92 +9723,91 @@
         <f>EncounterEhn!D11</f>
         <v>A.2.3.3.6 - Admitting organisation</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
+      <c r="E13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>24</v>
+      <c r="H13" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C14" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A11</f>
-        <v>Encounter.admission.admitter.organization</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A12</f>
+        <v>Encounter.admission.source</v>
       </c>
       <c r="D14" t="str">
-        <f>EncounterEhn!D11</f>
-        <v>A.2.3.3.6 - Admitting organisation</v>
+        <f>EncounterEhn!D12</f>
+        <v>A.2.3.3.7 - Admit Source</v>
       </c>
       <c r="E14" t="s">
-        <v>1249</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
-        <v>1253</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C15" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A12</f>
-        <v>Encounter.admission.source</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A13</f>
+        <v>Encounter.admission.referringHP</v>
       </c>
       <c r="D15" t="str">
-        <f>EncounterEhn!D12</f>
-        <v>A.2.3.3.7 - Admit Source</v>
+        <f>EncounterEhn!D13</f>
+        <v>Referring professional</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
       </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1139</v>
+        <v>1240</v>
       </c>
       <c r="C16" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A13</f>
-        <v>Encounter.admission.referringHP</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
+        <v>Encounter.admission.referringHP.identifier</v>
       </c>
       <c r="D16" t="str">
-        <f>EncounterEhn!D13</f>
-        <v>Referring professional</v>
+        <f>EncounterEhn!D14</f>
+        <v>A.2.3.3.8 - Referring professional ID</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>1242</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1241</v>
@@ -9838,20 +9830,20 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C18" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
-        <v>Encounter.admission.referringHP.identifier</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
+        <v>Encounter.admission.referringHP.name</v>
       </c>
       <c r="D18" t="str">
-        <f>EncounterEhn!D14</f>
-        <v>A.2.3.3.8 - Referring professional ID</v>
+        <f>EncounterEhn!D15</f>
+        <v>A.2.3.3.9 - Referring professional name</v>
       </c>
       <c r="E18" t="s">
         <v>1244</v>
@@ -9859,55 +9851,55 @@
       <c r="G18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A19" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C19" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
+        <v>Encounter.admission.referringHP.organizationID</v>
+      </c>
+      <c r="D19" t="str">
+        <f>EncounterEhn!D16</f>
+        <v>A.2.3.3.10 - Referring organisation ID</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
         <v>1256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A19" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C19" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
-        <v>Encounter.admission.referringHP.name</v>
-      </c>
-      <c r="D19" t="str">
-        <f>EncounterEhn!D15</f>
-        <v>A.2.3.3.9 - Referring professional name</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1245</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A17</f>
+        <v>Encounter.admission.referringHP.organization</v>
+      </c>
+      <c r="D20" t="str">
+        <f>EncounterEhn!D17</f>
+        <v>A.2.3.3.11 - Referring organisation</v>
+      </c>
+      <c r="E20" t="s">
         <v>1248</v>
       </c>
-      <c r="C20" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
-        <v>Encounter.admission.referringHP.organizationID</v>
-      </c>
-      <c r="D20" t="str">
-        <f>EncounterEhn!D16</f>
-        <v>A.2.3.3.10 - Referring organisation ID</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1247</v>
-      </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
         <v>1257</v>
@@ -9915,35 +9907,32 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C21" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A17</f>
-        <v>Encounter.admission.referringHP.organization</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A18</f>
+        <v>Encounter.admissionReason</v>
       </c>
       <c r="D21" t="str">
-        <f>EncounterEhn!D17</f>
-        <v>A.2.3.3.11 - Referring organisation</v>
+        <f>EncounterEhn!D18</f>
+        <v>A.2.3.4 - Admission reason</v>
       </c>
       <c r="E21" t="s">
-        <v>1249</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1258</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="C22" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A18</f>
@@ -9954,153 +9943,150 @@
         <v>A.2.3.4 - Admission reason</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>1258</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
       </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C23" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A18</f>
-        <v>Encounter.admissionReason</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A19</f>
+        <v>Encounter.admissionReason.code</v>
       </c>
       <c r="D23" t="str">
-        <f>EncounterEhn!D18</f>
-        <v>A.2.3.4 - Admission reason</v>
+        <f>EncounterEhn!D19</f>
+        <v>A.2.3.4.1 - Admission reason</v>
       </c>
       <c r="E23" t="s">
-        <v>1259</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C24" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A19</f>
-        <v>Encounter.admissionReason.code</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A20</f>
+        <v>Encounter.admissionReason.comment</v>
       </c>
       <c r="D24" t="str">
-        <f>EncounterEhn!D19</f>
-        <v>A.2.3.4.1 - Admission reason</v>
+        <f>EncounterEhn!D20</f>
+        <v>A.2.3.4.2 - Admission reason comment</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
       </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C25" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A20</f>
-        <v>Encounter.admissionReason.comment</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A21</f>
+        <v>Encounter.admissionReason.legalStatus</v>
       </c>
       <c r="D25" t="str">
-        <f>EncounterEhn!D20</f>
-        <v>A.2.3.4.2 - Admission reason comment</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s">
+        <f>EncounterEhn!D21</f>
+        <v>A.2.3.4.3 - Admission legal status</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C26" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A21</f>
-        <v>Encounter.admissionReason.legalStatus</v>
+      <c r="C26" s="3" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A22</f>
+        <v>Encounter.discharge</v>
       </c>
       <c r="D26" t="str">
-        <f>EncounterEhn!D21</f>
-        <v>A.2.3.4.3 - Admission legal status</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>1237</v>
+        <f>EncounterEhn!D22</f>
+        <v>A.2.3.5 - Discharge</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1238</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>24</v>
+      <c r="G26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C27" s="3" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A22</f>
-        <v>Encounter.discharge</v>
+      <c r="C27" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A23</f>
+        <v>Encounter.discharge.date</v>
       </c>
       <c r="D27" t="str">
-        <f>EncounterEhn!D22</f>
-        <v>A.2.3.5 - Discharge</v>
+        <f>EncounterEhn!D23</f>
+        <v>A.2.3.5.1 - Discharge date</v>
       </c>
       <c r="E27" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F27" s="6"/>
+        <v>12</v>
+      </c>
       <c r="G27" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C28" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A23</f>
-        <v>Encounter.discharge.date</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A24</f>
+        <v>Encounter.discharge.destinationType</v>
       </c>
       <c r="D28" t="str">
-        <f>EncounterEhn!D23</f>
-        <v>A.2.3.5.1 - Discharge date</v>
+        <f>EncounterEhn!D24</f>
+        <v>A.2.3.5.2 - Discharge destination type</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -10108,21 +10094,21 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C29" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A24</f>
-        <v>Encounter.discharge.destinationType</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A25</f>
+        <v>Encounter.discharge.destinationLocation</v>
       </c>
       <c r="D29" t="str">
-        <f>EncounterEhn!D24</f>
-        <v>A.2.3.5.2 - Discharge destination type</v>
+        <f>EncounterEhn!D25</f>
+        <v>A.2.3.5.3 - Destination location</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>1259</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -10130,121 +10116,118 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C30" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A25</f>
-        <v>Encounter.discharge.destinationLocation</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A26</f>
+        <v>Encounter.location</v>
       </c>
       <c r="D30" t="str">
-        <f>EncounterEhn!D25</f>
-        <v>A.2.3.5.3 - Destination location</v>
+        <f>EncounterEhn!D26</f>
+        <v>A.2.3.6 - Location - All locations/departments where the patient stayed (was boarded) within the hospital.</v>
       </c>
       <c r="E30" t="s">
-        <v>1260</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>1261</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="C31" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A26</f>
-        <v>Encounter.location</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A27</f>
+        <v>Encounter.location.period</v>
       </c>
       <c r="D31" t="str">
-        <f>EncounterEhn!D26</f>
-        <v>A.2.3.6 - Location - All locations/departments where the patient stayed (was boarded) within the hospital.</v>
+        <f>EncounterEhn!D27</f>
+        <v>A.2.3.6.1 - Period</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1139</v>
+        <v>1261</v>
       </c>
       <c r="C32" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A27</f>
-        <v>Encounter.location.period</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A28</f>
+        <v>Encounter.location.organization</v>
       </c>
       <c r="D32" t="str">
-        <f>EncounterEhn!D27</f>
-        <v>A.2.3.6.1 - Period</v>
+        <f>EncounterEhn!D28</f>
+        <v>Organization</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>1260</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="C33" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A28</f>
-        <v>Encounter.location.organization</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
+        <v>Encounter.location.organization.identifier</v>
       </c>
       <c r="D33" t="str">
-        <f>EncounterEhn!D28</f>
-        <v>Organization</v>
+        <f>EncounterEhn!D29</f>
+        <v>A.2.3.6.2 - Organisation Part ID</v>
       </c>
       <c r="E33" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
       <c r="G33" t="s">
         <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>1264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C34" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
-        <v>Encounter.location.organization.identifier</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
+        <v>Encounter.location.organization.name</v>
       </c>
       <c r="D34" t="str">
-        <f>EncounterEhn!D29</f>
-        <v>A.2.3.6.2 - Organisation Part ID</v>
+        <f>EncounterEhn!D30</f>
+        <v>A.2.3.6.3 - Organisation Part Name</v>
       </c>
       <c r="E34" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
@@ -10252,92 +10235,67 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C35" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
-        <v>Encounter.location.organization.name</v>
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
+        <v>Encounter.location.organization.details</v>
       </c>
       <c r="D35" t="str">
-        <f>EncounterEhn!D30</f>
-        <v>A.2.3.6.3 - Organisation Part Name</v>
+        <f>EncounterEhn!D31</f>
+        <v>A.2.3.6.4 - Organisation Part Details</v>
       </c>
       <c r="E35" t="s">
-        <v>1265</v>
+        <v>398</v>
       </c>
       <c r="G35" t="s">
         <v>22</v>
       </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A36" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C36" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
-        <v>Encounter.location.organization.details</v>
-      </c>
-      <c r="D36" t="str">
-        <f>EncounterEhn!D31</f>
-        <v>A.2.3.6.4 - Organisation Part Details</v>
-      </c>
-      <c r="E36" t="s">
-        <v>398</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>1266</v>
+      <c r="H35" s="6" t="s">
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B15" r:id="rId9" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B21" r:id="rId10" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B22" r:id="rId11" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B24" r:id="rId12" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B25" r:id="rId13" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B26" r:id="rId14" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B27" r:id="rId15" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B28" r:id="rId16" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B29" r:id="rId17" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B30" r:id="rId18" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B31" r:id="rId19" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B32" r:id="rId20" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId5" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B14" r:id="rId9" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B20" r:id="rId10" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B21" r:id="rId11" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B23" r:id="rId12" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B24" r:id="rId13" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B25" r:id="rId14" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B26" r:id="rId15" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B27" r:id="rId16" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B28" r:id="rId17" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B29" r:id="rId18" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B30" r:id="rId19" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B31" r:id="rId20" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B33" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="A2" r:id="rId23" xr:uid="{4F4FD587-15B5-4A0F-9801-FB674FEDACBB}"/>
-    <hyperlink ref="A4" r:id="rId24" display="http://hl7.eu/fhir/hdr/StructureDefinition/Encounter" xr:uid="{CD68210C-9D35-4AED-AC30-0DAB7AFD3E0F}"/>
-    <hyperlink ref="B10" r:id="rId25" xr:uid="{877D8623-D1D3-4BF6-B1B0-72F96A54ADF8}"/>
-    <hyperlink ref="B11" r:id="rId26" xr:uid="{7464D906-8AF1-4A52-8FBC-60505937A7F8}"/>
-    <hyperlink ref="B14" r:id="rId27" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{83AA253C-4C41-4D67-A1A0-8D40653A7257}"/>
-    <hyperlink ref="B13" r:id="rId28" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{2E438031-61D6-42B2-9C01-9738E4E3C983}"/>
-    <hyperlink ref="B16" r:id="rId29" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{8840C6EC-7A4C-4EF5-8946-B3A7DC938BDB}"/>
-    <hyperlink ref="B17" r:id="rId30" xr:uid="{BB18C541-1E17-4E4E-8715-AAA218979CC5}"/>
-    <hyperlink ref="B18" r:id="rId31" xr:uid="{9D2FC5E8-17A6-47E7-98E5-311AFAF9CE0B}"/>
-    <hyperlink ref="B20" r:id="rId32" xr:uid="{3E240603-1469-4565-B552-8834ADF1218F}"/>
-    <hyperlink ref="B19" r:id="rId33" xr:uid="{3A29CDE4-BF02-45BF-8DCB-8FCB842A6243}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{E8DA1CB4-0D60-4765-A00B-1341F00BF028}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{B93A9439-D6F0-4875-8DA3-253D8C20FFF5}"/>
-    <hyperlink ref="B23" r:id="rId36" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{105B392F-1172-4436-900C-C5FEF143B544}"/>
+    <hyperlink ref="A3" r:id="rId24" display="http://hl7.eu/fhir/hdr/StructureDefinition/Encounter" xr:uid="{CD68210C-9D35-4AED-AC30-0DAB7AFD3E0F}"/>
+    <hyperlink ref="B9" r:id="rId25" xr:uid="{877D8623-D1D3-4BF6-B1B0-72F96A54ADF8}"/>
+    <hyperlink ref="B10" r:id="rId26" xr:uid="{7464D906-8AF1-4A52-8FBC-60505937A7F8}"/>
+    <hyperlink ref="B13" r:id="rId27" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{83AA253C-4C41-4D67-A1A0-8D40653A7257}"/>
+    <hyperlink ref="B12" r:id="rId28" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{2E438031-61D6-42B2-9C01-9738E4E3C983}"/>
+    <hyperlink ref="B15" r:id="rId29" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{8840C6EC-7A4C-4EF5-8946-B3A7DC938BDB}"/>
+    <hyperlink ref="B16" r:id="rId30" xr:uid="{BB18C541-1E17-4E4E-8715-AAA218979CC5}"/>
+    <hyperlink ref="B17" r:id="rId31" xr:uid="{9D2FC5E8-17A6-47E7-98E5-311AFAF9CE0B}"/>
+    <hyperlink ref="B19" r:id="rId32" xr:uid="{3E240603-1469-4565-B552-8834ADF1218F}"/>
+    <hyperlink ref="B18" r:id="rId33" xr:uid="{3A29CDE4-BF02-45BF-8DCB-8FCB842A6243}"/>
+    <hyperlink ref="B34" r:id="rId34" xr:uid="{E8DA1CB4-0D60-4765-A00B-1341F00BF028}"/>
+    <hyperlink ref="B35" r:id="rId35" xr:uid="{B93A9439-D6F0-4875-8DA3-253D8C20FFF5}"/>
+    <hyperlink ref="B22" r:id="rId36" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{105B392F-1172-4436-900C-C5FEF143B544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
@@ -10942,13 +10900,13 @@
     </row>
     <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C2" t="s">
         <v>1154</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1155</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>117</v>
@@ -10962,13 +10920,13 @@
     </row>
     <row r="3" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>118</v>
@@ -10982,13 +10940,13 @@
     </row>
     <row r="4" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>119</v>
@@ -11002,13 +10960,13 @@
     </row>
     <row r="5" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>120</v>
@@ -11022,13 +10980,13 @@
     </row>
     <row r="6" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>121</v>
@@ -11042,13 +11000,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>122</v>
@@ -11062,13 +11020,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C8" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>123</v>
@@ -11082,13 +11040,13 @@
     </row>
     <row r="9" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C9" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>124</v>
@@ -11102,13 +11060,13 @@
     </row>
     <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>125</v>
@@ -11122,13 +11080,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C11" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>126</v>
@@ -11142,13 +11100,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>127</v>
@@ -11162,13 +11120,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C13" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>128</v>
@@ -11182,13 +11140,13 @@
     </row>
     <row r="14" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C14" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>129</v>
@@ -11202,13 +11160,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C15" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>130</v>
@@ -11222,13 +11180,13 @@
     </row>
     <row r="16" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>131</v>
@@ -11242,13 +11200,13 @@
     </row>
     <row r="17" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C17" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>131</v>
@@ -11262,13 +11220,13 @@
     </row>
     <row r="18" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>132</v>
@@ -11282,13 +11240,13 @@
     </row>
     <row r="19" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C19" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>133</v>
@@ -11302,13 +11260,13 @@
     </row>
     <row r="20" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>133</v>
@@ -11322,13 +11280,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C21" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>134</v>
@@ -11342,13 +11300,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>135</v>
@@ -11362,13 +11320,13 @@
     </row>
     <row r="23" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C23" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>136</v>
@@ -11382,13 +11340,13 @@
     </row>
     <row r="24" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C24" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>137</v>
@@ -11400,13 +11358,13 @@
     </row>
     <row r="25" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C25" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>138</v>
@@ -11420,36 +11378,36 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C26" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G26" t="s">
         <v>55</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C27" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>140</v>
@@ -11463,13 +11421,13 @@
     </row>
     <row r="28" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C28" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>141</v>
@@ -11483,13 +11441,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C29" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>142</v>
@@ -11503,13 +11461,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C30" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>143</v>
@@ -11523,13 +11481,13 @@
     </row>
     <row r="31" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C31" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>63</v>
@@ -11546,13 +11504,13 @@
     </row>
     <row r="32" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C32" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>64</v>
@@ -11569,13 +11527,13 @@
     </row>
     <row r="33" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C33" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>65</v>
@@ -11592,13 +11550,13 @@
     </row>
     <row r="34" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C34" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>66</v>
@@ -11615,13 +11573,13 @@
     </row>
     <row r="35" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C35" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>67</v>
@@ -11635,13 +11593,13 @@
     </row>
     <row r="36" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A36" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C36" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>68</v>
@@ -11658,13 +11616,13 @@
     </row>
     <row r="37" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A37" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C37" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>69</v>
@@ -11681,13 +11639,13 @@
     </row>
     <row r="38" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A38" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C38" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>70</v>
@@ -11704,13 +11662,13 @@
     </row>
     <row r="39" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A39" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C39" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>71</v>
@@ -11727,13 +11685,13 @@
     </row>
     <row r="40" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A40" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>72</v>
@@ -11747,13 +11705,13 @@
     </row>
     <row r="41" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C41" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>73</v>
@@ -11767,13 +11725,13 @@
     </row>
     <row r="42" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A42" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>74</v>
@@ -11790,13 +11748,13 @@
     </row>
     <row r="43" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A43" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C43" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>75</v>
@@ -11808,18 +11766,18 @@
         <v>57</v>
       </c>
       <c r="H43" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A44" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C44" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>76</v>
@@ -11833,13 +11791,13 @@
     </row>
     <row r="45" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A45" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C45" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>77</v>
@@ -11853,13 +11811,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A46" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C46" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>78</v>
@@ -11876,13 +11834,13 @@
     </row>
     <row r="47" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A47" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C47" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>79</v>
@@ -11899,13 +11857,13 @@
     </row>
     <row r="48" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A48" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C48" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>80</v>
@@ -11922,13 +11880,13 @@
     </row>
     <row r="49" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A49" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C49" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>81</v>
@@ -11945,13 +11903,13 @@
     </row>
     <row r="50" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A50" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C50" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>82</v>
@@ -11968,13 +11926,13 @@
     </row>
     <row r="51" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A51" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C51" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>83</v>
@@ -11991,13 +11949,13 @@
     </row>
     <row r="52" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A52" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C52" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>84</v>
@@ -12014,13 +11972,13 @@
     </row>
     <row r="53" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A53" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C53" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>85</v>
@@ -12037,13 +11995,13 @@
     </row>
     <row r="54" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A54" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C54" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>86</v>
@@ -12060,13 +12018,13 @@
     </row>
     <row r="55" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A55" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C55" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>87</v>
@@ -12083,13 +12041,13 @@
     </row>
     <row r="56" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A56" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C56" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>88</v>
@@ -12103,13 +12061,13 @@
     </row>
     <row r="57" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A57" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C57" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>89</v>
@@ -12123,13 +12081,13 @@
     </row>
     <row r="58" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A58" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C58" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>26</v>
@@ -12143,13 +12101,13 @@
     </row>
     <row r="59" spans="1:8" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A59" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C59" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>27</v>
@@ -12161,18 +12119,18 @@
         <v>56</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A60" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C60" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>28</v>
@@ -12186,13 +12144,13 @@
     </row>
     <row r="61" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A61" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C61" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>29</v>
@@ -12206,13 +12164,13 @@
     </row>
     <row r="62" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A62" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C62" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>30</v>
@@ -12226,13 +12184,13 @@
     </row>
     <row r="63" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A63" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C63" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>31</v>
@@ -12246,13 +12204,13 @@
     </row>
     <row r="64" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A64" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C64" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>32</v>
@@ -12266,13 +12224,13 @@
     </row>
     <row r="65" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A65" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C65" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>33</v>
@@ -12286,13 +12244,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A66" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C66" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>34</v>
@@ -12306,13 +12264,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A67" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C67" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>35</v>
@@ -12329,13 +12287,13 @@
     </row>
     <row r="68" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A68" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C68" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>36</v>
@@ -12352,13 +12310,13 @@
     </row>
     <row r="69" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A69" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C69" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>37</v>
@@ -12375,13 +12333,13 @@
     </row>
     <row r="70" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A70" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C70" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>38</v>
@@ -12398,13 +12356,13 @@
     </row>
     <row r="71" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A71" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C71" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>26</v>
@@ -12418,13 +12376,13 @@
     </row>
     <row r="72" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A72" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C72" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>27</v>
@@ -12435,13 +12393,13 @@
     </row>
     <row r="73" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A73" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C73" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>28</v>
@@ -12452,13 +12410,13 @@
     </row>
     <row r="74" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A74" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C74" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>29</v>
@@ -12472,13 +12430,13 @@
     </row>
     <row r="75" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A75" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C75" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>30</v>
@@ -12492,13 +12450,13 @@
     </row>
     <row r="76" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A76" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C76" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>31</v>
@@ -12512,13 +12470,13 @@
     </row>
     <row r="77" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A77" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C77" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>32</v>
@@ -12532,13 +12490,13 @@
     </row>
     <row r="78" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A78" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C78" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>33</v>
@@ -12552,19 +12510,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A79" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C79" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E79" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G79" t="s">
         <v>57</v>
@@ -12572,13 +12530,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A80" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C80" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>35</v>
@@ -12592,13 +12550,13 @@
     </row>
     <row r="81" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A81" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C81" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>36</v>
@@ -12612,13 +12570,13 @@
     </row>
     <row r="82" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A82" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C82" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>37</v>
@@ -12632,13 +12590,13 @@
     </row>
     <row r="83" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A83" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C83" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>38</v>

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -8,32 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B710155-684F-45D7-A898-FE620AC8F168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB27250-B80F-4548-AC52-F98D2BE10CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="17" r:id="rId1"/>
-    <sheet name="ConceptMaps--" sheetId="14" r:id="rId2"/>
-    <sheet name="Encounter2FHIREuHdr" sheetId="1" r:id="rId3"/>
-    <sheet name="Header2FHIREuHdr" sheetId="4" r:id="rId4"/>
-    <sheet name="HeaderHdrEhn" sheetId="16" r:id="rId5"/>
-    <sheet name="Subject2FHIREuHdr" sheetId="19" r:id="rId6"/>
-    <sheet name="SubjectHdrEhn" sheetId="18" r:id="rId7"/>
-    <sheet name="AdmissionEvaluationEhn" sheetId="5" r:id="rId8"/>
-    <sheet name="AdvanceDirectivesEhn" sheetId="6" r:id="rId9"/>
-    <sheet name="AlertsEhn" sheetId="7" r:id="rId10"/>
-    <sheet name="DischargeDetailsEhn" sheetId="8" r:id="rId11"/>
-    <sheet name="EncounterEhn" sheetId="9" r:id="rId12"/>
-    <sheet name="HospitalStayEhn" sheetId="10" r:id="rId13"/>
-    <sheet name="PatientHistoryEhn" sheetId="11" r:id="rId14"/>
-    <sheet name="RecommendationsEhn" sheetId="12" r:id="rId15"/>
-    <sheet name="HospitalDischargeReportEhn" sheetId="13" r:id="rId16"/>
-    <sheet name="LogicalModels" sheetId="15" r:id="rId17"/>
+    <sheet name="LogicalModels" sheetId="15" r:id="rId2"/>
+    <sheet name="Alerts2FHIREuHdr" sheetId="21" r:id="rId3"/>
+    <sheet name="AlertsEhn" sheetId="7" r:id="rId4"/>
+    <sheet name="Encounter2FHIREuHdr" sheetId="1" r:id="rId5"/>
+    <sheet name="Header2FHIREuHdr" sheetId="4" r:id="rId6"/>
+    <sheet name="HeaderHdrEhn" sheetId="16" r:id="rId7"/>
+    <sheet name="Subject2FHIREuHdr" sheetId="19" r:id="rId8"/>
+    <sheet name="SubjectHdrEhn" sheetId="18" r:id="rId9"/>
+    <sheet name="AdmissionEvaluationEhn" sheetId="5" r:id="rId10"/>
+    <sheet name="AdvanceDirectivesEhn" sheetId="6" r:id="rId11"/>
+    <sheet name="DischargeDetailsEhn" sheetId="8" r:id="rId12"/>
+    <sheet name="EncounterEhn" sheetId="9" r:id="rId13"/>
+    <sheet name="HospitalStayEhn" sheetId="10" r:id="rId14"/>
+    <sheet name="PatientHistoryEhn" sheetId="11" r:id="rId15"/>
+    <sheet name="RecommendationsEhn" sheetId="12" r:id="rId16"/>
+    <sheet name="HospitalDischargeReportEhn" sheetId="13" r:id="rId17"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId18"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Header2FHIREuHdr!$A$1:$H$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Subject2FHIREuHdr!$A$1:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Header2FHIREuHdr!$A$1:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Subject2FHIREuHdr!$A$1:$H$34</definedName>
+    <definedName name="CENEN13606Lekarska_prepustacia_sprava">'[1]Hospital Discharge Report '!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1171">
   <si>
     <t>Group Source</t>
   </si>
@@ -2809,16 +2813,7 @@
     <t>TargetUri</t>
   </si>
   <si>
-    <t>eHN Recipient to this guide Map</t>
-  </si>
-  <si>
-    <t>eHN HDR header metadata to this guide Map</t>
-  </si>
-  <si>
     <t>eHN HDR Encounter Model to this guide mapping</t>
-  </si>
-  <si>
-    <t>eHN eHN HDR header metadata Model to this guide mapping</t>
   </si>
   <si>
     <t>draft</t>
@@ -2939,28 +2934,13 @@
     <t>encounter2FHIR-eu-hdr</t>
   </si>
   <si>
-    <t>HeaderMeta2FHIR-eu-hdr</t>
-  </si>
-  <si>
-    <t>HeaderParticipants2FHIR-eu-hdr</t>
-  </si>
-  <si>
     <t>hdrHeader2FHIR-eu-hdr</t>
   </si>
   <si>
     <t>Encounter2FHIREuHdr</t>
   </si>
   <si>
-    <t>HeaderMeta2FHIREuHdr</t>
-  </si>
-  <si>
-    <t>HeaderParticipants2FHIREuHdr</t>
-  </si>
-  <si>
     <t>Header2FHIREuHdr</t>
-  </si>
-  <si>
-    <t>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</t>
   </si>
   <si>
     <t>true</t>
@@ -3426,9 +3406,6 @@
     <t xml:space="preserve">Composition.language		</t>
   </si>
   <si>
-    <t>eHN Header Model to this guide Map (TO BE COMPLETED)</t>
-  </si>
-  <si>
     <t>subject2FHIR-eu-hdr</t>
   </si>
   <si>
@@ -3529,13 +3506,91 @@
   </si>
   <si>
     <t>where attester.mode = 'legal' AND Composition.attester.party.resolve().ofType(PractitionerRole)</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance</t>
+  </si>
+  <si>
+    <t>Alerts2FHIREuHdr</t>
+  </si>
+  <si>
+    <t>alerts2FHIR-eu-hdr</t>
+  </si>
+  <si>
+    <t>eHN Alerts Model to this guide Map</t>
+  </si>
+  <si>
+    <t>eHN HDR Alerts Model to this guide mapping</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/hdr/StructureDefinition/allergyIntolerance-eu-hdr</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionAllergies</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.text</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.type</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.severity</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.criticality</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.onsetDateTime</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.extension:abatement-datetime</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.clinicalStatus</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.verificationStatus</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionAlerts</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionAlerts.text</t>
+  </si>
+  <si>
+    <t>Flag.text</t>
+  </si>
+  <si>
+    <t>Flag.code.text</t>
+  </si>
+  <si>
+    <t>eHN Header Model to this guide Map</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/hdr/StructureDefinition/Alert</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/hdr/StructureDefinition/flag-eu-hdr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3572,6 +3627,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3587,7 +3650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3610,15 +3673,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3637,10 +3714,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Collegamento ipertestuale 2" xfId="2" xr:uid="{2FCB844D-8848-4EB2-8C88-A6D12B4D0B5A}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3654,6 +3736,88 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Hospital Discharge Report "/>
+      <sheetName val="HospitalDischargeReport"/>
+      <sheetName val="HospitalDischargeReport-Map-1"/>
+      <sheetName val="HospitalDischargeReport-fsh"/>
+      <sheetName val="HospitalDischargeRep-ConceptMap"/>
+      <sheetName val="HospitalDischargeReport-CM-fsh"/>
+      <sheetName val="HDR-SK"/>
+      <sheetName val="HospitalDischargeReportSK"/>
+      <sheetName val="HospitalDischargeReportSK-Map"/>
+      <sheetName val="HospitalDischargeReportSK-fsh"/>
+      <sheetName val="Subject"/>
+      <sheetName val="Subject-Map-1"/>
+      <sheetName val="Subject-fsh"/>
+      <sheetName val="Subject-ConceptMap"/>
+      <sheetName val="Subject-CM-fsh"/>
+      <sheetName val="Staging"/>
+      <sheetName val="Staging-Map-1"/>
+      <sheetName val="Staging-fsh"/>
+      <sheetName val="Staging-ConceptMap"/>
+      <sheetName val="Staging-CM-fsh"/>
+      <sheetName val="Treatment"/>
+      <sheetName val="Treatment-Map-1"/>
+      <sheetName val="Treatment-fsh"/>
+      <sheetName val="Treatment-ConceptMap"/>
+      <sheetName val="Treatment-CM-fsh"/>
+      <sheetName val="ConvertOsiris"/>
+      <sheetName val="Osiris"/>
+      <sheetName val="Osiris-Map"/>
+      <sheetName val="Osiris-fsh-noMap"/>
+      <sheetName val="Osiris-fsh"/>
+      <sheetName val="Osiris-ConceptMap"/>
+      <sheetName val="Osiris-CM-fsh"/>
+      <sheetName val="Foglio2"/>
+      <sheetName val="xpandh-hdr-model-maps"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3946,10 +4110,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3962,154 +4126,183 @@
     <col min="6" max="6" width="6.04296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="67.58984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="66.04296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B2" t="s">
-        <v>960</v>
-      </c>
-      <c r="C2" s="1" t="str">
+      <c r="I1" s="11" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="C2" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A2</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/encounter2FHIR-eu-hdr</v>
       </c>
-      <c r="D2" t="s">
-        <v>993</v>
-      </c>
-      <c r="E2" t="s">
-        <v>916</v>
-      </c>
-      <c r="F2" t="s">
-        <v>918</v>
-      </c>
-      <c r="G2" t="s">
-        <v>967</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="I2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="B3" t="s">
-        <v>963</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C4" si="0">"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A3</f>
+      <c r="H2" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f t="shared" ref="C3:C5" si="0">"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A3</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hdrHeader2FHIR-eu-hdr</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F3" t="s">
-        <v>918</v>
-      </c>
-      <c r="G3" t="s">
-        <v>983</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="I3" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C4" s="1" t="str">
+      <c r="D3" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/subject2FHIR-eu-hdr</v>
       </c>
-      <c r="D4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F4" t="s">
-        <v>918</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>985</v>
-      </c>
-      <c r="I4" t="s">
-        <v>965</v>
+      <c r="D4" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.eu/fhir/hdr/ConceptMap/alerts2FHIR-eu-hdr</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>957</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{2C5E086C-120A-4CE7-BE6D-47C4F94CC9C5}"/>
-    <hyperlink ref="H2" r:id="rId2" display="http://hl7.eu/fhir/hdr/StructureDefinition/Encounter-eu-hdr" xr:uid="{CFEE3774-9404-4E9D-9151-8AC897D96E4E}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{1B64A9A1-D165-4E9D-BD0F-1946037F65C1}"/>
-    <hyperlink ref="C3" r:id="rId4" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{9617EDC7-4F54-42A1-89BC-457E72AFC3FF}"/>
-    <hyperlink ref="C4" r:id="rId5" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{71FBB619-4426-4EEE-A82E-2F650CD064B4}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{F9AB5FE3-5C2B-4FC9-9314-C3F4FCAB3341}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{1B64A9A1-D165-4E9D-BD0F-1946037F65C1}"/>
+    <hyperlink ref="C3" r:id="rId3" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{9617EDC7-4F54-42A1-89BC-457E72AFC3FF}"/>
+    <hyperlink ref="C4" r:id="rId4" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{71FBB619-4426-4EEE-A82E-2F650CD064B4}"/>
+    <hyperlink ref="H4" r:id="rId5" xr:uid="{F9AB5FE3-5C2B-4FC9-9314-C3F4FCAB3341}"/>
+    <hyperlink ref="C5" r:id="rId6" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{24C5EC3E-3DBF-499A-9B9D-D92C53394537}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{BEE2CF99-15F3-4CA9-88E4-2AEDA4F183B7}"/>
+    <hyperlink ref="H2" r:id="rId8" xr:uid="{7EE104CF-3656-476D-A86A-229A9F36D506}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:S46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.76953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.2265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
@@ -4131,160 +4324,160 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>174</v>
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>175</v>
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>176</v>
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>177</v>
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>950</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>178</v>
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>179</v>
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>180</v>
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>181</v>
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>948</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>182</v>
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -4293,83 +4486,83 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>183</v>
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>183</v>
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>949</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>184</v>
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>185</v>
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>186</v>
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -4378,44 +4571,44 @@
         <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>187</v>
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>188</v>
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>951</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>189</v>
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4424,6 +4617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -4733,7 +5058,7 @@
         <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E18" t="s">
         <v>122</v>
@@ -4795,7 +5120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -5342,7 +5667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
@@ -5522,7 +5847,7 @@
         <v>382</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
@@ -5573,7 +5898,7 @@
         <v>385</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
@@ -5913,7 +6238,7 @@
         <v>405</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
@@ -6176,7 +6501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E85"/>
   <sheetViews>
@@ -6690,7 +7015,7 @@
         <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E30" t="s">
         <v>644</v>
@@ -7636,7 +7961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -7937,7 +8262,7 @@
         <v>737</v>
       </c>
       <c r="E17" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
@@ -8064,7 +8389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
@@ -8106,7 +8431,7 @@
         <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="D2" t="s">
         <v>776</v>
@@ -8157,7 +8482,7 @@
         <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D5" t="s">
         <v>845</v>
@@ -8174,7 +8499,7 @@
         <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D6" t="s">
         <v>846</v>
@@ -8191,13 +8516,13 @@
         <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D7" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
@@ -8208,10 +8533,10 @@
         <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D8" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>902</v>
@@ -8225,10 +8550,10 @@
         <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D9" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>903</v>
@@ -8242,10 +8567,10 @@
         <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D10" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>904</v>
@@ -8259,10 +8584,10 @@
         <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D11" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>229</v>
@@ -8276,10 +8601,10 @@
         <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D12" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>905</v>
@@ -8536,12 +8861,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8554,7 +8879,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>907</v>
@@ -8568,142 +8893,142 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>776</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="C4" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>928</v>
+      <c r="B6" s="8" t="s">
+        <v>925</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.75">
@@ -8711,13 +9036,13 @@
         <v>721</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.75">
@@ -8731,201 +9056,804 @@
     <hyperlink ref="B2" location="HospitalDischargeReportEhn!A1" display="HospitalDischargeReportEhn" xr:uid="{AB7F0F25-8B7A-4B62-88F7-D619E05DB9DD}"/>
     <hyperlink ref="B3" location="HeaderHdrEhn!A1" display="HeaderHdrEhn" xr:uid="{4E48F0CE-BCB6-4636-A5B0-F2FFC24FCBDC}"/>
     <hyperlink ref="B4" location="SubjectHdrEhn!A1" display="SubjectHdrEhn" xr:uid="{B5D359F1-F556-40F6-92A5-88D24C5B6145}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="39.58984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.54296875" customWidth="1"/>
-    <col min="4" max="4" width="38.76953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.31640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.04296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.58984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="66.04296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B2" t="s">
-        <v>960</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A2</f>
-        <v>http://hl7.eu/fhir/hdr/ConceptMap/encounter2FHIR-eu-hdr</v>
-      </c>
-      <c r="D2" t="s">
-        <v>914</v>
-      </c>
-      <c r="E2" t="s">
-        <v>916</v>
-      </c>
-      <c r="F2" t="s">
-        <v>918</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="I2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>957</v>
-      </c>
-      <c r="B3" t="s">
-        <v>961</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C5" si="0">"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A3</f>
-        <v>http://hl7.eu/fhir/hdr/ConceptMap/HeaderMeta2FHIR-eu-hdr</v>
-      </c>
-      <c r="D3" t="s">
-        <v>915</v>
-      </c>
-      <c r="E3" t="s">
-        <v>917</v>
-      </c>
-      <c r="F3" t="s">
-        <v>918</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="I3" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>958</v>
-      </c>
-      <c r="B4" t="s">
-        <v>962</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.eu/fhir/hdr/ConceptMap/HeaderParticipants2FHIR-eu-hdr</v>
-      </c>
-      <c r="D4" t="s">
-        <v>914</v>
-      </c>
-      <c r="E4" t="s">
-        <v>916</v>
-      </c>
-      <c r="F4" t="s">
-        <v>918</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="I4" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>959</v>
-      </c>
-      <c r="B5" t="s">
-        <v>963</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.eu/fhir/hdr/ConceptMap/hdrHeader2FHIR-eu-hdr</v>
-      </c>
-      <c r="D5" t="s">
-        <v>914</v>
-      </c>
-      <c r="E5" t="s">
-        <v>916</v>
-      </c>
-      <c r="F5" t="s">
-        <v>918</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="I5" t="s">
-        <v>965</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" display="http://hl7.eu/fhir/hdr/StructureDefinition/Encounter-eu-hdr" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="G3" r:id="rId3" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/HospitalDischargeReport" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
-    <hyperlink ref="H3" r:id="rId4" display="http://hl7.eu/fhir/hdr/StructureDefinition/Composition-eu-hdr" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
-    <hyperlink ref="G4" r:id="rId5" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/HospitalDischargeReport" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
-    <hyperlink ref="H4" r:id="rId6" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Composition-hdr-eu" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
-    <hyperlink ref="H5" r:id="rId8" display="http://hl7.eu/fhir/hdr/StructureDefinition/Patient-eu-hdr" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
-    <hyperlink ref="C3:C5" r:id="rId9" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{C08B62EB-DB98-46C7-AC74-7BC01215FB75}"/>
-    <hyperlink ref="G2" r:id="rId10" xr:uid="{0DDDD9FD-CF3C-4444-BC35-C935A33601B1}"/>
+    <hyperlink ref="B6" location="AlertsEhn!A1" display="AlertsEhn" xr:uid="{47C52B71-11E3-4A6F-83EC-AFF0F2E9FA9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E37F213-E27B-45F5-A95F-36ED531F4347}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="52.86328125" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.54296875" customWidth="1"/>
+    <col min="5" max="5" width="42.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.58984375" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" customWidth="1"/>
+    <col min="8" max="8" width="64.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A2</f>
+        <v>Alerts.allergy</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <f>AlertsEhn!D2</f>
+        <v>A.2.2.1 - Allergy and Intolerance</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A3" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A2</f>
+        <v>Alerts.allergy</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>AlertsEhn!D2</f>
+        <v>A.2.2.1 - Allergy and Intolerance</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A4" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A3</f>
+        <v>Alerts.allergy.description</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>AlertsEhn!D3</f>
+        <v>A.2.2.1.1 - Allergy description</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A4</f>
+        <v>Alerts.allergy.typeOfPropensity</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>AlertsEhn!D4</f>
+        <v>A.2.2.1.2 - Type of propensity</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A5</f>
+        <v>Alerts.allergy.manifestation</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f>AlertsEhn!D5</f>
+        <v>A.2.2.1.3 - Allergy manifestation</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A5</f>
+        <v>Alerts.allergy.manifestation</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>AlertsEhn!D5</f>
+        <v>A.2.2.1.3 - Allergy manifestation</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A8" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A6</f>
+        <v>Alerts.allergy.severity</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f>AlertsEhn!D6</f>
+        <v>A.2.2.1.4 - Severity</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A9" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A7</f>
+        <v>Alerts.allergy.criticality</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>AlertsEhn!D7</f>
+        <v>A.2.2.1.5 - Criticality</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A10" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A8</f>
+        <v>Alerts.allergy.onsetDate</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>AlertsEhn!D8</f>
+        <v>A.2.2.1.6 - Onset date</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A11</f>
+        <v>Alerts.allergy.endDate</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f>AlertsEhn!D11</f>
+        <v>A.2.2.1.7 - End date</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A14</f>
+        <v>Alerts.allergy.status</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>AlertsEhn!D14</f>
+        <v>A.2.2.1.8 - Status</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A15</f>
+        <v>Alerts.allergy.certainty</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>AlertsEhn!D15</f>
+        <v>A.2.2.1.9 - Certainty</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A16</f>
+        <v>Alerts.allergy.agent</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>AlertsEhn!D16</f>
+        <v>A.2.2.1.10 - Agent or Allergen</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A15" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A17</f>
+        <v>Alerts.medicalAlerts</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f>AlertsEhn!D17</f>
+        <v>A.2.2.2 - Medical alerts (relevant for the respective hospital stay)</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A18</f>
+        <v>Alerts.medicalAlerts.description</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f>AlertsEhn!D18</f>
+        <v>A.2.2.2.1 - Healthcare alert description</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A17" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A18</f>
+        <v>Alerts.medicalAlerts.description</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f>AlertsEhn!D18</f>
+        <v>A.2.2.2.1 - Healthcare alert description</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A18" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f>"Alerts."&amp;AlertsEhn!A18</f>
+        <v>Alerts.medicalAlerts.description</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f>AlertsEhn!D18</f>
+        <v>A.2.2.2.1 - Healthcare alert description</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{64E55043-78FA-4CEB-AB93-D68DA0F9A691}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{46A5D82B-DAEE-4A21-A5D9-BD691920A38C}"/>
+    <hyperlink ref="A4:A17" r:id="rId3" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{EA93F9A5-DD0F-4B1E-921D-486225846E27}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{7D9EC314-0131-4B34-9515-586540C56089}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{993FB968-EBD8-40B7-B419-63CF1C2CE818}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{E795B1C9-5E32-40FE-8CEA-6527077FD494}"/>
+    <hyperlink ref="B17" r:id="rId7" xr:uid="{F7137947-BE8D-4D47-97AB-F3958E4A2EC0}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{76F30556-D7BF-48F1-97DE-6E9BC5CAAE13}"/>
+    <hyperlink ref="A16" r:id="rId9" xr:uid="{5556F51A-3F60-4795-9C1C-2283D0F09059}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{04EFEC27-14F9-43F6-976D-9712277AC7C2}"/>
+    <hyperlink ref="A18" r:id="rId11" xr:uid="{71C9E175-18FB-4EE6-8338-97624CEDA9AC}"/>
+    <hyperlink ref="B18" r:id="rId12" xr:uid="{4D9679BF-3CEB-435F-B988-7D945AA1729E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="22.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="7"/>
+    <col min="3" max="3" width="15.76953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.2265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -8939,7 +9867,7 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="55.40625" customWidth="1"/>
-    <col min="2" max="2" width="59.58984375" customWidth="1"/>
+    <col min="2" max="2" width="60.1796875" customWidth="1"/>
     <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.54296875" customWidth="1"/>
     <col min="5" max="5" width="40.04296875" customWidth="1"/>
@@ -8975,10 +9903,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C2" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A2</f>
@@ -8997,10 +9925,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C3" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A3</f>
@@ -9011,7 +9939,7 @@
         <v>A.2.3.2 - Encounter note</v>
       </c>
       <c r="E3" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -9019,10 +9947,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C4" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A4</f>
@@ -9033,7 +9961,7 @@
         <v>A.2.3.3 - Admission</v>
       </c>
       <c r="E4" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -9041,10 +9969,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C5" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A5</f>
@@ -9063,10 +9991,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C6" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A6</f>
@@ -9085,10 +10013,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C7" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A7</f>
@@ -9105,15 +10033,15 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C8" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -9124,21 +10052,21 @@
         <v>A.2.3.3.3 - Admitting professional ID</v>
       </c>
       <c r="E8" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C9" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -9149,21 +10077,21 @@
         <v>A.2.3.3.3 - Admitting professional ID</v>
       </c>
       <c r="E9" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C10" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
@@ -9174,21 +10102,21 @@
         <v>A.2.3.3.4 - Admitting professional name</v>
       </c>
       <c r="E10" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C11" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
@@ -9199,21 +10127,21 @@
         <v>A.2.3.3.5 - Admitting organisation ID</v>
       </c>
       <c r="E11" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C12" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A11</f>
@@ -9224,7 +10152,7 @@
         <v>A.2.3.3.6 - Admitting organisation</v>
       </c>
       <c r="E12" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="G12" t="s">
         <v>21</v>
@@ -9232,10 +10160,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C13" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A11</f>
@@ -9246,21 +10174,21 @@
         <v>A.2.3.3.6 - Admitting organisation</v>
       </c>
       <c r="E13" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C14" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A12</f>
@@ -9279,10 +10207,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C15" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A13</f>
@@ -9304,10 +10232,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C16" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -9318,21 +10246,21 @@
         <v>A.2.3.3.8 - Referring professional ID</v>
       </c>
       <c r="E16" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C17" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -9343,21 +10271,21 @@
         <v>A.2.3.3.8 - Referring professional ID</v>
       </c>
       <c r="E17" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C18" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
@@ -9368,21 +10296,21 @@
         <v>A.2.3.3.9 - Referring professional name</v>
       </c>
       <c r="E18" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="G18" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C19" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
@@ -9393,21 +10321,21 @@
         <v>A.2.3.3.10 - Referring organisation ID</v>
       </c>
       <c r="E19" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C20" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A17</f>
@@ -9418,21 +10346,21 @@
         <v>A.2.3.3.11 - Referring organisation</v>
       </c>
       <c r="E20" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C21" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A18</f>
@@ -9451,10 +10379,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C22" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A18</f>
@@ -9465,7 +10393,7 @@
         <v>A.2.3.4 - Admission reason</v>
       </c>
       <c r="E22" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
@@ -9476,10 +10404,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C23" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A19</f>
@@ -9498,10 +10426,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C24" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A20</f>
@@ -9523,10 +10451,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C25" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A21</f>
@@ -9537,7 +10465,7 @@
         <v>A.2.3.4.3 - Admission legal status</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
@@ -9549,10 +10477,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C26" s="3" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A22</f>
@@ -9563,7 +10491,7 @@
         <v>A.2.3.5 - Discharge</v>
       </c>
       <c r="E26" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" t="s">
@@ -9572,10 +10500,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C27" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A23</f>
@@ -9594,10 +10522,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C28" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A24</f>
@@ -9616,10 +10544,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C29" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A25</f>
@@ -9630,7 +10558,7 @@
         <v>A.2.3.5.3 - Destination location</v>
       </c>
       <c r="E29" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -9638,10 +10566,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C30" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A26</f>
@@ -9660,10 +10588,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C31" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A27</f>
@@ -9682,10 +10610,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="C32" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A28</f>
@@ -9696,21 +10624,21 @@
         <v>Organization</v>
       </c>
       <c r="E32" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="G32" t="s">
         <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C33" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
@@ -9721,7 +10649,7 @@
         <v>A.2.3.6.2 - Organisation Part ID</v>
       </c>
       <c r="E33" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="G33" t="s">
         <v>21</v>
@@ -9732,10 +10660,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C34" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
@@ -9746,7 +10674,7 @@
         <v>A.2.3.6.3 - Organisation Part Name</v>
       </c>
       <c r="E34" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="G34" t="s">
         <v>22</v>
@@ -9757,10 +10685,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C35" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
@@ -9777,7 +10705,7 @@
         <v>22</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
     </row>
   </sheetData>
@@ -9824,14 +10752,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -9875,10 +10803,10 @@
     </row>
     <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C2" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A2</f>
@@ -9889,7 +10817,7 @@
         <v>A.1.1 - Identification and A.1.2 - related contact information of the Patient/subject</v>
       </c>
       <c r="E2" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -9897,10 +10825,10 @@
     </row>
     <row r="3" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C3" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A2</f>
@@ -9911,21 +10839,21 @@
         <v>A.1.1 - Identification and A.1.2 - related contact information of the Patient/subject</v>
       </c>
       <c r="E3" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C4" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A3</f>
@@ -9936,21 +10864,21 @@
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="C5" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A3</f>
@@ -9961,7 +10889,7 @@
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -9970,10 +10898,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="C6" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A4</f>
@@ -9984,7 +10912,7 @@
         <v>A.1.3.1 - Health insurance code</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -9995,10 +10923,10 @@
     </row>
     <row r="7" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="C7" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A5</f>
@@ -10009,7 +10937,7 @@
         <v>A.1.3.2 - Health insurance name</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
@@ -10020,10 +10948,10 @@
     </row>
     <row r="8" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C8" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A6</f>
@@ -10034,21 +10962,21 @@
         <v>A.1.3.3 - Health insurance number</v>
       </c>
       <c r="E8" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="C9" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A6</f>
@@ -10059,7 +10987,7 @@
         <v>A.1.3.3 - Health insurance number</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -10070,10 +10998,10 @@
     </row>
     <row r="10" spans="1:8" ht="59" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C10" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A7</f>
@@ -10090,15 +11018,15 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C11" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A8</f>
@@ -10109,21 +11037,21 @@
         <v>A.1.4.1 - Recipient identifier</v>
       </c>
       <c r="E11" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C12" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A9</f>
@@ -10134,7 +11062,7 @@
         <v>A.1.4.2 - Recipient name</v>
       </c>
       <c r="E12" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -10142,10 +11070,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C13" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A10</f>
@@ -10156,7 +11084,7 @@
         <v>A.1.4.3 - Recipient organisation ID</v>
       </c>
       <c r="E13" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
@@ -10164,10 +11092,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C14" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A11</f>
@@ -10178,7 +11106,7 @@
         <v>A.1.4.4 - Recipient organisation</v>
       </c>
       <c r="E14" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -10186,10 +11114,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C15" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A12</f>
@@ -10200,7 +11128,7 @@
         <v>A.1.4.5 - Address</v>
       </c>
       <c r="E15" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -10208,10 +11136,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C16" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A13</f>
@@ -10222,7 +11150,7 @@
         <v>A.1.4.6 - Country</v>
       </c>
       <c r="E16" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -10230,10 +11158,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C17" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A14</f>
@@ -10244,7 +11172,7 @@
         <v>A.1.4.7 - Telecom</v>
       </c>
       <c r="E17" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -10252,10 +11180,10 @@
     </row>
     <row r="18" spans="1:8" ht="59" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C18" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A15</f>
@@ -10274,10 +11202,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C19" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A15</f>
@@ -10288,21 +11216,21 @@
         <v>A.1.5 - Author (by whom the Hospital discharge report was/were authored). Multiple authors could be provided.</v>
       </c>
       <c r="E19" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C20" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A16</f>
@@ -10313,7 +11241,7 @@
         <v>A.1.5.1 - Author identifier</v>
       </c>
       <c r="E20" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
@@ -10321,10 +11249,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C21" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A17</f>
@@ -10335,21 +11263,21 @@
         <v>A.1.5.2 - Author name</v>
       </c>
       <c r="E21" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C22" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A18</f>
@@ -10360,21 +11288,21 @@
         <v>A.1.5.3 - Author organisation ID</v>
       </c>
       <c r="E22" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C23" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A19</f>
@@ -10385,7 +11313,7 @@
         <v>A.1.5.4 - Author organisation</v>
       </c>
       <c r="E23" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -10393,10 +11321,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C24" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A20</f>
@@ -10413,12 +11341,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C25" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A21</f>
@@ -10440,10 +11368,10 @@
     </row>
     <row r="26" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C26" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A21</f>
@@ -10454,21 +11382,21 @@
         <v>A.1.6 - Attester (multiple attesters could be provided)</v>
       </c>
       <c r="E26" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="G26" t="s">
         <v>36</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C27" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A22</f>
@@ -10479,7 +11407,7 @@
         <v>A.1.6.1 - Attester identifier</v>
       </c>
       <c r="E27" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -10487,10 +11415,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C28" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A23</f>
@@ -10501,18 +11429,18 @@
         <v>A.1.6.2 - Attester name</v>
       </c>
       <c r="E28" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C29" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A24</f>
@@ -10523,7 +11451,7 @@
         <v>A.1.6.3 - Attester organisation ID</v>
       </c>
       <c r="E29" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
@@ -10531,10 +11459,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C30" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A25</f>
@@ -10545,18 +11473,18 @@
         <v>A.1.6.4 - Attester organisation</v>
       </c>
       <c r="E30" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C31" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A26</f>
@@ -10573,12 +11501,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="59" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C32" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A27</f>
@@ -10600,10 +11528,10 @@
     </row>
     <row r="33" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C33" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A27</f>
@@ -10614,21 +11542,21 @@
         <v>A.1.7 - Legal authenticator (The person taking responsibility for the medical content of the document)</v>
       </c>
       <c r="E33" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C34" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A28</f>
@@ -10639,7 +11567,7 @@
         <v>A.1.7.1 - Legal authenticator identifier</v>
       </c>
       <c r="E34" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
@@ -10648,12 +11576,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C35" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A29</f>
@@ -10664,7 +11592,7 @@
         <v>A.1.7.2 - Legal authenticator name</v>
       </c>
       <c r="E35" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -10673,12 +11601,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A36" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C36" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A30</f>
@@ -10689,7 +11617,7 @@
         <v>A.1.7.3 - Legal authenticator organisation ID</v>
       </c>
       <c r="E36" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="G36" t="s">
         <v>36</v>
@@ -10698,12 +11626,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A37" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C37" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A31</f>
@@ -10714,7 +11642,7 @@
         <v>A.1.7.4 - Legal authenticator organisation</v>
       </c>
       <c r="E37" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="G37" t="s">
         <v>36</v>
@@ -10723,12 +11651,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A38" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C38" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A32</f>
@@ -10750,10 +11678,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A39" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C39" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A33</f>
@@ -10772,10 +11700,10 @@
     </row>
     <row r="40" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A40" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C40" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A34</f>
@@ -10792,15 +11720,15 @@
         <v>36</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="C41" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A34</f>
@@ -10811,21 +11739,21 @@
         <v>A.1.8.1 - Document ID</v>
       </c>
       <c r="E41" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A42" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C42" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A35</f>
@@ -10844,10 +11772,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A43" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C43" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A36</f>
@@ -10866,10 +11794,10 @@
     </row>
     <row r="44" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A44" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C44" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A37</f>
@@ -10886,15 +11814,15 @@
         <v>36</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A45" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="C45" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A37</f>
@@ -10905,21 +11833,21 @@
         <v>A.1.8.4 - Report date and time</v>
       </c>
       <c r="E45" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="G45" t="s">
         <v>36</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A46" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C46" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A38</f>
@@ -10938,10 +11866,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A47" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C47" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A39</f>
@@ -10960,10 +11888,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A48" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C48" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A40</f>
@@ -10982,10 +11910,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A49" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C49" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A41</f>
@@ -10996,7 +11924,7 @@
         <v>A.1.8.8 - Language</v>
       </c>
       <c r="E49" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -11004,10 +11932,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A50" s="1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C50" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A42</f>
@@ -11079,11 +12007,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53308605-9995-4388-9AF6-B118E0F0978E}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:XFD45"/>
     </sheetView>
   </sheetViews>
@@ -11115,24 +12043,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="D2" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -11141,7 +12069,7 @@
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>872</v>
@@ -11149,7 +12077,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -11166,7 +12094,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -11183,7 +12111,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -11200,7 +12128,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -11217,7 +12145,7 @@
     </row>
     <row r="8" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -11234,7 +12162,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -11251,7 +12179,7 @@
     </row>
     <row r="10" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -11268,7 +12196,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -11285,7 +12213,7 @@
     </row>
     <row r="12" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -11302,7 +12230,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -11319,7 +12247,7 @@
     </row>
     <row r="14" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -11336,7 +12264,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
@@ -11353,7 +12281,7 @@
     </row>
     <row r="16" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="B16" t="s">
         <v>131</v>
@@ -11370,7 +12298,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -11387,7 +12315,7 @@
     </row>
     <row r="18" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -11404,7 +12332,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -11421,7 +12349,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -11438,7 +12366,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -11455,7 +12383,7 @@
     </row>
     <row r="22" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
@@ -11472,7 +12400,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
@@ -11489,7 +12417,7 @@
     </row>
     <row r="24" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -11506,7 +12434,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
@@ -11523,7 +12451,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="B26" t="s">
         <v>87</v>
@@ -11540,7 +12468,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="B27" t="s">
         <v>85</v>
@@ -11557,7 +12485,7 @@
     </row>
     <row r="28" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
@@ -11574,7 +12502,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="B29" t="s">
         <v>87</v>
@@ -11591,7 +12519,7 @@
     </row>
     <row r="30" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="B30" t="s">
         <v>86</v>
@@ -11608,7 +12536,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
@@ -11625,7 +12553,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="B32" t="s">
         <v>87</v>
@@ -11642,7 +12570,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="B33" t="s">
         <v>87</v>
@@ -11659,7 +12587,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="B34" t="s">
         <v>87</v>
@@ -11676,7 +12604,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
@@ -11693,7 +12621,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="B36" t="s">
         <v>87</v>
@@ -11710,7 +12638,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="B37" t="s">
         <v>87</v>
@@ -11722,12 +12650,12 @@
         <v>837</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
@@ -11744,7 +12672,7 @@
     </row>
     <row r="39" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="B39" t="s">
         <v>87</v>
@@ -11761,7 +12689,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="B40" t="s">
         <v>87</v>
@@ -11778,7 +12706,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="B41" t="s">
         <v>87</v>
@@ -11795,7 +12723,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="B42" t="s">
         <v>85</v>
@@ -12058,7 +12986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4545E7B6-05A5-48FE-9D21-7AE3B62687DD}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -12109,10 +13037,10 @@
     </row>
     <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C2" t="str">
         <f>SubjectHdrEhn!A2</f>
@@ -12123,7 +13051,7 @@
         <v>A.1.1 - Identification of the patient/subject</v>
       </c>
       <c r="E2" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -12131,10 +13059,10 @@
     </row>
     <row r="3" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C3" t="str">
         <f>SubjectHdrEhn!A3</f>
@@ -12153,10 +13081,10 @@
     </row>
     <row r="4" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C4" t="str">
         <f>SubjectHdrEhn!A4</f>
@@ -12175,10 +13103,10 @@
     </row>
     <row r="5" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C5" t="str">
         <f>SubjectHdrEhn!A5</f>
@@ -12197,10 +13125,10 @@
     </row>
     <row r="6" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C6" t="str">
         <f>SubjectHdrEhn!A6</f>
@@ -12219,10 +13147,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C7" t="str">
         <f>SubjectHdrEhn!A7</f>
@@ -12233,21 +13161,21 @@
         <v>A.1.1.5 - Nationality</v>
       </c>
       <c r="E7" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C8" t="str">
         <f>SubjectHdrEhn!A8</f>
@@ -12266,10 +13194,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C9" t="str">
         <f>SubjectHdrEhn!A9</f>
@@ -12280,7 +13208,7 @@
         <v>A.1.1.7 - Country of affiliation</v>
       </c>
       <c r="E9" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>37</v>
@@ -12291,10 +13219,10 @@
     </row>
     <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C10" t="str">
         <f>SubjectHdrEhn!A10</f>
@@ -12313,10 +13241,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C11" t="str">
         <f>SubjectHdrEhn!A11</f>
@@ -12335,10 +13263,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C12" t="str">
         <f>SubjectHdrEhn!A12</f>
@@ -12357,10 +13285,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C13" t="str">
         <f>SubjectHdrEhn!A13</f>
@@ -12379,10 +13307,10 @@
     </row>
     <row r="14" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C14" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -12401,10 +13329,10 @@
     </row>
     <row r="15" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C15" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -12415,21 +13343,21 @@
         <v>A.1.2.2 - Preferred health professional (HP) - This section can be repeated and linked to any specific information in the document, for example a link between a rare disease problem and the rare disease specialist responsible for the care of the individual patient (this section).</v>
       </c>
       <c r="E15" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C16" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -12440,7 +13368,7 @@
         <v>A.1.2.2 - Preferred health professional (HP) - This section can be repeated and linked to any specific information in the document, for example a link between a rare disease problem and the rare disease specialist responsible for the care of the individual patient (this section).</v>
       </c>
       <c r="E16" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="G16" t="s">
         <v>36</v>
@@ -12448,10 +13376,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C17" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -12462,21 +13390,21 @@
         <v>A.1.2.2.1 - Identifier of the HP</v>
       </c>
       <c r="E17" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C18" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -12487,7 +13415,7 @@
         <v>A.1.2.2.1 - Identifier of the HP</v>
       </c>
       <c r="E18" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -12495,10 +13423,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C19" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -12509,21 +13437,21 @@
         <v>A.1.2.2.2 - Name of the HP</v>
       </c>
       <c r="E19" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C20" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -12534,7 +13462,7 @@
         <v>A.1.2.2.2 - Name of the HP</v>
       </c>
       <c r="E20" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
@@ -12542,10 +13470,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C21" t="str">
         <f>SubjectHdrEhn!A17</f>
@@ -12556,7 +13484,7 @@
         <v>A.1.2.2.3 - Role of the HP</v>
       </c>
       <c r="E21" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>36</v>
@@ -12564,10 +13492,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C22" t="str">
         <f>SubjectHdrEhn!A18</f>
@@ -12578,7 +13506,7 @@
         <v>A.1.2.2.4 - HP Organisation</v>
       </c>
       <c r="E22" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
@@ -12586,10 +13514,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C23" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -12600,21 +13528,21 @@
         <v>A.1.2.2.5 - Address</v>
       </c>
       <c r="E23" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C24" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -12625,7 +13553,7 @@
         <v>A.1.2.2.5 - Address</v>
       </c>
       <c r="E24" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
@@ -12633,10 +13561,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C25" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -12647,21 +13575,21 @@
         <v>A.1.2.2.6 - Telecom</v>
       </c>
       <c r="E25" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C26" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -12672,7 +13600,7 @@
         <v>A.1.2.2.6 - Telecom</v>
       </c>
       <c r="E26" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="G26" t="s">
         <v>36</v>
@@ -12680,10 +13608,10 @@
     </row>
     <row r="27" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C27" t="str">
         <f>SubjectHdrEhn!A21</f>
@@ -12702,10 +13630,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C28" t="str">
         <f>SubjectHdrEhn!A22</f>
@@ -12716,7 +13644,7 @@
         <v>A.1.2.3.1 - Role of that person</v>
       </c>
       <c r="E28" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -12724,10 +13652,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C29" t="str">
         <f>SubjectHdrEhn!A23</f>
@@ -12746,10 +13674,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C30" t="str">
         <f>SubjectHdrEhn!A24</f>
@@ -12768,10 +13696,10 @@
     </row>
     <row r="31" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C31" t="str">
         <f>SubjectHdrEhn!A25</f>
@@ -12790,10 +13718,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C32" t="str">
         <f>SubjectHdrEhn!A26</f>
@@ -12812,10 +13740,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C33" t="str">
         <f>SubjectHdrEhn!A27</f>
@@ -12834,10 +13762,10 @@
     </row>
     <row r="34" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C34" t="str">
         <f>SubjectHdrEhn!A28</f>
@@ -12901,7 +13829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355ACA33-DBD3-41F8-95AB-8F5629599B4E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -12935,7 +13863,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -12952,7 +13880,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
@@ -12969,7 +13897,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="B4" t="s">
         <v>131</v>
@@ -12986,7 +13914,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -13003,7 +13931,7 @@
     </row>
     <row r="6" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -13020,7 +13948,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -13037,7 +13965,7 @@
     </row>
     <row r="8" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -13054,7 +13982,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -13071,7 +13999,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -13088,7 +14016,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -13105,7 +14033,7 @@
     </row>
     <row r="12" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -13122,7 +14050,7 @@
     </row>
     <row r="13" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -13139,7 +14067,7 @@
     </row>
     <row r="14" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -13156,7 +14084,7 @@
     </row>
     <row r="15" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -13173,7 +14101,7 @@
     </row>
     <row r="16" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -13190,7 +14118,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -13207,7 +14135,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -13224,7 +14152,7 @@
     </row>
     <row r="19" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -13241,7 +14169,7 @@
     </row>
     <row r="20" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -13258,7 +14186,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -13275,7 +14203,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -13292,7 +14220,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -13309,7 +14237,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
@@ -13326,7 +14254,7 @@
     </row>
     <row r="25" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="B25" t="s">
         <v>131</v>
@@ -13343,7 +14271,7 @@
     </row>
     <row r="26" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="B26" t="s">
         <v>86</v>
@@ -13360,7 +14288,7 @@
     </row>
     <row r="27" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="B27" t="s">
         <v>86</v>
@@ -13377,7 +14305,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
@@ -13390,460 +14318,6 @@
       </c>
       <c r="E28" s="5" t="s">
         <v>871</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="45.1328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -8,37 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4455C5-B9FB-4FD9-B907-476D7314ABAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0BAFAB-D085-46E4-9013-FBBAB1E4F046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="17" r:id="rId1"/>
     <sheet name="LogicalModels" sheetId="15" r:id="rId2"/>
-    <sheet name="AdvanceDirectives2FHIREuHdr" sheetId="23" r:id="rId3"/>
-    <sheet name="AdvanceDirectivesEhn" sheetId="6" r:id="rId4"/>
-    <sheet name="Hdr2FHIREuHdr" sheetId="22" r:id="rId5"/>
-    <sheet name="HospitalDischargeReportEhn" sheetId="13" r:id="rId6"/>
-    <sheet name="Alerts2FHIREuHdr" sheetId="21" r:id="rId7"/>
-    <sheet name="AlertsEhn" sheetId="7" r:id="rId8"/>
-    <sheet name="Encounter2FHIREuHdr" sheetId="1" r:id="rId9"/>
-    <sheet name="Header2FHIREuHdr" sheetId="4" r:id="rId10"/>
-    <sheet name="HeaderHdrEhn" sheetId="16" r:id="rId11"/>
-    <sheet name="Subject2FHIREuHdr" sheetId="19" r:id="rId12"/>
-    <sheet name="SubjectHdrEhn" sheetId="18" r:id="rId13"/>
-    <sheet name="AdmissionEvaluationEhn" sheetId="5" r:id="rId14"/>
-    <sheet name="DischargeDetailsEhn" sheetId="8" r:id="rId15"/>
-    <sheet name="EncounterEhn" sheetId="9" r:id="rId16"/>
-    <sheet name="HospitalStayEhn" sheetId="10" r:id="rId17"/>
-    <sheet name="PatientHistoryEhn" sheetId="11" r:id="rId18"/>
-    <sheet name="RecommendationsEhn" sheetId="12" r:id="rId19"/>
+    <sheet name="Recommendations2FHIREuHdr" sheetId="26" r:id="rId3"/>
+    <sheet name="RecommendationsHdrEhn" sheetId="12" r:id="rId4"/>
+    <sheet name="AdvanceDirectives2FHIREuHdr" sheetId="23" r:id="rId5"/>
+    <sheet name="AdvanceDirectivesEhn" sheetId="6" r:id="rId6"/>
+    <sheet name="Hdr2FHIREuHdr" sheetId="22" r:id="rId7"/>
+    <sheet name="HospitalDischargeReportEhn" sheetId="13" r:id="rId8"/>
+    <sheet name="Alerts2FHIREuHdr" sheetId="21" r:id="rId9"/>
+    <sheet name="AlertsEhn" sheetId="7" r:id="rId10"/>
+    <sheet name="Encounter2FHIREuHdr" sheetId="1" r:id="rId11"/>
+    <sheet name="Header2FHIREuHdr" sheetId="4" r:id="rId12"/>
+    <sheet name="HeaderHdrEhn" sheetId="16" r:id="rId13"/>
+    <sheet name="Subject2FHIREuHdr" sheetId="19" r:id="rId14"/>
+    <sheet name="SubjectHdrEhn" sheetId="18" r:id="rId15"/>
+    <sheet name="AdmissionEvaluationEhn" sheetId="5" r:id="rId16"/>
+    <sheet name="DischargeDetailsEhn" sheetId="8" r:id="rId17"/>
+    <sheet name="EncounterEhn" sheetId="9" r:id="rId18"/>
+    <sheet name="HospitalStayEhn" sheetId="10" r:id="rId19"/>
+    <sheet name="PatientHistoryEhn" sheetId="11" r:id="rId20"/>
+    <sheet name="PlanOfCareHdrEhn" sheetId="24" r:id="rId21"/>
+    <sheet name="MedicationSummaryHdrEhn" sheetId="25" r:id="rId22"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Header2FHIREuHdr!$A$1:$H$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Subject2FHIREuHdr!$A$1:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Header2FHIREuHdr!$A$1:$H$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Subject2FHIREuHdr!$A$1:$H$34</definedName>
     <definedName name="CENEN13606Lekarska_prepustacia_sprava">'[1]Hospital Discharge Report '!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="1219">
   <si>
     <t>Group Source</t>
   </si>
@@ -3712,6 +3715,24 @@
   </si>
   <si>
     <t xml:space="preserve">Composition.section:sectionPayers.entry.ofType(Coverage)	</t>
+  </si>
+  <si>
+    <t>Not mapped on purpose</t>
+  </si>
+  <si>
+    <t>PlanOfCare</t>
+  </si>
+  <si>
+    <t>MedicationSummary</t>
+  </si>
+  <si>
+    <t>RecommendationsHdrEhn</t>
+  </si>
+  <si>
+    <t>PlanOfCareHdrEhn</t>
+  </si>
+  <si>
+    <t>MedicationSummaryHdrEhn</t>
   </si>
 </sst>
 </file>
@@ -3821,7 +3842,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3853,6 +3874,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4247,7 +4269,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4296,7 +4318,7 @@
       <c r="A2" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>953</v>
       </c>
       <c r="C2" s="8" t="str">
@@ -4326,7 +4348,7 @@
       <c r="A3" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>954</v>
       </c>
       <c r="C3" s="8" t="str">
@@ -4356,7 +4378,7 @@
       <c r="A4" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>1058</v>
       </c>
       <c r="C4" s="8" t="str">
@@ -4416,7 +4438,7 @@
       <c r="A6" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>1173</v>
       </c>
       <c r="C6" s="8" t="str">
@@ -4489,6 +4511,10 @@
     <hyperlink ref="C7" r:id="rId11" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{F48D74C1-5F5D-4BAD-AB73-F695CFB981A9}"/>
     <hyperlink ref="H7" r:id="rId12" xr:uid="{CC32D9D7-A49C-43CB-AAA0-78A48F8D8140}"/>
     <hyperlink ref="B7" location="AdvanceDirectives2FHIREuHdr!A1" display="AdvanceDirectives2FHIREuHdr" xr:uid="{B7EC322B-2F8E-4D14-B649-AC60953EAAFF}"/>
+    <hyperlink ref="B6" location="Hdr2FHIREuHdr!A1" display="Hdr2FHIREuHdr" xr:uid="{90014F1C-BBF4-427C-AB8C-2CF5568CFC08}"/>
+    <hyperlink ref="B4" location="Subject2FHIREuHdr!A1" display="Subject2FHIREuHdr" xr:uid="{D330B993-1260-4B29-B1D3-59D6B25181CF}"/>
+    <hyperlink ref="B3" location="Header2FHIREuHdr!A1" display="Header2FHIREuHdr" xr:uid="{A965579F-F70B-4001-A1C9-3CF2969A2B62}"/>
+    <hyperlink ref="B2" location="Encounter2FHIREuHdr!A1" display="Encounter2FHIREuHdr" xr:uid="{F70E7BA2-FF60-45BB-9DF7-D74EA7E2660C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -4496,14 +4522,1236 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="22.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="7"/>
+    <col min="3" max="3" width="15.76953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.2265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="55.40625" customWidth="1"/>
+    <col min="2" max="2" width="60.1796875" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.54296875" customWidth="1"/>
+    <col min="5" max="5" width="40.04296875" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" customWidth="1"/>
+    <col min="8" max="8" width="64.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A2</f>
+        <v>Encounter.type</v>
+      </c>
+      <c r="D2" t="str">
+        <f>EncounterEhn!D2</f>
+        <v>A.2.3.1 - Encounter type</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A3" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A3</f>
+        <v>Encounter.note</v>
+      </c>
+      <c r="D3" t="str">
+        <f>EncounterEhn!D3</f>
+        <v>A.2.3.2 - Encounter note</v>
+      </c>
+      <c r="E3" t="s">
+        <v>985</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A4" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A4</f>
+        <v>Encounter.admission</v>
+      </c>
+      <c r="D4" t="str">
+        <f>EncounterEhn!D4</f>
+        <v>A.2.3.3 - Admission</v>
+      </c>
+      <c r="E4" t="s">
+        <v>986</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A5</f>
+        <v>Encounter.admission.urgency</v>
+      </c>
+      <c r="D5" t="str">
+        <f>EncounterEhn!D5</f>
+        <v>A.2.3.3.1 - Admission urgency</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A6</f>
+        <v>Encounter.admission.date</v>
+      </c>
+      <c r="D6" t="str">
+        <f>EncounterEhn!D6</f>
+        <v>A.2.3.3.2 - Admission date</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A7</f>
+        <v>Encounter.admission.admitter</v>
+      </c>
+      <c r="D7" t="str">
+        <f>EncounterEhn!D7</f>
+        <v>Admitting professional</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A8" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
+        <v>Encounter.admission.admitter.identifier</v>
+      </c>
+      <c r="D8" t="str">
+        <f>EncounterEhn!D8</f>
+        <v>A.2.3.3.3 - Admitting professional ID</v>
+      </c>
+      <c r="E8" t="s">
+        <v>990</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A9" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
+        <v>Encounter.admission.admitter.identifier</v>
+      </c>
+      <c r="D9" t="str">
+        <f>EncounterEhn!D8</f>
+        <v>A.2.3.3.3 - Admitting professional ID</v>
+      </c>
+      <c r="E9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A10" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
+        <v>Encounter.admission.admitter.name</v>
+      </c>
+      <c r="D10" t="str">
+        <f>EncounterEhn!D9</f>
+        <v>A.2.3.3.4 - Admitting professional name</v>
+      </c>
+      <c r="E10" t="s">
+        <v>992</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
+        <v>Encounter.admission.admitter.organizationID</v>
+      </c>
+      <c r="D11" t="str">
+        <f>EncounterEhn!D10</f>
+        <v>A.2.3.3.5 - Admitting organisation ID</v>
+      </c>
+      <c r="E11" t="s">
+        <v>994</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A11</f>
+        <v>Encounter.admission.admitter.organization</v>
+      </c>
+      <c r="D12" t="str">
+        <f>EncounterEhn!D11</f>
+        <v>A.2.3.3.6 - Admitting organisation</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A11</f>
+        <v>Encounter.admission.admitter.organization</v>
+      </c>
+      <c r="D13" t="str">
+        <f>EncounterEhn!D11</f>
+        <v>A.2.3.3.6 - Admitting organisation</v>
+      </c>
+      <c r="E13" t="s">
+        <v>996</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A12</f>
+        <v>Encounter.admission.source</v>
+      </c>
+      <c r="D14" t="str">
+        <f>EncounterEhn!D12</f>
+        <v>A.2.3.3.7 - Admit Source</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A15" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C15" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A13</f>
+        <v>Encounter.admission.referringHP</v>
+      </c>
+      <c r="D15" t="str">
+        <f>EncounterEhn!D13</f>
+        <v>Referring professional</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C16" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
+        <v>Encounter.admission.referringHP.identifier</v>
+      </c>
+      <c r="D16" t="str">
+        <f>EncounterEhn!D14</f>
+        <v>A.2.3.3.8 - Referring professional ID</v>
+      </c>
+      <c r="E16" t="s">
+        <v>990</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A17" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C17" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
+        <v>Encounter.admission.referringHP.identifier</v>
+      </c>
+      <c r="D17" t="str">
+        <f>EncounterEhn!D14</f>
+        <v>A.2.3.3.8 - Referring professional ID</v>
+      </c>
+      <c r="E17" t="s">
+        <v>991</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A18" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C18" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
+        <v>Encounter.admission.referringHP.name</v>
+      </c>
+      <c r="D18" t="str">
+        <f>EncounterEhn!D15</f>
+        <v>A.2.3.3.9 - Referring professional name</v>
+      </c>
+      <c r="E18" t="s">
+        <v>992</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A19" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C19" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
+        <v>Encounter.admission.referringHP.organizationID</v>
+      </c>
+      <c r="D19" t="str">
+        <f>EncounterEhn!D16</f>
+        <v>A.2.3.3.10 - Referring organisation ID</v>
+      </c>
+      <c r="E19" t="s">
+        <v>994</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A20" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C20" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A17</f>
+        <v>Encounter.admission.referringHP.organization</v>
+      </c>
+      <c r="D20" t="str">
+        <f>EncounterEhn!D17</f>
+        <v>A.2.3.3.11 - Referring organisation</v>
+      </c>
+      <c r="E20" t="s">
+        <v>996</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A21" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C21" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A18</f>
+        <v>Encounter.admissionReason</v>
+      </c>
+      <c r="D21" t="str">
+        <f>EncounterEhn!D18</f>
+        <v>A.2.3.4 - Admission reason</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A22" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C22" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A18</f>
+        <v>Encounter.admissionReason</v>
+      </c>
+      <c r="D22" t="str">
+        <f>EncounterEhn!D18</f>
+        <v>A.2.3.4 - Admission reason</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A23" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C23" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A19</f>
+        <v>Encounter.admissionReason.code</v>
+      </c>
+      <c r="D23" t="str">
+        <f>EncounterEhn!D19</f>
+        <v>A.2.3.4.1 - Admission reason</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A24" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C24" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A20</f>
+        <v>Encounter.admissionReason.comment</v>
+      </c>
+      <c r="D24" t="str">
+        <f>EncounterEhn!D20</f>
+        <v>A.2.3.4.2 - Admission reason comment</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A25" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C25" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A21</f>
+        <v>Encounter.admissionReason.legalStatus</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f>EncounterEhn!D21</f>
+        <v>A.2.3.4.3 - Admission legal status</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A26" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A22</f>
+        <v>Encounter.discharge</v>
+      </c>
+      <c r="D26" t="str">
+        <f>EncounterEhn!D22</f>
+        <v>A.2.3.5 - Discharge</v>
+      </c>
+      <c r="E26" t="s">
+        <v>986</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A27" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C27" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A23</f>
+        <v>Encounter.discharge.date</v>
+      </c>
+      <c r="D27" t="str">
+        <f>EncounterEhn!D23</f>
+        <v>A.2.3.5.1 - Discharge date</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A28" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C28" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A24</f>
+        <v>Encounter.discharge.destinationType</v>
+      </c>
+      <c r="D28" t="str">
+        <f>EncounterEhn!D24</f>
+        <v>A.2.3.5.2 - Discharge destination type</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A29" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C29" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A25</f>
+        <v>Encounter.discharge.destinationLocation</v>
+      </c>
+      <c r="D29" t="str">
+        <f>EncounterEhn!D25</f>
+        <v>A.2.3.5.3 - Destination location</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A30" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C30" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A26</f>
+        <v>Encounter.location</v>
+      </c>
+      <c r="D30" t="str">
+        <f>EncounterEhn!D26</f>
+        <v>A.2.3.6 - Location - All locations/departments where the patient stayed (was boarded) within the hospital.</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A31" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C31" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A27</f>
+        <v>Encounter.location.period</v>
+      </c>
+      <c r="D31" t="str">
+        <f>EncounterEhn!D27</f>
+        <v>A.2.3.6.1 - Period</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A32" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C32" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A28</f>
+        <v>Encounter.location.organization</v>
+      </c>
+      <c r="D32" t="str">
+        <f>EncounterEhn!D28</f>
+        <v>Organization</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A33" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C33" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
+        <v>Encounter.location.organization.identifier</v>
+      </c>
+      <c r="D33" t="str">
+        <f>EncounterEhn!D29</f>
+        <v>A.2.3.6.2 - Organisation Part ID</v>
+      </c>
+      <c r="E33" t="s">
+        <v>994</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A34" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C34" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
+        <v>Encounter.location.organization.name</v>
+      </c>
+      <c r="D34" t="str">
+        <f>EncounterEhn!D30</f>
+        <v>A.2.3.6.3 - Organisation Part Name</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A35" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C35" t="str">
+        <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
+        <v>Encounter.location.organization.details</v>
+      </c>
+      <c r="D35" t="str">
+        <f>EncounterEhn!D31</f>
+        <v>A.2.3.6.4 - Organisation Part Details</v>
+      </c>
+      <c r="E35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId5" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B14" r:id="rId9" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B20" r:id="rId10" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B21" r:id="rId11" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B23" r:id="rId12" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B24" r:id="rId13" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B25" r:id="rId14" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B26" r:id="rId15" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B27" r:id="rId16" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B28" r:id="rId17" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B29" r:id="rId18" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B30" r:id="rId19" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B31" r:id="rId20" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B33" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A2" r:id="rId23" xr:uid="{4F4FD587-15B5-4A0F-9801-FB674FEDACBB}"/>
+    <hyperlink ref="A3" r:id="rId24" display="http://hl7.eu/fhir/hdr/StructureDefinition/Encounter" xr:uid="{CD68210C-9D35-4AED-AC30-0DAB7AFD3E0F}"/>
+    <hyperlink ref="B9" r:id="rId25" xr:uid="{877D8623-D1D3-4BF6-B1B0-72F96A54ADF8}"/>
+    <hyperlink ref="B10" r:id="rId26" xr:uid="{7464D906-8AF1-4A52-8FBC-60505937A7F8}"/>
+    <hyperlink ref="B13" r:id="rId27" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{83AA253C-4C41-4D67-A1A0-8D40653A7257}"/>
+    <hyperlink ref="B12" r:id="rId28" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{2E438031-61D6-42B2-9C01-9738E4E3C983}"/>
+    <hyperlink ref="B15" r:id="rId29" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{8840C6EC-7A4C-4EF5-8946-B3A7DC938BDB}"/>
+    <hyperlink ref="B16" r:id="rId30" xr:uid="{BB18C541-1E17-4E4E-8715-AAA218979CC5}"/>
+    <hyperlink ref="B17" r:id="rId31" xr:uid="{9D2FC5E8-17A6-47E7-98E5-311AFAF9CE0B}"/>
+    <hyperlink ref="B19" r:id="rId32" xr:uid="{3E240603-1469-4565-B552-8834ADF1218F}"/>
+    <hyperlink ref="B18" r:id="rId33" xr:uid="{3A29CDE4-BF02-45BF-8DCB-8FCB842A6243}"/>
+    <hyperlink ref="B34" r:id="rId34" xr:uid="{E8DA1CB4-0D60-4765-A00B-1341F00BF028}"/>
+    <hyperlink ref="B35" r:id="rId35" xr:uid="{B93A9439-D6F0-4875-8DA3-253D8C20FFF5}"/>
+    <hyperlink ref="B22" r:id="rId36" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{105B392F-1172-4436-900C-C5FEF143B544}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="D48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5759,7 +7007,7 @@
         <f>HeaderHdrEhn!D42</f>
         <v>A.1.8.9 - Version</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G53" t="s">
@@ -5821,11 +7069,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53308605-9995-4388-9AF6-B118E0F0978E}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -6798,15 +8046,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4545E7B6-05A5-48FE-9D21-7AE3B62687DD}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="C19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7011,7 +8259,7 @@
       <c r="B9" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="6" t="str">
         <f>SubjectHdrEhn!A9</f>
         <v>subjectIdentification.countryOfAffiliation</v>
       </c>
@@ -7026,7 +8274,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>24</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -7447,7 +8695,7 @@
       <c r="B28" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="6" t="str">
         <f>SubjectHdrEhn!A22</f>
         <v>subjectContact.contactPerson.role</v>
       </c>
@@ -7458,7 +8706,7 @@
       <c r="E28" t="s">
         <v>1092</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7638,10 +8886,11 @@
     <hyperlink ref="A19:A33" r:id="rId39" display="http://hl7.eu/fhir/hdr/StructureDefinition/Subject" xr:uid="{A5B20C6D-F154-4EE2-9CC3-161054F13BA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355ACA33-DBD3-41F8-95AB-8F5629599B4E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -8137,7 +9386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -8459,7 +9708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -8831,7 +10080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -9378,7 +10627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
@@ -10212,1900 +11461,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E85"/>
-  <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89:E172"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>548</v>
-      </c>
-      <c r="E4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>549</v>
-      </c>
-      <c r="E5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>550</v>
-      </c>
-      <c r="E6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>551</v>
-      </c>
-      <c r="E7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>552</v>
-      </c>
-      <c r="E8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>553</v>
-      </c>
-      <c r="E9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>554</v>
-      </c>
-      <c r="E10" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>555</v>
-      </c>
-      <c r="E11" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>471</v>
-      </c>
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>556</v>
-      </c>
-      <c r="E12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>472</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>557</v>
-      </c>
-      <c r="E13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>473</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" t="s">
-        <v>558</v>
-      </c>
-      <c r="E14" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>474</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>559</v>
-      </c>
-      <c r="E15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>475</v>
-      </c>
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" t="s">
-        <v>560</v>
-      </c>
-      <c r="E16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>476</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>561</v>
-      </c>
-      <c r="E17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>562</v>
-      </c>
-      <c r="E18" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>478</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>563</v>
-      </c>
-      <c r="E19" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>479</v>
-      </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>564</v>
-      </c>
-      <c r="E20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>480</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>565</v>
-      </c>
-      <c r="E21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>481</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>566</v>
-      </c>
-      <c r="E22" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>482</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>567</v>
-      </c>
-      <c r="E23" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>483</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>568</v>
-      </c>
-      <c r="E24" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>484</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>370</v>
-      </c>
-      <c r="D25" t="s">
-        <v>569</v>
-      </c>
-      <c r="E25" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
-        <v>485</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>570</v>
-      </c>
-      <c r="E26" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
-        <v>486</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>571</v>
-      </c>
-      <c r="E27" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
-        <v>487</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" t="s">
-        <v>572</v>
-      </c>
-      <c r="E28" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
-        <v>488</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E29" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
-        <v>489</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" t="s">
-        <v>950</v>
-      </c>
-      <c r="E30" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
-        <v>490</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" t="s">
-        <v>545</v>
-      </c>
-      <c r="D31" t="s">
-        <v>574</v>
-      </c>
-      <c r="E31" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
-        <v>491</v>
-      </c>
-      <c r="B32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" t="s">
-        <v>575</v>
-      </c>
-      <c r="E32" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
-        <v>492</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" t="s">
-        <v>576</v>
-      </c>
-      <c r="E33" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
-        <v>493</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" t="s">
-        <v>577</v>
-      </c>
-      <c r="E34" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
-        <v>494</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" t="s">
-        <v>578</v>
-      </c>
-      <c r="E35" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
-        <v>495</v>
-      </c>
-      <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" t="s">
-        <v>266</v>
-      </c>
-      <c r="D36" t="s">
-        <v>579</v>
-      </c>
-      <c r="E36" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>496</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>580</v>
-      </c>
-      <c r="E37" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
-        <v>497</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" t="s">
-        <v>581</v>
-      </c>
-      <c r="E38" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
-        <v>498</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>582</v>
-      </c>
-      <c r="E39" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
-        <v>499</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" t="s">
-        <v>583</v>
-      </c>
-      <c r="E40" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
-        <v>500</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>584</v>
-      </c>
-      <c r="E41" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A42" t="s">
-        <v>501</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>266</v>
-      </c>
-      <c r="D42" t="s">
-        <v>585</v>
-      </c>
-      <c r="E42" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
-        <v>502</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" t="s">
-        <v>586</v>
-      </c>
-      <c r="E43" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A44" t="s">
-        <v>503</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" t="s">
-        <v>587</v>
-      </c>
-      <c r="E44" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
-        <v>504</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" t="s">
-        <v>588</v>
-      </c>
-      <c r="E45" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A46" t="s">
-        <v>505</v>
-      </c>
-      <c r="B46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" t="s">
-        <v>589</v>
-      </c>
-      <c r="E46" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A47" t="s">
-        <v>506</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" t="s">
-        <v>590</v>
-      </c>
-      <c r="E47" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A48" t="s">
-        <v>507</v>
-      </c>
-      <c r="B48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" t="s">
-        <v>591</v>
-      </c>
-      <c r="E48" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
-        <v>508</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" t="s">
-        <v>592</v>
-      </c>
-      <c r="E49" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A50" t="s">
-        <v>509</v>
-      </c>
-      <c r="B50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" t="s">
-        <v>593</v>
-      </c>
-      <c r="E50" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A51" t="s">
-        <v>510</v>
-      </c>
-      <c r="B51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" t="s">
-        <v>594</v>
-      </c>
-      <c r="E51" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A52" t="s">
-        <v>511</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" t="s">
-        <v>595</v>
-      </c>
-      <c r="E52" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A53" t="s">
-        <v>512</v>
-      </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>596</v>
-      </c>
-      <c r="E53" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A54" t="s">
-        <v>513</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" t="s">
-        <v>597</v>
-      </c>
-      <c r="E54" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A55" t="s">
-        <v>514</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" t="s">
-        <v>598</v>
-      </c>
-      <c r="E55" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A56" t="s">
-        <v>515</v>
-      </c>
-      <c r="B56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" t="s">
-        <v>599</v>
-      </c>
-      <c r="E56" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A57" t="s">
-        <v>516</v>
-      </c>
-      <c r="B57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" t="s">
-        <v>600</v>
-      </c>
-      <c r="E57" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A58" t="s">
-        <v>517</v>
-      </c>
-      <c r="B58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" t="s">
-        <v>601</v>
-      </c>
-      <c r="E58" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A59" t="s">
-        <v>518</v>
-      </c>
-      <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" t="s">
-        <v>602</v>
-      </c>
-      <c r="E59" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A60" t="s">
-        <v>519</v>
-      </c>
-      <c r="B60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" t="s">
-        <v>603</v>
-      </c>
-      <c r="E60" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A61" t="s">
-        <v>520</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" t="s">
-        <v>604</v>
-      </c>
-      <c r="E61" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A62" t="s">
-        <v>521</v>
-      </c>
-      <c r="B62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" t="s">
-        <v>605</v>
-      </c>
-      <c r="E62" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A63" t="s">
-        <v>522</v>
-      </c>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" t="s">
-        <v>606</v>
-      </c>
-      <c r="E63" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A64" t="s">
-        <v>523</v>
-      </c>
-      <c r="B64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" t="s">
-        <v>607</v>
-      </c>
-      <c r="E64" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A65" t="s">
-        <v>524</v>
-      </c>
-      <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" t="s">
-        <v>608</v>
-      </c>
-      <c r="E65" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A66" t="s">
-        <v>525</v>
-      </c>
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" t="s">
-        <v>609</v>
-      </c>
-      <c r="E66" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A67" t="s">
-        <v>526</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" t="s">
-        <v>545</v>
-      </c>
-      <c r="D67" t="s">
-        <v>610</v>
-      </c>
-      <c r="E67" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A68" t="s">
-        <v>527</v>
-      </c>
-      <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" t="s">
-        <v>545</v>
-      </c>
-      <c r="D68" t="s">
-        <v>611</v>
-      </c>
-      <c r="E68" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A69" t="s">
-        <v>528</v>
-      </c>
-      <c r="B69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" t="s">
-        <v>612</v>
-      </c>
-      <c r="E69" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A70" t="s">
-        <v>529</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" t="s">
-        <v>613</v>
-      </c>
-      <c r="E70" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A71" t="s">
-        <v>530</v>
-      </c>
-      <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" t="s">
-        <v>614</v>
-      </c>
-      <c r="E71" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A72" t="s">
-        <v>531</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" t="s">
-        <v>615</v>
-      </c>
-      <c r="E72" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A73" t="s">
-        <v>532</v>
-      </c>
-      <c r="B73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" t="s">
-        <v>616</v>
-      </c>
-      <c r="E73" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A74" t="s">
-        <v>533</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" t="s">
-        <v>617</v>
-      </c>
-      <c r="E74" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A75" t="s">
-        <v>534</v>
-      </c>
-      <c r="B75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75" t="s">
-        <v>618</v>
-      </c>
-      <c r="E75" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A76" t="s">
-        <v>535</v>
-      </c>
-      <c r="B76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" t="s">
-        <v>619</v>
-      </c>
-      <c r="E76" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A77" t="s">
-        <v>536</v>
-      </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" t="s">
-        <v>89</v>
-      </c>
-      <c r="D77" t="s">
-        <v>620</v>
-      </c>
-      <c r="E77" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A78" t="s">
-        <v>537</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" t="s">
-        <v>621</v>
-      </c>
-      <c r="E78" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A79" t="s">
-        <v>538</v>
-      </c>
-      <c r="B79" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" t="s">
-        <v>622</v>
-      </c>
-      <c r="E79" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A80" t="s">
-        <v>539</v>
-      </c>
-      <c r="B80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" t="s">
-        <v>623</v>
-      </c>
-      <c r="E80" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A81" t="s">
-        <v>540</v>
-      </c>
-      <c r="B81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" t="s">
-        <v>624</v>
-      </c>
-      <c r="E81" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A82" t="s">
-        <v>541</v>
-      </c>
-      <c r="B82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" t="s">
-        <v>625</v>
-      </c>
-      <c r="E82" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A83" t="s">
-        <v>542</v>
-      </c>
-      <c r="B83" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" t="s">
-        <v>89</v>
-      </c>
-      <c r="D83" t="s">
-        <v>626</v>
-      </c>
-      <c r="E83" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A84" t="s">
-        <v>543</v>
-      </c>
-      <c r="B84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" t="s">
-        <v>627</v>
-      </c>
-      <c r="E84" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A85" t="s">
-        <v>544</v>
-      </c>
-      <c r="B85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" t="s">
-        <v>628</v>
-      </c>
-      <c r="E85" t="s">
-        <v>696</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="32.31640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.86328125" customWidth="1"/>
-    <col min="5" max="5" width="230.6796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>720</v>
-      </c>
-      <c r="E2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>698</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>721</v>
-      </c>
-      <c r="E3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>722</v>
-      </c>
-      <c r="E4" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>700</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>723</v>
-      </c>
-      <c r="E5" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>701</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" t="s">
-        <v>724</v>
-      </c>
-      <c r="E6" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>702</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>725</v>
-      </c>
-      <c r="E7" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>703</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>726</v>
-      </c>
-      <c r="E8" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>704</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>727</v>
-      </c>
-      <c r="E9" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>705</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>728</v>
-      </c>
-      <c r="E10" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>706</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>729</v>
-      </c>
-      <c r="E11" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>707</v>
-      </c>
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>730</v>
-      </c>
-      <c r="E12" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>708</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>731</v>
-      </c>
-      <c r="E13" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>709</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" t="s">
-        <v>732</v>
-      </c>
-      <c r="E14" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>710</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" t="s">
-        <v>733</v>
-      </c>
-      <c r="E15" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>711</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>734</v>
-      </c>
-      <c r="E16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>712</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>735</v>
-      </c>
-      <c r="E17" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>713</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>371</v>
-      </c>
-      <c r="D18" t="s">
-        <v>736</v>
-      </c>
-      <c r="E18" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>714</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>737</v>
-      </c>
-      <c r="E19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>715</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" t="s">
-        <v>738</v>
-      </c>
-      <c r="E20" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>716</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>739</v>
-      </c>
-      <c r="E21" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>717</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" t="s">
-        <v>740</v>
-      </c>
-      <c r="E22" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>718</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>741</v>
-      </c>
-      <c r="E23" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>719</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>742</v>
-      </c>
-      <c r="E24" t="s">
-        <v>760</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -12274,8 +11635,8 @@
       <c r="A12" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>928</v>
+      <c r="B12" s="8" t="s">
+        <v>1216</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>937</v>
@@ -12283,6 +11644,32 @@
       <c r="D12" s="9" t="s">
         <v>971</v>
       </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A14" s="17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
@@ -12294,21 +11681,1930 @@
     <hyperlink ref="B4" location="SubjectHdrEhn!A1" display="SubjectHdrEhn" xr:uid="{B5D359F1-F556-40F6-92A5-88D24C5B6145}"/>
     <hyperlink ref="B6" location="AlertsEhn!A1" display="AlertsEhn" xr:uid="{47C52B71-11E3-4A6F-83EC-AFF0F2E9FA9D}"/>
     <hyperlink ref="B5" location="AdvanceDirectivesEhn!A1" display="AdvanceDirectivesEhn" xr:uid="{5848496C-B2CF-4742-9331-F1C87FAA1365}"/>
+    <hyperlink ref="B12" location="RecommendationsEhn!A1" display="RecommendationsEhn" xr:uid="{B8E8BDE3-F1C2-4618-AA70-91D62288C458}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89:E172"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>548</v>
+      </c>
+      <c r="E4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>552</v>
+      </c>
+      <c r="E8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>553</v>
+      </c>
+      <c r="E9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>554</v>
+      </c>
+      <c r="E10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>555</v>
+      </c>
+      <c r="E11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>556</v>
+      </c>
+      <c r="E12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>557</v>
+      </c>
+      <c r="E13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" t="s">
+        <v>558</v>
+      </c>
+      <c r="E14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>559</v>
+      </c>
+      <c r="E15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>475</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>560</v>
+      </c>
+      <c r="E16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>561</v>
+      </c>
+      <c r="E17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>563</v>
+      </c>
+      <c r="E19" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>564</v>
+      </c>
+      <c r="E20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>565</v>
+      </c>
+      <c r="E21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>481</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>566</v>
+      </c>
+      <c r="E22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>567</v>
+      </c>
+      <c r="E23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>483</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>568</v>
+      </c>
+      <c r="E24" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>484</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D25" t="s">
+        <v>569</v>
+      </c>
+      <c r="E25" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>485</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>570</v>
+      </c>
+      <c r="E26" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>486</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>571</v>
+      </c>
+      <c r="E27" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>487</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>572</v>
+      </c>
+      <c r="E28" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>488</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E29" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>489</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>950</v>
+      </c>
+      <c r="E30" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>490</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>545</v>
+      </c>
+      <c r="D31" t="s">
+        <v>574</v>
+      </c>
+      <c r="E31" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>491</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>575</v>
+      </c>
+      <c r="E32" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>492</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>576</v>
+      </c>
+      <c r="E33" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>493</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>577</v>
+      </c>
+      <c r="E34" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>494</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>578</v>
+      </c>
+      <c r="E35" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>495</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" t="s">
+        <v>579</v>
+      </c>
+      <c r="E36" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>496</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>580</v>
+      </c>
+      <c r="E37" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>497</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>581</v>
+      </c>
+      <c r="E38" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>498</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>582</v>
+      </c>
+      <c r="E39" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>499</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>583</v>
+      </c>
+      <c r="E40" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>500</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>584</v>
+      </c>
+      <c r="E41" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>501</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" t="s">
+        <v>585</v>
+      </c>
+      <c r="E42" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>502</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>586</v>
+      </c>
+      <c r="E43" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>503</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>587</v>
+      </c>
+      <c r="E44" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>504</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>588</v>
+      </c>
+      <c r="E45" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A46" t="s">
+        <v>505</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>589</v>
+      </c>
+      <c r="E46" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
+        <v>506</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>590</v>
+      </c>
+      <c r="E47" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>507</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>591</v>
+      </c>
+      <c r="E48" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>508</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
+        <v>592</v>
+      </c>
+      <c r="E49" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A50" t="s">
+        <v>509</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>593</v>
+      </c>
+      <c r="E50" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A51" t="s">
+        <v>510</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>594</v>
+      </c>
+      <c r="E51" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A52" t="s">
+        <v>511</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>595</v>
+      </c>
+      <c r="E52" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A53" t="s">
+        <v>512</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>596</v>
+      </c>
+      <c r="E53" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A54" t="s">
+        <v>513</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>597</v>
+      </c>
+      <c r="E54" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A55" t="s">
+        <v>514</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" t="s">
+        <v>598</v>
+      </c>
+      <c r="E55" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A56" t="s">
+        <v>515</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>599</v>
+      </c>
+      <c r="E56" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A57" t="s">
+        <v>516</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>600</v>
+      </c>
+      <c r="E57" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A58" t="s">
+        <v>517</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>601</v>
+      </c>
+      <c r="E58" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A59" t="s">
+        <v>518</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>602</v>
+      </c>
+      <c r="E59" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A60" t="s">
+        <v>519</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" t="s">
+        <v>603</v>
+      </c>
+      <c r="E60" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A61" t="s">
+        <v>520</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" t="s">
+        <v>604</v>
+      </c>
+      <c r="E61" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A62" t="s">
+        <v>521</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" t="s">
+        <v>605</v>
+      </c>
+      <c r="E62" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A63" t="s">
+        <v>522</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>606</v>
+      </c>
+      <c r="E63" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A64" t="s">
+        <v>523</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" t="s">
+        <v>607</v>
+      </c>
+      <c r="E64" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A65" t="s">
+        <v>524</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" t="s">
+        <v>608</v>
+      </c>
+      <c r="E65" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A66" t="s">
+        <v>525</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" t="s">
+        <v>609</v>
+      </c>
+      <c r="E66" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A67" t="s">
+        <v>526</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>545</v>
+      </c>
+      <c r="D67" t="s">
+        <v>610</v>
+      </c>
+      <c r="E67" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A68" t="s">
+        <v>527</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>545</v>
+      </c>
+      <c r="D68" t="s">
+        <v>611</v>
+      </c>
+      <c r="E68" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A69" t="s">
+        <v>528</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>612</v>
+      </c>
+      <c r="E69" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A70" t="s">
+        <v>529</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" t="s">
+        <v>613</v>
+      </c>
+      <c r="E70" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A71" t="s">
+        <v>530</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>614</v>
+      </c>
+      <c r="E71" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A72" t="s">
+        <v>531</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" t="s">
+        <v>615</v>
+      </c>
+      <c r="E72" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A73" t="s">
+        <v>532</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" t="s">
+        <v>616</v>
+      </c>
+      <c r="E73" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A74" t="s">
+        <v>533</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" t="s">
+        <v>617</v>
+      </c>
+      <c r="E74" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A75" t="s">
+        <v>534</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>618</v>
+      </c>
+      <c r="E75" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A76" t="s">
+        <v>535</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" t="s">
+        <v>619</v>
+      </c>
+      <c r="E76" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A77" t="s">
+        <v>536</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" t="s">
+        <v>620</v>
+      </c>
+      <c r="E77" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A78" t="s">
+        <v>537</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
+        <v>621</v>
+      </c>
+      <c r="E78" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A79" t="s">
+        <v>538</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" t="s">
+        <v>622</v>
+      </c>
+      <c r="E79" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A80" t="s">
+        <v>539</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" t="s">
+        <v>623</v>
+      </c>
+      <c r="E80" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A81" t="s">
+        <v>540</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" t="s">
+        <v>624</v>
+      </c>
+      <c r="E81" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A82" t="s">
+        <v>541</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
+        <v>625</v>
+      </c>
+      <c r="E82" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A83" t="s">
+        <v>542</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" t="s">
+        <v>626</v>
+      </c>
+      <c r="E83" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A84" t="s">
+        <v>543</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" t="s">
+        <v>627</v>
+      </c>
+      <c r="E84" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A85" t="s">
+        <v>544</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" t="s">
+        <v>628</v>
+      </c>
+      <c r="E85" t="s">
+        <v>696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007DCAF7-1680-4350-881F-C5BF1C5EE2DD}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="32.31640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.86328125" customWidth="1"/>
+    <col min="5" max="5" width="230.6796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>722</v>
+      </c>
+      <c r="E4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" t="s">
+        <v>724</v>
+      </c>
+      <c r="E6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>725</v>
+      </c>
+      <c r="E7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>703</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>727</v>
+      </c>
+      <c r="E9" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>728</v>
+      </c>
+      <c r="E10" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>729</v>
+      </c>
+      <c r="E11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE1DAE2-DDE6-40B2-80D8-3875393D5FA0}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="32.31640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.86328125" customWidth="1"/>
+    <col min="5" max="5" width="230.6796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>732</v>
+      </c>
+      <c r="E4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>733</v>
+      </c>
+      <c r="E5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>734</v>
+      </c>
+      <c r="E6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>712</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>714</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>737</v>
+      </c>
+      <c r="E9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>715</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>738</v>
+      </c>
+      <c r="E10" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>739</v>
+      </c>
+      <c r="E11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" t="s">
+        <v>740</v>
+      </c>
+      <c r="E12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>718</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>741</v>
+      </c>
+      <c r="E13" t="s">
+        <v>759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9982332A-A1F5-4CB1-9CD7-1A8117C05ACA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0086395-5F0F-4935-A0AA-2FD674C30E64}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -12358,15 +13654,15 @@
         <v>959</v>
       </c>
       <c r="C2" s="7" t="str">
-        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
-        <v>AdvanceDirectives.livingWill</v>
+        <f>LogicalModels!$B$12&amp;"."&amp;RecommendationsHdrEhn!A2</f>
+        <v>RecommendationsHdrEhn.carePlan</v>
       </c>
       <c r="D2" s="7" t="str">
-        <f>AdvanceDirectivesEhn!D2</f>
-        <v>A.2.1.1 - Living will</v>
+        <f>RecommendationsHdrEhn!D2</f>
+        <v>A.2.9.1 - Care plan</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -12383,12 +13679,12 @@
         <v>959</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
-        <v>AdvanceDirectives.livingWill</v>
+        <f>LogicalModels!$B$12&amp;"."&amp;RecommendationsHdrEhn!A3</f>
+        <v>RecommendationsHdrEhn.medicationSummary</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f>AdvanceDirectivesEhn!D2</f>
-        <v>A.2.1.1 - Living will</v>
+        <f>RecommendationsHdrEhn!D3</f>
+        <v>A.2.9.2 - Medication summary</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>1193</v>
@@ -12407,6 +13703,233 @@
         <v>1198</v>
       </c>
       <c r="C4" s="7" t="str">
+        <f>LogicalModels!$B$12&amp;"."&amp;RecommendationsHdrEhn!A4</f>
+        <v>RecommendationsHdrEhn.Recommendations</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>RecommendationsHdrEhn!D4</f>
+        <v>A.2.9.3 - Other recommendations</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2:A4" r:id="rId1" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{45D44CBE-F0CC-4442-869D-9BF835FBD062}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{3152AA6D-A1D4-4382-A88D-275D66EA5A5A}"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{579087F1-3D4D-4C58-B1C0-A3A001623A5E}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{81AE4329-33FC-4428-9F8B-C973FD650787}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{719DE8F3-DF59-4930-B76C-251077FEAEDC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="32.31640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6796875" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="230.6796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>730</v>
+      </c>
+      <c r="E3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>742</v>
+      </c>
+      <c r="E4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9982332A-A1F5-4CB1-9CD7-1A8117C05ACA}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="58.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" customWidth="1"/>
+    <col min="4" max="4" width="53.54296875" customWidth="1"/>
+    <col min="5" max="5" width="46.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.58984375" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" customWidth="1"/>
+    <col min="8" max="8" width="64.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$5</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
+        <v>AdvanceDirectives.livingWill</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <f>AdvanceDirectivesEhn!D2</f>
+        <v>A.2.1.1 - Living will</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A3" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$5</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
+        <v>AdvanceDirectives.livingWill</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>AdvanceDirectivesEhn!D2</f>
+        <v>A.2.1.1 - Living will</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
         <v>AdvanceDirectives.livingWill</v>
       </c>
@@ -12524,7 +14047,7 @@
         <v>1197</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -12595,7 +14118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -12733,15 +14256,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1AB0C0-0EC4-421E-ADB2-6E282C058046}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -12844,7 +14367,7 @@
       <c r="B4" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="13" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A4</f>
         <v>HospitalDischargeReport.body.presentedForm</v>
       </c>
@@ -13091,7 +14614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
@@ -13561,16 +15084,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E37F213-E27B-45F5-A95F-36ED531F4347}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -14019,1229 +15540,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="22.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="7"/>
-    <col min="3" max="3" width="15.76953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.2265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>945</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A15" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="55.40625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.54296875" customWidth="1"/>
-    <col min="5" max="5" width="40.04296875" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" customWidth="1"/>
-    <col min="8" max="8" width="64.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A2</f>
-        <v>Encounter.type</v>
-      </c>
-      <c r="D2" t="str">
-        <f>EncounterEhn!D2</f>
-        <v>A.2.3.1 - Encounter type</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C3" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A3</f>
-        <v>Encounter.note</v>
-      </c>
-      <c r="D3" t="str">
-        <f>EncounterEhn!D3</f>
-        <v>A.2.3.2 - Encounter note</v>
-      </c>
-      <c r="E3" t="s">
-        <v>985</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C4" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A4</f>
-        <v>Encounter.admission</v>
-      </c>
-      <c r="D4" t="str">
-        <f>EncounterEhn!D4</f>
-        <v>A.2.3.3 - Admission</v>
-      </c>
-      <c r="E4" t="s">
-        <v>986</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C5" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A5</f>
-        <v>Encounter.admission.urgency</v>
-      </c>
-      <c r="D5" t="str">
-        <f>EncounterEhn!D5</f>
-        <v>A.2.3.3.1 - Admission urgency</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A6" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C6" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A6</f>
-        <v>Encounter.admission.date</v>
-      </c>
-      <c r="D6" t="str">
-        <f>EncounterEhn!D6</f>
-        <v>A.2.3.3.2 - Admission date</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A7" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C7" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A7</f>
-        <v>Encounter.admission.admitter</v>
-      </c>
-      <c r="D7" t="str">
-        <f>EncounterEhn!D7</f>
-        <v>Admitting professional</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A8" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="C8" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
-        <v>Encounter.admission.admitter.identifier</v>
-      </c>
-      <c r="D8" t="str">
-        <f>EncounterEhn!D8</f>
-        <v>A.2.3.3.3 - Admitting professional ID</v>
-      </c>
-      <c r="E8" t="s">
-        <v>990</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A9" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="C9" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
-        <v>Encounter.admission.admitter.identifier</v>
-      </c>
-      <c r="D9" t="str">
-        <f>EncounterEhn!D8</f>
-        <v>A.2.3.3.3 - Admitting professional ID</v>
-      </c>
-      <c r="E9" t="s">
-        <v>991</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A10" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="C10" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
-        <v>Encounter.admission.admitter.name</v>
-      </c>
-      <c r="D10" t="str">
-        <f>EncounterEhn!D9</f>
-        <v>A.2.3.3.4 - Admitting professional name</v>
-      </c>
-      <c r="E10" t="s">
-        <v>992</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C11" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
-        <v>Encounter.admission.admitter.organizationID</v>
-      </c>
-      <c r="D11" t="str">
-        <f>EncounterEhn!D10</f>
-        <v>A.2.3.3.5 - Admitting organisation ID</v>
-      </c>
-      <c r="E11" t="s">
-        <v>994</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C12" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A11</f>
-        <v>Encounter.admission.admitter.organization</v>
-      </c>
-      <c r="D12" t="str">
-        <f>EncounterEhn!D11</f>
-        <v>A.2.3.3.6 - Admitting organisation</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A13" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C13" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A11</f>
-        <v>Encounter.admission.admitter.organization</v>
-      </c>
-      <c r="D13" t="str">
-        <f>EncounterEhn!D11</f>
-        <v>A.2.3.3.6 - Admitting organisation</v>
-      </c>
-      <c r="E13" t="s">
-        <v>996</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A14" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C14" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A12</f>
-        <v>Encounter.admission.source</v>
-      </c>
-      <c r="D14" t="str">
-        <f>EncounterEhn!D12</f>
-        <v>A.2.3.3.7 - Admit Source</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A15" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C15" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A13</f>
-        <v>Encounter.admission.referringHP</v>
-      </c>
-      <c r="D15" t="str">
-        <f>EncounterEhn!D13</f>
-        <v>Referring professional</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="C16" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
-        <v>Encounter.admission.referringHP.identifier</v>
-      </c>
-      <c r="D16" t="str">
-        <f>EncounterEhn!D14</f>
-        <v>A.2.3.3.8 - Referring professional ID</v>
-      </c>
-      <c r="E16" t="s">
-        <v>990</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A17" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="C17" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
-        <v>Encounter.admission.referringHP.identifier</v>
-      </c>
-      <c r="D17" t="str">
-        <f>EncounterEhn!D14</f>
-        <v>A.2.3.3.8 - Referring professional ID</v>
-      </c>
-      <c r="E17" t="s">
-        <v>991</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A18" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="C18" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
-        <v>Encounter.admission.referringHP.name</v>
-      </c>
-      <c r="D18" t="str">
-        <f>EncounterEhn!D15</f>
-        <v>A.2.3.3.9 - Referring professional name</v>
-      </c>
-      <c r="E18" t="s">
-        <v>992</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A19" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C19" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
-        <v>Encounter.admission.referringHP.organizationID</v>
-      </c>
-      <c r="D19" t="str">
-        <f>EncounterEhn!D16</f>
-        <v>A.2.3.3.10 - Referring organisation ID</v>
-      </c>
-      <c r="E19" t="s">
-        <v>994</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A20" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C20" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A17</f>
-        <v>Encounter.admission.referringHP.organization</v>
-      </c>
-      <c r="D20" t="str">
-        <f>EncounterEhn!D17</f>
-        <v>A.2.3.3.11 - Referring organisation</v>
-      </c>
-      <c r="E20" t="s">
-        <v>996</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A21" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C21" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A18</f>
-        <v>Encounter.admissionReason</v>
-      </c>
-      <c r="D21" t="str">
-        <f>EncounterEhn!D18</f>
-        <v>A.2.3.4 - Admission reason</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A22" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C22" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A18</f>
-        <v>Encounter.admissionReason</v>
-      </c>
-      <c r="D22" t="str">
-        <f>EncounterEhn!D18</f>
-        <v>A.2.3.4 - Admission reason</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A23" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C23" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A19</f>
-        <v>Encounter.admissionReason.code</v>
-      </c>
-      <c r="D23" t="str">
-        <f>EncounterEhn!D19</f>
-        <v>A.2.3.4.1 - Admission reason</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A24" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C24" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A20</f>
-        <v>Encounter.admissionReason.comment</v>
-      </c>
-      <c r="D24" t="str">
-        <f>EncounterEhn!D20</f>
-        <v>A.2.3.4.2 - Admission reason comment</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A25" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C25" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A21</f>
-        <v>Encounter.admissionReason.legalStatus</v>
-      </c>
-      <c r="D25" t="str">
-        <f>EncounterEhn!D21</f>
-        <v>A.2.3.4.3 - Admission legal status</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>984</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A26" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C26" s="3" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A22</f>
-        <v>Encounter.discharge</v>
-      </c>
-      <c r="D26" t="str">
-        <f>EncounterEhn!D22</f>
-        <v>A.2.3.5 - Discharge</v>
-      </c>
-      <c r="E26" t="s">
-        <v>986</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A27" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C27" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A23</f>
-        <v>Encounter.discharge.date</v>
-      </c>
-      <c r="D27" t="str">
-        <f>EncounterEhn!D23</f>
-        <v>A.2.3.5.1 - Discharge date</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A28" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C28" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A24</f>
-        <v>Encounter.discharge.destinationType</v>
-      </c>
-      <c r="D28" t="str">
-        <f>EncounterEhn!D24</f>
-        <v>A.2.3.5.2 - Discharge destination type</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A29" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C29" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A25</f>
-        <v>Encounter.discharge.destinationLocation</v>
-      </c>
-      <c r="D29" t="str">
-        <f>EncounterEhn!D25</f>
-        <v>A.2.3.5.3 - Destination location</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A30" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C30" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A26</f>
-        <v>Encounter.location</v>
-      </c>
-      <c r="D30" t="str">
-        <f>EncounterEhn!D26</f>
-        <v>A.2.3.6 - Location - All locations/departments where the patient stayed (was boarded) within the hospital.</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A31" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C31" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A27</f>
-        <v>Encounter.location.period</v>
-      </c>
-      <c r="D31" t="str">
-        <f>EncounterEhn!D27</f>
-        <v>A.2.3.6.1 - Period</v>
-      </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A32" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C32" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A28</f>
-        <v>Encounter.location.organization</v>
-      </c>
-      <c r="D32" t="str">
-        <f>EncounterEhn!D28</f>
-        <v>Organization</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A33" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C33" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
-        <v>Encounter.location.organization.identifier</v>
-      </c>
-      <c r="D33" t="str">
-        <f>EncounterEhn!D29</f>
-        <v>A.2.3.6.2 - Organisation Part ID</v>
-      </c>
-      <c r="E33" t="s">
-        <v>994</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A34" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C34" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
-        <v>Encounter.location.organization.name</v>
-      </c>
-      <c r="D34" t="str">
-        <f>EncounterEhn!D30</f>
-        <v>A.2.3.6.3 - Organisation Part Name</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A35" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C35" t="str">
-        <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
-        <v>Encounter.location.organization.details</v>
-      </c>
-      <c r="D35" t="str">
-        <f>EncounterEhn!D31</f>
-        <v>A.2.3.6.4 - Organisation Part Details</v>
-      </c>
-      <c r="E35" t="s">
-        <v>293</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B14" r:id="rId9" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B20" r:id="rId10" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B21" r:id="rId11" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B23" r:id="rId12" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B24" r:id="rId13" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B25" r:id="rId14" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B26" r:id="rId15" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B27" r:id="rId16" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B28" r:id="rId17" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B29" r:id="rId18" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B30" r:id="rId19" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B31" r:id="rId20" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B33" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A2" r:id="rId23" xr:uid="{4F4FD587-15B5-4A0F-9801-FB674FEDACBB}"/>
-    <hyperlink ref="A3" r:id="rId24" display="http://hl7.eu/fhir/hdr/StructureDefinition/Encounter" xr:uid="{CD68210C-9D35-4AED-AC30-0DAB7AFD3E0F}"/>
-    <hyperlink ref="B9" r:id="rId25" xr:uid="{877D8623-D1D3-4BF6-B1B0-72F96A54ADF8}"/>
-    <hyperlink ref="B10" r:id="rId26" xr:uid="{7464D906-8AF1-4A52-8FBC-60505937A7F8}"/>
-    <hyperlink ref="B13" r:id="rId27" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{83AA253C-4C41-4D67-A1A0-8D40653A7257}"/>
-    <hyperlink ref="B12" r:id="rId28" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{2E438031-61D6-42B2-9C01-9738E4E3C983}"/>
-    <hyperlink ref="B15" r:id="rId29" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{8840C6EC-7A4C-4EF5-8946-B3A7DC938BDB}"/>
-    <hyperlink ref="B16" r:id="rId30" xr:uid="{BB18C541-1E17-4E4E-8715-AAA218979CC5}"/>
-    <hyperlink ref="B17" r:id="rId31" xr:uid="{9D2FC5E8-17A6-47E7-98E5-311AFAF9CE0B}"/>
-    <hyperlink ref="B19" r:id="rId32" xr:uid="{3E240603-1469-4565-B552-8834ADF1218F}"/>
-    <hyperlink ref="B18" r:id="rId33" xr:uid="{3A29CDE4-BF02-45BF-8DCB-8FCB842A6243}"/>
-    <hyperlink ref="B34" r:id="rId34" xr:uid="{E8DA1CB4-0D60-4765-A00B-1341F00BF028}"/>
-    <hyperlink ref="B35" r:id="rId35" xr:uid="{B93A9439-D6F0-4875-8DA3-253D8C20FFF5}"/>
-    <hyperlink ref="B22" r:id="rId36" display="http://hl7.eu/fhir/ig/xpandh/hdr/StructureDefinition/Encounter-hdr-xpandh" xr:uid="{105B392F-1172-4436-900C-C5FEF143B544}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
-</worksheet>
 </file>
--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339A482B-7ADF-4D71-9B0D-14C3E2682613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8A6E6-5E9F-4A22-88C6-990520479A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="6" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
+    <workbookView xWindow="30" yWindow="-21590" windowWidth="38380" windowHeight="20860" firstSheet="15" activeTab="23" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
   <sheets>
     <sheet name="IG-groups" sheetId="31" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="1273">
   <si>
     <t>Group Source</t>
   </si>
@@ -1114,9 +1114,6 @@
   </si>
   <si>
     <t>synthesis.reasoning</t>
-  </si>
-  <si>
-    <t>CodeableReference</t>
   </si>
   <si>
     <t>Ratio</t>
@@ -4688,7 +4685,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>84</v>
@@ -4697,15 +4694,15 @@
         <v>89</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>83</v>
@@ -4714,15 +4711,15 @@
         <v>89</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>85</v>
@@ -4731,15 +4728,15 @@
         <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>85</v>
@@ -4748,15 +4745,15 @@
         <v>88</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>84</v>
@@ -4765,32 +4762,32 @@
         <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>83</v>
@@ -4799,15 +4796,15 @@
         <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>84</v>
@@ -4816,15 +4813,15 @@
         <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>83</v>
@@ -4833,15 +4830,15 @@
         <v>89</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>83</v>
@@ -4850,15 +4847,15 @@
         <v>242</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>85</v>
@@ -4867,10 +4864,10 @@
         <v>86</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -4931,7 +4928,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A2</f>
@@ -4942,7 +4939,7 @@
         <v>A.2.9.1.1 - Title</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -4956,7 +4953,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A3</f>
@@ -4967,7 +4964,7 @@
         <v>A.2.9.1.2 - Addresses</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -4981,7 +4978,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A4</f>
@@ -4992,7 +4989,7 @@
         <v>A.2.9.1.3 - Description</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -5005,7 +5002,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A5</f>
@@ -5016,7 +5013,7 @@
         <v>A.2.9.1.4 - Plan Period</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -5029,7 +5026,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A6</f>
@@ -5040,10 +5037,10 @@
         <v>A.2.9.1.5 - Other details</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>22</v>
@@ -5055,7 +5052,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A7</f>
@@ -5066,7 +5063,7 @@
         <v>A.2.9.1.6 - Activity</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -5079,7 +5076,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A8</f>
@@ -5090,7 +5087,7 @@
         <v>A.2.9.1.6.1 - Kind</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -5103,7 +5100,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A9</f>
@@ -5114,7 +5111,7 @@
         <v>A.2.9.1.6.2 - Activity description</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -5127,7 +5124,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A10</f>
@@ -5138,7 +5135,7 @@
         <v>A.2.9.1.6.3 - Specific attributes</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -5192,7 +5189,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>83</v>
@@ -5201,15 +5198,15 @@
         <v>88</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>84</v>
@@ -5218,15 +5215,15 @@
         <v>89</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>83</v>
@@ -5235,15 +5232,15 @@
         <v>88</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>83</v>
@@ -5252,15 +5249,15 @@
         <v>242</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>84</v>
@@ -5269,15 +5266,15 @@
         <v>86</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>84</v>
@@ -5286,15 +5283,15 @@
         <v>86</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>83</v>
@@ -5303,15 +5300,15 @@
         <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>83</v>
@@ -5320,15 +5317,15 @@
         <v>88</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>84</v>
@@ -5337,10 +5334,10 @@
         <v>86</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -5401,7 +5398,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
@@ -5412,7 +5409,7 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -5426,7 +5423,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
@@ -5437,20 +5434,20 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
@@ -5461,14 +5458,14 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -5477,7 +5474,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A3</f>
@@ -5488,7 +5485,7 @@
         <v>A.2.1.1.1 - Date and time</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -5502,7 +5499,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A4</f>
@@ -5513,14 +5510,14 @@
         <v>A.2.1.1.2 - Type</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -5529,7 +5526,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A5</f>
@@ -5540,14 +5537,14 @@
         <v>A.2.1.1.3 - Comment</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -5556,7 +5553,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A6</f>
@@ -5567,20 +5564,20 @@
         <v>A.2.1.1.4 - Related conditions</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A7</f>
@@ -5591,7 +5588,7 @@
         <v>A.2.1.1.5 - Living will document</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="10" t="s">
@@ -5605,7 +5602,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A7</f>
@@ -5616,14 +5613,14 @@
         <v>A.2.1.1.5 - Living will document</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -5826,10 +5823,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A2</f>
@@ -5840,7 +5837,7 @@
         <v>A.2.2.1 - Allergy and Intolerance</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -5849,10 +5846,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A2</f>
@@ -5863,7 +5860,7 @@
         <v>A.2.2.1 - Allergy and Intolerance</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -5872,10 +5869,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A3</f>
@@ -5886,7 +5883,7 @@
         <v>A.2.2.1.1 - Allergy description</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -5895,10 +5892,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A4</f>
@@ -5909,7 +5906,7 @@
         <v>A.2.2.1.2 - Type of propensity</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -5918,10 +5915,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A5</f>
@@ -5932,7 +5929,7 @@
         <v>A.2.2.1.3 - Allergy manifestation</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -5941,10 +5938,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A5</f>
@@ -5955,7 +5952,7 @@
         <v>A.2.2.1.3 - Allergy manifestation</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -5964,10 +5961,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A6</f>
@@ -5978,7 +5975,7 @@
         <v>A.2.2.1.4 - Severity</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -5987,10 +5984,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A7</f>
@@ -6001,7 +5998,7 @@
         <v>A.2.2.1.5 - Criticality</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -6010,10 +6007,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A8</f>
@@ -6024,7 +6021,7 @@
         <v>A.2.2.1.6 - Onset date</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -6033,10 +6030,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A11</f>
@@ -6047,7 +6044,7 @@
         <v>A.2.2.1.7 - End date</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -6056,10 +6053,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A14</f>
@@ -6070,7 +6067,7 @@
         <v>A.2.2.1.8 - Status</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -6079,10 +6076,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A15</f>
@@ -6093,7 +6090,7 @@
         <v>A.2.2.1.9 - Certainty</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
@@ -6102,10 +6099,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>1105</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A16</f>
@@ -6116,7 +6113,7 @@
         <v>A.2.2.1.10 - Agent or Allergen</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
@@ -6125,10 +6122,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A17</f>
@@ -6139,7 +6136,7 @@
         <v>A.2.2.2 - Medical alerts (relevant for the respective hospital stay)</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -6148,10 +6145,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A18</f>
@@ -6162,7 +6159,7 @@
         <v>A.2.2.2.1 - Healthcare alert description</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -6172,10 +6169,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A18</f>
@@ -6186,7 +6183,7 @@
         <v>A.2.2.2.1 - Healthcare alert description</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
@@ -6196,10 +6193,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A18</f>
@@ -6210,7 +6207,7 @@
         <v>A.2.2.2.1 - Healthcare alert description</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
@@ -6346,7 +6343,7 @@
         <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>176</v>
@@ -6414,7 +6411,7 @@
         <v>89</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>180</v>
@@ -6465,7 +6462,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>182</v>
@@ -6550,7 +6547,7 @@
         <v>89</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>187</v>
@@ -6609,10 +6606,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C2" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A2</f>
@@ -6631,10 +6628,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C3" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A3</f>
@@ -6645,7 +6642,7 @@
         <v>A.2.3.2 - Encounter note</v>
       </c>
       <c r="E3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -6653,10 +6650,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C4" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A4</f>
@@ -6667,7 +6664,7 @@
         <v>A.2.3.3 - Admission</v>
       </c>
       <c r="E4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -6675,10 +6672,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C5" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A5</f>
@@ -6697,10 +6694,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C6" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A6</f>
@@ -6719,10 +6716,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C7" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A7</f>
@@ -6739,15 +6736,15 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C8" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -6758,21 +6755,21 @@
         <v>A.2.3.3.3 - Admitting professional ID</v>
       </c>
       <c r="E8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C9" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -6783,21 +6780,21 @@
         <v>A.2.3.3.3 - Admitting professional ID</v>
       </c>
       <c r="E9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C10" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
@@ -6808,21 +6805,21 @@
         <v>A.2.3.3.4 - Admitting professional name</v>
       </c>
       <c r="E10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C11" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
@@ -6833,21 +6830,21 @@
         <v>A.2.3.3.5 - Admitting organisation ID</v>
       </c>
       <c r="E11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C12" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A11</f>
@@ -6858,7 +6855,7 @@
         <v>A.2.3.3.6 - Admitting organisation</v>
       </c>
       <c r="E12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G12" t="s">
         <v>21</v>
@@ -6866,10 +6863,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C13" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A11</f>
@@ -6880,21 +6877,21 @@
         <v>A.2.3.3.6 - Admitting organisation</v>
       </c>
       <c r="E13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C14" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A12</f>
@@ -6913,10 +6910,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C15" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A13</f>
@@ -6938,10 +6935,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C16" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -6952,21 +6949,21 @@
         <v>A.2.3.3.8 - Referring professional ID</v>
       </c>
       <c r="E16" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C17" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -6977,21 +6974,21 @@
         <v>A.2.3.3.8 - Referring professional ID</v>
       </c>
       <c r="E17" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C18" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
@@ -7002,21 +6999,21 @@
         <v>A.2.3.3.9 - Referring professional name</v>
       </c>
       <c r="E18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G18" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C19" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
@@ -7027,21 +7024,21 @@
         <v>A.2.3.3.10 - Referring organisation ID</v>
       </c>
       <c r="E19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C20" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A17</f>
@@ -7052,21 +7049,21 @@
         <v>A.2.3.3.11 - Referring organisation</v>
       </c>
       <c r="E20" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C21" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A18</f>
@@ -7085,10 +7082,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C22" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A18</f>
@@ -7099,7 +7096,7 @@
         <v>A.2.3.4 - Admission reason</v>
       </c>
       <c r="E22" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
@@ -7107,10 +7104,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C23" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A19</f>
@@ -7129,10 +7126,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C24" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A20</f>
@@ -7154,10 +7151,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C25" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A21</f>
@@ -7168,7 +7165,7 @@
         <v>A.2.3.4.3 - Admission legal status</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
@@ -7180,10 +7177,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C26" s="3" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A22</f>
@@ -7194,7 +7191,7 @@
         <v>A.2.3.5 - Discharge</v>
       </c>
       <c r="E26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" t="s">
@@ -7203,10 +7200,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C27" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A23</f>
@@ -7225,10 +7222,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C28" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A24</f>
@@ -7247,10 +7244,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C29" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A25</f>
@@ -7261,7 +7258,7 @@
         <v>A.2.3.5.3 - Destination location</v>
       </c>
       <c r="E29" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -7269,10 +7266,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C30" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A26</f>
@@ -7291,10 +7288,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C31" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A27</f>
@@ -7313,10 +7310,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C32" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A28</f>
@@ -7327,21 +7324,21 @@
         <v>Organization</v>
       </c>
       <c r="E32" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G32" t="s">
         <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C33" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
@@ -7352,7 +7349,7 @@
         <v>A.2.3.6.2 - Organisation Part ID</v>
       </c>
       <c r="E33" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G33" t="s">
         <v>21</v>
@@ -7363,10 +7360,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C34" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
@@ -7377,7 +7374,7 @@
         <v>A.2.3.6.3 - Organisation Part Name</v>
       </c>
       <c r="E34" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G34" t="s">
         <v>22</v>
@@ -7388,10 +7385,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C35" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
@@ -7408,7 +7405,7 @@
         <v>22</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
   </sheetData>
@@ -7504,10 +7501,10 @@
     </row>
     <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C2" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A2</f>
@@ -7518,7 +7515,7 @@
         <v>A.1.1 - Identification and A.1.2 - related contact information of the Patient/subject</v>
       </c>
       <c r="E2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -7526,10 +7523,10 @@
     </row>
     <row r="3" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C3" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A2</f>
@@ -7540,21 +7537,21 @@
         <v>A.1.1 - Identification and A.1.2 - related contact information of the Patient/subject</v>
       </c>
       <c r="E3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C4" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A3</f>
@@ -7565,21 +7562,21 @@
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C5" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A3</f>
@@ -7590,21 +7587,21 @@
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C6" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A3</f>
@@ -7615,21 +7612,21 @@
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C7" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A4</f>
@@ -7640,21 +7637,21 @@
         <v>A.1.3.1 - Health insurance code</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C8" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A5</f>
@@ -7665,21 +7662,21 @@
         <v>A.1.3.2 - Health insurance name</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C9" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A4</f>
@@ -7690,7 +7687,7 @@
         <v>A.1.3.1 - Health insurance code</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
@@ -7698,10 +7695,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C10" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A5</f>
@@ -7712,7 +7709,7 @@
         <v>A.1.3.2 - Health insurance name</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -7720,10 +7717,10 @@
     </row>
     <row r="11" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C11" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A6</f>
@@ -7734,21 +7731,21 @@
         <v>A.1.3.3 - Health insurance number</v>
       </c>
       <c r="E11" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C12" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A6</f>
@@ -7759,21 +7756,21 @@
         <v>A.1.3.3 - Health insurance number</v>
       </c>
       <c r="E12" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="59" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C13" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A7</f>
@@ -7790,15 +7787,15 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C14" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A8</f>
@@ -7809,21 +7806,21 @@
         <v>A.1.4.1 - Recipient identifier</v>
       </c>
       <c r="E14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G14" t="s">
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C15" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A9</f>
@@ -7834,7 +7831,7 @@
         <v>A.1.4.2 - Recipient name</v>
       </c>
       <c r="E15" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
@@ -7842,10 +7839,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C16" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A10</f>
@@ -7856,7 +7853,7 @@
         <v>A.1.4.3 - Recipient organisation ID</v>
       </c>
       <c r="E16" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G16" t="s">
         <v>36</v>
@@ -7864,10 +7861,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C17" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A11</f>
@@ -7878,7 +7875,7 @@
         <v>A.1.4.4 - Recipient organisation</v>
       </c>
       <c r="E17" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -7886,10 +7883,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C18" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A12</f>
@@ -7900,7 +7897,7 @@
         <v>A.1.4.5 - Address</v>
       </c>
       <c r="E18" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -7908,10 +7905,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C19" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A13</f>
@@ -7922,7 +7919,7 @@
         <v>A.1.4.6 - Country</v>
       </c>
       <c r="E19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -7930,10 +7927,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C20" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A14</f>
@@ -7944,7 +7941,7 @@
         <v>A.1.4.7 - Telecom</v>
       </c>
       <c r="E20" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
@@ -7952,10 +7949,10 @@
     </row>
     <row r="21" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C21" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A15</f>
@@ -7974,10 +7971,10 @@
     </row>
     <row r="22" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C22" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A15</f>
@@ -7988,21 +7985,21 @@
         <v>A.1.5 - Author (by whom the Hospital discharge report was/were authored). Multiple authors could be provided.</v>
       </c>
       <c r="E22" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C23" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A16</f>
@@ -8013,7 +8010,7 @@
         <v>A.1.5.1 - Author identifier</v>
       </c>
       <c r="E23" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -8021,10 +8018,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C24" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A17</f>
@@ -8035,21 +8032,21 @@
         <v>A.1.5.2 - Author name</v>
       </c>
       <c r="E24" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C25" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A18</f>
@@ -8060,21 +8057,21 @@
         <v>A.1.5.3 - Author organisation ID</v>
       </c>
       <c r="E25" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G25" t="s">
         <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C26" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A19</f>
@@ -8085,7 +8082,7 @@
         <v>A.1.5.4 - Author organisation</v>
       </c>
       <c r="E26" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -8093,10 +8090,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C27" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A20</f>
@@ -8115,10 +8112,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C28" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A21</f>
@@ -8140,10 +8137,10 @@
     </row>
     <row r="29" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C29" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A21</f>
@@ -8154,21 +8151,21 @@
         <v>A.1.6 - Attester (multiple attesters could be provided)</v>
       </c>
       <c r="E29" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C30" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A22</f>
@@ -8179,7 +8176,7 @@
         <v>A.1.6.1 - Attester identifier</v>
       </c>
       <c r="E30" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -8187,10 +8184,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C31" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A23</f>
@@ -8201,7 +8198,7 @@
         <v>A.1.6.2 - Attester name</v>
       </c>
       <c r="E31" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -8209,10 +8206,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C32" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A24</f>
@@ -8223,7 +8220,7 @@
         <v>A.1.6.3 - Attester organisation ID</v>
       </c>
       <c r="E32" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -8231,10 +8228,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C33" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A25</f>
@@ -8245,7 +8242,7 @@
         <v>A.1.6.4 - Attester organisation</v>
       </c>
       <c r="E33" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -8253,10 +8250,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C34" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A26</f>
@@ -8275,10 +8272,10 @@
     </row>
     <row r="35" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C35" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A27</f>
@@ -8300,10 +8297,10 @@
     </row>
     <row r="36" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A36" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C36" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A27</f>
@@ -8314,21 +8311,21 @@
         <v>A.1.7 - Legal authenticator (The person taking responsibility for the medical content of the document)</v>
       </c>
       <c r="E36" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G36" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A37" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C37" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A28</f>
@@ -8339,7 +8336,7 @@
         <v>A.1.7.1 - Legal authenticator identifier</v>
       </c>
       <c r="E37" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G37" t="s">
         <v>36</v>
@@ -8350,10 +8347,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A38" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C38" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A29</f>
@@ -8364,7 +8361,7 @@
         <v>A.1.7.2 - Legal authenticator name</v>
       </c>
       <c r="E38" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -8375,10 +8372,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A39" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C39" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A30</f>
@@ -8389,7 +8386,7 @@
         <v>A.1.7.3 - Legal authenticator organisation ID</v>
       </c>
       <c r="E39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -8400,10 +8397,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A40" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C40" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A31</f>
@@ -8414,7 +8411,7 @@
         <v>A.1.7.4 - Legal authenticator organisation</v>
       </c>
       <c r="E40" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G40" t="s">
         <v>36</v>
@@ -8425,10 +8422,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C41" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A32</f>
@@ -8450,10 +8447,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A42" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C42" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A33</f>
@@ -8472,10 +8469,10 @@
     </row>
     <row r="43" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A43" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C43" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A34</f>
@@ -8492,15 +8489,15 @@
         <v>36</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A44" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C44" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A34</f>
@@ -8511,21 +8508,21 @@
         <v>A.1.8.1 - Document ID</v>
       </c>
       <c r="E44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G44" t="s">
         <v>36</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A45" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C45" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A35</f>
@@ -8544,10 +8541,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A46" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C46" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A36</f>
@@ -8566,10 +8563,10 @@
     </row>
     <row r="47" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A47" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C47" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A37</f>
@@ -8586,15 +8583,15 @@
         <v>36</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A48" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C48" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A37</f>
@@ -8605,21 +8602,21 @@
         <v>A.1.8.4 - Report date and time</v>
       </c>
       <c r="E48" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A49" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C49" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A38</f>
@@ -8638,10 +8635,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A50" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C50" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A39</f>
@@ -8660,10 +8657,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A51" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C51" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A40</f>
@@ -8682,10 +8679,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A52" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C52" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A41</f>
@@ -8696,7 +8693,7 @@
         <v>A.1.8.8 - Language</v>
       </c>
       <c r="E52" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G52" t="s">
         <v>35</v>
@@ -8704,10 +8701,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A53" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C53" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A42</f>
@@ -8813,24 +8810,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>955</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>83</v>
@@ -8839,15 +8836,15 @@
         <v>86</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>83</v>
@@ -8856,15 +8853,15 @@
         <v>240</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>83</v>
@@ -8873,15 +8870,15 @@
         <v>88</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>83</v>
@@ -8890,15 +8887,15 @@
         <v>240</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>84</v>
@@ -8907,15 +8904,15 @@
         <v>86</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>83</v>
@@ -8924,15 +8921,15 @@
         <v>240</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>83</v>
@@ -8941,7 +8938,7 @@
         <v>241</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>280</v>
@@ -8949,7 +8946,7 @@
     </row>
     <row r="10" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>84</v>
@@ -8958,15 +8955,15 @@
         <v>240</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>83</v>
@@ -8975,7 +8972,7 @@
         <v>86</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>282</v>
@@ -8983,24 +8980,24 @@
     </row>
     <row r="12" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>85</v>
@@ -9009,32 +9006,32 @@
         <v>89</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>129</v>
@@ -9043,15 +9040,15 @@
         <v>86</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A16" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>129</v>
@@ -9060,15 +9057,15 @@
         <v>240</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>85</v>
@@ -9077,7 +9074,7 @@
         <v>241</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>280</v>
@@ -9085,7 +9082,7 @@
     </row>
     <row r="18" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>84</v>
@@ -9094,15 +9091,15 @@
         <v>240</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>85</v>
@@ -9111,7 +9108,7 @@
         <v>86</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>282</v>
@@ -9119,7 +9116,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>85</v>
@@ -9128,15 +9125,15 @@
         <v>87</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>84</v>
@@ -9145,15 +9142,15 @@
         <v>86</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A22" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>129</v>
@@ -9162,7 +9159,7 @@
         <v>240</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>279</v>
@@ -9170,7 +9167,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>85</v>
@@ -9179,7 +9176,7 @@
         <v>241</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>280</v>
@@ -9187,7 +9184,7 @@
     </row>
     <row r="24" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A24" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>84</v>
@@ -9196,15 +9193,15 @@
         <v>240</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>85</v>
@@ -9213,7 +9210,7 @@
         <v>86</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>282</v>
@@ -9221,7 +9218,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>85</v>
@@ -9230,15 +9227,15 @@
         <v>87</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>83</v>
@@ -9247,15 +9244,15 @@
         <v>86</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A28" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>129</v>
@@ -9264,15 +9261,15 @@
         <v>240</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>85</v>
@@ -9281,7 +9278,7 @@
         <v>241</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>280</v>
@@ -9289,7 +9286,7 @@
     </row>
     <row r="30" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A30" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>84</v>
@@ -9298,15 +9295,15 @@
         <v>240</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>85</v>
@@ -9315,7 +9312,7 @@
         <v>86</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>282</v>
@@ -9323,7 +9320,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>85</v>
@@ -9332,15 +9329,15 @@
         <v>87</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>85</v>
@@ -9349,15 +9346,15 @@
         <v>86</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>85</v>
@@ -9366,15 +9363,15 @@
         <v>240</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>85</v>
@@ -9383,15 +9380,15 @@
         <v>89</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>85</v>
@@ -9400,15 +9397,15 @@
         <v>89</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>85</v>
@@ -9417,15 +9414,15 @@
         <v>87</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>85</v>
@@ -9434,15 +9431,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A39" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>85</v>
@@ -9451,15 +9448,15 @@
         <v>86</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A40" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>85</v>
@@ -9468,15 +9465,15 @@
         <v>89</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A41" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>85</v>
@@ -9485,15 +9482,15 @@
         <v>89</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A42" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>83</v>
@@ -9502,10 +9499,10 @@
         <v>88</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.75">
@@ -9786,274 +9783,274 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>861</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1113</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1114</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A2</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hdr2FHIR-eu-hdr</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>1115</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>1116</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C9" si="0">"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A3</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hdrHeader2FHIR-eu-hdr</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/subject2FHIR-eu-hdr</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>1003</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A5</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/encounter2FHIR-eu-hdr</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>863</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/alerts2FHIR-eu-hdr</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>1085</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>1086</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/advanceDirectives2FHIR-eu-hdr</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>1141</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>1142</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G7" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!A5</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/planOfCare2FHIR-eu-hdr</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G8" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!A14</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1208</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1209</v>
       </c>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/medicationSummary2FHIR-eu-hdr</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G9" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!A15</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -10137,10 +10134,10 @@
     </row>
     <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C2" t="str">
         <f>SubjectHdrEhn!A2</f>
@@ -10151,7 +10148,7 @@
         <v>A.1.1 - Identification of the patient/subject</v>
       </c>
       <c r="E2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -10159,10 +10156,10 @@
     </row>
     <row r="3" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C3" t="str">
         <f>SubjectHdrEhn!A3</f>
@@ -10181,10 +10178,10 @@
     </row>
     <row r="4" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C4" t="str">
         <f>SubjectHdrEhn!A4</f>
@@ -10203,10 +10200,10 @@
     </row>
     <row r="5" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C5" t="str">
         <f>SubjectHdrEhn!A5</f>
@@ -10225,10 +10222,10 @@
     </row>
     <row r="6" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C6" t="str">
         <f>SubjectHdrEhn!A6</f>
@@ -10247,10 +10244,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C7" t="str">
         <f>SubjectHdrEhn!A7</f>
@@ -10261,21 +10258,21 @@
         <v>A.1.1.5 - Nationality</v>
       </c>
       <c r="E7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C8" t="str">
         <f>SubjectHdrEhn!A8</f>
@@ -10294,10 +10291,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>SubjectHdrEhn!A9</f>
@@ -10308,21 +10305,21 @@
         <v>A.1.1.7 - Country of affiliation</v>
       </c>
       <c r="E9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C10" t="str">
         <f>SubjectHdrEhn!A10</f>
@@ -10341,10 +10338,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C11" t="str">
         <f>SubjectHdrEhn!A11</f>
@@ -10363,10 +10360,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C12" t="str">
         <f>SubjectHdrEhn!A12</f>
@@ -10385,10 +10382,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C13" t="str">
         <f>SubjectHdrEhn!A13</f>
@@ -10407,10 +10404,10 @@
     </row>
     <row r="14" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C14" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -10429,10 +10426,10 @@
     </row>
     <row r="15" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C15" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -10443,21 +10440,21 @@
         <v>A.1.2.2 - Preferred health professional (HP) - This section can be repeated and linked to any specific information in the document, for example a link between a rare disease problem and the rare disease specialist responsible for the care of the individual patient (this section).</v>
       </c>
       <c r="E15" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C16" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -10468,7 +10465,7 @@
         <v>A.1.2.2 - Preferred health professional (HP) - This section can be repeated and linked to any specific information in the document, for example a link between a rare disease problem and the rare disease specialist responsible for the care of the individual patient (this section).</v>
       </c>
       <c r="E16" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G16" t="s">
         <v>36</v>
@@ -10476,10 +10473,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C17" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -10490,21 +10487,21 @@
         <v>A.1.2.2.1 - Identifier of the HP</v>
       </c>
       <c r="E17" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C18" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -10515,7 +10512,7 @@
         <v>A.1.2.2.1 - Identifier of the HP</v>
       </c>
       <c r="E18" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -10523,10 +10520,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C19" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -10537,21 +10534,21 @@
         <v>A.1.2.2.2 - Name of the HP</v>
       </c>
       <c r="E19" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C20" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -10562,7 +10559,7 @@
         <v>A.1.2.2.2 - Name of the HP</v>
       </c>
       <c r="E20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
@@ -10570,10 +10567,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C21" t="str">
         <f>SubjectHdrEhn!A17</f>
@@ -10584,7 +10581,7 @@
         <v>A.1.2.2.3 - Role of the HP</v>
       </c>
       <c r="E21" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>36</v>
@@ -10592,10 +10589,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C22" t="str">
         <f>SubjectHdrEhn!A18</f>
@@ -10606,7 +10603,7 @@
         <v>A.1.2.2.4 - HP Organisation</v>
       </c>
       <c r="E22" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
@@ -10614,10 +10611,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C23" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -10628,21 +10625,21 @@
         <v>A.1.2.2.5 - Address</v>
       </c>
       <c r="E23" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C24" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -10653,7 +10650,7 @@
         <v>A.1.2.2.5 - Address</v>
       </c>
       <c r="E24" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
@@ -10661,10 +10658,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C25" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -10675,21 +10672,21 @@
         <v>A.1.2.2.6 - Telecom</v>
       </c>
       <c r="E25" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C26" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -10700,7 +10697,7 @@
         <v>A.1.2.2.6 - Telecom</v>
       </c>
       <c r="E26" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G26" t="s">
         <v>36</v>
@@ -10708,10 +10705,10 @@
     </row>
     <row r="27" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C27" t="str">
         <f>SubjectHdrEhn!A21</f>
@@ -10730,10 +10727,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>SubjectHdrEhn!A22</f>
@@ -10744,7 +10741,7 @@
         <v>A.1.2.3.1 - Role of that person</v>
       </c>
       <c r="E28" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>37</v>
@@ -10752,10 +10749,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C29" t="str">
         <f>SubjectHdrEhn!A23</f>
@@ -10774,10 +10771,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C30" t="str">
         <f>SubjectHdrEhn!A24</f>
@@ -10796,10 +10793,10 @@
     </row>
     <row r="31" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C31" t="str">
         <f>SubjectHdrEhn!A25</f>
@@ -10818,10 +10815,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C32" t="str">
         <f>SubjectHdrEhn!A26</f>
@@ -10840,10 +10837,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C33" t="str">
         <f>SubjectHdrEhn!A27</f>
@@ -10862,10 +10859,10 @@
     </row>
     <row r="34" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C34" t="str">
         <f>SubjectHdrEhn!A28</f>
@@ -10964,7 +10961,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -10973,15 +10970,15 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B3" t="s">
         <v>129</v>
@@ -10990,15 +10987,15 @@
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B4" t="s">
         <v>129</v>
@@ -11007,15 +11004,15 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -11024,15 +11021,15 @@
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
@@ -11041,15 +11038,15 @@
         <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -11058,15 +11055,15 @@
         <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -11075,15 +11072,15 @@
         <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -11092,15 +11089,15 @@
         <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -11109,15 +11106,15 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -11126,49 +11123,49 @@
         <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -11177,15 +11174,15 @@
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -11194,15 +11191,15 @@
         <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -11211,15 +11208,15 @@
         <v>241</v>
       </c>
       <c r="D16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -11228,15 +11225,15 @@
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -11245,49 +11242,49 @@
         <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -11296,15 +11293,15 @@
         <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -11313,15 +11310,15 @@
         <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -11330,15 +11327,15 @@
         <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B24" t="s">
         <v>129</v>
@@ -11347,15 +11344,15 @@
         <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B25" t="s">
         <v>129</v>
@@ -11364,49 +11361,49 @@
         <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B26" t="s">
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B27" t="s">
         <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
@@ -11415,10 +11412,10 @@
         <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -12297,10 +12294,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="132.58984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12332,10 +12332,10 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
@@ -12349,10 +12349,10 @@
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
@@ -12366,10 +12366,10 @@
         <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
@@ -12383,10 +12383,10 @@
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
@@ -12400,10 +12400,10 @@
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
@@ -12417,10 +12417,10 @@
         <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
@@ -12434,10 +12434,10 @@
         <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
@@ -12451,10 +12451,10 @@
         <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
@@ -12468,10 +12468,10 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
@@ -12485,10 +12485,10 @@
         <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
@@ -12502,10 +12502,10 @@
         <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="73.75" x14ac:dyDescent="0.75">
@@ -12519,10 +12519,10 @@
         <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
@@ -12536,10 +12536,10 @@
         <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
@@ -12553,10 +12553,10 @@
         <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
@@ -12570,10 +12570,10 @@
         <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
@@ -12587,10 +12587,10 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
@@ -12604,10 +12604,10 @@
         <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
@@ -12621,10 +12621,10 @@
         <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
@@ -12638,10 +12638,10 @@
         <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
@@ -12652,13 +12652,13 @@
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>346</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
@@ -12672,10 +12672,10 @@
         <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
@@ -12689,10 +12689,10 @@
         <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.75">
@@ -12706,10 +12706,10 @@
         <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
@@ -12723,10 +12723,10 @@
         <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
@@ -12740,10 +12740,10 @@
         <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.75">
@@ -12757,10 +12757,10 @@
         <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="73.75" x14ac:dyDescent="0.75">
@@ -12774,10 +12774,10 @@
         <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
@@ -12791,10 +12791,10 @@
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.75">
@@ -12808,10 +12808,10 @@
         <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.75">
@@ -12825,10 +12825,10 @@
         <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.75">
@@ -12842,10 +12842,10 @@
         <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.75">
@@ -12859,10 +12859,10 @@
         <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
@@ -12873,13 +12873,13 @@
         <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.75">
@@ -12893,10 +12893,10 @@
         <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.75">
@@ -12910,10 +12910,10 @@
         <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.75">
@@ -12927,10 +12927,10 @@
         <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.75">
@@ -12944,10 +12944,10 @@
         <v>242</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
@@ -12961,10 +12961,10 @@
         <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.75">
@@ -12978,10 +12978,10 @@
         <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.75">
@@ -12995,10 +12995,10 @@
         <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.75">
@@ -13012,7 +13012,7 @@
         <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>113</v>
@@ -13029,7 +13029,7 @@
         <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>114</v>
@@ -13046,7 +13046,7 @@
         <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>111</v>
@@ -13063,10 +13063,10 @@
         <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
@@ -13080,10 +13080,10 @@
         <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.75">
@@ -13097,10 +13097,10 @@
         <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.75">
@@ -13114,10 +13114,10 @@
         <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -13152,7 +13152,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -13161,15 +13161,15 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>129</v>
@@ -13178,15 +13178,15 @@
         <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -13195,15 +13195,15 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -13212,15 +13212,15 @@
         <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -13229,15 +13229,15 @@
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -13246,15 +13246,15 @@
         <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -13263,15 +13263,15 @@
         <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -13280,15 +13280,15 @@
         <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -13297,15 +13297,15 @@
         <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -13314,15 +13314,15 @@
         <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
         <v>129</v>
@@ -13331,15 +13331,15 @@
         <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -13348,15 +13348,15 @@
         <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -13365,15 +13365,15 @@
         <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -13382,15 +13382,15 @@
         <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -13399,15 +13399,15 @@
         <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -13416,15 +13416,15 @@
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -13433,15 +13433,15 @@
         <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
@@ -13450,15 +13450,15 @@
         <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -13467,15 +13467,15 @@
         <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -13484,15 +13484,15 @@
         <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
@@ -13501,15 +13501,15 @@
         <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -13518,15 +13518,15 @@
         <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B24" t="s">
         <v>83</v>
@@ -13535,32 +13535,32 @@
         <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>346</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B26" t="s">
         <v>84</v>
@@ -13569,15 +13569,15 @@
         <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B27" t="s">
         <v>84</v>
@@ -13586,15 +13586,15 @@
         <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
@@ -13603,15 +13603,15 @@
         <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
@@ -13620,15 +13620,15 @@
         <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B30" t="s">
         <v>83</v>
@@ -13637,32 +13637,32 @@
         <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B31" t="s">
         <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B32" t="s">
         <v>85</v>
@@ -13671,15 +13671,15 @@
         <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
@@ -13688,15 +13688,15 @@
         <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
@@ -13705,15 +13705,15 @@
         <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
@@ -13722,15 +13722,15 @@
         <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B36" t="s">
         <v>83</v>
@@ -13739,15 +13739,15 @@
         <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E36" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
@@ -13756,15 +13756,15 @@
         <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B38" t="s">
         <v>83</v>
@@ -13773,15 +13773,15 @@
         <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
@@ -13790,15 +13790,15 @@
         <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E39" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
@@ -13807,15 +13807,15 @@
         <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E40" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
@@ -13824,15 +13824,15 @@
         <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
@@ -13841,15 +13841,15 @@
         <v>242</v>
       </c>
       <c r="D42" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
@@ -13858,15 +13858,15 @@
         <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B44" t="s">
         <v>83</v>
@@ -13875,15 +13875,15 @@
         <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
@@ -13892,15 +13892,15 @@
         <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
@@ -13909,15 +13909,15 @@
         <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E46" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B47" t="s">
         <v>83</v>
@@ -13926,15 +13926,15 @@
         <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E47" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B48" t="s">
         <v>83</v>
@@ -13943,15 +13943,15 @@
         <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E48" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B49" t="s">
         <v>84</v>
@@ -13960,15 +13960,15 @@
         <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E49" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B50" t="s">
         <v>83</v>
@@ -13977,15 +13977,15 @@
         <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B51" t="s">
         <v>83</v>
@@ -13994,15 +13994,15 @@
         <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E51" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B52" t="s">
         <v>83</v>
@@ -14011,15 +14011,15 @@
         <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E52" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B53" t="s">
         <v>83</v>
@@ -14028,15 +14028,15 @@
         <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E53" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B54" t="s">
         <v>83</v>
@@ -14045,15 +14045,15 @@
         <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E54" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B55" t="s">
         <v>83</v>
@@ -14062,15 +14062,15 @@
         <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E55" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B56" t="s">
         <v>83</v>
@@ -14079,15 +14079,15 @@
         <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E56" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B57" t="s">
         <v>83</v>
@@ -14096,15 +14096,15 @@
         <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E57" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
@@ -14113,15 +14113,15 @@
         <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E58" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B59" t="s">
         <v>83</v>
@@ -14130,15 +14130,15 @@
         <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E59" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B60" t="s">
         <v>83</v>
@@ -14147,15 +14147,15 @@
         <v>89</v>
       </c>
       <c r="D60" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E60" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
@@ -14164,15 +14164,15 @@
         <v>89</v>
       </c>
       <c r="D61" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E61" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B62" t="s">
         <v>84</v>
@@ -14181,15 +14181,15 @@
         <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E62" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B63" t="s">
         <v>83</v>
@@ -14198,15 +14198,15 @@
         <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E63" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B64" t="s">
         <v>83</v>
@@ -14215,15 +14215,15 @@
         <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E64" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s">
         <v>83</v>
@@ -14232,15 +14232,15 @@
         <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B66" t="s">
         <v>83</v>
@@ -14249,49 +14249,49 @@
         <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E66" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B67" t="s">
         <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D67" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E67" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D68" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E68" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
@@ -14300,15 +14300,15 @@
         <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B70" t="s">
         <v>84</v>
@@ -14317,15 +14317,15 @@
         <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E70" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B71" t="s">
         <v>83</v>
@@ -14334,15 +14334,15 @@
         <v>86</v>
       </c>
       <c r="D71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E71" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B72" t="s">
         <v>84</v>
@@ -14351,15 +14351,15 @@
         <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E72" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B73" t="s">
         <v>83</v>
@@ -14368,15 +14368,15 @@
         <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E73" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B74" t="s">
         <v>84</v>
@@ -14385,15 +14385,15 @@
         <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E74" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B75" t="s">
         <v>83</v>
@@ -14402,15 +14402,15 @@
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E75" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
@@ -14419,15 +14419,15 @@
         <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E76" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
@@ -14436,15 +14436,15 @@
         <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E77" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B78" t="s">
         <v>84</v>
@@ -14453,15 +14453,15 @@
         <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E78" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
@@ -14470,15 +14470,15 @@
         <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E79" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
@@ -14487,15 +14487,15 @@
         <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E80" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
@@ -14504,15 +14504,15 @@
         <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E81" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -14521,15 +14521,15 @@
         <v>86</v>
       </c>
       <c r="D82" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E82" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
@@ -14538,15 +14538,15 @@
         <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E83" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
@@ -14555,15 +14555,15 @@
         <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E84" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
@@ -14572,10 +14572,10 @@
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E85" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -14601,212 +14601,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>857</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>1004</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
   </sheetData>
@@ -14885,7 +14885,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A2</f>
@@ -14896,14 +14896,14 @@
         <v>A.1 - Hospital Discharge Report header data element</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -14912,7 +14912,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A3</f>
@@ -14923,14 +14923,14 @@
         <v>A.2 - Hospital Discharge Report body data element</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -14939,7 +14939,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A4</f>
@@ -14950,14 +14950,14 @@
         <v>A.2.0 - Hospital Discharge Report in its narrative form</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -14966,7 +14966,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A5</f>
@@ -14977,14 +14977,14 @@
         <v>A.2.1 - Advance directives</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -14993,7 +14993,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A6</f>
@@ -15004,14 +15004,14 @@
         <v>A.2.2 - Alerts</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -15020,7 +15020,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A7</f>
@@ -15031,14 +15031,14 @@
         <v>A.2.3 - Encounter</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -15047,7 +15047,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A8</f>
@@ -15058,14 +15058,14 @@
         <v>A.2.4 - Admission evaluation</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -15074,7 +15074,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A9</f>
@@ -15085,14 +15085,14 @@
         <v>A.2.5 - Patient history</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
@@ -15101,7 +15101,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A10</f>
@@ -15112,14 +15112,14 @@
         <v>A.2.6 - Course of hospitalisation (Hospital stay)</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -15128,7 +15128,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A11</f>
@@ -15139,14 +15139,14 @@
         <v>A.2.7 - Discharge details</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15155,7 +15155,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A12</f>
@@ -15166,14 +15166,14 @@
         <v>A.2.7.1 - Objective findings</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15182,7 +15182,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A13</f>
@@ -15193,14 +15193,14 @@
         <v>A.2.7.2 - Functional status</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15209,7 +15209,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A14</f>
@@ -15220,14 +15220,14 @@
         <v>A.2.7.3 - Discharge note</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
@@ -15236,7 +15236,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A15</f>
@@ -15247,14 +15247,14 @@
         <v>A.2.8 - Care plan and other recommendations after discharge.</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15263,7 +15263,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A16</f>
@@ -15274,7 +15274,7 @@
         <v>A.2.8.1 - Care plan</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="13" t="s">
@@ -15288,7 +15288,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A17</f>
@@ -15299,7 +15299,7 @@
         <v>A.2.8.2 - Medication summary</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="13" t="s">
@@ -15313,7 +15313,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A18</f>
@@ -15324,7 +15324,7 @@
         <v>A.2.8.3 - Other recommendations</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
@@ -15386,24 +15386,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -15412,15 +15412,15 @@
         <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -15429,117 +15429,117 @@
         <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D7" t="s">
+        <v>916</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>917</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -15548,7 +15548,7 @@
         <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>203</v>
@@ -15556,7 +15556,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -15566,7 +15566,7 @@
         <v>ObjectiveFindingsHdrEhn</v>
       </c>
       <c r="D12" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E12" t="s">
         <v>107</v>
@@ -15574,7 +15574,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -15584,7 +15584,7 @@
         <v>FunctionalStatusHdrEhn</v>
       </c>
       <c r="D13" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E13" t="s">
         <v>208</v>
@@ -15592,7 +15592,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -15601,7 +15601,7 @@
         <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E14" t="s">
         <v>209</v>
@@ -15609,7 +15609,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -15618,49 +15618,49 @@
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D16" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D17" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -15669,10 +15669,10 @@
         <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
@@ -15949,7 +15949,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -15966,7 +15966,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -15983,7 +15983,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -16000,7 +16000,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -16017,7 +16017,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -16034,7 +16034,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -16051,7 +16051,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -16068,7 +16068,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -16102,7 +16102,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -16119,7 +16119,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -16146,7 +16146,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -16194,7 +16194,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A2</f>
@@ -16205,14 +16205,14 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -16221,7 +16221,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A2</f>
@@ -16232,14 +16232,14 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -16248,7 +16248,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A3</f>
@@ -16259,14 +16259,14 @@
         <v>A.2.8.2.2 - Onset Date</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -16275,7 +16275,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A4</f>
@@ -16291,7 +16291,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -16300,7 +16300,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A5</f>
@@ -16316,7 +16316,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -16325,7 +16325,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A6</f>
@@ -16341,7 +16341,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -16396,7 +16396,7 @@
     </row>
     <row r="2" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>85</v>
@@ -16413,7 +16413,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>83</v>
@@ -16430,7 +16430,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>83</v>
@@ -16439,7 +16439,7 @@
         <v>88</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>120</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>83</v>
@@ -16464,7 +16464,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>85</v>
@@ -16537,7 +16537,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A2</f>
@@ -16548,14 +16548,14 @@
         <v>A.2.9.2.1 - Medication reason</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -16564,7 +16564,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A3</f>
@@ -16575,7 +16575,7 @@
         <v>A.2.9.2.2 - Reason for change</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -16588,7 +16588,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -16599,20 +16599,20 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -16623,20 +16623,20 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -16647,14 +16647,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -16663,7 +16663,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A5</f>
@@ -16674,7 +16674,7 @@
         <v>A.2.9.2.4 - Brand name</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -16687,7 +16687,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A6</f>
@@ -16698,14 +16698,14 @@
         <v>A.2.9.2.5 - Active ingredient list</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -16714,7 +16714,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A7</f>
@@ -16725,7 +16725,7 @@
         <v>A.2.9.2.6 - Strength</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -16738,7 +16738,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A8</f>
@@ -16749,7 +16749,7 @@
         <v>A.2.9.2.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -16759,7 +16759,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A9</f>
@@ -16770,7 +16770,7 @@
         <v>A.2.9.2.8 - Dosage Regimen</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -16778,7 +16778,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A10</f>
@@ -16789,7 +16789,7 @@
         <v>A.2.9.2.9 - Route of administration</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -16797,7 +16797,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A11</f>
@@ -16808,14 +16808,14 @@
         <v>A.2.9.2.10 - Period of treatment</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -16824,7 +16824,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A9</f>
@@ -16835,7 +16835,7 @@
         <v>A.2.9.2.8 - Dosage Regimen</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
@@ -16848,7 +16848,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A10</f>
@@ -16859,7 +16859,7 @@
         <v>A.2.9.2.9 - Route of administration</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>19</v>
@@ -16871,7 +16871,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A11</f>
@@ -16882,14 +16882,14 @@
         <v>A.2.9.2.10 - Period of treatment</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.75">
@@ -16898,7 +16898,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A12</f>
@@ -16909,7 +16909,7 @@
         <v>A.2.9.2.11 - Days supplied</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="13" t="s">

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91AB00C-3717-4E8E-B908-F1F69B05D0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD4BE03-5D13-4A58-8EB0-51B0226D0912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="4" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
+    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
   <sheets>
     <sheet name="IG-groups" sheetId="31" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1347">
   <si>
     <t>Group Source</t>
   </si>
@@ -3678,15 +3678,6 @@
     <t>Preferred mapping</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstruction</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.route</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.timing.repeat.duration</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHECK it is used the name period but the imression is that is the duration not the period </t>
   </si>
   <si>
@@ -3724,15 +3715,6 @@
   </si>
   <si>
     <t>MedicationDispense.daysSupply</t>
-  </si>
-  <si>
-    <t>MedicationDispense.dosageInstruction</t>
-  </si>
-  <si>
-    <t>MedicationDispense.dosageInstruction.route</t>
-  </si>
-  <si>
-    <t>MedicationDispense.dosageInstruction.timing.repeat.duration</t>
   </si>
   <si>
     <t>body.recommendations.carePlan</t>
@@ -4036,6 +4018,132 @@
   </si>
   <si>
     <t xml:space="preserve">Procedure.perfomedDateTime	</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/hdr/StructureDefinition/device-eu-hdr</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.text</t>
+  </si>
+  <si>
+    <t>if referring to the description of the usage of the device</t>
+  </si>
+  <si>
+    <t>Device.text</t>
+  </si>
+  <si>
+    <t>if referring to the description of the device</t>
+  </si>
+  <si>
+    <t>Device.identifier</t>
+  </si>
+  <si>
+    <t>Details in the Composition.section:sectionMedicalDevices.entry of type DeviceUseStatement. See dedicated groups</t>
+  </si>
+  <si>
+    <t>if generic identifier</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier</t>
+  </si>
+  <si>
+    <t>if it is the udiCarrier</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.timing[x]</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.timingPeriod.end</t>
+  </si>
+  <si>
+    <t>Procedure.perfomed[x]</t>
+  </si>
+  <si>
+    <t>If the usage period is highlighted</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/hdr/StructureDefinition/deviceUseStatement-eu-hdr</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.reasonCode</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.reasonReference</t>
+  </si>
+  <si>
+    <t>if the implantation procedure is described</t>
+  </si>
+  <si>
+    <t>Details in the Composition.section:sectionMedications.entry. See dedicated groups</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Dosage</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstruction or MedicationRequest.dosageInstruction or MedicationStatement.dosage</t>
+  </si>
+  <si>
+    <t>Dosage</t>
+  </si>
+  <si>
+    <t>MedicationAdministration</t>
+  </si>
+  <si>
+    <t>several elements used</t>
+  </si>
+  <si>
+    <t>MedicationStatement.effectivePeriod</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurencePeriod</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationAdministration</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationStatement</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.reasonCode</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.reasonReference</t>
+  </si>
+  <si>
+    <t>MedicationRequest.reasonCode</t>
+  </si>
+  <si>
+    <t>MedicationRequest.reasonReference</t>
+  </si>
+  <si>
+    <t>MedicationDispense.reasonCode</t>
+  </si>
+  <si>
+    <t>MedicationDispense.reasonReference</t>
+  </si>
+  <si>
+    <t>MedicationStatement.reasonReference</t>
+  </si>
+  <si>
+    <t>MedicationStatement.reasonCode</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction or MedicationDispense.dosageInstruction</t>
   </si>
 </sst>
 </file>
@@ -4110,7 +4218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4157,6 +4265,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4166,7 +4296,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4209,7 +4339,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4821,7 +4961,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>83</v>
@@ -4838,7 +4978,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>83</v>
@@ -4855,7 +4995,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>83</v>
@@ -4872,7 +5012,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>85</v>
@@ -4897,9 +5037,11 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -4962,8 +5104,8 @@
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>1212</v>
+      <c r="H2" s="9" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -4989,6 +5131,7 @@
       <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="str">
@@ -5013,14 +5156,17 @@
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="7" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$15</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
+      </c>
       <c r="B5" s="8" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5031,18 +5177,21 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="7" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$15</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>1190</v>
       </c>
@@ -5061,7 +5210,7 @@
       <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="7" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -5088,6 +5237,7 @@
       <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="8" t="str">
@@ -5139,6 +5289,7 @@
       <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" s="8" t="str">
@@ -5163,11 +5314,15 @@
       <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$15</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
+      </c>
       <c r="B11" s="8" t="s">
-        <v>1211</v>
+        <v>1326</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A9</f>
@@ -5178,15 +5333,23 @@
         <v>A.2.9.2.8 - Dosage Regimen</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1215</v>
+        <v>1330</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12" s="8"/>
+      <c r="A12" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$15</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
+      </c>
       <c r="B12" s="8" t="s">
-        <v>1211</v>
+        <v>1326</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A10</f>
@@ -5197,15 +5360,21 @@
         <v>A.2.9.2.9 - Route of administration</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1216</v>
+        <v>1327</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A13" s="8"/>
+      <c r="A13" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$15</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
+      </c>
       <c r="B13" s="8" t="s">
-        <v>1211</v>
+        <v>1326</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A11</f>
@@ -5215,15 +5384,15 @@
         <f>MedicationSummaryHdrEhn!D11</f>
         <v>A.2.9.2.10 - Period of treatment</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>1217</v>
+      <c r="E13" s="7" t="s">
+        <v>1328</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>1202</v>
+      <c r="H13" s="13" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -5235,97 +5404,24 @@
         <v>1188</v>
       </c>
       <c r="C14" s="7" t="str">
-        <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A9</f>
-        <v>MedicationSummary.dosageRegimen</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f>MedicationSummaryHdrEhn!D9</f>
-        <v>A.2.9.2.8 - Dosage Regimen</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A15" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$15</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C15" s="7" t="str">
-        <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A10</f>
-        <v>MedicationSummary.route</v>
-      </c>
-      <c r="D15" s="7" t="str">
-        <f>MedicationSummaryHdrEhn!D10</f>
-        <v>A.2.9.2.9 - Route of administration</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$15</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C16" s="7" t="str">
-        <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A11</f>
-        <v>MedicationSummary.period</v>
-      </c>
-      <c r="D16" s="13" t="str">
-        <f>MedicationSummaryHdrEhn!D11</f>
-        <v>A.2.9.2.10 - Period of treatment</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A17" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$15</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C17" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A12</f>
         <v>MedicationSummary.daysSupplied</v>
       </c>
-      <c r="D17" s="13" t="str">
+      <c r="D14" s="13" t="str">
         <f>MedicationSummaryHdrEhn!D12</f>
         <v>A.2.9.2.11 - Days supplied</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A18" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A15" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5333,12 +5429,11 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{5E536E8F-22F8-4BBD-8A14-500630308A95}"/>
     <hyperlink ref="B7:B10" r:id="rId3" display="http://hl7.eu/fhir/hdr/StructureDefinition/medication-eu-hdr" xr:uid="{953546B6-F2C1-40ED-AFDE-17BD5CFB4BDA}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{336E94C6-ED7B-44F9-A5A9-826A1FA82CC0}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{256BF4D5-7FED-42CF-881E-966AA286D6F0}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{9AC4DE15-8934-4B61-903B-BDACAEC4AC30}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{0E8C015A-98EF-414A-9067-1D0C301B1A5E}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{9A61A77A-3B2E-4EDD-A9EB-421D6100337D}"/>
+    <hyperlink ref="B12:B13" r:id="rId6" display="http://hl7.org/fhir/StructureDefinition/Dosage" xr:uid="{8EA8C0BB-2D98-4F28-8641-84CBF6E2AFBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -8149,8 +8244,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8378,20 +8473,20 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/planOfCare2FHIR-eu-hdr</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>861</v>
@@ -8409,20 +8504,20 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/medicationSummary2FHIR-eu-hdr</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>861</v>
@@ -8440,20 +8535,20 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" ref="C10" si="1">"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A10</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hospitalStay2FHIR-eu-hdr</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>861</v>
@@ -14480,7 +14575,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -14611,10 +14706,10 @@
         <v>875</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
@@ -14625,10 +14720,10 @@
         <v>874</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.75">
@@ -14639,38 +14734,38 @@
         <v>872</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.75">
@@ -14681,10 +14776,10 @@
         <v>1151</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.75">
@@ -14695,10 +14790,10 @@
         <v>1152</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
@@ -14727,10 +14822,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -14742,7 +14837,7 @@
     <col min="5" max="5" width="42.90625" customWidth="1"/>
     <col min="6" max="6" width="15.58984375" customWidth="1"/>
     <col min="7" max="7" width="11.1328125" customWidth="1"/>
-    <col min="8" max="8" width="64.7265625" customWidth="1"/>
+    <col min="8" max="8" width="64.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
@@ -14767,11 +14862,11 @@
       <c r="G1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
@@ -14788,14 +14883,14 @@
         <v>HospitalStay.A.2.7.1 - Diagnostic summary</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>1277</v>
+      <c r="H2" s="9" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -14804,7 +14899,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A3</f>
@@ -14815,7 +14910,7 @@
         <v>HospitalStay.A.2.7.1.1 - Problem description</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -14829,7 +14924,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A4</f>
@@ -14840,7 +14935,7 @@
         <v>HospitalStay.A.2.7.1.2 - Problem details</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -14854,7 +14949,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A5</f>
@@ -14865,7 +14960,7 @@
         <v>HospitalStay.A.2.7.1.3 - Onset date</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -14879,7 +14974,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A6</f>
@@ -14890,7 +14985,7 @@
         <v>HospitalStay.A.2.7.1.4 - End date</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -14904,7 +14999,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A7</f>
@@ -14915,7 +15010,7 @@
         <v>HospitalStay.A.2.7.1.5 - Category</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -14929,7 +15024,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A8</f>
@@ -14940,7 +15035,7 @@
         <v>HospitalStay.A.2.7.1.6 - Treatment class</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -14954,7 +15049,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A9</f>
@@ -14965,7 +15060,7 @@
         <v>HospitalStay.A.2.7.1.7 - Clinical status</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -14979,7 +15074,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A10</f>
@@ -14997,7 +15092,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -15006,7 +15101,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A11</f>
@@ -15017,7 +15112,7 @@
         <v>HospitalStay.A.2.7.1.9 - Severity</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -15031,7 +15126,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A12</f>
@@ -15042,7 +15137,7 @@
         <v>HospitalStay.A.2.7.1.10 - Stage</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -15050,7 +15145,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A13" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
@@ -15067,14 +15162,14 @@
         <v>HospitalStay.A.2.7.2 - Significant procedures</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>1298</v>
+      <c r="H13" s="9" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -15083,7 +15178,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A14</f>
@@ -15094,7 +15189,7 @@
         <v>HospitalStay.A.2.7.2.1 - Procedure code</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
@@ -15108,7 +15203,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A15</f>
@@ -15119,7 +15214,7 @@
         <v>HospitalStay.A.2.7.2.2 - Procedure description</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -15133,7 +15228,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -15144,7 +15239,7 @@
         <v>HospitalStay.A.2.7.2.3 - Body site</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -15158,7 +15253,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -15169,14 +15264,14 @@
         <v>HospitalStay.A.2.7.2.3 - Body site</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
@@ -15185,7 +15280,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A17</f>
@@ -15196,7 +15291,7 @@
         <v>HospitalStay.A.2.7.2.4 - Procedure date</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
@@ -15210,7 +15305,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -15221,7 +15316,7 @@
         <v>HospitalStay.A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
@@ -15230,12 +15325,12 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A20" s="11" t="str">
+      <c r="A20" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -15246,7 +15341,7 @@
         <v>HospitalStay.A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
@@ -15255,12 +15350,12 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A21" s="11" t="str">
+      <c r="A21" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A19</f>
@@ -15271,7 +15366,7 @@
         <v>HospitalStay.A.2.7.2.6 - Outcome</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
@@ -15280,12 +15375,12 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A22" s="11" t="str">
+      <c r="A22" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -15296,7 +15391,7 @@
         <v>HospitalStay.A.2.7.2.7 - Complication</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -15305,12 +15400,12 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A23" s="11" t="str">
+      <c r="A23" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -15321,21 +15416,20 @@
         <v>HospitalStay.A.2.7.2.7 - Complication</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A24" s="11" t="str">
+      <c r="A24" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A21</f>
@@ -15346,14 +15440,15 @@
         <v>HospitalStay.A.2.7.2.8 - Focal device</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1309</v>
-      </c>
+        <v>1303</v>
+      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A25" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
@@ -15370,11 +15465,14 @@
         <v>HospitalStay.A.2.7.3 - Medical devices and implants</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
@@ -15383,7 +15481,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>902</v>
+        <v>1319</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -15394,13 +15492,14 @@
         <v>HospitalStay.A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G26" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>1287</v>
+      <c r="H26" s="9" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
@@ -15409,24 +15508,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>902</v>
+        <v>1305</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
-        <v>HospitalStay.medicalDevices.identifier</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
+        <v>HospitalStay.medicalDevices.description</v>
       </c>
       <c r="D27" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D24</f>
-        <v>HospitalStay.A.2.7.3.2 - Device ID</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D23</f>
+        <v>HospitalStay.A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G27" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>1287</v>
+      <c r="H27" s="9" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
@@ -15435,24 +15535,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>902</v>
+        <v>1305</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
-        <v>HospitalStay.medicalDevices.implantDate</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
+        <v>HospitalStay.medicalDevices.identifier</v>
       </c>
       <c r="D28" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D25</f>
-        <v>HospitalStay.A.2.7.3.3 - Implant date</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D24</f>
+        <v>HospitalStay.A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G28" s="13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>1287</v>
+      <c r="H28" s="9" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
@@ -15461,24 +15562,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>902</v>
+        <v>1305</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A26</f>
-        <v>HospitalStay.medicalDevices.endDate</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
+        <v>HospitalStay.medicalDevices.identifier</v>
       </c>
       <c r="D29" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D26</f>
-        <v>HospitalStay.A.2.7.3.4 - End date</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D24</f>
+        <v>HospitalStay.A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G29" s="13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>1287</v>
+      <c r="H29" s="9" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
@@ -15487,24 +15589,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>902</v>
+        <v>1319</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
-        <v>HospitalStay.medicalDevices.reason</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
+        <v>HospitalStay.medicalDevices.implantDate</v>
       </c>
       <c r="D30" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D27</f>
-        <v>HospitalStay.A.2.7.3.5 - Reason</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D25</f>
+        <v>HospitalStay.A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G30" s="13" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>1287</v>
+      <c r="H30" s="9" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
@@ -15513,23 +15616,26 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>902</v>
+        <v>1291</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A28</f>
-        <v>HospitalStay.pharmacotherapy</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
+        <v>HospitalStay.medicalDevices.implantDate</v>
       </c>
       <c r="D31" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D28</f>
-        <v>HospitalStay.A.2.7.5 - Pharmacotherapy</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D25</f>
+        <v>HospitalStay.A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G31" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="15"/>
+      <c r="H31" s="9" t="s">
+        <v>1322</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32" s="8" t="str">
@@ -15537,25 +15643,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>902</v>
+        <v>1319</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
-        <v>HospitalStay.pharmacotherapy.reason</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A26</f>
+        <v>HospitalStay.medicalDevices.endDate</v>
       </c>
       <c r="D32" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D29</f>
-        <v>HospitalStay.A.2.7.5.1 - Medication reason</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D26</f>
+        <v>HospitalStay.A.2.7.3.4 - End date</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G32" s="13" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>1287</v>
-      </c>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A33" s="8" t="str">
@@ -15563,25 +15668,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>902</v>
+        <v>1319</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
-        <v>HospitalStay.pharmacotherapy.productCode</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
+        <v>HospitalStay.medicalDevices.reason</v>
       </c>
       <c r="D33" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D30</f>
-        <v>HospitalStay.A.2.7.5.2 - Code</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D27</f>
+        <v>HospitalStay.A.2.7.3.5 - Reason</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G33" s="13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>1287</v>
-      </c>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" s="8" t="str">
@@ -15589,27 +15693,26 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>902</v>
+        <v>1319</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A31</f>
-        <v>HospitalStay.pharmacotherapy.intendedUse</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
+        <v>HospitalStay.medicalDevices.reason</v>
       </c>
       <c r="D34" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D31</f>
-        <v>HospitalStay.A.2.7.5.3 - Intended use</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D27</f>
+        <v>HospitalStay.A.2.7.3.5 - Reason</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G34" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="14" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A35" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
@@ -15618,21 +15721,22 @@
         <v>902</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A32</f>
-        <v>HospitalStay.pharmacotherapy.productName</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A28</f>
+        <v>HospitalStay.pharmacotherapy</v>
       </c>
       <c r="D35" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D32</f>
-        <v>HospitalStay.A.2.7.5.4 - Brand name</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D28</f>
+        <v>HospitalStay.A.2.7.5 - Pharmacotherapy</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1290</v>
-      </c>
+        <v>1284</v>
+      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>1287</v>
+      <c r="H35" s="9" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.75">
@@ -15641,25 +15745,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>902</v>
+        <v>1336</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A33</f>
-        <v>HospitalStay.pharmacotherapy.activeIngredient</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
+        <v>HospitalStay.pharmacotherapy.reason</v>
       </c>
       <c r="D36" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D33</f>
-        <v>HospitalStay.A.2.7.5.5 - Active ingredient list</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D29</f>
+        <v>HospitalStay.A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <v>1338</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A37" s="8" t="str">
@@ -15667,25 +15770,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>902</v>
+        <v>1336</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A34</f>
-        <v>HospitalStay.pharmacotherapy.strength</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
+        <v>HospitalStay.pharmacotherapy.reason</v>
       </c>
       <c r="D37" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D34</f>
-        <v>HospitalStay.A.2.7.5.6 - Strength</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D29</f>
+        <v>HospitalStay.A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <v>1339</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A38" s="8" t="str">
@@ -15693,25 +15795,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>902</v>
+        <v>1188</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A35</f>
-        <v>HospitalStay.pharmacotherapy.doseForm</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
+        <v>HospitalStay.pharmacotherapy.reason</v>
       </c>
       <c r="D38" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D35</f>
-        <v>HospitalStay.A.2.7.5.7 - Pharmaceutical dose form</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D29</f>
+        <v>HospitalStay.A.2.7.5.1 - Medication reason</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A39" s="8" t="str">
@@ -15719,25 +15820,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>902</v>
+        <v>1188</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
-        <v>HospitalStay.pharmacotherapy.dosageRegimen</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
+        <v>HospitalStay.pharmacotherapy.reason</v>
       </c>
       <c r="D39" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D36</f>
-        <v>HospitalStay.A.2.7.5.8 - Dosage Regimen</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D29</f>
+        <v>HospitalStay.A.2.7.5.1 - Medication reason</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A40" s="8" t="str">
@@ -15745,25 +15845,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>902</v>
+        <v>1208</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
-        <v>HospitalStay.pharmacotherapy.route</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
+        <v>HospitalStay.pharmacotherapy.reason</v>
       </c>
       <c r="D40" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D37</f>
-        <v>HospitalStay.A.2.7.5.9 - Route of administration</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D29</f>
+        <v>HospitalStay.A.2.7.5.1 - Medication reason</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A41" s="8" t="str">
@@ -15771,25 +15870,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>902</v>
+        <v>1208</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
-        <v>HospitalStay.pharmacotherapy.period</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
+        <v>HospitalStay.pharmacotherapy.reason</v>
       </c>
       <c r="D41" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D38</f>
-        <v>HospitalStay.A.2.7.5.10 - Period of treatment</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D29</f>
+        <v>HospitalStay.A.2.7.5.1 - Medication reason</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A42" s="8" t="str">
@@ -15797,23 +15895,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>902</v>
+        <v>1337</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A39</f>
-        <v>HospitalStay.significantResults</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
+        <v>HospitalStay.pharmacotherapy.reason</v>
       </c>
       <c r="D42" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D39</f>
-        <v>HospitalStay.A.2.7.6 - Significant Observation Results</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="15"/>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D29</f>
+        <v>HospitalStay.A.2.7.5.1 - Medication reason</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A43" s="8" t="str">
@@ -15821,25 +15920,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>902</v>
+        <v>1337</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A40</f>
-        <v>HospitalStay.significantResults.date</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
+        <v>HospitalStay.pharmacotherapy.reason</v>
       </c>
       <c r="D43" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D40</f>
-        <v>HospitalStay.A.2.7.6.1 - Date</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D29</f>
+        <v>HospitalStay.A.2.7.5.1 - Medication reason</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A44" s="8" t="str">
@@ -15847,25 +15945,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>902</v>
+        <v>1188</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A41</f>
-        <v>HospitalStay.significantResults.status</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
+        <v>HospitalStay.pharmacotherapy.productCode</v>
       </c>
       <c r="D44" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D41</f>
-        <v>HospitalStay.A.2.7.6.2 - Observation status</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D30</f>
+        <v>HospitalStay.A.2.7.5.2 - Code</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A45" s="8" t="str">
@@ -15873,25 +15970,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>902</v>
+        <v>1208</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A42</f>
-        <v>HospitalStay.significantResults.description</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
+        <v>HospitalStay.pharmacotherapy.productCode</v>
       </c>
       <c r="D45" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D42</f>
-        <v>HospitalStay.A.2.7.6.3 - Result description</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D30</f>
+        <v>HospitalStay.A.2.7.5.2 - Code</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A46" s="8" t="str">
@@ -15899,25 +15995,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>902</v>
+        <v>1336</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A43</f>
-        <v>HospitalStay.significantResults.details</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
+        <v>HospitalStay.pharmacotherapy.productCode</v>
       </c>
       <c r="D46" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D43</f>
-        <v>HospitalStay.A.2.7.6.4 - Observation details</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D30</f>
+        <v>HospitalStay.A.2.7.5.2 - Code</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A47" s="8" t="str">
@@ -15925,25 +16020,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>902</v>
+        <v>1337</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
-        <v>HospitalStay.significantResults.result</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
+        <v>HospitalStay.pharmacotherapy.productCode</v>
       </c>
       <c r="D47" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D44</f>
-        <v>HospitalStay.A.2.7.6.5 - Observation result</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D30</f>
+        <v>HospitalStay.A.2.7.5.2 - Code</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A48" s="8" t="str">
@@ -15951,25 +16045,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>902</v>
+        <v>1190</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A45</f>
-        <v>HospitalStay.significantResults.reporter</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
+        <v>HospitalStay.pharmacotherapy.productCode</v>
       </c>
       <c r="D48" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D45</f>
-        <v>HospitalStay.A.2.7.6.7 - Reporter</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D30</f>
+        <v>HospitalStay.A.2.7.5.2 - Code</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A49" s="8" t="str">
@@ -15977,23 +16070,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>902</v>
+        <v>1190</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A46</f>
-        <v>HospitalStay.synthesis</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A31</f>
+        <v>HospitalStay.pharmacotherapy.intendedUse</v>
       </c>
       <c r="D49" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D46</f>
-        <v>HospitalStay.A.2.7.7 - Synthesis</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D31</f>
+        <v>HospitalStay.A.2.7.5.3 - Intended use</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="15"/>
+        <v>1284</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A50" s="8" t="str">
@@ -16001,25 +16095,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>902</v>
+        <v>1190</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A47</f>
-        <v>HospitalStay.synthesis.description</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A32</f>
+        <v>HospitalStay.pharmacotherapy.productName</v>
       </c>
       <c r="D50" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D47</f>
-        <v>HospitalStay.A.2.7.7.1 - Problem synthesis</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>1287</v>
-      </c>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D32</f>
+        <v>HospitalStay.A.2.7.5.4 - Brand name</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A51" s="8" t="str">
@@ -16027,25 +16120,598 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C51" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A33</f>
+        <v>HospitalStay.pharmacotherapy.activeIngredient</v>
+      </c>
+      <c r="D51" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D33</f>
+        <v>HospitalStay.A.2.7.5.5 - Active ingredient list</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A52" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C52" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A34</f>
+        <v>HospitalStay.pharmacotherapy.strength</v>
+      </c>
+      <c r="D52" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D34</f>
+        <v>HospitalStay.A.2.7.5.6 - Strength</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A53" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C53" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A35</f>
+        <v>HospitalStay.pharmacotherapy.doseForm</v>
+      </c>
+      <c r="D53" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D35</f>
+        <v>HospitalStay.A.2.7.5.7 - Pharmaceutical dose form</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A54" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C54" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
+        <v>HospitalStay.pharmacotherapy.dosageRegimen</v>
+      </c>
+      <c r="D54" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D36</f>
+        <v>HospitalStay.A.2.7.5.8 - Dosage Regimen</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A55" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C55" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
+        <v>HospitalStay.pharmacotherapy.dosageRegimen</v>
+      </c>
+      <c r="D55" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D36</f>
+        <v>HospitalStay.A.2.7.5.8 - Dosage Regimen</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A56" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C56" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
+        <v>HospitalStay.pharmacotherapy.route</v>
+      </c>
+      <c r="D56" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D37</f>
+        <v>HospitalStay.A.2.7.5.9 - Route of administration</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A57" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C57" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
+        <v>HospitalStay.pharmacotherapy.route</v>
+      </c>
+      <c r="D57" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D37</f>
+        <v>HospitalStay.A.2.7.5.9 - Route of administration</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A58" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C58" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
+        <v>HospitalStay.pharmacotherapy.period</v>
+      </c>
+      <c r="D58" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D38</f>
+        <v>HospitalStay.A.2.7.5.10 - Period of treatment</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A59" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C59" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
+        <v>HospitalStay.pharmacotherapy.period</v>
+      </c>
+      <c r="D59" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D38</f>
+        <v>HospitalStay.A.2.7.5.10 - Period of treatment</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A60" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C60" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
+        <v>HospitalStay.pharmacotherapy.period</v>
+      </c>
+      <c r="D60" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D38</f>
+        <v>HospitalStay.A.2.7.5.10 - Period of treatment</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A61" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="C51" s="9" t="str">
+      <c r="C61" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A39</f>
+        <v>HospitalStay.significantResults</v>
+      </c>
+      <c r="D61" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D39</f>
+        <v>HospitalStay.A.2.7.6 - Significant Observation Results</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A62" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C62" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A40</f>
+        <v>HospitalStay.significantResults.date</v>
+      </c>
+      <c r="D62" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D40</f>
+        <v>HospitalStay.A.2.7.6.1 - Date</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A63" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C63" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A41</f>
+        <v>HospitalStay.significantResults.status</v>
+      </c>
+      <c r="D63" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D41</f>
+        <v>HospitalStay.A.2.7.6.2 - Observation status</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A64" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C64" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A42</f>
+        <v>HospitalStay.significantResults.description</v>
+      </c>
+      <c r="D64" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D42</f>
+        <v>HospitalStay.A.2.7.6.3 - Result description</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A65" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C65" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A43</f>
+        <v>HospitalStay.significantResults.details</v>
+      </c>
+      <c r="D65" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D43</f>
+        <v>HospitalStay.A.2.7.6.4 - Observation details</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A66" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C66" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
+        <v>HospitalStay.significantResults.result</v>
+      </c>
+      <c r="D66" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D44</f>
+        <v>HospitalStay.A.2.7.6.5 - Observation result</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A67" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C67" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A45</f>
+        <v>HospitalStay.significantResults.reporter</v>
+      </c>
+      <c r="D67" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D45</f>
+        <v>HospitalStay.A.2.7.6.7 - Reporter</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A68" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C68" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A46</f>
+        <v>HospitalStay.synthesis</v>
+      </c>
+      <c r="D68" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D46</f>
+        <v>HospitalStay.A.2.7.7 - Synthesis</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A69" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C69" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A47</f>
+        <v>HospitalStay.synthesis.description</v>
+      </c>
+      <c r="D69" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D47</f>
+        <v>HospitalStay.A.2.7.7.1 - Problem synthesis</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A70" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C70" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A48</f>
         <v>HospitalStay.synthesis.reasoning</v>
       </c>
-      <c r="D51" s="9" t="str">
+      <c r="D70" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!D48</f>
         <v>HospitalStay.A.2.7.7.2 - Clinical reasoning</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G51" s="13" t="s">
+      <c r="E70" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="14" t="s">
-        <v>1287</v>
-      </c>
+      <c r="H70" s="14" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.75">
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.75">
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.75">
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.75">
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.75">
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.75">
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.75">
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.75">
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.75">
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16055,46 +16721,55 @@
     <hyperlink ref="B2" r:id="rId4" xr:uid="{9D31C99A-4131-437D-908C-E577823AA465}"/>
     <hyperlink ref="B13" r:id="rId5" xr:uid="{0608F21A-4822-44AC-8BD3-95B85DA34FF4}"/>
     <hyperlink ref="B26" r:id="rId6" xr:uid="{F7275174-C5B2-4943-8EDD-7C4D82FA0A08}"/>
-    <hyperlink ref="B28" r:id="rId7" xr:uid="{C77926B4-7EE1-4EC6-B4C5-0473052445EF}"/>
-    <hyperlink ref="B30" r:id="rId8" xr:uid="{48985362-312B-4345-874D-2EA3BF6DAA17}"/>
-    <hyperlink ref="B32" r:id="rId9" xr:uid="{87F54F97-6E1A-4607-86DD-1C7AEC637F46}"/>
-    <hyperlink ref="B34" r:id="rId10" xr:uid="{14F23EC8-0F33-4FEE-8B85-27AAA0415817}"/>
-    <hyperlink ref="B36" r:id="rId11" xr:uid="{7EC4BA8B-7C06-4590-B90B-ED095D98CEA6}"/>
-    <hyperlink ref="B38" r:id="rId12" xr:uid="{6B4EE0EB-81AB-42A0-96F1-316EBCEB21D3}"/>
-    <hyperlink ref="B40" r:id="rId13" xr:uid="{57589909-C82E-4CCC-AFEC-19027B463B9F}"/>
-    <hyperlink ref="B42" r:id="rId14" xr:uid="{C5CAF0FA-76BF-4F18-8A28-588AF84A19CA}"/>
-    <hyperlink ref="B44" r:id="rId15" xr:uid="{869E4BF5-64BF-4D56-AFDC-1F80324EA37E}"/>
-    <hyperlink ref="B46" r:id="rId16" xr:uid="{F3BD165A-0145-4059-B657-15F962782CAF}"/>
-    <hyperlink ref="B48" r:id="rId17" xr:uid="{AEF02623-BA49-4C21-A4BD-011FA05D2885}"/>
-    <hyperlink ref="B50" r:id="rId18" xr:uid="{4EBB94A4-FDD7-4A12-AC43-9F5CFB7F645A}"/>
-    <hyperlink ref="B14" r:id="rId19" xr:uid="{8603B1A4-55C2-4699-80D4-13543687D8FF}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{A0C11AAC-F603-4A70-BC64-BE4E56766FE4}"/>
-    <hyperlink ref="B27" r:id="rId21" xr:uid="{B13365A4-8DF0-4D3E-B191-291E1F59A960}"/>
-    <hyperlink ref="B29" r:id="rId22" xr:uid="{C313ED09-CD7D-490E-8452-645CEAF92509}"/>
-    <hyperlink ref="B31" r:id="rId23" xr:uid="{248F266D-528D-4330-BFE7-A2D331417665}"/>
-    <hyperlink ref="B33" r:id="rId24" xr:uid="{8B0ECC09-40F9-4285-A902-7162986C28BB}"/>
-    <hyperlink ref="B35" r:id="rId25" xr:uid="{743E42E0-8041-4BE9-AF8E-B30CA6CB3905}"/>
-    <hyperlink ref="B37" r:id="rId26" xr:uid="{DF1D73B4-783D-43AA-824D-20120DB4EF0F}"/>
-    <hyperlink ref="B39" r:id="rId27" xr:uid="{CAD6712F-B904-4823-A0C0-6B962C57EBC1}"/>
-    <hyperlink ref="B41" r:id="rId28" xr:uid="{4116B2C3-E2BC-442B-A63D-174A8F9D026C}"/>
-    <hyperlink ref="B43" r:id="rId29" xr:uid="{BE37CBAD-3761-4848-9719-B7E46E42F586}"/>
-    <hyperlink ref="B45" r:id="rId30" xr:uid="{AD641D00-9BB7-4C10-A2B6-CFE7420D46D1}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{1D1B7B64-488A-4335-B512-5EEEED552F41}"/>
-    <hyperlink ref="B49" r:id="rId32" xr:uid="{39BFD6BF-4BB5-4D49-B6F7-3930EE773EB9}"/>
-    <hyperlink ref="B51" r:id="rId33" xr:uid="{5A402808-519E-482D-AD14-7A83D42C69BC}"/>
-    <hyperlink ref="B4:B12" r:id="rId34" display="http://hl7.eu/fhir/hdr/StructureDefinition/condition-eu-hdr" xr:uid="{C99594A2-DC35-4AAA-A8FF-ECEDEC04D888}"/>
-    <hyperlink ref="A3:A51" r:id="rId35" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{4172EE50-327F-4759-9194-4A6A4EE9FE2E}"/>
-    <hyperlink ref="B15:B24" r:id="rId36" display="http://hl7.eu/fhir/hdr/StructureDefinition/procedure-eu-hdr" xr:uid="{11465EA0-C892-4233-9CE1-6B6A8996F738}"/>
-    <hyperlink ref="A17" r:id="rId37" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{8035035C-AE47-436D-8B48-21C558EED0A5}"/>
-    <hyperlink ref="B17" r:id="rId38" xr:uid="{2A4586F9-1F5D-414E-B8F1-B8D19F9A848A}"/>
-    <hyperlink ref="A20" r:id="rId39" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{30F0439E-FBEC-4D7E-B5E2-700E8A964891}"/>
-    <hyperlink ref="A21" r:id="rId40" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{BF200BB8-1E27-4530-8E82-94150A84ED43}"/>
-    <hyperlink ref="A22" r:id="rId41" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{D5654463-DF4C-4515-B9DB-D2306C7CF960}"/>
-    <hyperlink ref="A23" r:id="rId42" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{20C4FA90-09C9-4937-98B9-66E0F27465EB}"/>
-    <hyperlink ref="B20" r:id="rId43" xr:uid="{3D502B2E-CCBB-4A8A-B54C-01A771D35ABD}"/>
-    <hyperlink ref="B21" r:id="rId44" xr:uid="{83D53DFB-934E-4F3E-A0CF-EEFACA1940D0}"/>
-    <hyperlink ref="B22" r:id="rId45" xr:uid="{04FDCB16-C035-4EEB-AE40-040219EB6626}"/>
-    <hyperlink ref="B23" r:id="rId46" xr:uid="{CBF6EF75-9B40-4D63-B0F2-5D295D3F47D0}"/>
+    <hyperlink ref="B61" r:id="rId7" xr:uid="{C5CAF0FA-76BF-4F18-8A28-588AF84A19CA}"/>
+    <hyperlink ref="B63" r:id="rId8" xr:uid="{869E4BF5-64BF-4D56-AFDC-1F80324EA37E}"/>
+    <hyperlink ref="B65" r:id="rId9" xr:uid="{F3BD165A-0145-4059-B657-15F962782CAF}"/>
+    <hyperlink ref="B67" r:id="rId10" xr:uid="{AEF02623-BA49-4C21-A4BD-011FA05D2885}"/>
+    <hyperlink ref="B69" r:id="rId11" xr:uid="{4EBB94A4-FDD7-4A12-AC43-9F5CFB7F645A}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{8603B1A4-55C2-4699-80D4-13543687D8FF}"/>
+    <hyperlink ref="B25" r:id="rId13" xr:uid="{A0C11AAC-F603-4A70-BC64-BE4E56766FE4}"/>
+    <hyperlink ref="B35" r:id="rId14" xr:uid="{248F266D-528D-4330-BFE7-A2D331417665}"/>
+    <hyperlink ref="B62" r:id="rId15" xr:uid="{BE37CBAD-3761-4848-9719-B7E46E42F586}"/>
+    <hyperlink ref="B64" r:id="rId16" xr:uid="{AD641D00-9BB7-4C10-A2B6-CFE7420D46D1}"/>
+    <hyperlink ref="B66" r:id="rId17" xr:uid="{1D1B7B64-488A-4335-B512-5EEEED552F41}"/>
+    <hyperlink ref="B68" r:id="rId18" xr:uid="{39BFD6BF-4BB5-4D49-B6F7-3930EE773EB9}"/>
+    <hyperlink ref="B70" r:id="rId19" xr:uid="{5A402808-519E-482D-AD14-7A83D42C69BC}"/>
+    <hyperlink ref="B4:B12" r:id="rId20" display="http://hl7.eu/fhir/hdr/StructureDefinition/condition-eu-hdr" xr:uid="{C99594A2-DC35-4AAA-A8FF-ECEDEC04D888}"/>
+    <hyperlink ref="B15:B24" r:id="rId21" display="http://hl7.eu/fhir/hdr/StructureDefinition/procedure-eu-hdr" xr:uid="{11465EA0-C892-4233-9CE1-6B6A8996F738}"/>
+    <hyperlink ref="B17" r:id="rId22" xr:uid="{2A4586F9-1F5D-414E-B8F1-B8D19F9A848A}"/>
+    <hyperlink ref="B20" r:id="rId23" xr:uid="{3D502B2E-CCBB-4A8A-B54C-01A771D35ABD}"/>
+    <hyperlink ref="B21" r:id="rId24" xr:uid="{83D53DFB-934E-4F3E-A0CF-EEFACA1940D0}"/>
+    <hyperlink ref="B22" r:id="rId25" xr:uid="{04FDCB16-C035-4EEB-AE40-040219EB6626}"/>
+    <hyperlink ref="B23" r:id="rId26" xr:uid="{CBF6EF75-9B40-4D63-B0F2-5D295D3F47D0}"/>
+    <hyperlink ref="B27" r:id="rId27" xr:uid="{9B091FB0-6CC8-4F9A-8193-729AE4EDF2DC}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{C48C08DA-3D64-4710-B3F9-5AD75E0FD471}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{CF02B558-F628-451A-8D9B-7E1F1596B565}"/>
+    <hyperlink ref="B30" r:id="rId30" xr:uid="{C1CF2DEF-18A5-436B-B9F8-AE6721E50991}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{0730299F-D358-46E7-B884-F04B6550243D}"/>
+    <hyperlink ref="B33:B34" r:id="rId32" display="http://hl7.eu/fhir/hdr/StructureDefinition/deviceUseStatement-eu-hdr" xr:uid="{9FC70F59-3C76-420A-9FFB-84F4E3628FE6}"/>
+    <hyperlink ref="B54" r:id="rId33" xr:uid="{41F517A4-054C-41F5-860D-7B046AF4720D}"/>
+    <hyperlink ref="B56" r:id="rId34" xr:uid="{FA628003-6A12-494A-86CD-170EE0657572}"/>
+    <hyperlink ref="B58" r:id="rId35" xr:uid="{79B630C8-F165-45E7-8F67-E87434D3311E}"/>
+    <hyperlink ref="A45" r:id="rId36" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{5DB25E95-03A2-42CE-AFB7-814E6F6A981E}"/>
+    <hyperlink ref="A46:A48" r:id="rId37" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{CD5BC44C-699E-4D18-9279-D84CA1DDBD8A}"/>
+    <hyperlink ref="A49" r:id="rId38" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{A5932BF7-353C-4758-A0EA-3A4253EED4BF}"/>
+    <hyperlink ref="A50:A56" r:id="rId39" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{97E7AD85-6326-45C8-B437-29E440B84A15}"/>
+    <hyperlink ref="A57" r:id="rId40" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{DD64BE54-CFCE-40EF-A9C9-3511FBA5BDB4}"/>
+    <hyperlink ref="A58" r:id="rId41" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{BE1C7E9E-E668-4A0B-8BB0-143FD59B4F81}"/>
+    <hyperlink ref="A59" r:id="rId42" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{9E21F060-2E19-4FBE-8349-E0BEE5E09D00}"/>
+    <hyperlink ref="A60" r:id="rId43" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{4B332FDB-6217-4FCC-8758-04499AFAFDC5}"/>
+    <hyperlink ref="B48" r:id="rId44" xr:uid="{FA2DFF67-DE5E-4244-B6F9-5F8E9941EFE5}"/>
+    <hyperlink ref="B49:B53" r:id="rId45" display="http://hl7.eu/fhir/hdr/StructureDefinition/medication-eu-hdr" xr:uid="{4776D030-54C0-4228-9CCF-CC22BABD8191}"/>
+    <hyperlink ref="B46" r:id="rId46" xr:uid="{D01E7E96-E5B5-4F08-AC0C-E8385DD0BAD6}"/>
+    <hyperlink ref="B55" r:id="rId47" xr:uid="{73E4B839-461A-4DE0-9871-264ED3C87B3E}"/>
+    <hyperlink ref="B57" r:id="rId48" xr:uid="{793159DC-75A3-463A-B510-C434934477EE}"/>
+    <hyperlink ref="B59" r:id="rId49" xr:uid="{62C7241D-6BD1-4EE4-A7DC-722825E30036}"/>
+    <hyperlink ref="B60" r:id="rId50" xr:uid="{6D51D302-A12D-44B7-8219-5B83EC0C90A6}"/>
+    <hyperlink ref="B47" r:id="rId51" xr:uid="{F28C4594-25F3-40A1-A183-75C0B8B6326E}"/>
+    <hyperlink ref="B36" r:id="rId52" xr:uid="{412E3AEF-E2CB-4D5E-AB9F-90DB43AFE5CE}"/>
+    <hyperlink ref="B43" r:id="rId53" xr:uid="{814C1E09-0EF4-4A9B-BE34-6B5D28E43BE5}"/>
+    <hyperlink ref="B37" r:id="rId54" xr:uid="{B69865DF-3192-4A76-89F4-C4183F6A5C02}"/>
+    <hyperlink ref="B42" r:id="rId55" xr:uid="{9C7C38FD-A6D2-4EC6-A8BA-E4C07ABDF006}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16104,8 +16779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -17110,7 +17785,7 @@
         <v>A.2.2 - Alerts</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -17164,7 +17839,7 @@
         <v>A.2.4 - Admission evaluation</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -17191,7 +17866,7 @@
         <v>A.2.5 - Patient history</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -17245,7 +17920,7 @@
         <v>A.2.7 - Discharge details</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -17272,7 +17947,7 @@
         <v>A.2.7.1 - Objective findings</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -17297,7 +17972,7 @@
         <v>A.2.7.1 - Objective findings</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
@@ -17322,7 +17997,7 @@
         <v>A.2.7.2 - Functional status</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
@@ -17347,7 +18022,7 @@
         <v>A.2.7.2 - Functional status</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -17372,7 +18047,7 @@
         <v>A.2.7.3 - Discharge note</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -17397,14 +18072,14 @@
         <v>A.2.8 - Care plan and other recommendations after discharge.</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -17708,7 +18383,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -17718,7 +18393,7 @@
         <v>ObjectiveFindingsHdrEhn</v>
       </c>
       <c r="D12" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="E12" t="s">
         <v>107</v>
@@ -17726,7 +18401,7 @@
     </row>
     <row r="13" spans="1:5" ht="59" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -17736,15 +18411,15 @@
         <v>FunctionalStatusHdrEhn</v>
       </c>
       <c r="D13" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -17753,7 +18428,7 @@
         <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="E14" t="s">
         <v>208</v>
@@ -17778,7 +18453,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -17787,7 +18462,7 @@
         <v>1149</v>
       </c>
       <c r="D16" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="E16" t="s">
         <v>691</v>
@@ -17795,7 +18470,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -17804,7 +18479,7 @@
         <v>1150</v>
       </c>
       <c r="D17" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="E17" t="s">
         <v>701</v>
@@ -17812,7 +18487,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -17821,7 +18496,7 @@
         <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="E18" t="s">
         <v>708</v>
@@ -18101,7 +18776,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -18118,7 +18793,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -18135,7 +18810,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -18152,7 +18827,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -18169,7 +18844,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -18186,7 +18861,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -18203,7 +18878,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -18220,7 +18895,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -18237,7 +18912,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -18254,7 +18929,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -18271,7 +18946,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -18299,7 +18974,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -18357,14 +19032,14 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -18384,14 +19059,14 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -18400,7 +19075,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A3</f>
@@ -18411,7 +19086,7 @@
         <v>A.2.8.2.2 - Onset Date</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -18443,7 +19118,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -18468,7 +19143,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -18493,7 +19168,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F7071-4EE1-44FD-9216-6FAF5801528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD06B16-7E8E-4F90-B24E-B15903CFF3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="3" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
+    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
   <sheets>
     <sheet name="IG-groups" sheetId="31" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="1384">
   <si>
     <t>Group Source</t>
   </si>
@@ -3913,12 +3913,6 @@
     <t>Condition.abatementDateTime</t>
   </si>
   <si>
-    <t>Composition.category:poa</t>
-  </si>
-  <si>
-    <t>Composition.category:treated</t>
-  </si>
-  <si>
     <t>Composition.clinicalStatus</t>
   </si>
   <si>
@@ -4244,6 +4238,24 @@
   </si>
   <si>
     <t>http://hl7.eu/fhir/hdr/StructureDefinition/ImmunizationRecommendation-eu-hdr</t>
+  </si>
+  <si>
+    <t>Condition.category:poa</t>
+  </si>
+  <si>
+    <t>Condition.category:treated</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus</t>
+  </si>
+  <si>
+    <t>Condition.severity</t>
+  </si>
+  <si>
+    <t>Condition.stage</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionDiagnosticSummary.text</t>
   </si>
 </sst>
 </file>
@@ -5875,7 +5887,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A9</f>
@@ -5886,14 +5898,14 @@
         <v>A.2.9.2.8 - Dosage Regimen</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -5902,7 +5914,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A10</f>
@@ -5913,7 +5925,7 @@
         <v>A.2.9.2.9 - Route of administration</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -5927,7 +5939,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A11</f>
@@ -5938,7 +5950,7 @@
         <v>A.2.9.2.10 - Period of treatment</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="13" t="s">
@@ -7119,7 +7131,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -7580,7 +7592,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7870,20 +7882,20 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" ref="C10:C11" si="1">"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A10</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hospitalStay2FHIR-eu-hdr</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>860</v>
@@ -7901,20 +7913,20 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/patientHistory2FHIR-eu-hdr</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>860</v>
@@ -8481,7 +8493,7 @@
         <v>899</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C8" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -8506,7 +8518,7 @@
         <v>899</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C9" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -8531,7 +8543,7 @@
         <v>899</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C10" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
@@ -8556,7 +8568,7 @@
         <v>899</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C11" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
@@ -8675,7 +8687,7 @@
         <v>899</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C16" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -8700,7 +8712,7 @@
         <v>899</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C17" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -8725,7 +8737,7 @@
         <v>899</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C18" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
@@ -8750,7 +8762,7 @@
         <v>899</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C19" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
@@ -9075,7 +9087,7 @@
         <v>899</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C33" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
@@ -9100,7 +9112,7 @@
         <v>899</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C34" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
@@ -9125,7 +9137,7 @@
         <v>899</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C35" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
@@ -9265,7 +9277,7 @@
         <v>910</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C3" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A2</f>
@@ -9282,7 +9294,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
@@ -9415,7 +9427,7 @@
         <v>910</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C9" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A4</f>
@@ -9437,7 +9449,7 @@
         <v>910</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C10" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A5</f>
@@ -9484,7 +9496,7 @@
         <v>910</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C12" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A6</f>
@@ -9534,7 +9546,7 @@
         <v>910</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C14" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A8</f>
@@ -9713,7 +9725,7 @@
         <v>910</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C22" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A15</f>
@@ -9738,7 +9750,7 @@
         <v>910</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C23" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A16</f>
@@ -9760,7 +9772,7 @@
         <v>910</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C24" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A17</f>
@@ -9785,7 +9797,7 @@
         <v>910</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C25" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A18</f>
@@ -9810,7 +9822,7 @@
         <v>910</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C26" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A19</f>
@@ -9879,7 +9891,7 @@
         <v>910</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C29" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A21</f>
@@ -9904,7 +9916,7 @@
         <v>910</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C30" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A22</f>
@@ -9926,7 +9938,7 @@
         <v>910</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C31" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A23</f>
@@ -9948,7 +9960,7 @@
         <v>910</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C32" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A24</f>
@@ -9970,7 +9982,7 @@
         <v>910</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C33" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A25</f>
@@ -10039,7 +10051,7 @@
         <v>910</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C36" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A27</f>
@@ -10064,7 +10076,7 @@
         <v>910</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C37" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A28</f>
@@ -10089,7 +10101,7 @@
         <v>910</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C38" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A29</f>
@@ -10114,7 +10126,7 @@
         <v>910</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C39" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A30</f>
@@ -10139,7 +10151,7 @@
         <v>910</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C40" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A31</f>
@@ -11550,7 +11562,7 @@
         <v>996</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C2" t="str">
         <f>SubjectHdrEhn!A2</f>
@@ -11572,7 +11584,7 @@
         <v>996</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C3" t="str">
         <f>SubjectHdrEhn!A3</f>
@@ -11594,7 +11606,7 @@
         <v>996</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C4" t="str">
         <f>SubjectHdrEhn!A4</f>
@@ -11616,7 +11628,7 @@
         <v>996</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C5" t="str">
         <f>SubjectHdrEhn!A5</f>
@@ -11638,7 +11650,7 @@
         <v>996</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C6" t="str">
         <f>SubjectHdrEhn!A6</f>
@@ -11660,7 +11672,7 @@
         <v>996</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C7" t="str">
         <f>SubjectHdrEhn!A7</f>
@@ -11685,7 +11697,7 @@
         <v>996</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C8" t="str">
         <f>SubjectHdrEhn!A8</f>
@@ -11707,7 +11719,7 @@
         <v>996</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>SubjectHdrEhn!A9</f>
@@ -11732,7 +11744,7 @@
         <v>996</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C10" t="str">
         <f>SubjectHdrEhn!A10</f>
@@ -11754,7 +11766,7 @@
         <v>996</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C11" t="str">
         <f>SubjectHdrEhn!A11</f>
@@ -11776,7 +11788,7 @@
         <v>996</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C12" t="str">
         <f>SubjectHdrEhn!A12</f>
@@ -11798,7 +11810,7 @@
         <v>996</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C13" t="str">
         <f>SubjectHdrEhn!A13</f>
@@ -11820,7 +11832,7 @@
         <v>996</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C14" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11842,7 +11854,7 @@
         <v>996</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C15" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11867,7 +11879,7 @@
         <v>996</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C16" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11889,7 +11901,7 @@
         <v>996</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C17" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11914,7 +11926,7 @@
         <v>996</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C18" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11936,7 +11948,7 @@
         <v>996</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C19" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11961,7 +11973,7 @@
         <v>996</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C20" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11983,7 +11995,7 @@
         <v>996</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C21" t="str">
         <f>SubjectHdrEhn!A17</f>
@@ -12005,7 +12017,7 @@
         <v>996</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C22" t="str">
         <f>SubjectHdrEhn!A18</f>
@@ -12027,7 +12039,7 @@
         <v>996</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C23" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -12052,7 +12064,7 @@
         <v>996</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C24" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -12074,7 +12086,7 @@
         <v>996</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C25" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -12099,7 +12111,7 @@
         <v>996</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C26" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -12121,7 +12133,7 @@
         <v>996</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C27" t="str">
         <f>SubjectHdrEhn!A21</f>
@@ -12143,7 +12155,7 @@
         <v>996</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C28" t="str">
         <f>SubjectHdrEhn!A22</f>
@@ -12154,7 +12166,7 @@
         <v>A.1.2.3.1 - Role of that person</v>
       </c>
       <c r="E28" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -12165,7 +12177,7 @@
         <v>996</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C29" t="str">
         <f>SubjectHdrEhn!A23</f>
@@ -12176,7 +12188,7 @@
         <v>A.1.2.3.2 - Relationship level</v>
       </c>
       <c r="E29" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
@@ -12187,7 +12199,7 @@
         <v>996</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C30" t="str">
         <f>SubjectHdrEhn!A24</f>
@@ -12209,7 +12221,7 @@
         <v>996</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C31" t="str">
         <f>SubjectHdrEhn!A25</f>
@@ -12231,7 +12243,7 @@
         <v>996</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C32" t="str">
         <f>SubjectHdrEhn!A26</f>
@@ -12253,7 +12265,7 @@
         <v>996</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C33" t="str">
         <f>SubjectHdrEhn!A27</f>
@@ -12275,7 +12287,7 @@
         <v>996</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C34" t="str">
         <f>SubjectHdrEhn!A28</f>
@@ -13959,7 +13971,7 @@
   </sheetPr>
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B26" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -14018,14 +14030,14 @@
         <v>A.2.6.1 - Medical history</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -14045,14 +14057,14 @@
         <v>A.2.6.1.1 - History of problems</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -14172,7 +14184,7 @@
         <v>A.2.6.1.1.5 - Clinical status</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -14204,7 +14216,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
@@ -14224,7 +14236,7 @@
         <v>A.2.6.1.1.7 - Severity</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -14249,7 +14261,7 @@
         <v>A.2.6.1.1.8 - Stage</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -14274,14 +14286,14 @@
         <v>A.2.6.1.2 - Devices and Implants</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
@@ -14290,7 +14302,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
@@ -14301,20 +14313,20 @@
         <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
@@ -14325,14 +14337,14 @@
         <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
@@ -14341,7 +14353,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
@@ -14352,20 +14364,20 @@
         <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
@@ -14376,14 +14388,14 @@
         <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
@@ -14392,7 +14404,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
@@ -14403,20 +14415,20 @@
         <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
@@ -14427,14 +14439,14 @@
         <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
@@ -14443,7 +14455,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A16</f>
@@ -14454,7 +14466,7 @@
         <v>A.2.6.1.2.4 - End date</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="22" t="s">
@@ -14468,7 +14480,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
@@ -14479,14 +14491,14 @@
         <v>A.2.6.1.2.5 - Reason</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="22" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
@@ -14495,7 +14507,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
@@ -14506,7 +14518,7 @@
         <v>A.2.6.1.2.5 - Reason</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
@@ -14520,7 +14532,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A18</f>
@@ -14531,14 +14543,14 @@
         <v>A.2.6.1.3 - History of procedures</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
@@ -14547,7 +14559,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A19</f>
@@ -14558,7 +14570,7 @@
         <v>A.2.6.1.3.1 - Procedure code</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
@@ -14572,7 +14584,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A20</f>
@@ -14583,7 +14595,7 @@
         <v>A.2.6.1.3.2 - Procedure description</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
@@ -14597,7 +14609,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
@@ -14608,7 +14620,7 @@
         <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -14619,7 +14631,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" s="8"/>
       <c r="B26" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
@@ -14630,14 +14642,14 @@
         <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
@@ -14646,7 +14658,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A22</f>
@@ -14657,7 +14669,7 @@
         <v>A.2.6.1.3.4 - Procedure date</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
@@ -14671,7 +14683,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
@@ -14682,7 +14694,7 @@
         <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
@@ -14693,7 +14705,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="8"/>
       <c r="B29" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
@@ -14704,7 +14716,7 @@
         <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
@@ -14718,7 +14730,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A24</f>
@@ -14729,7 +14741,7 @@
         <v>A.2.6.1.3.6 - Outcome</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
@@ -14743,7 +14755,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A25</f>
@@ -14754,7 +14766,7 @@
         <v>A.2.6.1.3.7 - Focal device</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
@@ -14779,7 +14791,7 @@
         <v>A.2.6.1.4 - Vaccination</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
@@ -14793,7 +14805,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A27</f>
@@ -14804,7 +14816,7 @@
         <v>A.2.6.1.4.1 - Disease or agent targeted</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>21</v>
@@ -14817,7 +14829,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A28</f>
@@ -14828,7 +14840,7 @@
         <v>A.2.6.1.4.2 - Vaccine/prophylaxis</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
@@ -14842,7 +14854,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A29</f>
@@ -14853,7 +14865,7 @@
         <v>A.2.6.1.4.4 - Vaccine medicinal product</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -14867,7 +14879,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A30</f>
@@ -14878,7 +14890,7 @@
         <v>A.2.6.1.4.5 - Marketing Authorisation Holder</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
@@ -14892,7 +14904,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A31</f>
@@ -14903,7 +14915,7 @@
         <v>A.2.6.1.4.6 - Number in a series of vaccinations / doses</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -14917,7 +14929,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A32</f>
@@ -14928,7 +14940,7 @@
         <v>A.2.6.1.4.7 - Date of vaccination</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="22" t="s">
@@ -14942,7 +14954,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A33</f>
@@ -14953,7 +14965,7 @@
         <v>A.2.6.1.4.8 - Next vaccination date</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="22" t="s">
@@ -14985,7 +14997,7 @@
         <v>22</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.75">
@@ -15012,7 +15024,7 @@
         <v>22</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15039,7 +15051,7 @@
         <v>22</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15066,7 +15078,7 @@
         <v>22</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15093,7 +15105,7 @@
         <v>22</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15120,7 +15132,7 @@
         <v>22</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15147,7 +15159,7 @@
         <v>22</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.75">
@@ -15167,7 +15179,7 @@
         <v>A.2.6.1.5.2 - Travel history</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
@@ -15192,14 +15204,14 @@
         <v>A.2.6.1.5.2.1 - Time period</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.75">
@@ -15219,14 +15231,14 @@
         <v>A.2.6.1.5.2.2 - Country visited</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15246,14 +15258,14 @@
         <v>A.2.6.1.5.2.3 - Comment</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.75">
@@ -15273,7 +15285,7 @@
         <v>A.2.6.2 - Family history</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="28" t="s">
@@ -15287,7 +15299,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A46</f>
@@ -15298,14 +15310,14 @@
         <v>A.2.6.2.1 - Patient relationship</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.75">
@@ -15314,7 +15326,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A47</f>
@@ -15325,14 +15337,14 @@
         <v>A.2.6.2.2 - Date of birth</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.75">
@@ -15341,7 +15353,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A48</f>
@@ -15352,14 +15364,14 @@
         <v>A.2.6.2.3 - Age or date of death</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.75">
@@ -15368,7 +15380,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A49</f>
@@ -15379,14 +15391,14 @@
         <v>A.2.6.2.5 - Condition</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.75">
@@ -15395,7 +15407,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A50</f>
@@ -15406,14 +15418,14 @@
         <v>A.2.6.2.6 - Cause of death</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.75">
@@ -15433,7 +15445,7 @@
         <v>A.2.6.3 - Social determinants of health</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="28" t="s">
@@ -15465,7 +15477,7 @@
         <v>22</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.75">
@@ -15492,7 +15504,7 @@
         <v>22</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.75">
@@ -15519,7 +15531,7 @@
         <v>22</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.75">
@@ -15546,7 +15558,7 @@
         <v>22</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.75">
@@ -15573,7 +15585,7 @@
         <v>22</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.75">
@@ -15600,7 +15612,7 @@
         <v>22</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -15627,7 +15639,7 @@
         <v>22</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -15654,7 +15666,7 @@
         <v>22</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
@@ -15681,7 +15693,7 @@
         <v>22</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.75">
@@ -15708,7 +15720,7 @@
         <v>22</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
@@ -15735,7 +15747,7 @@
         <v>22</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.75">
@@ -15762,7 +15774,7 @@
         <v>22</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -15789,7 +15801,7 @@
         <v>22</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -15816,7 +15828,7 @@
         <v>22</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
@@ -15843,7 +15855,7 @@
         <v>22</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.75">
@@ -15870,7 +15882,7 @@
         <v>22</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15897,7 +15909,7 @@
         <v>22</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.75">
@@ -15924,7 +15936,7 @@
         <v>22</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.75">
@@ -15951,7 +15963,7 @@
         <v>22</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.75">
@@ -15978,7 +15990,7 @@
         <v>22</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.75">
@@ -16005,7 +16017,7 @@
         <v>22</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.75">
@@ -16032,7 +16044,7 @@
         <v>22</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.75">
@@ -17619,8 +17631,8 @@
   </sheetPr>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -17805,7 +17817,7 @@
         <v>A.2.7.1.5 - Category</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1269</v>
+        <v>1378</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -17830,7 +17842,7 @@
         <v>A.2.7.1.6 - Treatment class</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1270</v>
+        <v>1379</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -17855,7 +17867,7 @@
         <v>A.2.7.1.7 - Clinical status</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1271</v>
+        <v>1380</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -17863,13 +17875,13 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>1266</v>
+      <c r="B10" s="25" t="s">
+        <v>901</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A10</f>
@@ -17879,15 +17891,15 @@
         <f xml:space="preserve"> HospitalStayEhn!D10</f>
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>1111</v>
+      <c r="E10" s="14" t="s">
+        <v>1383</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -17907,7 +17919,7 @@
         <v>A.2.7.1.9 - Severity</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1272</v>
+        <v>1381</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -17932,7 +17944,7 @@
         <v>A.2.7.1.10 - Stage</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1273</v>
+        <v>1382</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -17956,15 +17968,15 @@
         <f xml:space="preserve"> HospitalStayEhn!D13</f>
         <v>A.2.7.2 - Significant procedures</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>1275</v>
+      <c r="E13" s="14" t="s">
+        <v>1273</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -17973,7 +17985,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A14</f>
@@ -17984,7 +17996,7 @@
         <v>A.2.7.2.1 - Procedure code</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
@@ -17998,7 +18010,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A15</f>
@@ -18009,7 +18021,7 @@
         <v>A.2.7.2.2 - Procedure description</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -18023,7 +18035,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -18034,7 +18046,7 @@
         <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -18048,7 +18060,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -18059,14 +18071,14 @@
         <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
@@ -18075,7 +18087,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A17</f>
@@ -18086,7 +18098,7 @@
         <v>A.2.7.2.4 - Procedure date</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
@@ -18100,7 +18112,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -18111,7 +18123,7 @@
         <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
@@ -18125,7 +18137,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -18136,7 +18148,7 @@
         <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
@@ -18150,7 +18162,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A19</f>
@@ -18161,7 +18173,7 @@
         <v>A.2.7.2.6 - Outcome</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
@@ -18175,7 +18187,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -18186,7 +18198,7 @@
         <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -18200,7 +18212,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -18211,7 +18223,7 @@
         <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>22</v>
@@ -18224,7 +18236,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A21</f>
@@ -18235,7 +18247,7 @@
         <v>A.2.7.2.8 - Focal device</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
@@ -18260,14 +18272,14 @@
         <v>A.2.7.3 - Medical devices and implants</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
@@ -18276,7 +18288,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -18287,14 +18299,14 @@
         <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
@@ -18303,7 +18315,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -18314,14 +18326,14 @@
         <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
@@ -18330,7 +18342,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
@@ -18341,14 +18353,14 @@
         <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
@@ -18357,7 +18369,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
@@ -18368,14 +18380,14 @@
         <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
@@ -18384,25 +18396,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
         <v>HospitalStay.medicalDevices.implantDate</v>
       </c>
-      <c r="D30" s="9" t="str">
+      <c r="D30" s="14" t="str">
         <f xml:space="preserve"> HospitalStayEhn!D25</f>
         <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
@@ -18411,25 +18423,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
         <v>HospitalStay.medicalDevices.implantDate</v>
       </c>
-      <c r="D31" s="9" t="str">
+      <c r="D31" s="14" t="str">
         <f xml:space="preserve"> HospitalStayEhn!D25</f>
         <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
@@ -18438,7 +18450,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A26</f>
@@ -18449,7 +18461,7 @@
         <v>A.2.7.3.4 - End date</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="22" t="s">
@@ -18463,7 +18475,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
@@ -18474,7 +18486,7 @@
         <v>A.2.7.3.5 - Reason</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="22" t="s">
@@ -18488,7 +18500,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
@@ -18499,7 +18511,7 @@
         <v>A.2.7.3.5 - Reason</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
@@ -18523,15 +18535,15 @@
         <f xml:space="preserve"> HospitalStayEhn!D28</f>
         <v>A.2.7.5 - Pharmacotherapy</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>1277</v>
+      <c r="E35" s="14" t="s">
+        <v>1275</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.75">
@@ -18539,8 +18551,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>1329</v>
+      <c r="B36" s="25" t="s">
+        <v>1327</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -18551,7 +18563,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
@@ -18564,8 +18576,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>1329</v>
+      <c r="B37" s="25" t="s">
+        <v>1327</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -18576,7 +18588,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -18601,7 +18613,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
@@ -18626,7 +18638,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
@@ -18651,7 +18663,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
@@ -18676,7 +18688,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
@@ -18690,7 +18702,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -18701,7 +18713,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
@@ -18715,7 +18727,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -18726,7 +18738,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
@@ -18790,7 +18802,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -18801,7 +18813,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
@@ -18815,7 +18827,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -18826,7 +18838,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
@@ -18876,7 +18888,7 @@
         <v>A.2.7.5.3 - Intended use</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
@@ -18990,7 +19002,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
@@ -19001,14 +19013,14 @@
         <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E54" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H54" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.75">
@@ -19017,7 +19029,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
@@ -19028,14 +19040,14 @@
         <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E55" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.75">
@@ -19044,7 +19056,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
@@ -19055,7 +19067,7 @@
         <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E56" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
@@ -19069,7 +19081,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
@@ -19080,7 +19092,7 @@
         <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E57" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
@@ -19094,7 +19106,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C58" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19105,7 +19117,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E58" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
@@ -19119,7 +19131,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19130,7 +19142,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E59" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
@@ -19144,7 +19156,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19155,7 +19167,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
@@ -19180,7 +19192,7 @@
         <v>A.2.7.6 - Significant Observation Results</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="13" t="s">
@@ -19194,7 +19206,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A40</f>
@@ -19205,14 +19217,14 @@
         <v>A.2.7.6.1 - Date</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.75">
@@ -19221,7 +19233,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A41</f>
@@ -19232,14 +19244,14 @@
         <v>A.2.7.6.2 - Observation status</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -19248,7 +19260,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A42</f>
@@ -19259,14 +19271,14 @@
         <v>A.2.7.6.3 - Result description</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -19283,7 +19295,7 @@
         <v>A.2.7.6.3 - Result description</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
@@ -19297,7 +19309,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A43</f>
@@ -19308,14 +19320,14 @@
         <v>A.2.7.6.4 - Observation details</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.75">
@@ -19335,7 +19347,7 @@
         <v>A.2.7.6.4 - Observation details</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
@@ -19349,7 +19361,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
@@ -19360,14 +19372,14 @@
         <v>A.2.7.6.5 - Observation result</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.75">
@@ -19376,7 +19388,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
@@ -19387,14 +19399,14 @@
         <v>A.2.7.6.5 - Observation result</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -19403,7 +19415,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A45</f>
@@ -19414,14 +19426,14 @@
         <v>A.2.7.6.7 - Reporter</v>
       </c>
       <c r="E70" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -19441,7 +19453,7 @@
         <v>A.2.7.7 - Synthesis</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="13" t="s">
@@ -19466,7 +19478,7 @@
         <v>A.2.7.7.1 - Problem synthesis</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="13" t="s">
@@ -19491,7 +19503,7 @@
         <v>A.2.7.7.2 - Clinical reasoning</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="13" t="s">
@@ -19599,46 +19611,47 @@
     <hyperlink ref="B35" r:id="rId11" xr:uid="{248F266D-528D-4330-BFE7-A2D331417665}"/>
     <hyperlink ref="B71" r:id="rId12" xr:uid="{39BFD6BF-4BB5-4D49-B6F7-3930EE773EB9}"/>
     <hyperlink ref="B73" r:id="rId13" xr:uid="{5A402808-519E-482D-AD14-7A83D42C69BC}"/>
-    <hyperlink ref="B4:B12" r:id="rId14" display="http://hl7.eu/fhir/hdr/StructureDefinition/condition-eu-hdr" xr:uid="{C99594A2-DC35-4AAA-A8FF-ECEDEC04D888}"/>
-    <hyperlink ref="B15:B24" r:id="rId15" display="http://hl7.eu/fhir/hdr/StructureDefinition/procedure-eu-hdr" xr:uid="{11465EA0-C892-4233-9CE1-6B6A8996F738}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{2A4586F9-1F5D-414E-B8F1-B8D19F9A848A}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{3D502B2E-CCBB-4A8A-B54C-01A771D35ABD}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{83D53DFB-934E-4F3E-A0CF-EEFACA1940D0}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{04FDCB16-C035-4EEB-AE40-040219EB6626}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{CBF6EF75-9B40-4D63-B0F2-5D295D3F47D0}"/>
-    <hyperlink ref="B27" r:id="rId21" xr:uid="{9B091FB0-6CC8-4F9A-8193-729AE4EDF2DC}"/>
-    <hyperlink ref="B29" r:id="rId22" xr:uid="{C48C08DA-3D64-4710-B3F9-5AD75E0FD471}"/>
-    <hyperlink ref="B31" r:id="rId23" xr:uid="{CF02B558-F628-451A-8D9B-7E1F1596B565}"/>
-    <hyperlink ref="B30" r:id="rId24" xr:uid="{C1CF2DEF-18A5-436B-B9F8-AE6721E50991}"/>
-    <hyperlink ref="B32" r:id="rId25" xr:uid="{0730299F-D358-46E7-B884-F04B6550243D}"/>
-    <hyperlink ref="B33:B34" r:id="rId26" display="http://hl7.eu/fhir/hdr/StructureDefinition/deviceUseStatement-eu-hdr" xr:uid="{9FC70F59-3C76-420A-9FFB-84F4E3628FE6}"/>
-    <hyperlink ref="B54" r:id="rId27" xr:uid="{41F517A4-054C-41F5-860D-7B046AF4720D}"/>
-    <hyperlink ref="B56" r:id="rId28" xr:uid="{FA628003-6A12-494A-86CD-170EE0657572}"/>
-    <hyperlink ref="B58" r:id="rId29" xr:uid="{79B630C8-F165-45E7-8F67-E87434D3311E}"/>
-    <hyperlink ref="A45" r:id="rId30" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{5DB25E95-03A2-42CE-AFB7-814E6F6A981E}"/>
-    <hyperlink ref="A46:A48" r:id="rId31" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{CD5BC44C-699E-4D18-9279-D84CA1DDBD8A}"/>
-    <hyperlink ref="A49" r:id="rId32" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{A5932BF7-353C-4758-A0EA-3A4253EED4BF}"/>
-    <hyperlink ref="A50:A56" r:id="rId33" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{97E7AD85-6326-45C8-B437-29E440B84A15}"/>
-    <hyperlink ref="A57" r:id="rId34" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{DD64BE54-CFCE-40EF-A9C9-3511FBA5BDB4}"/>
-    <hyperlink ref="A58" r:id="rId35" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{BE1C7E9E-E668-4A0B-8BB0-143FD59B4F81}"/>
-    <hyperlink ref="A59" r:id="rId36" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{9E21F060-2E19-4FBE-8349-E0BEE5E09D00}"/>
-    <hyperlink ref="A60" r:id="rId37" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{4B332FDB-6217-4FCC-8758-04499AFAFDC5}"/>
-    <hyperlink ref="B48" r:id="rId38" xr:uid="{FA2DFF67-DE5E-4244-B6F9-5F8E9941EFE5}"/>
-    <hyperlink ref="B49:B53" r:id="rId39" display="http://hl7.eu/fhir/hdr/StructureDefinition/medication-eu-hdr" xr:uid="{4776D030-54C0-4228-9CCF-CC22BABD8191}"/>
-    <hyperlink ref="B46" r:id="rId40" xr:uid="{D01E7E96-E5B5-4F08-AC0C-E8385DD0BAD6}"/>
-    <hyperlink ref="B55" r:id="rId41" xr:uid="{73E4B839-461A-4DE0-9871-264ED3C87B3E}"/>
-    <hyperlink ref="B57" r:id="rId42" xr:uid="{793159DC-75A3-463A-B510-C434934477EE}"/>
-    <hyperlink ref="B59" r:id="rId43" xr:uid="{62C7241D-6BD1-4EE4-A7DC-722825E30036}"/>
-    <hyperlink ref="B60" r:id="rId44" xr:uid="{6D51D302-A12D-44B7-8219-5B83EC0C90A6}"/>
-    <hyperlink ref="B47" r:id="rId45" xr:uid="{F28C4594-25F3-40A1-A183-75C0B8B6326E}"/>
-    <hyperlink ref="B36" r:id="rId46" xr:uid="{412E3AEF-E2CB-4D5E-AB9F-90DB43AFE5CE}"/>
-    <hyperlink ref="B43" r:id="rId47" xr:uid="{814C1E09-0EF4-4A9B-BE34-6B5D28E43BE5}"/>
-    <hyperlink ref="B37" r:id="rId48" xr:uid="{B69865DF-3192-4A76-89F4-C4183F6A5C02}"/>
-    <hyperlink ref="B42" r:id="rId49" xr:uid="{9C7C38FD-A6D2-4EC6-A8BA-E4C07ABDF006}"/>
-    <hyperlink ref="B67" r:id="rId50" xr:uid="{3D629AFA-9A05-4ABB-9657-2CD816881C9A}"/>
-    <hyperlink ref="B65" r:id="rId51" xr:uid="{7F07B712-6094-4653-8EBE-3C66AAFF1BC4}"/>
+    <hyperlink ref="B15:B24" r:id="rId14" display="http://hl7.eu/fhir/hdr/StructureDefinition/procedure-eu-hdr" xr:uid="{11465EA0-C892-4233-9CE1-6B6A8996F738}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{2A4586F9-1F5D-414E-B8F1-B8D19F9A848A}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{3D502B2E-CCBB-4A8A-B54C-01A771D35ABD}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{83D53DFB-934E-4F3E-A0CF-EEFACA1940D0}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{04FDCB16-C035-4EEB-AE40-040219EB6626}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{CBF6EF75-9B40-4D63-B0F2-5D295D3F47D0}"/>
+    <hyperlink ref="B27" r:id="rId20" xr:uid="{9B091FB0-6CC8-4F9A-8193-729AE4EDF2DC}"/>
+    <hyperlink ref="B29" r:id="rId21" xr:uid="{C48C08DA-3D64-4710-B3F9-5AD75E0FD471}"/>
+    <hyperlink ref="B31" r:id="rId22" xr:uid="{CF02B558-F628-451A-8D9B-7E1F1596B565}"/>
+    <hyperlink ref="B30" r:id="rId23" xr:uid="{C1CF2DEF-18A5-436B-B9F8-AE6721E50991}"/>
+    <hyperlink ref="B32" r:id="rId24" xr:uid="{0730299F-D358-46E7-B884-F04B6550243D}"/>
+    <hyperlink ref="B33:B34" r:id="rId25" display="http://hl7.eu/fhir/hdr/StructureDefinition/deviceUseStatement-eu-hdr" xr:uid="{9FC70F59-3C76-420A-9FFB-84F4E3628FE6}"/>
+    <hyperlink ref="B54" r:id="rId26" xr:uid="{41F517A4-054C-41F5-860D-7B046AF4720D}"/>
+    <hyperlink ref="B56" r:id="rId27" xr:uid="{FA628003-6A12-494A-86CD-170EE0657572}"/>
+    <hyperlink ref="B58" r:id="rId28" xr:uid="{79B630C8-F165-45E7-8F67-E87434D3311E}"/>
+    <hyperlink ref="A45" r:id="rId29" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{5DB25E95-03A2-42CE-AFB7-814E6F6A981E}"/>
+    <hyperlink ref="A46:A48" r:id="rId30" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{CD5BC44C-699E-4D18-9279-D84CA1DDBD8A}"/>
+    <hyperlink ref="A49" r:id="rId31" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{A5932BF7-353C-4758-A0EA-3A4253EED4BF}"/>
+    <hyperlink ref="A50:A56" r:id="rId32" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{97E7AD85-6326-45C8-B437-29E440B84A15}"/>
+    <hyperlink ref="A57" r:id="rId33" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{DD64BE54-CFCE-40EF-A9C9-3511FBA5BDB4}"/>
+    <hyperlink ref="A58" r:id="rId34" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{BE1C7E9E-E668-4A0B-8BB0-143FD59B4F81}"/>
+    <hyperlink ref="A59" r:id="rId35" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{9E21F060-2E19-4FBE-8349-E0BEE5E09D00}"/>
+    <hyperlink ref="A60" r:id="rId36" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{4B332FDB-6217-4FCC-8758-04499AFAFDC5}"/>
+    <hyperlink ref="B48" r:id="rId37" xr:uid="{FA2DFF67-DE5E-4244-B6F9-5F8E9941EFE5}"/>
+    <hyperlink ref="B49:B53" r:id="rId38" display="http://hl7.eu/fhir/hdr/StructureDefinition/medication-eu-hdr" xr:uid="{4776D030-54C0-4228-9CCF-CC22BABD8191}"/>
+    <hyperlink ref="B46" r:id="rId39" xr:uid="{D01E7E96-E5B5-4F08-AC0C-E8385DD0BAD6}"/>
+    <hyperlink ref="B55" r:id="rId40" xr:uid="{73E4B839-461A-4DE0-9871-264ED3C87B3E}"/>
+    <hyperlink ref="B57" r:id="rId41" xr:uid="{793159DC-75A3-463A-B510-C434934477EE}"/>
+    <hyperlink ref="B59" r:id="rId42" xr:uid="{62C7241D-6BD1-4EE4-A7DC-722825E30036}"/>
+    <hyperlink ref="B60" r:id="rId43" xr:uid="{6D51D302-A12D-44B7-8219-5B83EC0C90A6}"/>
+    <hyperlink ref="B47" r:id="rId44" xr:uid="{F28C4594-25F3-40A1-A183-75C0B8B6326E}"/>
+    <hyperlink ref="B36" r:id="rId45" xr:uid="{412E3AEF-E2CB-4D5E-AB9F-90DB43AFE5CE}"/>
+    <hyperlink ref="B43" r:id="rId46" xr:uid="{814C1E09-0EF4-4A9B-BE34-6B5D28E43BE5}"/>
+    <hyperlink ref="B37" r:id="rId47" xr:uid="{B69865DF-3192-4A76-89F4-C4183F6A5C02}"/>
+    <hyperlink ref="B42" r:id="rId48" xr:uid="{9C7C38FD-A6D2-4EC6-A8BA-E4C07ABDF006}"/>
+    <hyperlink ref="B67" r:id="rId49" xr:uid="{3D629AFA-9A05-4ABB-9657-2CD816881C9A}"/>
+    <hyperlink ref="B65" r:id="rId50" xr:uid="{7F07B712-6094-4653-8EBE-3C66AAFF1BC4}"/>
+    <hyperlink ref="B10" r:id="rId51" xr:uid="{AB41008A-F05D-4085-A189-D207B2E11FC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
 

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD06B16-7E8E-4F90-B24E-B15903CFF3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EEA17E-4238-4DA3-8BC3-1914386C5C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
+    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="3" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
   <sheets>
     <sheet name="IG-groups" sheetId="31" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="1388">
   <si>
     <t>Group Source</t>
   </si>
@@ -3404,9 +3404,6 @@
   </si>
   <si>
     <t>eHN HDR Model to this guide Map</t>
-  </si>
-  <si>
-    <t>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</t>
   </si>
   <si>
     <t>Bundle</t>
@@ -3922,9 +3919,6 @@
     <t>Composition.stage</t>
   </si>
   <si>
-    <t>to be mapped</t>
-  </si>
-  <si>
     <t>Composition.section:sectionSignificantProcedures</t>
   </si>
   <si>
@@ -4180,9 +4174,6 @@
     <t>several sections</t>
   </si>
   <si>
-    <t>section:sectionDiagnosticSummary</t>
-  </si>
-  <si>
     <t>The same section usd by the hospital stay ?</t>
   </si>
   <si>
@@ -4216,15 +4207,6 @@
     <t>Composition.section:sectionTravelHx</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/FamilyHistory</t>
-  </si>
-  <si>
-    <t>FamilyHistory</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionFamilyHistory</t>
-  </si>
-  <si>
     <t>Composition.section:sectionSocialHistory</t>
   </si>
   <si>
@@ -4256,6 +4238,36 @@
   </si>
   <si>
     <t>Composition.section:sectionDiagnosticSummary.text</t>
+  </si>
+  <si>
+    <t>The resolution circumstances may be described as resource or composiiton.section text ; or indirectly determined by the resource (e.g. Procedure) that has been perfomed in reason of this Condition no more active</t>
+  </si>
+  <si>
+    <t>Composiiton.section:sectionDiagnosticSummary</t>
+  </si>
+  <si>
+    <t>The same section used by the hospital stay ?</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionFamilyMemberHistory</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.relationship</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.bornDate</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.deceased[x]</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.condition.code</t>
+  </si>
+  <si>
+    <t>If FamilyMemberHistory.condition.contributedToDeath is true</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/familyMemberHistory-eu-hdr</t>
   </si>
 </sst>
 </file>
@@ -4414,7 +4426,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4471,6 +4483,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -5064,7 +5083,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -5081,7 +5100,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -5098,7 +5117,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -5115,7 +5134,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -5132,7 +5151,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -5149,7 +5168,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -5166,7 +5185,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -5183,7 +5202,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -5200,7 +5219,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -5217,7 +5236,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -5234,7 +5253,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -5320,14 +5339,14 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -5347,14 +5366,14 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -5363,7 +5382,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A3</f>
@@ -5374,14 +5393,14 @@
         <v>A.2.8.2.2 - Onset Date</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -5406,7 +5425,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -5431,7 +5450,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -5456,7 +5475,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -5511,7 +5530,7 @@
     </row>
     <row r="2" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>84</v>
@@ -5528,7 +5547,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>82</v>
@@ -5545,7 +5564,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>82</v>
@@ -5562,7 +5581,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>82</v>
@@ -5579,7 +5598,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>84</v>
@@ -5652,7 +5671,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A2</f>
@@ -5663,14 +5682,14 @@
         <v>A.2.9.2.1 - Medication reason</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -5679,7 +5698,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A3</f>
@@ -5690,7 +5709,7 @@
         <v>A.2.9.2.2 - Reason for change</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -5704,7 +5723,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5715,14 +5734,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -5731,7 +5750,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5742,14 +5761,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -5758,7 +5777,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5769,14 +5788,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -5785,7 +5804,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A5</f>
@@ -5796,7 +5815,7 @@
         <v>A.2.9.2.4 - Brand name</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -5810,7 +5829,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A6</f>
@@ -5821,14 +5840,14 @@
         <v>A.2.9.2.5 - Active ingredient list</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -5837,7 +5856,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A7</f>
@@ -5848,7 +5867,7 @@
         <v>A.2.9.2.6 - Strength</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -5862,7 +5881,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A8</f>
@@ -5873,7 +5892,7 @@
         <v>A.2.9.2.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -5887,7 +5906,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A9</f>
@@ -5898,14 +5917,14 @@
         <v>A.2.9.2.8 - Dosage Regimen</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -5914,7 +5933,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A10</f>
@@ -5925,7 +5944,7 @@
         <v>A.2.9.2.9 - Route of administration</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -5939,7 +5958,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A11</f>
@@ -5950,14 +5969,14 @@
         <v>A.2.9.2.10 - Period of treatment</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -5966,7 +5985,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A12</f>
@@ -5977,7 +5996,7 @@
         <v>A.2.9.2.11 - Days supplied</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="13" t="s">
@@ -6035,7 +6054,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>83</v>
@@ -6052,7 +6071,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>82</v>
@@ -6069,7 +6088,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>84</v>
@@ -6086,7 +6105,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>84</v>
@@ -6103,7 +6122,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>83</v>
@@ -6120,7 +6139,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>83</v>
@@ -6137,7 +6156,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>82</v>
@@ -6154,7 +6173,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>83</v>
@@ -6171,7 +6190,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>82</v>
@@ -6188,7 +6207,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>82</v>
@@ -6205,7 +6224,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>84</v>
@@ -6280,7 +6299,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A2</f>
@@ -6291,7 +6310,7 @@
         <v>A.2.9.1.1 - Title</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -6305,7 +6324,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A3</f>
@@ -6316,7 +6335,7 @@
         <v>A.2.9.1.2 - Addresses</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -6330,7 +6349,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A4</f>
@@ -6341,7 +6360,7 @@
         <v>A.2.9.1.3 - Description</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -6354,7 +6373,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A5</f>
@@ -6365,7 +6384,7 @@
         <v>A.2.9.1.4 - Plan Period</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -6378,7 +6397,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A6</f>
@@ -6389,7 +6408,7 @@
         <v>A.2.9.1.5 - Other details</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
@@ -6402,7 +6421,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A7</f>
@@ -6413,7 +6432,7 @@
         <v>A.2.9.1.6 - Activity</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -6426,7 +6445,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A8</f>
@@ -6437,7 +6456,7 @@
         <v>A.2.9.1.6.1 - Kind</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -6450,7 +6469,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A9</f>
@@ -6461,7 +6480,7 @@
         <v>A.2.9.1.6.2 - Activity description</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -6474,7 +6493,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A10</f>
@@ -6485,7 +6504,7 @@
         <v>A.2.9.1.6.3 - Specific attributes</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -6539,7 +6558,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>82</v>
@@ -6556,7 +6575,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>83</v>
@@ -6573,7 +6592,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>82</v>
@@ -6590,7 +6609,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>82</v>
@@ -6607,7 +6626,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>83</v>
@@ -6624,7 +6643,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>83</v>
@@ -6641,7 +6660,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>82</v>
@@ -6658,7 +6677,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>82</v>
@@ -6675,7 +6694,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>83</v>
@@ -6759,7 +6778,7 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -6784,20 +6803,20 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
@@ -6808,14 +6827,14 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -6824,7 +6843,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A3</f>
@@ -6835,7 +6854,7 @@
         <v>A.2.1.1.1 - Date and time</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -6849,7 +6868,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A4</f>
@@ -6860,14 +6879,14 @@
         <v>A.2.1.1.2 - Type</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -6876,7 +6895,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A5</f>
@@ -6887,14 +6906,14 @@
         <v>A.2.1.1.3 - Comment</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -6903,7 +6922,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A6</f>
@@ -6914,20 +6933,20 @@
         <v>A.2.1.1.4 - Related conditions</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A7</f>
@@ -6938,7 +6957,7 @@
         <v>A.2.1.1.5 - Living will document</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="10" t="s">
@@ -6963,14 +6982,14 @@
         <v>A.2.1.1.5 - Living will document</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -7592,7 +7611,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7652,17 +7671,13 @@
         <v>1107</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>912</v>
-      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="7" t="s">
         <v>897</v>
       </c>
@@ -7687,12 +7702,7 @@
       <c r="F3" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>910</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>912</v>
-      </c>
+      <c r="H3" s="8"/>
       <c r="I3" s="7" t="s">
         <v>897</v>
       </c>
@@ -7717,12 +7727,7 @@
       <c r="F4" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>996</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>912</v>
-      </c>
+      <c r="H4" s="11"/>
       <c r="I4" s="7" t="s">
         <v>897</v>
       </c>
@@ -7747,12 +7752,7 @@
       <c r="F5" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>899</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>912</v>
-      </c>
+      <c r="H5" s="11"/>
       <c r="I5" s="7" t="s">
         <v>897</v>
       </c>
@@ -7777,167 +7777,136 @@
       <c r="F6" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>912</v>
-      </c>
+      <c r="H6" s="11"/>
       <c r="I6" s="7" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/advanceDirectives2FHIR-eu-hdr</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>1133</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1134</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G7" s="7" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!A5</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>912</v>
-      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="7" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/planOfCare2FHIR-eu-hdr</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G8" s="7" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!A14</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>912</v>
-      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>1196</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>1197</v>
       </c>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/medicationSummary2FHIR-eu-hdr</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G9" s="7" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!A15</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>912</v>
-      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" ref="C10:C11" si="1">"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A10</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hospitalStay2FHIR-eu-hdr</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G10" s="7" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!A10</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>912</v>
-      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="C11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/patientHistory2FHIR-eu-hdr</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G11" s="7" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!A9</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistory</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>912</v>
-      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
         <v>897</v>
       </c>
@@ -7945,37 +7914,27 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{2C5E086C-120A-4CE7-BE6D-47C4F94CC9C5}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{1B64A9A1-D165-4E9D-BD0F-1946037F65C1}"/>
-    <hyperlink ref="C3" r:id="rId3" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{9617EDC7-4F54-42A1-89BC-457E72AFC3FF}"/>
-    <hyperlink ref="C4" r:id="rId4" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{71FBB619-4426-4EEE-A82E-2F650CD064B4}"/>
-    <hyperlink ref="H4" r:id="rId5" xr:uid="{F9AB5FE3-5C2B-4FC9-9314-C3F4FCAB3341}"/>
-    <hyperlink ref="C6" r:id="rId6" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{24C5EC3E-3DBF-499A-9B9D-D92C53394537}"/>
-    <hyperlink ref="H6" r:id="rId7" xr:uid="{BEE2CF99-15F3-4CA9-88E4-2AEDA4F183B7}"/>
-    <hyperlink ref="H5" r:id="rId8" xr:uid="{7EE104CF-3656-476D-A86A-229A9F36D506}"/>
-    <hyperlink ref="C2" r:id="rId9" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{53DA0FA1-7C8E-4F88-8B57-EFAB32CC7FAF}"/>
-    <hyperlink ref="H2" r:id="rId10" xr:uid="{6AD6C5DE-73D3-4B8C-A864-80776CD46045}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{9617EDC7-4F54-42A1-89BC-457E72AFC3FF}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{71FBB619-4426-4EEE-A82E-2F650CD064B4}"/>
+    <hyperlink ref="C6" r:id="rId4" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{24C5EC3E-3DBF-499A-9B9D-D92C53394537}"/>
+    <hyperlink ref="C2" r:id="rId5" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{53DA0FA1-7C8E-4F88-8B57-EFAB32CC7FAF}"/>
     <hyperlink ref="B6" location="Alerts2FHIREuHdr!A1" display="Alerts2FHIREuHdr" xr:uid="{94CFDE94-392A-4BD9-BB9F-AD546621DBF0}"/>
-    <hyperlink ref="C7" r:id="rId11" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{F48D74C1-5F5D-4BAD-AB73-F695CFB981A9}"/>
-    <hyperlink ref="H7" r:id="rId12" xr:uid="{CC32D9D7-A49C-43CB-AAA0-78A48F8D8140}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{F48D74C1-5F5D-4BAD-AB73-F695CFB981A9}"/>
     <hyperlink ref="B7" location="AdvanceDirectives2FHIREuHdr!A1" display="AdvanceDirectives2FHIREuHdr" xr:uid="{B7EC322B-2F8E-4D14-B649-AC60953EAAFF}"/>
     <hyperlink ref="B2" location="Hdr2FHIREuHdr!A1" display="Hdr2FHIREuHdr" xr:uid="{90014F1C-BBF4-427C-AB8C-2CF5568CFC08}"/>
     <hyperlink ref="B4" location="Subject2FHIREuHdr!A1" display="Subject2FHIREuHdr" xr:uid="{D330B993-1260-4B29-B1D3-59D6B25181CF}"/>
     <hyperlink ref="B3" location="Header2FHIREuHdr!A1" display="Header2FHIREuHdr" xr:uid="{A965579F-F70B-4001-A1C9-3CF2969A2B62}"/>
     <hyperlink ref="B5" location="Encounter2FHIREuHdr!A1" display="Encounter2FHIREuHdr" xr:uid="{F70E7BA2-FF60-45BB-9DF7-D74EA7E2660C}"/>
     <hyperlink ref="B8" location="PlanOfCare2FHIREuHdr!A1" display="#PlanOfCare2FHIREuHdr!A1" xr:uid="{FD13133C-B33D-41CA-99AE-C110A60AF378}"/>
-    <hyperlink ref="C8" r:id="rId13" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{5C6E6EEC-C7A1-45B9-B424-DF8EAF43EAB6}"/>
-    <hyperlink ref="H8" r:id="rId14" xr:uid="{86450E9C-C588-4350-9C35-C0C2125F0C18}"/>
-    <hyperlink ref="H9" r:id="rId15" xr:uid="{99638D94-B7B7-40FE-ADDC-3E0053BB90C8}"/>
+    <hyperlink ref="C8" r:id="rId7" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{5C6E6EEC-C7A1-45B9-B424-DF8EAF43EAB6}"/>
     <hyperlink ref="B9" location="MedicationSummary2FHIREuHdr!A1" display="#MedicationSummary2FHIREuHdr!A1" xr:uid="{92AC896E-958D-4ADC-96B6-D30E011AC09B}"/>
-    <hyperlink ref="C9" r:id="rId16" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{CBC15021-9146-476E-9A56-E821A5EA5DCD}"/>
-    <hyperlink ref="H10" r:id="rId17" xr:uid="{F07F13CE-7FEC-4597-9E29-76631B76A59E}"/>
-    <hyperlink ref="C10" r:id="rId18" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{D02E7D3F-3322-4599-874C-88B200676B91}"/>
+    <hyperlink ref="C9" r:id="rId8" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{CBC15021-9146-476E-9A56-E821A5EA5DCD}"/>
+    <hyperlink ref="C10" r:id="rId9" display="http://terminology.hl7.it/ConceptMap/ConceptMap-subject2osiris" xr:uid="{D02E7D3F-3322-4599-874C-88B200676B91}"/>
     <hyperlink ref="B10" location="HospitalStay2FHIREuHdr!A1" display="HospitalStay2FHIREuHdr" xr:uid="{B6880AFE-AA65-4872-A091-EF6708866DAB}"/>
-    <hyperlink ref="H11" r:id="rId19" xr:uid="{56912822-14AD-4613-A3B9-C57FC519074C}"/>
     <hyperlink ref="B11" location="PatientHistory2FHIREuHdr!A1" display="PatientHistory2FHIREuHdr" xr:uid="{04642399-EE4B-4121-ADFB-8FBBFCAF4F53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -8493,7 +8452,7 @@
         <v>899</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C8" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -8518,7 +8477,7 @@
         <v>899</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C9" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -8543,7 +8502,7 @@
         <v>899</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C10" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
@@ -8568,7 +8527,7 @@
         <v>899</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C11" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
@@ -8687,7 +8646,7 @@
         <v>899</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C16" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -8712,7 +8671,7 @@
         <v>899</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C17" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -8737,7 +8696,7 @@
         <v>899</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C18" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
@@ -8762,7 +8721,7 @@
         <v>899</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C19" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
@@ -9087,7 +9046,7 @@
         <v>899</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C33" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
@@ -9112,7 +9071,7 @@
         <v>899</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C34" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
@@ -9137,7 +9096,7 @@
         <v>899</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C35" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
@@ -9277,7 +9236,7 @@
         <v>910</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C3" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A2</f>
@@ -9294,7 +9253,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
@@ -9338,13 +9297,13 @@
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
@@ -9427,7 +9386,7 @@
         <v>910</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C9" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A4</f>
@@ -9449,7 +9408,7 @@
         <v>910</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C10" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A5</f>
@@ -9496,7 +9455,7 @@
         <v>910</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C12" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A6</f>
@@ -9546,7 +9505,7 @@
         <v>910</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C14" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A8</f>
@@ -9725,7 +9684,7 @@
         <v>910</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C22" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A15</f>
@@ -9750,7 +9709,7 @@
         <v>910</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C23" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A16</f>
@@ -9772,7 +9731,7 @@
         <v>910</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C24" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A17</f>
@@ -9797,7 +9756,7 @@
         <v>910</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C25" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A18</f>
@@ -9822,7 +9781,7 @@
         <v>910</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C26" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A19</f>
@@ -9891,7 +9850,7 @@
         <v>910</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C29" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A21</f>
@@ -9916,7 +9875,7 @@
         <v>910</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C30" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A22</f>
@@ -9938,7 +9897,7 @@
         <v>910</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C31" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A23</f>
@@ -9960,7 +9919,7 @@
         <v>910</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C32" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A24</f>
@@ -9982,7 +9941,7 @@
         <v>910</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C33" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A25</f>
@@ -10051,7 +10010,7 @@
         <v>910</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C36" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A27</f>
@@ -10076,7 +10035,7 @@
         <v>910</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C37" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A28</f>
@@ -10101,7 +10060,7 @@
         <v>910</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C38" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A29</f>
@@ -10126,7 +10085,7 @@
         <v>910</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C39" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A30</f>
@@ -10151,7 +10110,7 @@
         <v>910</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C40" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A31</f>
@@ -11562,7 +11521,7 @@
         <v>996</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C2" t="str">
         <f>SubjectHdrEhn!A2</f>
@@ -11584,7 +11543,7 @@
         <v>996</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C3" t="str">
         <f>SubjectHdrEhn!A3</f>
@@ -11606,7 +11565,7 @@
         <v>996</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C4" t="str">
         <f>SubjectHdrEhn!A4</f>
@@ -11628,7 +11587,7 @@
         <v>996</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C5" t="str">
         <f>SubjectHdrEhn!A5</f>
@@ -11650,7 +11609,7 @@
         <v>996</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C6" t="str">
         <f>SubjectHdrEhn!A6</f>
@@ -11672,7 +11631,7 @@
         <v>996</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C7" t="str">
         <f>SubjectHdrEhn!A7</f>
@@ -11697,7 +11656,7 @@
         <v>996</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C8" t="str">
         <f>SubjectHdrEhn!A8</f>
@@ -11719,7 +11678,7 @@
         <v>996</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>SubjectHdrEhn!A9</f>
@@ -11736,7 +11695,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -11744,7 +11703,7 @@
         <v>996</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C10" t="str">
         <f>SubjectHdrEhn!A10</f>
@@ -11766,7 +11725,7 @@
         <v>996</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C11" t="str">
         <f>SubjectHdrEhn!A11</f>
@@ -11788,7 +11747,7 @@
         <v>996</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C12" t="str">
         <f>SubjectHdrEhn!A12</f>
@@ -11810,7 +11769,7 @@
         <v>996</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C13" t="str">
         <f>SubjectHdrEhn!A13</f>
@@ -11832,7 +11791,7 @@
         <v>996</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C14" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11854,7 +11813,7 @@
         <v>996</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C15" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11879,7 +11838,7 @@
         <v>996</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C16" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11901,7 +11860,7 @@
         <v>996</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C17" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11926,7 +11885,7 @@
         <v>996</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C18" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11948,7 +11907,7 @@
         <v>996</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C19" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11973,7 +11932,7 @@
         <v>996</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C20" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11995,7 +11954,7 @@
         <v>996</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C21" t="str">
         <f>SubjectHdrEhn!A17</f>
@@ -12017,7 +11976,7 @@
         <v>996</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C22" t="str">
         <f>SubjectHdrEhn!A18</f>
@@ -12039,7 +11998,7 @@
         <v>996</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C23" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -12064,7 +12023,7 @@
         <v>996</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C24" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -12086,7 +12045,7 @@
         <v>996</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C25" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -12111,7 +12070,7 @@
         <v>996</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C26" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -12133,7 +12092,7 @@
         <v>996</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C27" t="str">
         <f>SubjectHdrEhn!A21</f>
@@ -12155,7 +12114,7 @@
         <v>996</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C28" t="str">
         <f>SubjectHdrEhn!A22</f>
@@ -12166,7 +12125,7 @@
         <v>A.1.2.3.1 - Role of that person</v>
       </c>
       <c r="E28" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -12177,7 +12136,7 @@
         <v>996</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C29" t="str">
         <f>SubjectHdrEhn!A23</f>
@@ -12188,7 +12147,7 @@
         <v>A.1.2.3.2 - Relationship level</v>
       </c>
       <c r="E29" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
@@ -12199,7 +12158,7 @@
         <v>996</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C30" t="str">
         <f>SubjectHdrEhn!A24</f>
@@ -12221,7 +12180,7 @@
         <v>996</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C31" t="str">
         <f>SubjectHdrEhn!A25</f>
@@ -12243,7 +12202,7 @@
         <v>996</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C32" t="str">
         <f>SubjectHdrEhn!A26</f>
@@ -12265,7 +12224,7 @@
         <v>996</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C33" t="str">
         <f>SubjectHdrEhn!A27</f>
@@ -12287,7 +12246,7 @@
         <v>996</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C34" t="str">
         <f>SubjectHdrEhn!A28</f>
@@ -12857,6 +12816,8 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="45.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.76953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.76953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
@@ -13851,10 +13812,10 @@
         <v>874</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
@@ -13865,10 +13826,10 @@
         <v>873</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.75">
@@ -13879,66 +13840,66 @@
         <v>871</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
@@ -13969,17 +13930,17 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="58.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.86328125" customWidth="1"/>
+    <col min="3" max="3" width="76.81640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="44.54296875" style="5" customWidth="1"/>
     <col min="5" max="5" width="42.90625" customWidth="1"/>
     <col min="6" max="6" width="15.58984375" customWidth="1"/>
@@ -14030,14 +13991,14 @@
         <v>A.2.6.1 - Medical history</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -14057,14 +14018,14 @@
         <v>A.2.6.1.1 - History of problems</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1358</v>
+        <v>1379</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>1359</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -14073,7 +14034,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A4</f>
@@ -14084,7 +14045,7 @@
         <v>A.2.6.1.1.1 - Problem description</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -14098,7 +14059,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A5</f>
@@ -14109,7 +14070,7 @@
         <v>A.2.6.1.1.2 - Problem details</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -14123,7 +14084,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A6</f>
@@ -14134,7 +14095,7 @@
         <v>A.2.6.1.1.3 - Onset date</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -14148,7 +14109,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A7</f>
@@ -14159,7 +14120,7 @@
         <v>A.2.6.1.1.4 - End date</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -14173,7 +14134,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A8</f>
@@ -14184,7 +14145,7 @@
         <v>A.2.6.1.1.5 - Clinical status</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -14192,13 +14153,13 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A9" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A9</f>
@@ -14208,41 +14169,40 @@
         <f xml:space="preserve"> PatientHistoryEhn!D9</f>
         <v>A.2.6.1.1.6 - Resolution circumstances</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="E9" s="30" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
-      </c>
+      <c r="H9" s="31" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
-        <v>1266</v>
+        <v>901</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A10</f>
-        <v>PatientHistory.medicalHistory.historyOfConditions.severity</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A9</f>
+        <v>PatientHistory.medicalHistory.historyOfConditions.resolution</v>
       </c>
       <c r="D10" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D10</f>
-        <v>A.2.6.1.1.7 - Severity</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>1270</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D9</f>
+        <v>A.2.6.1.1.6 - Resolution circumstances</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>1377</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="9"/>
+      <c r="G10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="8" t="str">
@@ -14250,24 +14210,23 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A11</f>
-        <v>PatientHistory.medicalHistory.historyOfConditions.stage</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A10</f>
+        <v>PatientHistory.medicalHistory.historyOfConditions.severity</v>
       </c>
       <c r="D11" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D11</f>
-        <v>A.2.6.1.1.8 - Stage</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D10</f>
+        <v>A.2.6.1.1.7 - Severity</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="9"/>
+      <c r="G11" s="30" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="8" t="str">
@@ -14275,26 +14234,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>901</v>
+        <v>1265</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A12</f>
-        <v>PatientHistory.medicalHistory.medicalDevices</v>
-      </c>
-      <c r="D12" s="14" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D12</f>
-        <v>A.2.6.1.2 - Devices and Implants</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>1359</v>
-      </c>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A11</f>
+        <v>PatientHistory.medicalHistory.historyOfConditions.stage</v>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D11</f>
+        <v>A.2.6.1.1.8 - Stage</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="8" t="str">
@@ -14302,31 +14259,34 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1310</v>
+        <v>901</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
-        <v>PatientHistory.medicalHistory.medicalDevices.description</v>
-      </c>
-      <c r="D13" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D13</f>
-        <v>A.2.6.1.2.1 - Device and implant description</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A12</f>
+        <v>PatientHistory.medicalHistory.medicalDevices</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D12</f>
+        <v>A.2.6.1.2 - Devices and Implants</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>1298</v>
+      <c r="H13" s="14" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A14" s="8"/>
+      <c r="A14" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
       <c r="B14" s="8" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
@@ -14337,47 +14297,47 @@
         <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A15" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
-      </c>
+      <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
-        <v>PatientHistory.medicalHistory.medicalDevices.identifier</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
+        <v>PatientHistory.medicalHistory.medicalDevices.description</v>
       </c>
       <c r="D15" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D14</f>
-        <v>A.2.6.1.2.2 - Device ID</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D13</f>
+        <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="8"/>
+      <c r="A16" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
       <c r="B16" s="8" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
@@ -14388,47 +14348,47 @@
         <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A17" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
-      </c>
+      <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>1310</v>
+        <v>1294</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
-        <v>PatientHistory.medicalHistory.medicalDevices.implantDate</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
+        <v>PatientHistory.medicalHistory.medicalDevices.identifier</v>
       </c>
       <c r="D17" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D15</f>
-        <v>A.2.6.1.2.3 - Implant date</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D14</f>
+        <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A18" s="8"/>
+      <c r="A18" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
       <c r="B18" s="8" t="s">
-        <v>1282</v>
+        <v>1308</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
@@ -14439,40 +14399,39 @@
         <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A19" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
-      </c>
+      <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>1310</v>
+        <v>1280</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A16</f>
-        <v>PatientHistory.medicalHistory.medicalDevices.endDate</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
+        <v>PatientHistory.medicalHistory.medicalDevices.implantDate</v>
       </c>
       <c r="D19" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D16</f>
-        <v>A.2.6.1.2.4 - End date</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D15</f>
+        <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="8" t="str">
@@ -14480,26 +14439,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
-        <v>PatientHistory.medicalHistory.medicalDevices.reason</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A16</f>
+        <v>PatientHistory.medicalHistory.medicalDevices.endDate</v>
       </c>
       <c r="D20" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D17</f>
-        <v>A.2.6.1.2.5 - Reason</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D16</f>
+        <v>A.2.6.1.2.4 - End date</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>1288</v>
-      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="8" t="str">
@@ -14507,7 +14464,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
@@ -14518,13 +14475,15 @@
         <v>A.2.6.1.2.5 - Reason</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="8" t="str">
@@ -14532,26 +14491,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
+        <v>PatientHistory.medicalHistory.medicalDevices.reason</v>
+      </c>
+      <c r="D22" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D17</f>
+        <v>A.2.6.1.2.5 - Reason</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>1310</v>
       </c>
-      <c r="C22" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A18</f>
-        <v>PatientHistory.medicalHistory.historyOfProcedures</v>
-      </c>
-      <c r="D22" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D18</f>
-        <v>A.2.6.1.3 - History of procedures</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>1359</v>
-      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="8" t="str">
@@ -14559,43 +14516,45 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1282</v>
+        <v>1308</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A19</f>
-        <v>PatientHistory.medicalHistory.historyOfProcedures.procedureCode</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A18</f>
+        <v>PatientHistory.medicalHistory.historyOfProcedures</v>
       </c>
       <c r="D23" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D19</f>
-        <v>A.2.6.1.3.1 - Procedure code</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
+        <f xml:space="preserve"> PatientHistoryEhn!D18</f>
+        <v>A.2.6.1.3 - History of procedures</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="14" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A19</f>
+        <v>PatientHistory.medicalHistory.historyOfProcedures.procedureCode</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D19</f>
+        <v>A.2.6.1.3.1 - Procedure code</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>1282</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A20</f>
-        <v>PatientHistory.medicalHistory.historyOfProcedures.description</v>
-      </c>
-      <c r="D24" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D20</f>
-        <v>A.2.6.1.3.2 - Procedure description</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>1285</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
@@ -14609,18 +14568,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
-        <v>PatientHistory.medicalHistory.historyOfProcedures.bodySite</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A20</f>
+        <v>PatientHistory.medicalHistory.historyOfProcedures.description</v>
       </c>
       <c r="D25" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D21</f>
-        <v>A.2.6.1.3.3 - Body site</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D20</f>
+        <v>A.2.6.1.3.2 - Procedure description</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -14629,9 +14588,12 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A26" s="8"/>
+      <c r="A26" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
       <c r="B26" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
@@ -14642,40 +14604,37 @@
         <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>1288</v>
-      </c>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A27" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
-      </c>
+      <c r="A27" s="8"/>
       <c r="B27" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A22</f>
-        <v>PatientHistory.medicalHistory.historyOfProcedures.date</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
+        <v>PatientHistory.medicalHistory.historyOfProcedures.bodySite</v>
       </c>
       <c r="D27" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D22</f>
-        <v>A.2.6.1.3.4 - Procedure date</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D21</f>
+        <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" s="8" t="str">
@@ -14683,29 +14642,32 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
-        <v>PatientHistory.medicalHistory.historyOfProcedures.reason</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A22</f>
+        <v>PatientHistory.medicalHistory.historyOfProcedures.date</v>
       </c>
       <c r="D28" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D23</f>
-        <v>A.2.6.1.3.5 - Procedure reason</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D22</f>
+        <v>A.2.6.1.3.4 - Procedure date</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A29" s="8"/>
+      <c r="A29" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
       <c r="B29" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
@@ -14716,7 +14678,7 @@
         <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
@@ -14725,29 +14687,26 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A30" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
-      </c>
+      <c r="A30" s="8"/>
       <c r="B30" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A24</f>
-        <v>PatientHistory.medicalHistory.historyOfProcedures.outcome</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
+        <v>PatientHistory.medicalHistory.historyOfProcedures.reason</v>
       </c>
       <c r="D30" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D24</f>
-        <v>A.2.6.1.3.6 - Outcome</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D23</f>
+        <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" s="8" t="str">
@@ -14755,18 +14714,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A25</f>
-        <v>PatientHistory.medicalHistory.historyOfProcedures.focalDevice</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A24</f>
+        <v>PatientHistory.medicalHistory.historyOfProcedures.outcome</v>
       </c>
       <c r="D31" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D25</f>
-        <v>A.2.6.1.3.7 - Focal device</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D24</f>
+        <v>A.2.6.1.3.6 - Outcome</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
@@ -14779,19 +14738,19 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>901</v>
+      <c r="B32" s="11" t="s">
+        <v>1280</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A26</f>
-        <v>PatientHistory.medicalHistory.vaccination</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A25</f>
+        <v>PatientHistory.medicalHistory.historyOfProcedures.focalDevice</v>
       </c>
       <c r="D32" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D26</f>
-        <v>A.2.6.1.4 - Vaccination</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D25</f>
+        <v>A.2.6.1.3.7 - Focal device</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1360</v>
+        <v>1292</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
@@ -14805,19 +14764,20 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>1376</v>
+        <v>901</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A27</f>
-        <v>PatientHistory.medicalHistory.vaccination.diseaseOrAgent</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A26</f>
+        <v>PatientHistory.medicalHistory.vaccination</v>
       </c>
       <c r="D33" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D27</f>
-        <v>A.2.6.1.4.1 - Disease or agent targeted</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D26</f>
+        <v>A.2.6.1.4 - Vaccination</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1362</v>
-      </c>
+        <v>1357</v>
+      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
         <v>21</v>
       </c>
@@ -14829,22 +14789,21 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A28</f>
-        <v>PatientHistory.medicalHistory.vaccination.vaccine</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A27</f>
+        <v>PatientHistory.medicalHistory.vaccination.diseaseOrAgent</v>
       </c>
       <c r="D34" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D28</f>
-        <v>A.2.6.1.4.2 - Vaccine/prophylaxis</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D27</f>
+        <v>A.2.6.1.4.1 - Disease or agent targeted</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1363</v>
-      </c>
-      <c r="F34" s="7"/>
+        <v>1359</v>
+      </c>
       <c r="G34" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" s="9"/>
     </row>
@@ -14854,18 +14813,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A29</f>
-        <v>PatientHistory.medicalHistory.vaccination.productName</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A28</f>
+        <v>PatientHistory.medicalHistory.vaccination.vaccine</v>
       </c>
       <c r="D35" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D29</f>
-        <v>A.2.6.1.4.4 - Vaccine medicinal product</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D28</f>
+        <v>A.2.6.1.4.2 - Vaccine/prophylaxis</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -14879,18 +14838,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A30</f>
-        <v>PatientHistory.medicalHistory.vaccination.manufacturerOrMAH</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A29</f>
+        <v>PatientHistory.medicalHistory.vaccination.productName</v>
       </c>
       <c r="D36" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D30</f>
-        <v>A.2.6.1.4.5 - Marketing Authorisation Holder</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D29</f>
+        <v>A.2.6.1.4.4 - Vaccine medicinal product</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
@@ -14898,24 +14857,24 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A37" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A31</f>
-        <v>PatientHistory.medicalHistory.vaccination.orderNumber</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A30</f>
+        <v>PatientHistory.medicalHistory.vaccination.manufacturerOrMAH</v>
       </c>
       <c r="D37" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D31</f>
-        <v>A.2.6.1.4.6 - Number in a series of vaccinations / doses</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D30</f>
+        <v>A.2.6.1.4.5 - Marketing Authorisation Holder</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -14923,49 +14882,49 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A38" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A32</f>
-        <v>PatientHistory.medicalHistory.vaccination.vaccinationDate</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A31</f>
+        <v>PatientHistory.medicalHistory.vaccination.orderNumber</v>
       </c>
       <c r="D38" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D32</f>
-        <v>A.2.6.1.4.7 - Date of vaccination</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D31</f>
+        <v>A.2.6.1.4.6 - Number in a series of vaccinations / doses</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A39" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A33</f>
-        <v>PatientHistory.medicalHistory.vaccination.nextVaccinationDate</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A32</f>
+        <v>PatientHistory.medicalHistory.vaccination.vaccinationDate</v>
       </c>
       <c r="D39" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D33</f>
-        <v>A.2.6.1.4.8 - Next vaccination date</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D32</f>
+        <v>A.2.6.1.4.7 - Date of vaccination</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="22" t="s">
@@ -14973,32 +14932,30 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A40" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>901</v>
+      <c r="B40" s="26" t="s">
+        <v>1371</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A34</f>
-        <v>PatientHistory.medicalHistory.epidemiologicalHistory</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A33</f>
+        <v>PatientHistory.medicalHistory.vaccination.nextVaccinationDate</v>
       </c>
       <c r="D40" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D34</f>
-        <v>A.2.6.1.5 - Epidemiological history</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>1224</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D33</f>
+        <v>A.2.6.1.4.8 - Next vaccination date</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>1364</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="14" t="s">
-        <v>1357</v>
-      </c>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A41" s="8" t="str">
@@ -15009,25 +14966,25 @@
         <v>901</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A35</f>
-        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A34</f>
+        <v>PatientHistory.medicalHistory.epidemiologicalHistory</v>
       </c>
       <c r="D41" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D35</f>
-        <v>A.2.6.1.5.1 - Infectious contacts</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D34</f>
+        <v>A.2.6.1.5 - Epidemiological history</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A42" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
@@ -15036,22 +14993,22 @@
         <v>901</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A36</f>
-        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.period</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A35</f>
+        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts</v>
       </c>
       <c r="D42" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D36</f>
-        <v>A.2.6.1.5.1.1 - Time period</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D35</f>
+        <v>A.2.6.1.5.1 - Infectious contacts</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15063,22 +15020,22 @@
         <v>901</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A37</f>
-        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.infectiousAgent</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A36</f>
+        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.period</v>
       </c>
       <c r="D43" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D37</f>
-        <v>A.2.6.1.5.1.2 - Infectious agent</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D36</f>
+        <v>A.2.6.1.5.1.1 - Time period</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15090,22 +15047,22 @@
         <v>901</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A38</f>
-        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.proximity</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A37</f>
+        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.infectiousAgent</v>
       </c>
       <c r="D44" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D38</f>
-        <v>A.2.6.1.5.1.3 - Proximity</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D37</f>
+        <v>A.2.6.1.5.1.2 - Infectious agent</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15117,22 +15074,22 @@
         <v>901</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A39</f>
-        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.country</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A38</f>
+        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.proximity</v>
       </c>
       <c r="D45" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D39</f>
-        <v>A.2.6.1.5.1.4 - Country</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D38</f>
+        <v>A.2.6.1.5.1.3 - Proximity</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -15144,25 +15101,25 @@
         <v>901</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A40</f>
-        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.note</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A39</f>
+        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.country</v>
       </c>
       <c r="D46" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D40</f>
-        <v>A.2.6.1.5.1.5 - Additional information</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D39</f>
+        <v>A.2.6.1.5.1.4 - Country</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.75">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A47" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
@@ -15171,21 +15128,23 @@
         <v>901</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A41</f>
-        <v>PatientHistory.medicalHistory.epidemiologicalHistory.travelHistory</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A40</f>
+        <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.note</v>
       </c>
       <c r="D47" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D41</f>
-        <v>A.2.6.1.5.2 - Travel history</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>1369</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D40</f>
+        <v>A.2.6.1.5.1.5 - Additional information</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>1223</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="14" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A48" s="8" t="str">
@@ -15196,23 +15155,21 @@
         <v>901</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A42</f>
-        <v>PatientHistory.medicalHistory.epidemiologicalHistory.travelHistory.period</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A41</f>
+        <v>PatientHistory.medicalHistory.epidemiologicalHistory.travelHistory</v>
       </c>
       <c r="D48" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D42</f>
-        <v>A.2.6.1.5.2.1 - Time period</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>1369</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D41</f>
+        <v>A.2.6.1.5.2 - Travel history</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>1366</v>
       </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="14" t="s">
-        <v>1361</v>
-      </c>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A49" s="8" t="str">
@@ -15223,25 +15180,25 @@
         <v>901</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A43</f>
-        <v>PatientHistory.medicalHistory.epidemiologicalHistory.travelHistory.country</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A42</f>
+        <v>PatientHistory.medicalHistory.epidemiologicalHistory.travelHistory.period</v>
       </c>
       <c r="D49" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D43</f>
-        <v>A.2.6.1.5.2.2 - Country visited</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D42</f>
+        <v>A.2.6.1.5.2.1 - Time period</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A50" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
@@ -15250,208 +15207,202 @@
         <v>901</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A44</f>
-        <v>PatientHistory.medicalHistory.epidemiologicalHistory.travelHistory.comment</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A43</f>
+        <v>PatientHistory.medicalHistory.epidemiologicalHistory.travelHistory.country</v>
       </c>
       <c r="D50" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D44</f>
-        <v>A.2.6.1.5.2.3 - Comment</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D43</f>
+        <v>A.2.6.1.5.2.2 - Country visited</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.75">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A51" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="25" t="s">
         <v>901</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A45</f>
-        <v>PatientHistory.familyHistory</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A44</f>
+        <v>PatientHistory.medicalHistory.epidemiologicalHistory.travelHistory.comment</v>
       </c>
       <c r="D51" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D45</f>
-        <v>A.2.6.2 - Family history</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>1372</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D44</f>
+        <v>A.2.6.1.5.2.3 - Comment</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>1366</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="28" t="s">
+      <c r="G51" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="27"/>
+      <c r="H51" s="14" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A52" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B52" s="25" t="s">
-        <v>1370</v>
+      <c r="B52" s="29" t="s">
+        <v>901</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A46</f>
-        <v>PatientHistory.familyHistory.relationship</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A45</f>
+        <v>PatientHistory.familyHistory</v>
       </c>
       <c r="D52" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D46</f>
-        <v>A.2.6.2.1 - Patient relationship</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>1371</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D45</f>
+        <v>A.2.6.2 - Family history</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>1381</v>
       </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="14" t="s">
-        <v>1361</v>
-      </c>
+      <c r="H52" s="27"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A53" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>1370</v>
+      <c r="B53" s="26" t="s">
+        <v>1387</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A47</f>
-        <v>PatientHistory.familyHistory.birthDate</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A46</f>
+        <v>PatientHistory.familyHistory.relationship</v>
       </c>
       <c r="D53" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D47</f>
-        <v>A.2.6.2.2 - Date of birth</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>1371</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D46</f>
+        <v>A.2.6.2.1 - Patient relationship</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>1382</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>1361</v>
-      </c>
+      <c r="G53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="27"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A54" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>1370</v>
+      <c r="B54" s="26" t="s">
+        <v>1387</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A48</f>
-        <v>PatientHistory.familyHistory.deathDateOrAge</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A47</f>
+        <v>PatientHistory.familyHistory.birthDate</v>
       </c>
       <c r="D54" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D48</f>
-        <v>A.2.6.2.3 - Age or date of death</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>1371</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D47</f>
+        <v>A.2.6.2.2 - Date of birth</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>1383</v>
       </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>1361</v>
-      </c>
+      <c r="G54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="27"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A55" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>1370</v>
+      <c r="B55" s="26" t="s">
+        <v>1387</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A49</f>
-        <v>PatientHistory.familyHistory.conditions</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A48</f>
+        <v>PatientHistory.familyHistory.deathDateOrAge</v>
       </c>
       <c r="D55" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D49</f>
-        <v>A.2.6.2.5 - Condition</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>1361</v>
-      </c>
+        <f xml:space="preserve"> PatientHistoryEhn!D48</f>
+        <v>A.2.6.2.3 - Age or date of death</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="27"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A56" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>1370</v>
+      <c r="B56" s="26" t="s">
+        <v>1387</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A50</f>
-        <v>PatientHistory.familyHistory.causeOfDeath</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A49</f>
+        <v>PatientHistory.familyHistory.conditions</v>
       </c>
       <c r="D56" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D50</f>
-        <v>A.2.6.2.6 - Cause of death</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>1371</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D49</f>
+        <v>A.2.6.2.5 - Condition</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>1385</v>
       </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>1361</v>
-      </c>
+      <c r="G56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="27"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A57" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B57" s="25" t="s">
-        <v>901</v>
+      <c r="B57" s="26" t="s">
+        <v>1387</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A51</f>
-        <v>PatientHistory.socialDeterminants</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A50</f>
+        <v>PatientHistory.familyHistory.causeOfDeath</v>
       </c>
       <c r="D57" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D51</f>
-        <v>A.2.6.3 - Social determinants of health</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>1373</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D50</f>
+        <v>A.2.6.2.6 - Cause of death</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>1385</v>
       </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="27"/>
+      <c r="G57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A58" s="8" t="str">
@@ -15462,23 +15413,21 @@
         <v>901</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A52</f>
-        <v>PatientHistory.socialDeterminants.participationInSociety</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A51</f>
+        <v>PatientHistory.socialDeterminants</v>
       </c>
       <c r="D58" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D52</f>
-        <v>A.2.6.3.1 - Participation in society</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>1224</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D51</f>
+        <v>A.2.6.3 - Social determinants of health</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>1367</v>
       </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="14" t="s">
-        <v>1361</v>
-      </c>
+      <c r="H58" s="27"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A59" s="8" t="str">
@@ -15489,22 +15438,22 @@
         <v>901</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A53</f>
-        <v>PatientHistory.socialDeterminants.participationInSociety.workSituation</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A52</f>
+        <v>PatientHistory.socialDeterminants.participationInSociety</v>
       </c>
       <c r="D59" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D53</f>
-        <v>A.2.6.3.1.1 - Work situation</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D52</f>
+        <v>A.2.6.3.1 - Participation in society</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.75">
@@ -15516,22 +15465,22 @@
         <v>901</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A54</f>
-        <v>PatientHistory.socialDeterminants.participationInSociety.hobby</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A53</f>
+        <v>PatientHistory.socialDeterminants.participationInSociety.workSituation</v>
       </c>
       <c r="D60" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D54</f>
-        <v>A.2.6.3.1.2 - Hobby</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D53</f>
+        <v>A.2.6.3.1.1 - Work situation</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.75">
@@ -15543,22 +15492,22 @@
         <v>901</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A55</f>
-        <v>PatientHistory.socialDeterminants.participationInSociety.socailNetwork</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A54</f>
+        <v>PatientHistory.socialDeterminants.participationInSociety.hobby</v>
       </c>
       <c r="D61" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D55</f>
-        <v>A.2.6.3.1.3 - Social network</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D54</f>
+        <v>A.2.6.3.1.2 - Hobby</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.75">
@@ -15570,22 +15519,22 @@
         <v>901</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A56</f>
-        <v>PatientHistory.socialDeterminants.education</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A55</f>
+        <v>PatientHistory.socialDeterminants.participationInSociety.socailNetwork</v>
       </c>
       <c r="D62" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D56</f>
-        <v>A.2.6.3.2 - Education</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D55</f>
+        <v>A.2.6.3.1.3 - Social network</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.75">
@@ -15597,22 +15546,22 @@
         <v>901</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A57</f>
-        <v>PatientHistory.socialDeterminants.education.level</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A56</f>
+        <v>PatientHistory.socialDeterminants.education</v>
       </c>
       <c r="D63" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D57</f>
-        <v>A.2.6.3.2.1 - Education level</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D56</f>
+        <v>A.2.6.3.2 - Education</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -15624,22 +15573,22 @@
         <v>901</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A58</f>
-        <v>PatientHistory.socialDeterminants.education.comment</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A57</f>
+        <v>PatientHistory.socialDeterminants.education.level</v>
       </c>
       <c r="D64" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D58</f>
-        <v>A.2.6.3.2.2 - Comment</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D57</f>
+        <v>A.2.6.3.2.1 - Education level</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -15651,22 +15600,22 @@
         <v>901</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A59</f>
-        <v>PatientHistory.socialDeterminants.livingSituation</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A58</f>
+        <v>PatientHistory.socialDeterminants.education.comment</v>
       </c>
       <c r="D65" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D59</f>
-        <v>A.2.6.3.3 - Living situation</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D58</f>
+        <v>A.2.6.3.2.2 - Comment</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
@@ -15678,22 +15627,22 @@
         <v>901</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A60</f>
-        <v>PatientHistory.socialDeterminants.livingSituation.houseType</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A59</f>
+        <v>PatientHistory.socialDeterminants.livingSituation</v>
       </c>
       <c r="D66" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D60</f>
-        <v>A.2.6.3.3.1 - House type</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D59</f>
+        <v>A.2.6.3.3 - Living situation</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.75">
@@ -15705,22 +15654,22 @@
         <v>901</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A61</f>
-        <v>PatientHistory.socialDeterminants.livingSituation.homeAdaption</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A60</f>
+        <v>PatientHistory.socialDeterminants.livingSituation.houseType</v>
       </c>
       <c r="D67" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D61</f>
-        <v>A.2.6.3.3.2 - Home adaption</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D60</f>
+        <v>A.2.6.3.3.1 - House type</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
@@ -15732,22 +15681,22 @@
         <v>901</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A62</f>
-        <v>PatientHistory.socialDeterminants.livingSituation.livingConditions</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A61</f>
+        <v>PatientHistory.socialDeterminants.livingSituation.homeAdaption</v>
       </c>
       <c r="D68" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D62</f>
-        <v>A.2.6.3.3.3 - Living conditions</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D61</f>
+        <v>A.2.6.3.3.2 - Home adaption</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.75">
@@ -15759,22 +15708,22 @@
         <v>901</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A63</f>
-        <v>PatientHistory.socialDeterminants.familySituation</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A62</f>
+        <v>PatientHistory.socialDeterminants.livingSituation.livingConditions</v>
       </c>
       <c r="D69" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D63</f>
-        <v>A.2.6.3.4 - Family situation</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D62</f>
+        <v>A.2.6.3.3.3 - Living conditions</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -15786,22 +15735,22 @@
         <v>901</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A64</f>
-        <v>PatientHistory.socialDeterminants.familySituation.comment</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A63</f>
+        <v>PatientHistory.socialDeterminants.familySituation</v>
       </c>
       <c r="D70" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D64</f>
-        <v>A.2.6.3.4.1 - Comment</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D63</f>
+        <v>A.2.6.3.4 - Family situation</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -15813,22 +15762,22 @@
         <v>901</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A65</f>
-        <v>PatientHistory.socialDeterminants.familySituation.familyComposition</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A64</f>
+        <v>PatientHistory.socialDeterminants.familySituation.comment</v>
       </c>
       <c r="D71" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D65</f>
-        <v>A.2.6.3.4.2 - Family composition</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D64</f>
+        <v>A.2.6.3.4.1 - Comment</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
@@ -15840,22 +15789,22 @@
         <v>901</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A66</f>
-        <v>PatientHistory.socialDeterminants.familySituation.maritalStatus</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A65</f>
+        <v>PatientHistory.socialDeterminants.familySituation.familyComposition</v>
       </c>
       <c r="D72" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D66</f>
-        <v>A.2.6.3.4.3 - Marital status</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D65</f>
+        <v>A.2.6.3.4.2 - Family composition</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.75">
@@ -15867,25 +15816,25 @@
         <v>901</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A67</f>
-        <v>PatientHistory.socialDeterminants.familySituation.numberOfChildren</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A66</f>
+        <v>PatientHistory.socialDeterminants.familySituation.maritalStatus</v>
       </c>
       <c r="D73" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D67</f>
-        <v>A.2.6.3.4.4 - Number of children</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D66</f>
+        <v>A.2.6.3.4.3 - Marital status</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A74" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
@@ -15894,25 +15843,25 @@
         <v>901</v>
       </c>
       <c r="C74" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A68</f>
-        <v>PatientHistory.socialDeterminants.familySituation.numberOfChildrenAtHome</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A67</f>
+        <v>PatientHistory.socialDeterminants.familySituation.numberOfChildren</v>
       </c>
       <c r="D74" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D68</f>
-        <v>A.2.6.3.4.5 - Number of children at home</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D67</f>
+        <v>A.2.6.3.4.4 - Number of children</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.75">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A75" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
@@ -15921,22 +15870,22 @@
         <v>901</v>
       </c>
       <c r="C75" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A69</f>
-        <v>PatientHistory.socialDeterminants.familySituation.childDetails</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A68</f>
+        <v>PatientHistory.socialDeterminants.familySituation.numberOfChildrenAtHome</v>
       </c>
       <c r="D75" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D69</f>
-        <v>A.2.6.3.4.6 - Child details</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D68</f>
+        <v>A.2.6.3.4.5 - Number of children at home</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.75">
@@ -15948,22 +15897,22 @@
         <v>901</v>
       </c>
       <c r="C76" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A70</f>
-        <v>PatientHistory.socialDeterminants.familySituation.careResponsibility</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A69</f>
+        <v>PatientHistory.socialDeterminants.familySituation.childDetails</v>
       </c>
       <c r="D76" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D70</f>
-        <v>A.2.6.3.4.7 - Care responsibility</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D69</f>
+        <v>A.2.6.3.4.6 - Child details</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.75">
@@ -15975,22 +15924,22 @@
         <v>901</v>
       </c>
       <c r="C77" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A71</f>
-        <v>PatientHistory.useOfSubstances</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A70</f>
+        <v>PatientHistory.socialDeterminants.familySituation.careResponsibility</v>
       </c>
       <c r="D77" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D71</f>
-        <v>A.2.6.4 - Use of substances</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D70</f>
+        <v>A.2.6.3.4.7 - Care responsibility</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.75">
@@ -16002,22 +15951,22 @@
         <v>901</v>
       </c>
       <c r="C78" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A72</f>
-        <v>PatientHistory.useOfSubstances.alcohol</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A71</f>
+        <v>PatientHistory.useOfSubstances</v>
       </c>
       <c r="D78" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D72</f>
-        <v>A.2.6.4.1 - Alcohol use</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D71</f>
+        <v>A.2.6.4 - Use of substances</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.75">
@@ -16029,27 +15978,50 @@
         <v>901</v>
       </c>
       <c r="C79" s="9" t="str">
-        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A73</f>
-        <v>PatientHistory.useOfSubstances.alcohol.currentStatus</v>
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A72</f>
+        <v>PatientHistory.useOfSubstances.alcohol</v>
       </c>
       <c r="D79" s="9" t="str">
-        <f xml:space="preserve"> PatientHistoryEhn!D73</f>
-        <v>A.2.6.4.1.1 - Status</v>
+        <f xml:space="preserve"> PatientHistoryEhn!D72</f>
+        <v>A.2.6.4.1 - Alcohol use</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="D82"/>
-      <c r="H82"/>
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A80" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>901</v>
+      </c>
+      <c r="C80" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A73</f>
+        <v>PatientHistory.useOfSubstances.alcohol.currentStatus</v>
+      </c>
+      <c r="D80" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D73</f>
+        <v>A.2.6.4.1.1 - Status</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.75">
       <c r="D83"/>
@@ -16084,9 +16056,8 @@
       <c r="H90"/>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
+      <c r="D91"/>
+      <c r="H91"/>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.75">
       <c r="E92" s="5"/>
@@ -16122,47 +16093,54 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.75">
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2:A5" r:id="rId1" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{D83C9D87-A7B7-4B4C-BC51-73FADD8E0EAF}"/>
     <hyperlink ref="A2" r:id="rId2" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{773F9F15-3968-4637-9522-7B7E87FE4B08}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{6C3B6166-ED07-4BA3-A6B6-317118974852}"/>
-    <hyperlink ref="B41" r:id="rId4" xr:uid="{7B9F047E-3439-42E2-83EF-73BF676EF917}"/>
-    <hyperlink ref="B17:B30" r:id="rId5" display="http://hl7.eu/fhir/hdr/StructureDefinition/procedure-eu-hdr" xr:uid="{1BFAF02C-82BE-4D51-8BC7-5F7073B14112}"/>
-    <hyperlink ref="B24" r:id="rId6" xr:uid="{5D25BABD-CD16-4F37-9680-8A9077AE0EE0}"/>
-    <hyperlink ref="B25" r:id="rId7" xr:uid="{F3F51840-D7BD-463C-B909-85709D9B7D0C}"/>
-    <hyperlink ref="A3:A70" r:id="rId8" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{FBC4300C-4B6A-47D8-A245-52563758714C}"/>
-    <hyperlink ref="A71:A74" r:id="rId9" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{159D5253-6906-4703-A28F-547A20CA3F2B}"/>
-    <hyperlink ref="A71" r:id="rId10" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{C35C6822-0C83-4288-B945-D2845B268AED}"/>
-    <hyperlink ref="A72:A79" r:id="rId11" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{C71872E2-E861-4220-A5C7-C292D1A5CC37}"/>
+    <hyperlink ref="B42" r:id="rId4" xr:uid="{7B9F047E-3439-42E2-83EF-73BF676EF917}"/>
+    <hyperlink ref="B18:B31" r:id="rId5" display="http://hl7.eu/fhir/hdr/StructureDefinition/procedure-eu-hdr" xr:uid="{1BFAF02C-82BE-4D51-8BC7-5F7073B14112}"/>
+    <hyperlink ref="B25" r:id="rId6" xr:uid="{5D25BABD-CD16-4F37-9680-8A9077AE0EE0}"/>
+    <hyperlink ref="B26" r:id="rId7" xr:uid="{F3F51840-D7BD-463C-B909-85709D9B7D0C}"/>
+    <hyperlink ref="A3:A71" r:id="rId8" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{FBC4300C-4B6A-47D8-A245-52563758714C}"/>
+    <hyperlink ref="A72:A75" r:id="rId9" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{159D5253-6906-4703-A28F-547A20CA3F2B}"/>
+    <hyperlink ref="A72" r:id="rId10" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{C35C6822-0C83-4288-B945-D2845B268AED}"/>
+    <hyperlink ref="A73:A80" r:id="rId11" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{C71872E2-E861-4220-A5C7-C292D1A5CC37}"/>
     <hyperlink ref="B3" r:id="rId12" xr:uid="{D8EE0090-E0A5-4EF2-A4D4-FF298A9EC839}"/>
-    <hyperlink ref="B13" r:id="rId13" xr:uid="{2FD40B49-61D5-4FDD-BC10-E24E0C2B7128}"/>
-    <hyperlink ref="B12" r:id="rId14" xr:uid="{898B89C3-468A-4749-9457-FF6A02374DD6}"/>
-    <hyperlink ref="B14" r:id="rId15" xr:uid="{39C097E2-7256-4B28-862E-2C842FDEE7BB}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{6DB328AF-296D-4B1F-97EE-3E8938965CDF}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{FFF9FD4D-404C-43C7-B250-B0FBDC924FD2}"/>
-    <hyperlink ref="B17" r:id="rId18" xr:uid="{16B99D2A-5DBE-48B3-9925-E99FF8AEDC2C}"/>
-    <hyperlink ref="B19" r:id="rId19" xr:uid="{56520413-41EB-4ACB-9DA5-40F1862E94F2}"/>
-    <hyperlink ref="B20:B22" r:id="rId20" display="http://hl7.eu/fhir/hdr/StructureDefinition/deviceUseStatement-eu-hdr" xr:uid="{10B98CC8-FB87-41D5-8E02-1101E71BD8BF}"/>
-    <hyperlink ref="B21" r:id="rId21" xr:uid="{CCC94832-88F5-44D6-B4D5-9DB55D5D4A35}"/>
-    <hyperlink ref="A21" r:id="rId22" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{543268D7-9BE4-4B68-AE4F-AA1F005415E3}"/>
-    <hyperlink ref="B26:B31" r:id="rId23" display="http://hl7.eu/fhir/hdr/StructureDefinition/procedure-eu-hdr" xr:uid="{E1EBC81A-61FD-4DC4-B42D-AD1EF86C1E9A}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{0C2E8B8F-4BC7-4A14-89C9-53D8E0578F3C}"/>
-    <hyperlink ref="B43" r:id="rId25" xr:uid="{2EA884C0-1DDF-41CA-B0A0-E878F491E1F2}"/>
-    <hyperlink ref="B45" r:id="rId26" xr:uid="{9CD85343-B66D-44D8-8B7C-FACDC876649F}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{2FD40B49-61D5-4FDD-BC10-E24E0C2B7128}"/>
+    <hyperlink ref="B13" r:id="rId14" xr:uid="{898B89C3-468A-4749-9457-FF6A02374DD6}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{39C097E2-7256-4B28-862E-2C842FDEE7BB}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{6DB328AF-296D-4B1F-97EE-3E8938965CDF}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{FFF9FD4D-404C-43C7-B250-B0FBDC924FD2}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{16B99D2A-5DBE-48B3-9925-E99FF8AEDC2C}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{56520413-41EB-4ACB-9DA5-40F1862E94F2}"/>
+    <hyperlink ref="B21:B23" r:id="rId20" display="http://hl7.eu/fhir/hdr/StructureDefinition/deviceUseStatement-eu-hdr" xr:uid="{10B98CC8-FB87-41D5-8E02-1101E71BD8BF}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{CCC94832-88F5-44D6-B4D5-9DB55D5D4A35}"/>
+    <hyperlink ref="A22" r:id="rId22" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{543268D7-9BE4-4B68-AE4F-AA1F005415E3}"/>
+    <hyperlink ref="B27:B32" r:id="rId23" display="http://hl7.eu/fhir/hdr/StructureDefinition/procedure-eu-hdr" xr:uid="{E1EBC81A-61FD-4DC4-B42D-AD1EF86C1E9A}"/>
+    <hyperlink ref="B41" r:id="rId24" xr:uid="{0C2E8B8F-4BC7-4A14-89C9-53D8E0578F3C}"/>
+    <hyperlink ref="B44" r:id="rId25" xr:uid="{2EA884C0-1DDF-41CA-B0A0-E878F491E1F2}"/>
+    <hyperlink ref="B46" r:id="rId26" xr:uid="{9CD85343-B66D-44D8-8B7C-FACDC876649F}"/>
     <hyperlink ref="A1" r:id="rId27" display="http://hl7.eu/fhir/hdr/StructureDefinition/composition-eu-hdr" xr:uid="{B62B2D10-218E-4A91-B4A9-C4C092E378B9}"/>
-    <hyperlink ref="B42" r:id="rId28" xr:uid="{3AA283D3-348D-4B59-A200-780B1B54A1BE}"/>
-    <hyperlink ref="B44" r:id="rId29" xr:uid="{7386725C-8153-474E-8750-D60D4DA4A642}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{658B9F34-CBA0-43BE-A497-3FE7840AB22F}"/>
-    <hyperlink ref="B33:B39" r:id="rId31" display="http://hl7.eu/fhir/hdr/StructureDefinition/immunization-eu-eps" xr:uid="{A35CA130-777D-4E79-9924-81D156F76728}"/>
-    <hyperlink ref="B32" r:id="rId32" xr:uid="{31535991-099F-4941-BFF8-F5F167C4BFF8}"/>
-    <hyperlink ref="B39" r:id="rId33" display="http://hl7.eu/fhir/hdr/StructureDefinition/ImmunizationRecommendation-eu-eps" xr:uid="{5B125149-4E6A-46A9-BDF2-63A465796C51}"/>
-    <hyperlink ref="B47" r:id="rId34" xr:uid="{27DCBFBF-6884-49AB-B32F-532A98500976}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{0EFC7461-5DD0-4A27-AAB7-B1D239101879}"/>
-    <hyperlink ref="B53:B56" r:id="rId36" display="http://hl7.org/fhir/StructureDefinition/FamilyHistory" xr:uid="{C6D76D0D-8601-4098-870D-4A5B2A3C37B8}"/>
+    <hyperlink ref="B43" r:id="rId28" xr:uid="{3AA283D3-348D-4B59-A200-780B1B54A1BE}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{7386725C-8153-474E-8750-D60D4DA4A642}"/>
+    <hyperlink ref="B47" r:id="rId30" xr:uid="{658B9F34-CBA0-43BE-A497-3FE7840AB22F}"/>
+    <hyperlink ref="B34:B40" r:id="rId31" display="http://hl7.eu/fhir/hdr/StructureDefinition/immunization-eu-eps" xr:uid="{A35CA130-777D-4E79-9924-81D156F76728}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{31535991-099F-4941-BFF8-F5F167C4BFF8}"/>
+    <hyperlink ref="B40" r:id="rId33" display="http://hl7.eu/fhir/hdr/StructureDefinition/ImmunizationRecommendation-eu-eps" xr:uid="{5B125149-4E6A-46A9-BDF2-63A465796C51}"/>
+    <hyperlink ref="B48" r:id="rId34" xr:uid="{27DCBFBF-6884-49AB-B32F-532A98500976}"/>
+    <hyperlink ref="B53" r:id="rId35" xr:uid="{0EFC7461-5DD0-4A27-AAB7-B1D239101879}"/>
+    <hyperlink ref="B10" r:id="rId36" xr:uid="{B7274725-2394-49DA-802C-BEB611C56196}"/>
+    <hyperlink ref="B54:B57" r:id="rId37" display="http://hl7.org/fhir/StructureDefinition/familyMemberHistory-eu-hdr" xr:uid="{9886B42D-1BC0-4839-8F10-E5E29C29F906}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -17629,10 +17607,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E43"/>
+    <sheetView topLeftCell="C3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -17690,14 +17668,14 @@
         <v>A.2.7.1 - Diagnostic summary</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -17706,7 +17684,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A3</f>
@@ -17717,7 +17695,7 @@
         <v>A.2.7.1.1 - Problem description</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -17731,7 +17709,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A4</f>
@@ -17742,7 +17720,7 @@
         <v>A.2.7.1.2 - Problem details</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -17756,7 +17734,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A5</f>
@@ -17767,7 +17745,7 @@
         <v>A.2.7.1.3 - Onset date</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -17781,7 +17759,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A6</f>
@@ -17792,7 +17770,7 @@
         <v>A.2.7.1.4 - End date</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -17806,7 +17784,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A7</f>
@@ -17817,7 +17795,7 @@
         <v>A.2.7.1.5 - Category</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -17831,7 +17809,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A8</f>
@@ -17842,7 +17820,7 @@
         <v>A.2.7.1.6 - Treatment class</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -17856,7 +17834,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A9</f>
@@ -17867,7 +17845,7 @@
         <v>A.2.7.1.7 - Clinical status</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -17875,13 +17853,13 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" ht="59" x14ac:dyDescent="0.75">
       <c r="A10" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>901</v>
+      <c r="B10" s="8" t="s">
+        <v>1265</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A10</f>
@@ -17891,41 +17869,40 @@
         <f xml:space="preserve"> HospitalStayEhn!D10</f>
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
+      <c r="E10" s="30" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
-      </c>
+      <c r="H10" s="31" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="59" x14ac:dyDescent="0.75">
+      <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>1266</v>
+        <v>901</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A11</f>
-        <v>HospitalStay.diagnosticSummary.severity</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A10</f>
+        <v>HospitalStay.diagnosticSummary.resolution</v>
       </c>
       <c r="D11" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D11</f>
-        <v>A.2.7.1.9 - Severity</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="9"/>
+        <f xml:space="preserve"> HospitalStayEhn!D10</f>
+        <v>A.2.7.1.8 - Resolution circumstances</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="8" t="str">
@@ -17933,18 +17910,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A12</f>
-        <v>HospitalStay.diagnosticSummary.stage</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A11</f>
+        <v>HospitalStay.diagnosticSummary.severity</v>
       </c>
       <c r="D12" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D12</f>
-        <v>A.2.7.1.10 - Stage</v>
+        <f xml:space="preserve"> HospitalStayEhn!D11</f>
+        <v>A.2.7.1.9 - Severity</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -17952,57 +17929,57 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>901</v>
+        <v>1265</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A13</f>
-        <v>HospitalStay.significantProcedures</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A12</f>
+        <v>HospitalStay.diagnosticSummary.stage</v>
       </c>
       <c r="D13" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D13</f>
-        <v>A.2.7.2 - Significant procedures</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>1273</v>
+        <f xml:space="preserve"> HospitalStayEhn!D12</f>
+        <v>A.2.7.1.10 - Stage</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>1376</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A14" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1282</v>
+        <v>901</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A14</f>
-        <v>HospitalStay.significantProcedures.procedureCode</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A13</f>
+        <v>HospitalStay.significantProcedures</v>
       </c>
       <c r="D14" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D14</f>
-        <v>A.2.7.2.1 - Procedure code</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>1284</v>
+        <f xml:space="preserve"> HospitalStayEhn!D13</f>
+        <v>A.2.7.2 - Significant procedures</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>1271</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>1281</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="8" t="str">
@@ -18010,18 +17987,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A14</f>
+        <v>HospitalStay.significantProcedures.procedureCode</v>
+      </c>
+      <c r="D15" s="9" t="str">
+        <f xml:space="preserve"> HospitalStayEhn!D14</f>
+        <v>A.2.7.2.1 - Procedure code</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>1282</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A15</f>
-        <v>HospitalStay.significantProcedures.description</v>
-      </c>
-      <c r="D15" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D15</f>
-        <v>A.2.7.2.2 - Procedure description</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>1285</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -18035,18 +18012,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
-        <v>HospitalStay.significantProcedures.bodySite</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A15</f>
+        <v>HospitalStay.significantProcedures.description</v>
       </c>
       <c r="D16" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D16</f>
-        <v>A.2.7.2.3 - Body site</v>
+        <f xml:space="preserve"> HospitalStayEhn!D15</f>
+        <v>A.2.7.2.2 - Procedure description</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -18060,7 +18037,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -18071,15 +18048,13 @@
         <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>1288</v>
-      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="8" t="str">
@@ -18087,24 +18062,26 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A17</f>
-        <v>HospitalStay.significantProcedures.date</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
+        <v>HospitalStay.significantProcedures.bodySite</v>
       </c>
       <c r="D18" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D17</f>
-        <v>A.2.7.2.4 - Procedure date</v>
+        <f xml:space="preserve"> HospitalStayEhn!D16</f>
+        <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="8" t="str">
@@ -18112,22 +18089,22 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
-        <v>HospitalStay.significantProcedures.reason</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A17</f>
+        <v>HospitalStay.significantProcedures.date</v>
       </c>
       <c r="D19" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D18</f>
-        <v>A.2.7.2.5 - Procedure reason</v>
+        <f xml:space="preserve"> HospitalStayEhn!D17</f>
+        <v>A.2.7.2.4 - Procedure date</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -18136,8 +18113,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>1282</v>
+      <c r="B20" s="8" t="s">
+        <v>1280</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -18148,7 +18125,7 @@
         <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
@@ -18162,18 +18139,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A19</f>
-        <v>HospitalStay.significantProcedures.outcome</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
+        <v>HospitalStay.significantProcedures.reason</v>
       </c>
       <c r="D21" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D19</f>
-        <v>A.2.7.2.6 - Outcome</v>
+        <f xml:space="preserve"> HospitalStayEhn!D18</f>
+        <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
@@ -18187,22 +18164,22 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
-        <v>HospitalStay.significantProcedures.complication</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A19</f>
+        <v>HospitalStay.significantProcedures.outcome</v>
       </c>
       <c r="D22" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D20</f>
-        <v>A.2.7.2.7 - Complication</v>
+        <f xml:space="preserve"> HospitalStayEhn!D19</f>
+        <v>A.2.7.2.6 - Outcome</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="9"/>
     </row>
@@ -18212,7 +18189,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -18223,12 +18200,13 @@
         <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G23" s="22" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="8" t="str">
@@ -18236,77 +18214,74 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A21</f>
-        <v>HospitalStay.significantProcedures.focalDevice</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
+        <v>HospitalStay.significantProcedures.complication</v>
       </c>
       <c r="D24" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D21</f>
-        <v>A.2.7.2.8 - Focal device</v>
+        <f xml:space="preserve"> HospitalStayEhn!D20</f>
+        <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1291</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>901</v>
+      <c r="B25" s="11" t="s">
+        <v>1280</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A22</f>
-        <v>HospitalStay.medicalDevices</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A21</f>
+        <v>HospitalStay.significantProcedures.focalDevice</v>
       </c>
       <c r="D25" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D22</f>
-        <v>A.2.7.3 - Medical devices and implants</v>
+        <f xml:space="preserve"> HospitalStayEhn!D21</f>
+        <v>A.2.7.2.8 - Focal device</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1274</v>
+        <v>1292</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A26" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1310</v>
+        <v>901</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
-        <v>HospitalStay.medicalDevices.description</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A22</f>
+        <v>HospitalStay.medicalDevices</v>
       </c>
       <c r="D26" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D23</f>
-        <v>A.2.7.3.1 - Device and implant description</v>
+        <f xml:space="preserve"> HospitalStayEhn!D22</f>
+        <v>A.2.7.3 - Medical devices and implants</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1297</v>
+        <v>1272</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
@@ -18315,7 +18290,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -18326,14 +18301,14 @@
         <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
@@ -18342,25 +18317,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
-        <v>HospitalStay.medicalDevices.identifier</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
+        <v>HospitalStay.medicalDevices.description</v>
       </c>
       <c r="D28" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D24</f>
-        <v>A.2.7.3.2 - Device ID</v>
+        <f xml:space="preserve"> HospitalStayEhn!D23</f>
+        <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
@@ -18369,7 +18344,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
@@ -18380,14 +18355,14 @@
         <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
@@ -18396,25 +18371,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1310</v>
+        <v>1294</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
-        <v>HospitalStay.medicalDevices.implantDate</v>
-      </c>
-      <c r="D30" s="14" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D25</f>
-        <v>A.2.7.3.3 - Implant date</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
+        <v>HospitalStay.medicalDevices.identifier</v>
+      </c>
+      <c r="D30" s="9" t="str">
+        <f xml:space="preserve"> HospitalStayEhn!D24</f>
+        <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
@@ -18423,7 +18398,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1282</v>
+        <v>1308</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
@@ -18434,14 +18409,14 @@
         <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
@@ -18450,24 +18425,26 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1310</v>
+        <v>1280</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A26</f>
-        <v>HospitalStay.medicalDevices.endDate</v>
-      </c>
-      <c r="D32" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D26</f>
-        <v>A.2.7.3.4 - End date</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
+        <v>HospitalStay.medicalDevices.implantDate</v>
+      </c>
+      <c r="D32" s="14" t="str">
+        <f xml:space="preserve"> HospitalStayEhn!D25</f>
+        <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="23"/>
+      <c r="H32" s="9" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A33" s="8" t="str">
@@ -18475,18 +18452,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
-        <v>HospitalStay.medicalDevices.reason</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A26</f>
+        <v>HospitalStay.medicalDevices.endDate</v>
       </c>
       <c r="D33" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D27</f>
-        <v>A.2.7.3.5 - Reason</v>
+        <f xml:space="preserve"> HospitalStayEhn!D26</f>
+        <v>A.2.7.3.4 - End date</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="22" t="s">
@@ -18500,7 +18477,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
@@ -18511,65 +18488,65 @@
         <v>A.2.7.3.5 - Reason</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>901</v>
+        <v>1308</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A28</f>
-        <v>HospitalStay.pharmacotherapy</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
+        <v>HospitalStay.medicalDevices.reason</v>
       </c>
       <c r="D35" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D28</f>
-        <v>A.2.7.5 - Pharmacotherapy</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>1275</v>
+        <f xml:space="preserve"> HospitalStayEhn!D27</f>
+        <v>A.2.7.3.5 - Reason</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>1310</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A36" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>1327</v>
+      <c r="B36" s="8" t="s">
+        <v>901</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
-        <v>HospitalStay.pharmacotherapy.reason</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A28</f>
+        <v>HospitalStay.pharmacotherapy</v>
       </c>
       <c r="D36" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D29</f>
-        <v>A.2.7.5.1 - Medication reason</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>1329</v>
+        <f xml:space="preserve"> HospitalStayEhn!D28</f>
+        <v>A.2.7.5 - Pharmacotherapy</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>1273</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="9"/>
+      <c r="G36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>1312</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A37" s="8" t="str">
@@ -18577,7 +18554,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -18588,7 +18565,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -18601,8 +18578,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>1181</v>
+      <c r="B38" s="25" t="s">
+        <v>1325</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -18612,8 +18589,8 @@
         <f xml:space="preserve"> HospitalStayEhn!D29</f>
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>1331</v>
+      <c r="E38" s="9" t="s">
+        <v>1328</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
@@ -18627,7 +18604,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -18638,7 +18615,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
@@ -18652,7 +18629,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -18663,7 +18640,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
@@ -18677,7 +18654,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -18688,7 +18665,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
@@ -18702,7 +18679,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1328</v>
+        <v>1200</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -18713,7 +18690,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
@@ -18727,7 +18704,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -18738,7 +18715,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
@@ -18752,18 +18729,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1181</v>
+        <v>1326</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
-        <v>HospitalStay.pharmacotherapy.productCode</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
+        <v>HospitalStay.pharmacotherapy.reason</v>
       </c>
       <c r="D44" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D30</f>
-        <v>A.2.7.5.2 - Code</v>
+        <f xml:space="preserve"> HospitalStayEhn!D29</f>
+        <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1182</v>
+        <v>1334</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
@@ -18777,7 +18754,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -18788,7 +18765,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1203</v>
+        <v>1181</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
@@ -18802,7 +18779,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1327</v>
+        <v>1200</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -18813,7 +18790,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1315</v>
+        <v>1202</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
@@ -18827,7 +18804,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -18838,7 +18815,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
@@ -18852,7 +18829,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1183</v>
+        <v>1326</v>
       </c>
       <c r="C48" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -18863,7 +18840,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1184</v>
+        <v>1314</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
@@ -18877,18 +18854,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C49" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
+        <v>HospitalStay.pharmacotherapy.productCode</v>
+      </c>
+      <c r="D49" s="9" t="str">
+        <f xml:space="preserve"> HospitalStayEhn!D30</f>
+        <v>A.2.7.5.2 - Code</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>1183</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A31</f>
-        <v>HospitalStay.pharmacotherapy.intendedUse</v>
-      </c>
-      <c r="D49" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D31</f>
-        <v>A.2.7.5.3 - Intended use</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>1275</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
@@ -18902,18 +18879,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A32</f>
-        <v>HospitalStay.pharmacotherapy.productName</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A31</f>
+        <v>HospitalStay.pharmacotherapy.intendedUse</v>
       </c>
       <c r="D50" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D32</f>
-        <v>A.2.7.5.4 - Brand name</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1186</v>
+        <f xml:space="preserve"> HospitalStayEhn!D31</f>
+        <v>A.2.7.5.3 - Intended use</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>1273</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
@@ -18927,18 +18904,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A33</f>
-        <v>HospitalStay.pharmacotherapy.activeIngredient</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A32</f>
+        <v>HospitalStay.pharmacotherapy.productName</v>
       </c>
       <c r="D51" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D33</f>
-        <v>A.2.7.5.5 - Active ingredient list</v>
+        <f xml:space="preserve"> HospitalStayEhn!D32</f>
+        <v>A.2.7.5.4 - Brand name</v>
       </c>
       <c r="E51" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
@@ -18952,18 +18929,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A34</f>
-        <v>HospitalStay.pharmacotherapy.strength</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A33</f>
+        <v>HospitalStay.pharmacotherapy.activeIngredient</v>
       </c>
       <c r="D52" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D34</f>
-        <v>A.2.7.5.6 - Strength</v>
+        <f xml:space="preserve"> HospitalStayEhn!D33</f>
+        <v>A.2.7.5.5 - Active ingredient list</v>
       </c>
       <c r="E52" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
@@ -18977,18 +18954,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A35</f>
-        <v>HospitalStay.pharmacotherapy.doseForm</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A34</f>
+        <v>HospitalStay.pharmacotherapy.strength</v>
       </c>
       <c r="D53" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D35</f>
-        <v>A.2.7.5.7 - Pharmaceutical dose form</v>
+        <f xml:space="preserve"> HospitalStayEhn!D34</f>
+        <v>A.2.7.5.6 - Strength</v>
       </c>
       <c r="E53" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
@@ -19002,26 +18979,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1317</v>
+        <v>1182</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
-        <v>HospitalStay.pharmacotherapy.dosageRegimen</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A35</f>
+        <v>HospitalStay.pharmacotherapy.doseForm</v>
       </c>
       <c r="D54" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D36</f>
-        <v>A.2.7.5.8 - Dosage Regimen</v>
+        <f xml:space="preserve"> HospitalStayEhn!D35</f>
+        <v>A.2.7.5.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E54" t="s">
-        <v>1321</v>
+        <v>1184</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H54" t="s">
-        <v>1320</v>
-      </c>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A55" s="8" t="str">
@@ -19029,7 +19004,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
@@ -19040,14 +19015,14 @@
         <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E55" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="F55" s="7"/>
-      <c r="G55" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>1323</v>
+      <c r="G55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.75">
@@ -19056,24 +19031,26 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1317</v>
+        <v>1325</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
-        <v>HospitalStay.pharmacotherapy.route</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
+        <v>HospitalStay.pharmacotherapy.dosageRegimen</v>
       </c>
       <c r="D56" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D37</f>
-        <v>A.2.7.5.9 - Route of administration</v>
+        <f xml:space="preserve"> HospitalStayEhn!D36</f>
+        <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E56" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="9"/>
+      <c r="G56" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A57" s="8" t="str">
@@ -19081,7 +19058,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
@@ -19092,7 +19069,7 @@
         <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E57" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
@@ -19106,22 +19083,22 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1317</v>
+        <v>1325</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
-        <v>HospitalStay.pharmacotherapy.period</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
+        <v>HospitalStay.pharmacotherapy.route</v>
       </c>
       <c r="D58" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D38</f>
-        <v>A.2.7.5.10 - Period of treatment</v>
+        <f xml:space="preserve"> HospitalStayEhn!D37</f>
+        <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E58" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H58" s="9"/>
     </row>
@@ -19131,7 +19108,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19142,11 +19119,11 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E59" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59" s="9"/>
     </row>
@@ -19156,7 +19133,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19166,8 +19143,8 @@
         <f xml:space="preserve"> HospitalStayEhn!D38</f>
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>1324</v>
+      <c r="E60" t="s">
+        <v>1323</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
@@ -19181,24 +19158,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>901</v>
+        <v>1326</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A39</f>
-        <v>HospitalStay.significantResults</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
+        <v>HospitalStay.pharmacotherapy.period</v>
       </c>
       <c r="D61" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D39</f>
-        <v>A.2.7.6 - Significant Observation Results</v>
+        <f xml:space="preserve"> HospitalStayEhn!D38</f>
+        <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>1276</v>
+        <v>1322</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="14"/>
+      <c r="G61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A62" s="8" t="str">
@@ -19206,26 +19183,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1348</v>
+        <v>901</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A40</f>
-        <v>HospitalStay.significantResults.date</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A39</f>
+        <v>HospitalStay.significantResults</v>
       </c>
       <c r="D62" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D40</f>
-        <v>A.2.7.6.1 - Date</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>1342</v>
+        <f xml:space="preserve"> HospitalStayEhn!D39</f>
+        <v>A.2.7.6 - Significant Observation Results</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>1274</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>1349</v>
-      </c>
+      <c r="G62" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A63" s="8" t="str">
@@ -19233,25 +19208,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A41</f>
-        <v>HospitalStay.significantResults.status</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A40</f>
+        <v>HospitalStay.significantResults.date</v>
       </c>
       <c r="D63" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D41</f>
-        <v>A.2.7.6.2 - Observation status</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>1343</v>
+        <f xml:space="preserve"> HospitalStayEhn!D40</f>
+        <v>A.2.7.6.1 - Date</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>1340</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -19260,31 +19235,34 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A42</f>
-        <v>HospitalStay.significantResults.description</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A41</f>
+        <v>HospitalStay.significantResults.status</v>
       </c>
       <c r="D64" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D42</f>
-        <v>A.2.7.6.3 - Result description</v>
+        <f xml:space="preserve"> HospitalStayEhn!D41</f>
+        <v>A.2.7.6.2 - Observation status</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>1341</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A65" s="8"/>
+      <c r="A65" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
       <c r="B65" s="8" t="s">
-        <v>901</v>
+        <v>1346</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A42</f>
@@ -19295,40 +19273,37 @@
         <v>A.2.7.6.3 - Result description</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="9" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A66" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
-      </c>
+      <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>1348</v>
+        <v>901</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A43</f>
-        <v>HospitalStay.significantResults.details</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A42</f>
+        <v>HospitalStay.significantResults.description</v>
       </c>
       <c r="D66" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D43</f>
-        <v>A.2.7.6.4 - Observation details</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>1340</v>
+        <f xml:space="preserve"> HospitalStayEhn!D42</f>
+        <v>A.2.7.6.3 - Result description</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>1345</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>1349</v>
-      </c>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A67" s="8" t="str">
@@ -19336,7 +19311,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>901</v>
+        <v>1346</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A43</f>
@@ -19346,14 +19321,16 @@
         <f xml:space="preserve"> HospitalStayEhn!D43</f>
         <v>A.2.7.6.4 - Observation details</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>1347</v>
+      <c r="E67" s="7" t="s">
+        <v>1338</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H67" s="9"/>
+      <c r="H67" s="9" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A68" s="8" t="str">
@@ -19361,26 +19338,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>1348</v>
+        <v>901</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
-        <v>HospitalStay.significantResults.result</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A43</f>
+        <v>HospitalStay.significantResults.details</v>
       </c>
       <c r="D68" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D44</f>
-        <v>A.2.7.6.5 - Observation result</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>1344</v>
+        <f xml:space="preserve"> HospitalStayEhn!D43</f>
+        <v>A.2.7.6.4 - Observation details</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>1345</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>1349</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A69" s="8" t="str">
@@ -19388,7 +19363,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
@@ -19399,14 +19374,14 @@
         <v>A.2.7.6.5 - Observation result</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -19415,25 +19390,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A45</f>
-        <v>HospitalStay.significantResults.reporter</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
+        <v>HospitalStay.significantResults.result</v>
       </c>
       <c r="D70" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D45</f>
-        <v>A.2.7.6.7 - Reporter</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1346</v>
+        <f xml:space="preserve"> HospitalStayEhn!D44</f>
+        <v>A.2.7.6.5 - Observation result</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>1343</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -19442,24 +19417,26 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>901</v>
+        <v>1346</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A46</f>
-        <v>HospitalStay.synthesis</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A45</f>
+        <v>HospitalStay.significantResults.reporter</v>
       </c>
       <c r="D71" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D46</f>
-        <v>A.2.7.7 - Synthesis</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>1277</v>
+        <f xml:space="preserve"> HospitalStayEhn!D45</f>
+        <v>A.2.7.6.7 - Reporter</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1344</v>
       </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" s="14"/>
+      <c r="G71" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A72" s="8" t="str">
@@ -19470,15 +19447,15 @@
         <v>901</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A47</f>
-        <v>HospitalStay.synthesis.description</v>
-      </c>
-      <c r="D72" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D47</f>
-        <v>A.2.7.7.1 - Problem synthesis</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A46</f>
+        <v>HospitalStay.synthesis</v>
+      </c>
+      <c r="D72" s="14" t="str">
+        <f xml:space="preserve"> HospitalStayEhn!D46</f>
+        <v>A.2.7.7 - Synthesis</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>1355</v>
+        <v>1275</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="13" t="s">
@@ -19495,15 +19472,15 @@
         <v>901</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A48</f>
-        <v>HospitalStay.synthesis.reasoning</v>
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A47</f>
+        <v>HospitalStay.synthesis.description</v>
       </c>
       <c r="D73" s="9" t="str">
-        <f xml:space="preserve"> HospitalStayEhn!D48</f>
-        <v>A.2.7.7.2 - Clinical reasoning</v>
+        <f xml:space="preserve"> HospitalStayEhn!D47</f>
+        <v>A.2.7.7.1 - Problem synthesis</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="13" t="s">
@@ -19511,10 +19488,30 @@
       </c>
       <c r="H73" s="14"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="H76"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A74" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="C74" s="9" t="str">
+        <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A48</f>
+        <v>HospitalStay.synthesis.reasoning</v>
+      </c>
+      <c r="D74" s="9" t="str">
+        <f xml:space="preserve"> HospitalStayEhn!D48</f>
+        <v>A.2.7.7.2 - Clinical reasoning</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="14"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C77"/>
@@ -19557,9 +19554,9 @@
       <c r="H84"/>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.75">
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="H85"/>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.75">
       <c r="E86" s="5"/>
@@ -19595,6 +19592,11 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -19602,53 +19604,53 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{5748F2F9-8E5C-4933-9487-4C1EA1205FA2}"/>
     <hyperlink ref="A2" r:id="rId3" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{50EAE38B-826B-41C8-9488-53CB58698427}"/>
     <hyperlink ref="B2" r:id="rId4" xr:uid="{9D31C99A-4131-437D-908C-E577823AA465}"/>
-    <hyperlink ref="B13" r:id="rId5" xr:uid="{0608F21A-4822-44AC-8BD3-95B85DA34FF4}"/>
-    <hyperlink ref="B26" r:id="rId6" xr:uid="{F7275174-C5B2-4943-8EDD-7C4D82FA0A08}"/>
-    <hyperlink ref="B61" r:id="rId7" xr:uid="{C5CAF0FA-76BF-4F18-8A28-588AF84A19CA}"/>
-    <hyperlink ref="B72" r:id="rId8" xr:uid="{4EBB94A4-FDD7-4A12-AC43-9F5CFB7F645A}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{8603B1A4-55C2-4699-80D4-13543687D8FF}"/>
-    <hyperlink ref="B25" r:id="rId10" xr:uid="{A0C11AAC-F603-4A70-BC64-BE4E56766FE4}"/>
-    <hyperlink ref="B35" r:id="rId11" xr:uid="{248F266D-528D-4330-BFE7-A2D331417665}"/>
-    <hyperlink ref="B71" r:id="rId12" xr:uid="{39BFD6BF-4BB5-4D49-B6F7-3930EE773EB9}"/>
-    <hyperlink ref="B73" r:id="rId13" xr:uid="{5A402808-519E-482D-AD14-7A83D42C69BC}"/>
-    <hyperlink ref="B15:B24" r:id="rId14" display="http://hl7.eu/fhir/hdr/StructureDefinition/procedure-eu-hdr" xr:uid="{11465EA0-C892-4233-9CE1-6B6A8996F738}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{2A4586F9-1F5D-414E-B8F1-B8D19F9A848A}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{3D502B2E-CCBB-4A8A-B54C-01A771D35ABD}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{83D53DFB-934E-4F3E-A0CF-EEFACA1940D0}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{04FDCB16-C035-4EEB-AE40-040219EB6626}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{CBF6EF75-9B40-4D63-B0F2-5D295D3F47D0}"/>
-    <hyperlink ref="B27" r:id="rId20" xr:uid="{9B091FB0-6CC8-4F9A-8193-729AE4EDF2DC}"/>
-    <hyperlink ref="B29" r:id="rId21" xr:uid="{C48C08DA-3D64-4710-B3F9-5AD75E0FD471}"/>
-    <hyperlink ref="B31" r:id="rId22" xr:uid="{CF02B558-F628-451A-8D9B-7E1F1596B565}"/>
-    <hyperlink ref="B30" r:id="rId23" xr:uid="{C1CF2DEF-18A5-436B-B9F8-AE6721E50991}"/>
-    <hyperlink ref="B32" r:id="rId24" xr:uid="{0730299F-D358-46E7-B884-F04B6550243D}"/>
-    <hyperlink ref="B33:B34" r:id="rId25" display="http://hl7.eu/fhir/hdr/StructureDefinition/deviceUseStatement-eu-hdr" xr:uid="{9FC70F59-3C76-420A-9FFB-84F4E3628FE6}"/>
-    <hyperlink ref="B54" r:id="rId26" xr:uid="{41F517A4-054C-41F5-860D-7B046AF4720D}"/>
-    <hyperlink ref="B56" r:id="rId27" xr:uid="{FA628003-6A12-494A-86CD-170EE0657572}"/>
-    <hyperlink ref="B58" r:id="rId28" xr:uid="{79B630C8-F165-45E7-8F67-E87434D3311E}"/>
-    <hyperlink ref="A45" r:id="rId29" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{5DB25E95-03A2-42CE-AFB7-814E6F6A981E}"/>
-    <hyperlink ref="A46:A48" r:id="rId30" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{CD5BC44C-699E-4D18-9279-D84CA1DDBD8A}"/>
-    <hyperlink ref="A49" r:id="rId31" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{A5932BF7-353C-4758-A0EA-3A4253EED4BF}"/>
-    <hyperlink ref="A50:A56" r:id="rId32" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{97E7AD85-6326-45C8-B437-29E440B84A15}"/>
-    <hyperlink ref="A57" r:id="rId33" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{DD64BE54-CFCE-40EF-A9C9-3511FBA5BDB4}"/>
-    <hyperlink ref="A58" r:id="rId34" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{BE1C7E9E-E668-4A0B-8BB0-143FD59B4F81}"/>
-    <hyperlink ref="A59" r:id="rId35" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{9E21F060-2E19-4FBE-8349-E0BEE5E09D00}"/>
-    <hyperlink ref="A60" r:id="rId36" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{4B332FDB-6217-4FCC-8758-04499AFAFDC5}"/>
-    <hyperlink ref="B48" r:id="rId37" xr:uid="{FA2DFF67-DE5E-4244-B6F9-5F8E9941EFE5}"/>
-    <hyperlink ref="B49:B53" r:id="rId38" display="http://hl7.eu/fhir/hdr/StructureDefinition/medication-eu-hdr" xr:uid="{4776D030-54C0-4228-9CCF-CC22BABD8191}"/>
-    <hyperlink ref="B46" r:id="rId39" xr:uid="{D01E7E96-E5B5-4F08-AC0C-E8385DD0BAD6}"/>
-    <hyperlink ref="B55" r:id="rId40" xr:uid="{73E4B839-461A-4DE0-9871-264ED3C87B3E}"/>
-    <hyperlink ref="B57" r:id="rId41" xr:uid="{793159DC-75A3-463A-B510-C434934477EE}"/>
-    <hyperlink ref="B59" r:id="rId42" xr:uid="{62C7241D-6BD1-4EE4-A7DC-722825E30036}"/>
-    <hyperlink ref="B60" r:id="rId43" xr:uid="{6D51D302-A12D-44B7-8219-5B83EC0C90A6}"/>
-    <hyperlink ref="B47" r:id="rId44" xr:uid="{F28C4594-25F3-40A1-A183-75C0B8B6326E}"/>
-    <hyperlink ref="B36" r:id="rId45" xr:uid="{412E3AEF-E2CB-4D5E-AB9F-90DB43AFE5CE}"/>
-    <hyperlink ref="B43" r:id="rId46" xr:uid="{814C1E09-0EF4-4A9B-BE34-6B5D28E43BE5}"/>
-    <hyperlink ref="B37" r:id="rId47" xr:uid="{B69865DF-3192-4A76-89F4-C4183F6A5C02}"/>
-    <hyperlink ref="B42" r:id="rId48" xr:uid="{9C7C38FD-A6D2-4EC6-A8BA-E4C07ABDF006}"/>
-    <hyperlink ref="B67" r:id="rId49" xr:uid="{3D629AFA-9A05-4ABB-9657-2CD816881C9A}"/>
-    <hyperlink ref="B65" r:id="rId50" xr:uid="{7F07B712-6094-4653-8EBE-3C66AAFF1BC4}"/>
-    <hyperlink ref="B10" r:id="rId51" xr:uid="{AB41008A-F05D-4085-A189-D207B2E11FC7}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{0608F21A-4822-44AC-8BD3-95B85DA34FF4}"/>
+    <hyperlink ref="B27" r:id="rId6" xr:uid="{F7275174-C5B2-4943-8EDD-7C4D82FA0A08}"/>
+    <hyperlink ref="B62" r:id="rId7" xr:uid="{C5CAF0FA-76BF-4F18-8A28-588AF84A19CA}"/>
+    <hyperlink ref="B73" r:id="rId8" xr:uid="{4EBB94A4-FDD7-4A12-AC43-9F5CFB7F645A}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{8603B1A4-55C2-4699-80D4-13543687D8FF}"/>
+    <hyperlink ref="B26" r:id="rId10" xr:uid="{A0C11AAC-F603-4A70-BC64-BE4E56766FE4}"/>
+    <hyperlink ref="B36" r:id="rId11" xr:uid="{248F266D-528D-4330-BFE7-A2D331417665}"/>
+    <hyperlink ref="B72" r:id="rId12" xr:uid="{39BFD6BF-4BB5-4D49-B6F7-3930EE773EB9}"/>
+    <hyperlink ref="B74" r:id="rId13" xr:uid="{5A402808-519E-482D-AD14-7A83D42C69BC}"/>
+    <hyperlink ref="B16:B25" r:id="rId14" display="http://hl7.eu/fhir/hdr/StructureDefinition/procedure-eu-hdr" xr:uid="{11465EA0-C892-4233-9CE1-6B6A8996F738}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{2A4586F9-1F5D-414E-B8F1-B8D19F9A848A}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{3D502B2E-CCBB-4A8A-B54C-01A771D35ABD}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{83D53DFB-934E-4F3E-A0CF-EEFACA1940D0}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{04FDCB16-C035-4EEB-AE40-040219EB6626}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{CBF6EF75-9B40-4D63-B0F2-5D295D3F47D0}"/>
+    <hyperlink ref="B28" r:id="rId20" xr:uid="{9B091FB0-6CC8-4F9A-8193-729AE4EDF2DC}"/>
+    <hyperlink ref="B30" r:id="rId21" xr:uid="{C48C08DA-3D64-4710-B3F9-5AD75E0FD471}"/>
+    <hyperlink ref="B32" r:id="rId22" xr:uid="{CF02B558-F628-451A-8D9B-7E1F1596B565}"/>
+    <hyperlink ref="B31" r:id="rId23" xr:uid="{C1CF2DEF-18A5-436B-B9F8-AE6721E50991}"/>
+    <hyperlink ref="B33" r:id="rId24" xr:uid="{0730299F-D358-46E7-B884-F04B6550243D}"/>
+    <hyperlink ref="B34:B35" r:id="rId25" display="http://hl7.eu/fhir/hdr/StructureDefinition/deviceUseStatement-eu-hdr" xr:uid="{9FC70F59-3C76-420A-9FFB-84F4E3628FE6}"/>
+    <hyperlink ref="B55" r:id="rId26" xr:uid="{41F517A4-054C-41F5-860D-7B046AF4720D}"/>
+    <hyperlink ref="B57" r:id="rId27" xr:uid="{FA628003-6A12-494A-86CD-170EE0657572}"/>
+    <hyperlink ref="B59" r:id="rId28" xr:uid="{79B630C8-F165-45E7-8F67-E87434D3311E}"/>
+    <hyperlink ref="A46" r:id="rId29" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{5DB25E95-03A2-42CE-AFB7-814E6F6A981E}"/>
+    <hyperlink ref="A47:A49" r:id="rId30" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{CD5BC44C-699E-4D18-9279-D84CA1DDBD8A}"/>
+    <hyperlink ref="A50" r:id="rId31" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{A5932BF7-353C-4758-A0EA-3A4253EED4BF}"/>
+    <hyperlink ref="A51:A57" r:id="rId32" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{97E7AD85-6326-45C8-B437-29E440B84A15}"/>
+    <hyperlink ref="A58" r:id="rId33" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{DD64BE54-CFCE-40EF-A9C9-3511FBA5BDB4}"/>
+    <hyperlink ref="A59" r:id="rId34" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{BE1C7E9E-E668-4A0B-8BB0-143FD59B4F81}"/>
+    <hyperlink ref="A60" r:id="rId35" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{9E21F060-2E19-4FBE-8349-E0BEE5E09D00}"/>
+    <hyperlink ref="A61" r:id="rId36" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{4B332FDB-6217-4FCC-8758-04499AFAFDC5}"/>
+    <hyperlink ref="B49" r:id="rId37" xr:uid="{FA2DFF67-DE5E-4244-B6F9-5F8E9941EFE5}"/>
+    <hyperlink ref="B50:B54" r:id="rId38" display="http://hl7.eu/fhir/hdr/StructureDefinition/medication-eu-hdr" xr:uid="{4776D030-54C0-4228-9CCF-CC22BABD8191}"/>
+    <hyperlink ref="B47" r:id="rId39" xr:uid="{D01E7E96-E5B5-4F08-AC0C-E8385DD0BAD6}"/>
+    <hyperlink ref="B56" r:id="rId40" xr:uid="{73E4B839-461A-4DE0-9871-264ED3C87B3E}"/>
+    <hyperlink ref="B58" r:id="rId41" xr:uid="{793159DC-75A3-463A-B510-C434934477EE}"/>
+    <hyperlink ref="B60" r:id="rId42" xr:uid="{62C7241D-6BD1-4EE4-A7DC-722825E30036}"/>
+    <hyperlink ref="B61" r:id="rId43" xr:uid="{6D51D302-A12D-44B7-8219-5B83EC0C90A6}"/>
+    <hyperlink ref="B48" r:id="rId44" xr:uid="{F28C4594-25F3-40A1-A183-75C0B8B6326E}"/>
+    <hyperlink ref="B37" r:id="rId45" xr:uid="{412E3AEF-E2CB-4D5E-AB9F-90DB43AFE5CE}"/>
+    <hyperlink ref="B44" r:id="rId46" xr:uid="{814C1E09-0EF4-4A9B-BE34-6B5D28E43BE5}"/>
+    <hyperlink ref="B38" r:id="rId47" xr:uid="{B69865DF-3192-4A76-89F4-C4183F6A5C02}"/>
+    <hyperlink ref="B43" r:id="rId48" xr:uid="{9C7C38FD-A6D2-4EC6-A8BA-E4C07ABDF006}"/>
+    <hyperlink ref="B68" r:id="rId49" xr:uid="{3D629AFA-9A05-4ABB-9657-2CD816881C9A}"/>
+    <hyperlink ref="B66" r:id="rId50" xr:uid="{7F07B712-6094-4653-8EBE-3C66AAFF1BC4}"/>
+    <hyperlink ref="B11" r:id="rId51" xr:uid="{B02D6241-5F17-46DE-B00F-5C1AAC08642F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
@@ -20555,14 +20557,14 @@
         <v>A.1 - Hospital Discharge Report header data element</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -20582,14 +20584,14 @@
         <v>A.2 - Hospital Discharge Report body data element</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -20609,14 +20611,14 @@
         <v>A.2.0 - Hospital Discharge Report in its narrative form</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -20636,14 +20638,14 @@
         <v>A.2.1 - Advance directives</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -20663,14 +20665,14 @@
         <v>A.2.2 - Alerts</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -20690,14 +20692,14 @@
         <v>A.2.3 - Encounter</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -20717,14 +20719,14 @@
         <v>A.2.4 - Admission evaluation</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -20744,14 +20746,14 @@
         <v>A.2.5 - Patient history</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
@@ -20771,14 +20773,14 @@
         <v>A.2.6 - Course of hospitalisation (Hospital stay)</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -20798,14 +20800,14 @@
         <v>A.2.7 - Discharge details</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -20825,7 +20827,7 @@
         <v>A.2.7.1 - Objective findings</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -20850,7 +20852,7 @@
         <v>A.2.7.1 - Objective findings</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
@@ -20875,7 +20877,7 @@
         <v>A.2.7.2 - Functional status</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
@@ -20900,7 +20902,7 @@
         <v>A.2.7.2 - Functional status</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -20925,7 +20927,7 @@
         <v>A.2.7.3 - Discharge note</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -20950,14 +20952,14 @@
         <v>A.2.8 - Care plan and other recommendations after discharge.</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -20977,7 +20979,7 @@
         <v>A.2.8.1 - Care plan</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
@@ -21002,7 +21004,7 @@
         <v>A.2.8.2 - Medication summary</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="13" t="s">
@@ -21027,7 +21029,7 @@
         <v>A.2.8.3 - Other recommendations</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="13" t="s">
@@ -21261,7 +21263,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -21271,7 +21273,7 @@
         <v>ObjectiveFindingsHdrEhn</v>
       </c>
       <c r="D12" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E12" t="s">
         <v>106</v>
@@ -21279,7 +21281,7 @@
     </row>
     <row r="13" spans="1:5" ht="59" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -21289,15 +21291,15 @@
         <v>FunctionalStatusHdrEhn</v>
       </c>
       <c r="D13" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -21306,7 +21308,7 @@
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E14" t="s">
         <v>207</v>
@@ -21331,16 +21333,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D16" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E16" t="s">
         <v>690</v>
@@ -21348,16 +21350,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D17" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E17" t="s">
         <v>700</v>
@@ -21365,7 +21367,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -21374,7 +21376,7 @@
         <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E18" t="s">
         <v>707</v>

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EEA17E-4238-4DA3-8BC3-1914386C5C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04A85FA-9968-4805-BB9F-1023B88FE074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="3" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1393">
   <si>
     <t>Group Source</t>
   </si>
@@ -4268,6 +4268,21 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/familyMemberHistory-eu-hdr</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/hdr/StructureDefinition/observation-sdoh-eu-hdr</t>
+  </si>
+  <si>
+    <t>category and code to be defined</t>
+  </si>
+  <si>
+    <t>category to be defined</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
   </si>
 </sst>
 </file>
@@ -4426,7 +4441,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4483,11 +4498,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13930,10 +13941,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -14169,14 +14180,14 @@
         <f xml:space="preserve"> PatientHistoryEhn!D9</f>
         <v>A.2.6.1.1.6 - Resolution circumstances</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="7" t="s">
         <v>1262</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="9" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -14193,14 +14204,14 @@
         <f xml:space="preserve"> PatientHistoryEhn!D9</f>
         <v>A.2.6.1.1.6 - Resolution circumstances</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="7" t="s">
         <v>1377</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="9" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -14224,7 +14235,7 @@
         <v>1269</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -15293,7 +15304,7 @@
         <f xml:space="preserve"> PatientHistoryEhn!D46</f>
         <v>A.2.6.2.1 - Patient relationship</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E53" s="18" t="s">
         <v>1382</v>
       </c>
       <c r="F53" s="7"/>
@@ -15318,7 +15329,7 @@
         <f xml:space="preserve"> PatientHistoryEhn!D47</f>
         <v>A.2.6.2.2 - Date of birth</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="18" t="s">
         <v>1383</v>
       </c>
       <c r="F54" s="7"/>
@@ -15343,7 +15354,7 @@
         <f xml:space="preserve"> PatientHistoryEhn!D48</f>
         <v>A.2.6.2.3 - Age or date of death</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="18" t="s">
         <v>1384</v>
       </c>
       <c r="F55" s="10"/>
@@ -15368,7 +15379,7 @@
         <f xml:space="preserve"> PatientHistoryEhn!D49</f>
         <v>A.2.6.2.5 - Condition</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="18" t="s">
         <v>1385</v>
       </c>
       <c r="F56" s="7"/>
@@ -15393,7 +15404,7 @@
         <f xml:space="preserve"> PatientHistoryEhn!D50</f>
         <v>A.2.6.2.6 - Cause of death</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="18" t="s">
         <v>1385</v>
       </c>
       <c r="F57" s="7"/>
@@ -15409,7 +15420,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="29" t="s">
         <v>901</v>
       </c>
       <c r="C58" s="9" t="str">
@@ -15434,8 +15445,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B59" s="25" t="s">
-        <v>901</v>
+      <c r="B59" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A52</f>
@@ -15446,14 +15457,14 @@
         <v>A.2.6.3.1 - Participation in society</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>1223</v>
+        <v>1338</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>1358</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.75">
@@ -15461,8 +15472,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>901</v>
+      <c r="B60" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A53</f>
@@ -15473,14 +15484,14 @@
         <v>A.2.6.3.1.1 - Work situation</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.75">
@@ -15488,8 +15499,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>901</v>
+      <c r="B61" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A54</f>
@@ -15500,14 +15511,14 @@
         <v>A.2.6.3.1.2 - Hobby</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.75">
@@ -15515,8 +15526,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>901</v>
+      <c r="B62" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A55</f>
@@ -15527,14 +15538,14 @@
         <v>A.2.6.3.1.3 - Social network</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.75">
@@ -15542,8 +15553,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>901</v>
+      <c r="B63" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A56</f>
@@ -15554,14 +15565,14 @@
         <v>A.2.6.3.2 - Education</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>1223</v>
+        <v>1338</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>1358</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -15569,8 +15580,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>901</v>
+      <c r="B64" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A57</f>
@@ -15581,14 +15592,14 @@
         <v>A.2.6.3.2.1 - Education level</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -15596,8 +15607,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B65" s="25" t="s">
-        <v>901</v>
+      <c r="B65" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A58</f>
@@ -15608,14 +15619,14 @@
         <v>A.2.6.3.2.2 - Comment</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>1223</v>
+        <v>1391</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
@@ -15623,8 +15634,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>901</v>
+      <c r="B66" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A59</f>
@@ -15635,14 +15646,14 @@
         <v>A.2.6.3.3 - Living situation</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>1223</v>
+        <v>1338</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>1358</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.75">
@@ -15650,8 +15661,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B67" s="25" t="s">
-        <v>901</v>
+      <c r="B67" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A60</f>
@@ -15662,14 +15673,14 @@
         <v>A.2.6.3.3.1 - House type</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
@@ -15677,8 +15688,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B68" s="25" t="s">
-        <v>901</v>
+      <c r="B68" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A61</f>
@@ -15689,14 +15700,14 @@
         <v>A.2.6.3.3.2 - Home adaption</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.75">
@@ -15704,8 +15715,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B69" s="25" t="s">
-        <v>901</v>
+      <c r="B69" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A62</f>
@@ -15716,14 +15727,14 @@
         <v>A.2.6.3.3.3 - Living conditions</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -15731,8 +15742,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B70" s="25" t="s">
-        <v>901</v>
+      <c r="B70" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A63</f>
@@ -15743,14 +15754,14 @@
         <v>A.2.6.3.4 - Family situation</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>1223</v>
+        <v>1338</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>1358</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -15758,8 +15769,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B71" s="25" t="s">
-        <v>901</v>
+      <c r="B71" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A64</f>
@@ -15770,14 +15781,14 @@
         <v>A.2.6.3.4.1 - Comment</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
@@ -15785,8 +15796,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B72" s="25" t="s">
-        <v>901</v>
+      <c r="B72" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C72" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A65</f>
@@ -15797,14 +15808,14 @@
         <v>A.2.6.3.4.2 - Family composition</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.75">
@@ -15812,8 +15823,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B73" s="25" t="s">
-        <v>901</v>
+      <c r="B73" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C73" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A66</f>
@@ -15824,14 +15835,14 @@
         <v>A.2.6.3.4.3 - Marital status</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.75">
@@ -15839,8 +15850,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B74" s="25" t="s">
-        <v>901</v>
+      <c r="B74" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C74" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A67</f>
@@ -15851,23 +15862,23 @@
         <v>A.2.6.3.4.4 - Number of children</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A75" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B75" s="25" t="s">
-        <v>901</v>
+      <c r="B75" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C75" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A68</f>
@@ -15878,14 +15889,14 @@
         <v>A.2.6.3.4.5 - Number of children at home</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.75">
@@ -15893,8 +15904,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B76" s="25" t="s">
-        <v>901</v>
+      <c r="B76" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C76" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A69</f>
@@ -15905,14 +15916,14 @@
         <v>A.2.6.3.4.6 - Child details</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.75">
@@ -15920,8 +15931,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B77" s="25" t="s">
-        <v>901</v>
+      <c r="B77" s="26" t="s">
+        <v>1388</v>
       </c>
       <c r="C77" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A70</f>
@@ -15932,14 +15943,14 @@
         <v>A.2.6.3.4.7 - Care responsibility</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.75">
@@ -15959,7 +15970,7 @@
         <v>A.2.6.4 - Use of substances</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>1223</v>
+        <v>1367</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="13" t="s">
@@ -15975,7 +15986,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>901</v>
+        <v>1392</v>
       </c>
       <c r="C79" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A72</f>
@@ -15986,14 +15997,14 @@
         <v>A.2.6.4.1 - Alcohol use</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>1223</v>
+        <v>1338</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>1358</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.75">
@@ -16002,7 +16013,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>901</v>
+        <v>1392</v>
       </c>
       <c r="C80" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A73</f>
@@ -16013,91 +16024,355 @@
         <v>A.2.6.4.1.1 - Status</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="D83"/>
-      <c r="H83"/>
-    </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="D84"/>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="D85"/>
-      <c r="H85"/>
-    </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="D86"/>
-      <c r="H86"/>
-    </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="D87"/>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="D88"/>
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="D89"/>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="D90"/>
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="D91"/>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.75">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A81" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C81" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A74</f>
+        <v>PatientHistory.useOfSubstances.alcohol.periodAndQuantity</v>
+      </c>
+      <c r="D81" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D74</f>
+        <v>A.2.6.4.1.2 - Period and quantity</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A82" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C82" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A75</f>
+        <v>PatientHistory.useOfSubstances.alcohol.comment</v>
+      </c>
+      <c r="D82" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D75</f>
+        <v>A.2.6.4.1.3 - Comment</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A83" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C83" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A76</f>
+        <v>PatientHistory.useOfSubstances.tobacco</v>
+      </c>
+      <c r="D83" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D76</f>
+        <v>A.2.6.4.2 - Tobacco use</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A84" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C84" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A77</f>
+        <v>PatientHistory.useOfSubstances.tobacco.currentStatus</v>
+      </c>
+      <c r="D84" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D77</f>
+        <v>A.2.6.4.2.1 - Status</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A85" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C85" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A78</f>
+        <v>PatientHistory.useOfSubstances.tobacco.periodAndQuantity</v>
+      </c>
+      <c r="D85" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D78</f>
+        <v>A.2.6.4.2.2 - Period and quantity</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A86" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C86" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A79</f>
+        <v>PatientHistory.useOfSubstances.tobacco.comment</v>
+      </c>
+      <c r="D86" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D79</f>
+        <v>A.2.6.4.2.3 - Comment</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A87" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C87" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A80</f>
+        <v>PatientHistory.useOfSubstances.drugConsumption</v>
+      </c>
+      <c r="D87" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D80</f>
+        <v>A.2.6.4.3 - Drug consumption</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A88" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C88" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A81</f>
+        <v>PatientHistory.useOfSubstances.drugConsumption.currentStatus</v>
+      </c>
+      <c r="D88" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D81</f>
+        <v>A.2.6.4.3.1 - Status</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A89" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C89" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A82</f>
+        <v>PatientHistory.useOfSubstances.drugConsumption.periodAndQuantity</v>
+      </c>
+      <c r="D89" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D82</f>
+        <v>A.2.6.4.3.2 - Period and quantity</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A90" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C90" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A83</f>
+        <v>PatientHistory.useOfSubstances.drugConsumption.drugType</v>
+      </c>
+      <c r="D90" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D83</f>
+        <v>A.2.6.4.3.3 - Drug or medication type</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A91" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C91" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A84</f>
+        <v>PatientHistory.useOfSubstances.drugConsumption.route</v>
+      </c>
+      <c r="D91" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D84</f>
+        <v>A.2.6.4.3.4 - Route of administration</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A92" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C92" s="9" t="str">
+        <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A85</f>
+        <v>PatientHistory.useOfSubstances.drugConsumption.comment</v>
+      </c>
+      <c r="D92" s="9" t="str">
+        <f xml:space="preserve"> PatientHistoryEhn!D85</f>
+        <v>A.2.6.4.3.5 - Comment</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.75">
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.75">
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="C95" s="30"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.75">
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.75">
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.75">
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.75">
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16138,9 +16413,25 @@
     <hyperlink ref="B53" r:id="rId35" xr:uid="{0EFC7461-5DD0-4A27-AAB7-B1D239101879}"/>
     <hyperlink ref="B10" r:id="rId36" xr:uid="{B7274725-2394-49DA-802C-BEB611C56196}"/>
     <hyperlink ref="B54:B57" r:id="rId37" display="http://hl7.org/fhir/StructureDefinition/familyMemberHistory-eu-hdr" xr:uid="{9886B42D-1BC0-4839-8F10-E5E29C29F906}"/>
+    <hyperlink ref="B59" r:id="rId38" xr:uid="{1BD66CD8-805B-4C66-A27F-A17FB6FC6822}"/>
+    <hyperlink ref="B60:B77" r:id="rId39" display="http://hl7.eu/fhir/hdr/StructureDefinition/observation-sdoh-eu-hdr" xr:uid="{52780DF2-8707-430C-BC90-180EB00C41FE}"/>
+    <hyperlink ref="A81" r:id="rId40" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{A2E34487-E225-44F3-8445-926F141986AC}"/>
+    <hyperlink ref="A82" r:id="rId41" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{176AC99F-6325-4718-91DF-404F2AC0208B}"/>
+    <hyperlink ref="A83" r:id="rId42" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{99AC7EEE-2B09-4FB9-AC39-FA4FB1C1BFE7}"/>
+    <hyperlink ref="A84" r:id="rId43" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{C051815A-D8B0-4A1E-B650-BF6B87B7F726}"/>
+    <hyperlink ref="A85" r:id="rId44" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{ED7E8E50-5B82-4B05-A075-9A8F5FAC56D0}"/>
+    <hyperlink ref="A86" r:id="rId45" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{0F134206-F76A-49E3-8C8C-67012A6C7EDA}"/>
+    <hyperlink ref="A87" r:id="rId46" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{C7CB330D-8622-481D-8BBE-FCDE98F65BD6}"/>
+    <hyperlink ref="A88" r:id="rId47" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{84C08D75-9402-41E0-9794-E25CA68F7EED}"/>
+    <hyperlink ref="A89" r:id="rId48" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{877EEB89-DAA9-4CEF-9E21-3B7D51D217AB}"/>
+    <hyperlink ref="A90" r:id="rId49" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{09487E9D-B0D4-49B8-BB7F-326DFF9F09D5}"/>
+    <hyperlink ref="A91" r:id="rId50" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{956192D1-715C-43EA-8651-5618321D7AC2}"/>
+    <hyperlink ref="A92" r:id="rId51" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{855B8AED-9EBD-4A80-A895-DCA49F7463D5}"/>
+    <hyperlink ref="B79" r:id="rId52" xr:uid="{97E4BABB-9515-4E6B-BEAB-B137F7A3DA10}"/>
+    <hyperlink ref="B80:B92" r:id="rId53" display="http://hl7.org/fhir/StructureDefinition/Observation" xr:uid="{66FB3999-651C-4EE5-8E40-E7B880188A34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -16148,9 +16439,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="63.04296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.76953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
@@ -17869,14 +18165,14 @@
         <f xml:space="preserve"> HospitalStayEhn!D10</f>
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="9" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -17893,14 +18189,14 @@
         <f xml:space="preserve"> HospitalStayEhn!D10</f>
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="9" t="s">
         <v>1377</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="9" t="s">
         <v>1378</v>
       </c>
     </row>

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04A85FA-9968-4805-BB9F-1023B88FE074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959B8D11-865C-4E6D-9E0B-96760DB1D63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="3" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1395">
   <si>
     <t>Group Source</t>
   </si>
@@ -4283,6 +4283,12 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+  </si>
+  <si>
+    <t>If it refer to the usage period</t>
+  </si>
+  <si>
+    <t>if the implantation procedure date is recorded</t>
   </si>
 </sst>
 </file>
@@ -13943,8 +13949,8 @@
   </sheetPr>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -17905,8 +17911,8 @@
   </sheetPr>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="B17" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -18298,7 +18304,7 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -18400,7 +18406,7 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -18500,7 +18506,7 @@
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="9"/>
     </row>
@@ -18523,8 +18529,8 @@
       <c r="E24" s="9" t="s">
         <v>1291</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>22</v>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H24" s="23"/>
     </row>
@@ -18712,7 +18718,7 @@
         <v>22</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>1307</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
@@ -18739,7 +18745,7 @@
         <v>22</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>1311</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD850C5-69DE-4F31-B527-03FF54F20EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91A9800-60E4-4F5F-806D-CDA165605E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="4" activeTab="4" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
   <sheets>
     <sheet name="IG-groups" sheetId="31" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1395">
   <si>
     <t>Group Source</t>
   </si>
@@ -3326,18 +3326,9 @@
     <t>See the InPatientEncounter model and map for details</t>
   </si>
   <si>
-    <t>See the Alerts model and map for details</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionHospitalCourse</t>
-  </si>
-  <si>
     <t>Composition.section:sectionPlanOfCare</t>
   </si>
   <si>
-    <t>TO BE REVIEWED</t>
-  </si>
-  <si>
     <t>Composition.section:sectionAdvanceDirectives.text</t>
   </si>
   <si>
@@ -3600,38 +3591,6 @@
   </si>
   <si>
     <t>Composition.section:sectionDischargeDetails</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPatientHx</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionAdmissionEvaluation</t>
-  </si>
-  <si>
-    <r>
-      <t>Composition.section:</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sectionA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lert</t>
-    </r>
   </si>
   <si>
     <t>A.2.5 - Patient history (eHN)</t>
@@ -4281,13 +4240,40 @@
   </si>
   <si>
     <t>eHN HDR Objective Findings Model to this guide Map</t>
+  </si>
+  <si>
+    <t>Covered by more sections. See the Alerts model and map for details</t>
+  </si>
+  <si>
+    <t>Covered by more sections. See the Admission Evaluation model and map for details</t>
+  </si>
+  <si>
+    <t>Covered by more sections. See the Patient History model and map for details</t>
+  </si>
+  <si>
+    <t>Covered by more sections. See the Hospital Course model and map for details</t>
+  </si>
+  <si>
+    <t>Covered by more sections. See the below for details</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionDischargeNote</t>
+  </si>
+  <si>
+    <t>If not structured in sections (TBC)</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Is the same section of the Admission Evaluation ? TBC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4328,14 +4314,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4439,7 +4417,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4499,15 +4477,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -5073,8 +5049,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G7"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5131,8 +5107,8 @@
         <f>FunctionalStatusHdrEhn!D2</f>
         <v>A.2.8.2.1 - Description</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>1372</v>
+      <c r="E2" s="7" t="s">
+        <v>1366</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -5156,15 +5132,15 @@
         <f>FunctionalStatusHdrEhn!D2</f>
         <v>A.2.8.2.1 - Description</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>1373</v>
+      <c r="E3" s="7" t="s">
+        <v>1367</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="32" t="s">
-        <v>1374</v>
+      <c r="H3" s="7" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -5173,7 +5149,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A3</f>
@@ -5184,7 +5160,7 @@
         <v>A.2.8.2.2 - Onset Date</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -5198,7 +5174,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A4</f>
@@ -5209,7 +5185,7 @@
         <v>A.2.8.2.3 - Functional assessment description</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="13" t="s">
@@ -5223,7 +5199,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A5</f>
@@ -5234,7 +5210,7 @@
         <v>A.2.8.2.4 - Functional assessment date</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="13" t="s">
@@ -5248,7 +5224,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A6</f>
@@ -5259,7 +5235,7 @@
         <v>A.2.8.2.5 - Functional assessment result</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="13" t="s">
@@ -5316,7 +5292,7 @@
     </row>
     <row r="2" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>69</v>
@@ -5333,7 +5309,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>67</v>
@@ -5350,7 +5326,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>67</v>
@@ -5367,7 +5343,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>67</v>
@@ -5384,7 +5360,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>69</v>
@@ -5457,7 +5433,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A2</f>
@@ -5468,14 +5444,14 @@
         <v>A.2.9.2.1 - Medication reason</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -5484,7 +5460,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A3</f>
@@ -5495,7 +5471,7 @@
         <v>A.2.9.2.2 - Reason for change</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -5509,7 +5485,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5520,14 +5496,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -5536,7 +5512,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5547,14 +5523,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -5563,7 +5539,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5574,14 +5550,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -5590,7 +5566,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A5</f>
@@ -5601,7 +5577,7 @@
         <v>A.2.9.2.4 - Brand name</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -5615,7 +5591,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A6</f>
@@ -5626,14 +5602,14 @@
         <v>A.2.9.2.5 - Active ingredient list</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -5642,7 +5618,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A7</f>
@@ -5653,7 +5629,7 @@
         <v>A.2.9.2.6 - Strength</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -5667,7 +5643,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A8</f>
@@ -5678,7 +5654,7 @@
         <v>A.2.9.2.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -5692,7 +5668,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A9</f>
@@ -5703,14 +5679,14 @@
         <v>A.2.9.2.8 - Dosage Regimen</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -5719,7 +5695,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A10</f>
@@ -5730,7 +5706,7 @@
         <v>A.2.9.2.9 - Route of administration</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -5744,7 +5720,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A11</f>
@@ -5755,14 +5731,14 @@
         <v>A.2.9.2.10 - Period of treatment</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -5771,7 +5747,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A12</f>
@@ -5782,7 +5758,7 @@
         <v>A.2.9.2.11 - Days supplied</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="13" t="s">
@@ -5840,7 +5816,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>68</v>
@@ -5857,7 +5833,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>67</v>
@@ -5874,7 +5850,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>69</v>
@@ -5891,7 +5867,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>69</v>
@@ -5908,7 +5884,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>68</v>
@@ -5925,7 +5901,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>68</v>
@@ -5942,7 +5918,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>67</v>
@@ -5959,7 +5935,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>68</v>
@@ -5976,7 +5952,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>67</v>
@@ -5993,7 +5969,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>67</v>
@@ -6010,7 +5986,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>69</v>
@@ -6085,7 +6061,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A2</f>
@@ -6096,7 +6072,7 @@
         <v>A.2.9.1.1 - Title</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -6110,7 +6086,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A3</f>
@@ -6121,7 +6097,7 @@
         <v>A.2.9.1.2 - Addresses</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -6135,7 +6111,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A4</f>
@@ -6146,7 +6122,7 @@
         <v>A.2.9.1.3 - Description</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -6159,7 +6135,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A5</f>
@@ -6170,7 +6146,7 @@
         <v>A.2.9.1.4 - Plan Period</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -6183,7 +6159,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A6</f>
@@ -6194,7 +6170,7 @@
         <v>A.2.9.1.5 - Other details</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
@@ -6207,7 +6183,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A7</f>
@@ -6218,7 +6194,7 @@
         <v>A.2.9.1.6 - Activity</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -6231,7 +6207,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A8</f>
@@ -6242,7 +6218,7 @@
         <v>A.2.9.1.6.1 - Kind</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -6255,7 +6231,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A9</f>
@@ -6266,7 +6242,7 @@
         <v>A.2.9.1.6.2 - Activity description</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -6279,7 +6255,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A10</f>
@@ -6290,7 +6266,7 @@
         <v>A.2.9.1.6.3 - Specific attributes</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -6344,7 +6320,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>67</v>
@@ -6361,7 +6337,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>68</v>
@@ -6378,7 +6354,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>67</v>
@@ -6395,7 +6371,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>67</v>
@@ -6412,7 +6388,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>68</v>
@@ -6429,7 +6405,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>68</v>
@@ -6446,7 +6422,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>67</v>
@@ -6463,7 +6439,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>67</v>
@@ -6480,7 +6456,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>68</v>
@@ -6507,7 +6483,9 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -6564,7 +6542,7 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -6589,20 +6567,20 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
@@ -6613,14 +6591,14 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -6629,7 +6607,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A3</f>
@@ -6640,7 +6618,7 @@
         <v>A.2.1.1.1 - Date and time</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -6654,7 +6632,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A4</f>
@@ -6665,14 +6643,14 @@
         <v>A.2.1.1.2 - Type</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -6681,7 +6659,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A5</f>
@@ -6692,14 +6670,14 @@
         <v>A.2.1.1.3 - Comment</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -6708,7 +6686,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A6</f>
@@ -6719,7 +6697,7 @@
         <v>A.2.1.1.4 - Related conditions</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="13" t="s">
@@ -6732,7 +6710,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A7</f>
@@ -6743,7 +6721,7 @@
         <v>A.2.1.1.5 - Living will document</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="10" t="s">
@@ -6768,14 +6746,14 @@
         <v>A.2.1.1.5 - Living will document</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -6936,8 +6914,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7169,7 +7147,7 @@
       <c r="B10" s="8" t="s">
         <v>1062</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A8</f>
         <v>Alerts.allergy.onsetDate</v>
       </c>
@@ -7181,7 +7159,7 @@
         <v>1051</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7192,7 +7170,7 @@
       <c r="B11" s="8" t="s">
         <v>1062</v>
       </c>
-      <c r="C11" s="13" t="str">
+      <c r="C11" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A11</f>
         <v>Alerts.allergy.endDate</v>
       </c>
@@ -7204,7 +7182,7 @@
         <v>1052</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7722,8 +7700,8 @@
   </sheetPr>
   <dimension ref="A1:AZ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="C1" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7783,7 +7761,7 @@
         <v>1072</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>825</v>
@@ -8068,20 +8046,20 @@
     </row>
     <row r="7" spans="1:52" s="7" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/advanceDirectives2FHIR-eu-hdr</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>825</v>
@@ -8136,20 +8114,20 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/planOfCare2FHIR-eu-hdr</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>825</v>
@@ -8162,20 +8140,20 @@
     </row>
     <row r="9" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/medicationSummary2FHIR-eu-hdr</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>825</v>
@@ -8188,20 +8166,20 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" ref="C10:C14" si="1">"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A10</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hospitalStay2FHIR-eu-hdr</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>825</v>
@@ -8214,20 +8192,20 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="C11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/patientHistory2FHIR-eu-hdr</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>825</v>
@@ -8239,21 +8217,21 @@
       </c>
     </row>
     <row r="12" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A12" s="35" t="s">
-        <v>1366</v>
+      <c r="A12" s="32" t="s">
+        <v>1360</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C12" s="36" t="str">
+        <v>1359</v>
+      </c>
+      <c r="C12" s="33" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/admissionEvaluation2FHIR-eu-hdr</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>825</v>
@@ -8265,21 +8243,21 @@
       </c>
     </row>
     <row r="13" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A13" s="32" t="s">
-        <v>1376</v>
+      <c r="A13" s="7" t="s">
+        <v>1370</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="C13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/functionalStatus2FHIR-eu-hdr</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>825</v>
@@ -8292,20 +8270,20 @@
     </row>
     <row r="14" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1388</v>
+        <v>1383</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1382</v>
       </c>
       <c r="C14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/objectiveFindings2FHIR-eu-hdr</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>825</v>
@@ -8342,6 +8320,7 @@
     <hyperlink ref="B11" location="PatientHistory2FHIREuHdr!A1" display="PatientHistory2FHIREuHdr" xr:uid="{04642399-EE4B-4121-ADFB-8FBBFCAF4F53}"/>
     <hyperlink ref="B12" location="AdmissionEvaluation2FHIREuHdr!A1" display="AdmissionEvaluation2FHIREuHdr" xr:uid="{979ED97E-383B-47D8-B292-A0FACCA6DD01}"/>
     <hyperlink ref="B13" location="FunctionalStatus2FHIREuHdr!A1" display="FunctionalStatus2FHIREuHdr" xr:uid="{397B9A6C-3375-43CE-8324-6AFFB9541587}"/>
+    <hyperlink ref="B14" location="ObjectiveFindings2FHIREuHdr!A1" display="ObjectiveFindings2FHIREuHdr" xr:uid="{8AA28E42-B333-48EB-BB1B-0CEAB0CAE992}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -8424,7 +8403,7 @@
         <v>875</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C3" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A2</f>
@@ -8441,7 +8420,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
@@ -8485,13 +8464,13 @@
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
@@ -8574,7 +8553,7 @@
         <v>875</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C9" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A4</f>
@@ -8596,7 +8575,7 @@
         <v>875</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C10" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A5</f>
@@ -8643,7 +8622,7 @@
         <v>875</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C12" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A6</f>
@@ -8693,7 +8672,7 @@
         <v>875</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C14" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A8</f>
@@ -8872,7 +8851,7 @@
         <v>875</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C22" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A15</f>
@@ -8897,7 +8876,7 @@
         <v>875</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C23" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A16</f>
@@ -8919,7 +8898,7 @@
         <v>875</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C24" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A17</f>
@@ -8944,7 +8923,7 @@
         <v>875</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C25" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A18</f>
@@ -8969,7 +8948,7 @@
         <v>875</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C26" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A19</f>
@@ -9038,7 +9017,7 @@
         <v>875</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C29" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A21</f>
@@ -9063,7 +9042,7 @@
         <v>875</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C30" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A22</f>
@@ -9085,7 +9064,7 @@
         <v>875</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C31" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A23</f>
@@ -9107,7 +9086,7 @@
         <v>875</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C32" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A24</f>
@@ -9129,7 +9108,7 @@
         <v>875</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C33" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A25</f>
@@ -9198,7 +9177,7 @@
         <v>875</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C36" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A27</f>
@@ -9223,7 +9202,7 @@
         <v>875</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C37" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A28</f>
@@ -9248,7 +9227,7 @@
         <v>875</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C38" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A29</f>
@@ -9273,7 +9252,7 @@
         <v>875</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C39" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A30</f>
@@ -9298,7 +9277,7 @@
         <v>875</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C40" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A31</f>
@@ -10709,7 +10688,7 @@
         <v>961</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C2" t="str">
         <f>SubjectHdrEhn!A2</f>
@@ -10731,7 +10710,7 @@
         <v>961</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C3" t="str">
         <f>SubjectHdrEhn!A3</f>
@@ -10753,7 +10732,7 @@
         <v>961</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C4" t="str">
         <f>SubjectHdrEhn!A4</f>
@@ -10775,7 +10754,7 @@
         <v>961</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C5" t="str">
         <f>SubjectHdrEhn!A5</f>
@@ -10797,7 +10776,7 @@
         <v>961</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C6" t="str">
         <f>SubjectHdrEhn!A6</f>
@@ -10819,7 +10798,7 @@
         <v>961</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C7" t="str">
         <f>SubjectHdrEhn!A7</f>
@@ -10844,7 +10823,7 @@
         <v>961</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C8" t="str">
         <f>SubjectHdrEhn!A8</f>
@@ -10866,7 +10845,7 @@
         <v>961</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>SubjectHdrEhn!A9</f>
@@ -10883,7 +10862,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -10891,7 +10870,7 @@
         <v>961</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C10" t="str">
         <f>SubjectHdrEhn!A10</f>
@@ -10913,7 +10892,7 @@
         <v>961</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C11" t="str">
         <f>SubjectHdrEhn!A11</f>
@@ -10935,7 +10914,7 @@
         <v>961</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C12" t="str">
         <f>SubjectHdrEhn!A12</f>
@@ -10957,7 +10936,7 @@
         <v>961</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C13" t="str">
         <f>SubjectHdrEhn!A13</f>
@@ -10979,7 +10958,7 @@
         <v>961</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C14" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11001,7 +10980,7 @@
         <v>961</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C15" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11026,7 +11005,7 @@
         <v>961</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C16" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11048,7 +11027,7 @@
         <v>961</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C17" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11073,7 +11052,7 @@
         <v>961</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C18" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11095,7 +11074,7 @@
         <v>961</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C19" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11120,7 +11099,7 @@
         <v>961</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C20" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11142,7 +11121,7 @@
         <v>961</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C21" t="str">
         <f>SubjectHdrEhn!A17</f>
@@ -11164,7 +11143,7 @@
         <v>961</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C22" t="str">
         <f>SubjectHdrEhn!A18</f>
@@ -11186,7 +11165,7 @@
         <v>961</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C23" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -11211,7 +11190,7 @@
         <v>961</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C24" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -11233,7 +11212,7 @@
         <v>961</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C25" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -11258,7 +11237,7 @@
         <v>961</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C26" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -11280,7 +11259,7 @@
         <v>961</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C27" t="str">
         <f>SubjectHdrEhn!A21</f>
@@ -11302,7 +11281,7 @@
         <v>961</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C28" t="str">
         <f>SubjectHdrEhn!A22</f>
@@ -11313,7 +11292,7 @@
         <v>A.1.2.3.1 - Role of that person</v>
       </c>
       <c r="E28" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -11324,7 +11303,7 @@
         <v>961</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C29" t="str">
         <f>SubjectHdrEhn!A23</f>
@@ -11335,7 +11314,7 @@
         <v>A.1.2.3.2 - Relationship level</v>
       </c>
       <c r="E29" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
@@ -11346,7 +11325,7 @@
         <v>961</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C30" t="str">
         <f>SubjectHdrEhn!A24</f>
@@ -11368,7 +11347,7 @@
         <v>961</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C31" t="str">
         <f>SubjectHdrEhn!A25</f>
@@ -11390,7 +11369,7 @@
         <v>961</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C32" t="str">
         <f>SubjectHdrEhn!A26</f>
@@ -11412,7 +11391,7 @@
         <v>961</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C33" t="str">
         <f>SubjectHdrEhn!A27</f>
@@ -11434,7 +11413,7 @@
         <v>961</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C34" t="str">
         <f>SubjectHdrEhn!A28</f>
@@ -12045,11 +12024,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" s="34" t="str">
+      <c r="A2" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdmissionEvaluation</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>866</v>
       </c>
       <c r="C2" s="7" t="str">
@@ -12061,22 +12040,22 @@
         <v>A.2.4.1 - Objective findings</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" s="34" t="str">
+      <c r="A3" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdmissionEvaluation</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>866</v>
       </c>
       <c r="C3" s="7" t="str">
@@ -12088,14 +12067,14 @@
         <v>A.2.4.2 - Functional status</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
   </sheetData>
@@ -12113,12 +12092,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="45.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.76953125" customWidth="1"/>
     <col min="3" max="3" width="51.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.76953125" customWidth="1"/>
     <col min="5" max="5" width="17.90625" customWidth="1"/>
@@ -12148,9 +12127,8 @@
       <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="34" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
+      <c r="C2" s="1" t="s">
+        <v>1184</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -12166,9 +12144,8 @@
       <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="34" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
+      <c r="C3" s="1" t="s">
+        <v>1183</v>
       </c>
       <c r="D3" t="s">
         <v>75</v>
@@ -12178,6 +12155,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" location="ObjectiveFindingsHdrEhn!A1" display="#ObjectiveFindingsHdrEhn" xr:uid="{89EC8115-9071-4B41-8779-7535FDB833E6}"/>
+    <hyperlink ref="C3" location="FunctionalStatusHdrEhn!A1" display="FunctionalStatusHdrEhn" xr:uid="{260F4268-FC6E-4CD5-B046-6A57D9466C8D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12189,8 +12170,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -12370,7 +12351,7 @@
         <v>864</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C8" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -12395,7 +12376,7 @@
         <v>864</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C9" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -12420,7 +12401,7 @@
         <v>864</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C10" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
@@ -12445,7 +12426,7 @@
         <v>864</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C11" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
@@ -12564,7 +12545,7 @@
         <v>864</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C16" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -12589,7 +12570,7 @@
         <v>864</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C17" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -12614,7 +12595,7 @@
         <v>864</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C18" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
@@ -12639,7 +12620,7 @@
         <v>864</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C19" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
@@ -12964,7 +12945,7 @@
         <v>864</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C33" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
@@ -12989,7 +12970,7 @@
         <v>864</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C34" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
@@ -13014,17 +12995,17 @@
         <v>864</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C35" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
         <v>Encounter.location.organization.details</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D35" s="6" t="str">
         <f>EncounterEhn!D31</f>
         <v>A.2.3.6.4 - Organisation Part Details</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="6" t="s">
         <v>232</v>
       </c>
       <c r="G35" t="s">
@@ -13628,9 +13609,9 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -13673,12 +13654,12 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" s="34" t="str">
+      <c r="A2" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>1380</v>
+      <c r="B2" s="31" t="s">
+        <v>1374</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A2</f>
@@ -13689,7 +13670,7 @@
         <v>A.2.8.1.1 - Date</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="13" t="s">
@@ -13698,11 +13679,11 @@
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" s="34" t="str">
+      <c r="A3" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>866</v>
       </c>
       <c r="C3" s="7" t="str">
@@ -13714,23 +13695,23 @@
         <v>A.2.8.1.3 - Anthropometric observations</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" s="34" t="str">
+      <c r="A4" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>1386</v>
+      <c r="B4" s="31" t="s">
+        <v>1380</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A4</f>
@@ -13740,24 +13721,24 @@
         <f>ObjectiveFindingsHdrEhn!D4</f>
         <v>A.2.8.1.3.1 - Result description</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>1300</v>
+      <c r="E4" s="7" t="s">
+        <v>1294</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" s="34" t="str">
+      <c r="A5" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>1386</v>
+      <c r="B5" s="31" t="s">
+        <v>1380</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A5</f>
@@ -13768,23 +13749,23 @@
         <v>A.2.8.1.3.2 - Observation details</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A6" s="34" t="str">
+      <c r="A6" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>1386</v>
+      <c r="B6" s="31" t="s">
+        <v>1380</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A6</f>
@@ -13794,23 +13775,23 @@
         <f>ObjectiveFindingsHdrEhn!D6</f>
         <v>A.2.8.1.3.3 - Observation result</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>1303</v>
+      <c r="E6" s="7" t="s">
+        <v>1297</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A7" s="34" t="str">
+      <c r="A7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>866</v>
       </c>
       <c r="C7" s="7" t="str">
@@ -13821,8 +13802,8 @@
         <f>ObjectiveFindingsHdrEhn!D7</f>
         <v>A.2.8.1.4 - Vital signs</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>1383</v>
+      <c r="E7" s="7" t="s">
+        <v>1377</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -13831,12 +13812,12 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A8" s="34" t="str">
+      <c r="A8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>1386</v>
+      <c r="B8" s="31" t="s">
+        <v>1380</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A8</f>
@@ -13846,24 +13827,24 @@
         <f>ObjectiveFindingsHdrEhn!D8</f>
         <v>A.2.8.1.4.1 - Result description</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>1300</v>
+      <c r="E8" s="7" t="s">
+        <v>1294</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A9" s="34" t="str">
+      <c r="A9" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>1386</v>
+      <c r="B9" s="31" t="s">
+        <v>1380</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A9</f>
@@ -13874,23 +13855,23 @@
         <v>A.2.8.1.4.2 - Observation details</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10" s="34" t="str">
+      <c r="A10" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>1386</v>
+      <c r="B10" s="31" t="s">
+        <v>1380</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A10</f>
@@ -13900,23 +13881,23 @@
         <f>ObjectiveFindingsHdrEhn!D10</f>
         <v>A.2.8.1.4.3 - Observation result</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>1303</v>
+      <c r="E10" s="7" t="s">
+        <v>1297</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" s="34" t="str">
+      <c r="A11" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>866</v>
       </c>
       <c r="C11" s="7" t="str">
@@ -13928,7 +13909,7 @@
         <v>A.2.8.1.5 - Physical examination</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -13937,11 +13918,11 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12" s="34" t="str">
+      <c r="A12" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="34" t="s">
         <v>866</v>
       </c>
       <c r="C12" s="7" t="str">
@@ -13953,48 +13934,13 @@
         <v>A.2.8.1.5.1 - Observation Note</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14014,9 +13960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58727AAF-0CEE-4A1A-85D1-68B0F5F0346C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -14045,7 +13989,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -14062,7 +14006,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -14079,7 +14023,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -14096,7 +14040,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -14113,7 +14057,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -14130,7 +14074,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -14147,7 +14091,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -14164,7 +14108,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -14181,7 +14125,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -14198,7 +14142,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -14215,7 +14159,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -14371,10 +14315,10 @@
         <v>839</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
@@ -14385,10 +14329,10 @@
         <v>838</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.75">
@@ -14399,66 +14343,66 @@
         <v>836</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="7" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="7" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -14493,8 +14437,8 @@
   </sheetPr>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="D47" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -14552,14 +14496,14 @@
         <v>A.2.6.1 - Medical history</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -14579,14 +14523,14 @@
         <v>A.2.6.1.1 - History of problems</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -14595,7 +14539,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A4</f>
@@ -14606,7 +14550,7 @@
         <v>A.2.6.1.1.1 - Problem description</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -14620,7 +14564,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A5</f>
@@ -14631,7 +14575,7 @@
         <v>A.2.6.1.1.2 - Problem details</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -14645,7 +14589,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A6</f>
@@ -14656,7 +14600,7 @@
         <v>A.2.6.1.1.3 - Onset date</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -14670,7 +14614,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A7</f>
@@ -14681,7 +14625,7 @@
         <v>A.2.6.1.1.4 - End date</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -14695,7 +14639,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A8</f>
@@ -14706,7 +14650,7 @@
         <v>A.2.6.1.1.5 - Clinical status</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -14720,7 +14664,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A9</f>
@@ -14731,14 +14675,14 @@
         <v>A.2.6.1.1.6 - Resolution circumstances</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
@@ -14755,14 +14699,14 @@
         <v>A.2.6.1.1.6 - Resolution circumstances</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -14771,7 +14715,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A10</f>
@@ -14782,7 +14726,7 @@
         <v>A.2.6.1.1.7 - Severity</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -14795,7 +14739,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A11</f>
@@ -14806,7 +14750,7 @@
         <v>A.2.6.1.1.8 - Stage</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -14831,14 +14775,14 @@
         <v>A.2.6.1.2 - Devices and Implants</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -14847,7 +14791,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
@@ -14858,20 +14802,20 @@
         <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
@@ -14882,14 +14826,14 @@
         <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
@@ -14898,7 +14842,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
@@ -14909,20 +14853,20 @@
         <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
@@ -14933,14 +14877,14 @@
         <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
@@ -14949,7 +14893,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
@@ -14960,20 +14904,20 @@
         <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
@@ -14984,14 +14928,14 @@
         <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
@@ -15000,7 +14944,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A16</f>
@@ -15011,7 +14955,7 @@
         <v>A.2.6.1.2.4 - End date</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="22" t="s">
@@ -15025,7 +14969,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
@@ -15036,14 +14980,14 @@
         <v>A.2.6.1.2.5 - Reason</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="22" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
@@ -15052,7 +14996,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
@@ -15063,7 +15007,7 @@
         <v>A.2.6.1.2.5 - Reason</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -15077,7 +15021,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A18</f>
@@ -15088,14 +15032,14 @@
         <v>A.2.6.1.3 - History of procedures</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
@@ -15104,7 +15048,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A19</f>
@@ -15115,7 +15059,7 @@
         <v>A.2.6.1.3.1 - Procedure code</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
@@ -15129,7 +15073,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A20</f>
@@ -15140,7 +15084,7 @@
         <v>A.2.6.1.3.2 - Procedure description</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -15154,7 +15098,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
@@ -15165,7 +15109,7 @@
         <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
@@ -15176,7 +15120,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="8"/>
       <c r="B27" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
@@ -15187,14 +15131,14 @@
         <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
@@ -15203,7 +15147,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A22</f>
@@ -15214,7 +15158,7 @@
         <v>A.2.6.1.3.4 - Procedure date</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
@@ -15228,7 +15172,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
@@ -15239,7 +15183,7 @@
         <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
@@ -15250,7 +15194,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="8"/>
       <c r="B30" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
@@ -15261,7 +15205,7 @@
         <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
@@ -15275,7 +15219,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A24</f>
@@ -15286,7 +15230,7 @@
         <v>A.2.6.1.3.6 - Outcome</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
@@ -15300,7 +15244,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A25</f>
@@ -15311,7 +15255,7 @@
         <v>A.2.6.1.3.7 - Focal device</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
@@ -15336,7 +15280,7 @@
         <v>A.2.6.1.4 - Vaccination</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
@@ -15350,7 +15294,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A27</f>
@@ -15361,7 +15305,7 @@
         <v>A.2.6.1.4.1 - Disease or agent targeted</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>21</v>
@@ -15374,7 +15318,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A28</f>
@@ -15385,7 +15329,7 @@
         <v>A.2.6.1.4.2 - Vaccine/prophylaxis</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -15399,7 +15343,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A29</f>
@@ -15410,7 +15354,7 @@
         <v>A.2.6.1.4.4 - Vaccine medicinal product</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
@@ -15424,7 +15368,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A30</f>
@@ -15435,7 +15379,7 @@
         <v>A.2.6.1.4.5 - Marketing Authorisation Holder</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -15449,7 +15393,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A31</f>
@@ -15460,7 +15404,7 @@
         <v>A.2.6.1.4.6 - Number in a series of vaccinations / doses</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
@@ -15474,7 +15418,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A32</f>
@@ -15485,7 +15429,7 @@
         <v>A.2.6.1.4.7 - Date of vaccination</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="22" t="s">
@@ -15493,13 +15437,13 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A40" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A33</f>
@@ -15510,7 +15454,7 @@
         <v>A.2.6.1.4.8 - Next vaccination date</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="22" t="s">
@@ -15535,14 +15479,14 @@
         <v>A.2.6.1.5 - Epidemiological history</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.75">
@@ -15561,14 +15505,14 @@
         <f xml:space="preserve"> PatientHistoryEhn!D35</f>
         <v>A.2.6.1.5.1 - Infectious contacts</v>
       </c>
-      <c r="E42" s="31" t="s">
-        <v>1356</v>
-      </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32" t="s">
+      <c r="E42" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="31"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A43" s="8" t="str">
@@ -15576,7 +15520,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A36</f>
@@ -15586,14 +15530,14 @@
         <f xml:space="preserve"> PatientHistoryEhn!D36</f>
         <v>A.2.6.1.5.1.1 - Time period</v>
       </c>
-      <c r="E43" s="31" t="s">
-        <v>1301</v>
+      <c r="E43" s="9" t="s">
+        <v>1295</v>
       </c>
       <c r="F43" s="7"/>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="31"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A44" s="8" t="str">
@@ -15601,7 +15545,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A37</f>
@@ -15611,15 +15555,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D37</f>
         <v>A.2.6.1.5.1.2 - Infectious agent</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>1358</v>
+      <c r="E44" s="9" t="s">
+        <v>1352</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="31" t="s">
-        <v>1360</v>
+      <c r="H44" s="9" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.75">
@@ -15628,7 +15572,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A38</f>
@@ -15639,14 +15583,14 @@
         <v>A.2.6.1.5.1.3 - Proximity</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.75">
@@ -15655,7 +15599,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A39</f>
@@ -15666,14 +15610,14 @@
         <v>A.2.6.1.5.1.4 - Country</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.75">
@@ -15682,7 +15626,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A40</f>
@@ -15692,14 +15636,14 @@
         <f xml:space="preserve"> PatientHistoryEhn!D40</f>
         <v>A.2.6.1.5.1.5 - Additional information</v>
       </c>
-      <c r="E47" s="31" t="s">
-        <v>1352</v>
+      <c r="E47" s="9" t="s">
+        <v>1346</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="31"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A48" s="8" t="str">
@@ -15718,7 +15662,7 @@
         <v>A.2.6.1.5.2 - Travel history</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
@@ -15732,7 +15676,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A42</f>
@@ -15742,14 +15686,14 @@
         <f xml:space="preserve"> PatientHistoryEhn!D42</f>
         <v>A.2.6.1.5.2.1 - Time period</v>
       </c>
-      <c r="E49" s="31" t="s">
-        <v>1301</v>
+      <c r="E49" s="9" t="s">
+        <v>1295</v>
       </c>
       <c r="F49" s="7"/>
-      <c r="G49" s="32" t="s">
+      <c r="G49" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="31"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A50" s="8" t="str">
@@ -15757,7 +15701,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A43</f>
@@ -15767,14 +15711,14 @@
         <f xml:space="preserve"> PatientHistoryEhn!D43</f>
         <v>A.2.6.1.5.2.2 - Country visited</v>
       </c>
-      <c r="E50" s="31" t="s">
-        <v>1358</v>
+      <c r="E50" s="9" t="s">
+        <v>1352</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="31"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A51" s="8" t="str">
@@ -15782,7 +15726,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A44</f>
@@ -15792,16 +15736,16 @@
         <f xml:space="preserve"> PatientHistoryEhn!D44</f>
         <v>A.2.6.1.5.2.3 - Comment</v>
       </c>
-      <c r="E51" s="31" t="s">
-        <v>1352</v>
+      <c r="E51" s="9" t="s">
+        <v>1346</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="32" t="s">
+      <c r="G51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="31"/>
-    </row>
-    <row r="52" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A52" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
@@ -15818,7 +15762,7 @@
         <v>A.2.6.2 - Family history</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="28" t="s">
@@ -15832,7 +15776,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A46</f>
@@ -15843,7 +15787,7 @@
         <v>A.2.6.2.1 - Patient relationship</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
@@ -15857,7 +15801,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A47</f>
@@ -15868,7 +15812,7 @@
         <v>A.2.6.2.2 - Date of birth</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
@@ -15882,7 +15826,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A48</f>
@@ -15893,7 +15837,7 @@
         <v>A.2.6.2.3 - Age or date of death</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="7" t="s">
@@ -15907,7 +15851,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A49</f>
@@ -15918,7 +15862,7 @@
         <v>A.2.6.2.5 - Condition</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
@@ -15932,7 +15876,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A50</f>
@@ -15943,14 +15887,14 @@
         <v>A.2.6.2.6 - Cause of death</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.75">
@@ -15970,7 +15914,7 @@
         <v>A.2.6.3 - Social determinants of health</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="28" t="s">
@@ -15984,7 +15928,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A52</f>
@@ -15995,14 +15939,14 @@
         <v>A.2.6.3.1 - Participation in society</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.75">
@@ -16011,7 +15955,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A53</f>
@@ -16022,14 +15966,14 @@
         <v>A.2.6.3.1.1 - Work situation</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.75">
@@ -16038,7 +15982,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A54</f>
@@ -16049,14 +15993,14 @@
         <v>A.2.6.3.1.2 - Hobby</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.75">
@@ -16065,7 +16009,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A55</f>
@@ -16076,14 +16020,14 @@
         <v>A.2.6.3.1.3 - Social network</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.75">
@@ -16092,7 +16036,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A56</f>
@@ -16103,14 +16047,14 @@
         <v>A.2.6.3.2 - Education</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -16119,7 +16063,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A57</f>
@@ -16130,14 +16074,14 @@
         <v>A.2.6.3.2.1 - Education level</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -16146,7 +16090,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A58</f>
@@ -16157,14 +16101,14 @@
         <v>A.2.6.3.2.2 - Comment</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
@@ -16173,7 +16117,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A59</f>
@@ -16184,14 +16128,14 @@
         <v>A.2.6.3.3 - Living situation</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.75">
@@ -16200,7 +16144,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A60</f>
@@ -16211,14 +16155,14 @@
         <v>A.2.6.3.3.1 - House type</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
@@ -16227,7 +16171,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A61</f>
@@ -16238,14 +16182,14 @@
         <v>A.2.6.3.3.2 - Home adaption</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.75">
@@ -16254,7 +16198,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A62</f>
@@ -16265,14 +16209,14 @@
         <v>A.2.6.3.3.3 - Living conditions</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -16281,7 +16225,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A63</f>
@@ -16292,14 +16236,14 @@
         <v>A.2.6.3.4 - Family situation</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -16308,7 +16252,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A64</f>
@@ -16319,14 +16263,14 @@
         <v>A.2.6.3.4.1 - Comment</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
@@ -16335,7 +16279,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C72" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A65</f>
@@ -16346,14 +16290,14 @@
         <v>A.2.6.3.4.2 - Family composition</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.75">
@@ -16362,7 +16306,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C73" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A66</f>
@@ -16373,14 +16317,14 @@
         <v>A.2.6.3.4.3 - Marital status</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.75">
@@ -16389,7 +16333,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C74" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A67</f>
@@ -16400,14 +16344,14 @@
         <v>A.2.6.3.4.4 - Number of children</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.75">
@@ -16416,7 +16360,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C75" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A68</f>
@@ -16427,14 +16371,14 @@
         <v>A.2.6.3.4.5 - Number of children at home</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.75">
@@ -16443,7 +16387,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C76" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A69</f>
@@ -16454,14 +16398,14 @@
         <v>A.2.6.3.4.6 - Child details</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.75">
@@ -16470,7 +16414,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C77" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A70</f>
@@ -16481,14 +16425,14 @@
         <v>A.2.6.3.4.7 - Care responsibility</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.75">
@@ -16507,15 +16451,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D71</f>
         <v>A.2.6.4 - Use of substances</v>
       </c>
-      <c r="E78" s="31" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32" t="s">
+      <c r="E78" s="9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.75">
@@ -16524,7 +16468,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C79" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A72</f>
@@ -16535,14 +16479,14 @@
         <v>A.2.6.4.1 - Alcohol use</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.75">
@@ -16551,7 +16495,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C80" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A73</f>
@@ -16562,14 +16506,14 @@
         <v>A.2.6.4.1.1 - Status</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.75">
@@ -16578,7 +16522,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C81" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A74</f>
@@ -16589,14 +16533,14 @@
         <v>A.2.6.4.1.2 - Period and quantity</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.75">
@@ -16605,7 +16549,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C82" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A75</f>
@@ -16616,14 +16560,14 @@
         <v>A.2.6.4.1.3 - Comment</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.75">
@@ -16632,7 +16576,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C83" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A76</f>
@@ -16643,14 +16587,14 @@
         <v>A.2.6.4.2 - Tobacco use</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.75">
@@ -16659,7 +16603,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C84" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A77</f>
@@ -16670,14 +16614,14 @@
         <v>A.2.6.4.2.1 - Status</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.75">
@@ -16686,7 +16630,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C85" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A78</f>
@@ -16697,14 +16641,14 @@
         <v>A.2.6.4.2.2 - Period and quantity</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.75">
@@ -16713,7 +16657,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C86" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A79</f>
@@ -16724,14 +16668,14 @@
         <v>A.2.6.4.2.3 - Comment</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.75">
@@ -16740,7 +16684,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C87" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A80</f>
@@ -16751,14 +16695,14 @@
         <v>A.2.6.4.3 - Drug consumption</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.75">
@@ -16767,7 +16711,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C88" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A81</f>
@@ -16778,14 +16722,14 @@
         <v>A.2.6.4.3.1 - Status</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.75">
@@ -16794,7 +16738,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C89" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A82</f>
@@ -16805,14 +16749,14 @@
         <v>A.2.6.4.3.2 - Period and quantity</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.75">
@@ -16821,7 +16765,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C90" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A83</f>
@@ -16832,14 +16776,14 @@
         <v>A.2.6.4.3.3 - Drug or medication type</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.75">
@@ -16848,7 +16792,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C91" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A84</f>
@@ -16859,14 +16803,14 @@
         <v>A.2.6.4.3.4 - Route of administration</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.75">
@@ -16875,7 +16819,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C92" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A85</f>
@@ -16886,14 +16830,14 @@
         <v>A.2.6.4.3.5 - Comment</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.75">
@@ -16975,7 +16919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -18441,8 +18387,8 @@
   </sheetPr>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="C69" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -18500,14 +18446,14 @@
         <v>A.2.7.1 - Diagnostic summary</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -18516,7 +18462,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A3</f>
@@ -18527,7 +18473,7 @@
         <v>A.2.7.1.1 - Problem description</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -18541,7 +18487,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A4</f>
@@ -18552,7 +18498,7 @@
         <v>A.2.7.1.2 - Problem details</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -18566,7 +18512,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A5</f>
@@ -18577,7 +18523,7 @@
         <v>A.2.7.1.3 - Onset date</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -18591,7 +18537,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A6</f>
@@ -18602,7 +18548,7 @@
         <v>A.2.7.1.4 - End date</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -18616,7 +18562,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A7</f>
@@ -18627,7 +18573,7 @@
         <v>A.2.7.1.5 - Category</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -18641,7 +18587,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A8</f>
@@ -18652,7 +18598,7 @@
         <v>A.2.7.1.6 - Treatment class</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -18666,7 +18612,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A9</f>
@@ -18677,7 +18623,7 @@
         <v>A.2.7.1.7 - Clinical status</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -18691,7 +18637,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A10</f>
@@ -18702,14 +18648,14 @@
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="59" x14ac:dyDescent="0.75">
@@ -18726,14 +18672,14 @@
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -18742,7 +18688,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A11</f>
@@ -18753,7 +18699,7 @@
         <v>A.2.7.1.9 - Severity</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -18767,7 +18713,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A12</f>
@@ -18778,7 +18724,7 @@
         <v>A.2.7.1.10 - Stage</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
@@ -18803,14 +18749,14 @@
         <v>A.2.7.2 - Significant procedures</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
@@ -18819,7 +18765,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A14</f>
@@ -18830,7 +18776,7 @@
         <v>A.2.7.2.1 - Procedure code</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -18844,7 +18790,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A15</f>
@@ -18855,7 +18801,7 @@
         <v>A.2.7.2.2 - Procedure description</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -18869,7 +18815,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -18880,7 +18826,7 @@
         <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
@@ -18894,7 +18840,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -18905,14 +18851,14 @@
         <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
@@ -18921,7 +18867,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A17</f>
@@ -18932,7 +18878,7 @@
         <v>A.2.7.2.4 - Procedure date</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
@@ -18946,7 +18892,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -18957,7 +18903,7 @@
         <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
@@ -18971,7 +18917,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -18982,7 +18928,7 @@
         <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
@@ -18996,7 +18942,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A19</f>
@@ -19007,7 +18953,7 @@
         <v>A.2.7.2.6 - Outcome</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -19021,7 +18967,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -19032,7 +18978,7 @@
         <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
@@ -19046,7 +18992,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -19057,7 +19003,7 @@
         <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>21</v>
@@ -19070,7 +19016,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A21</f>
@@ -19081,7 +19027,7 @@
         <v>A.2.7.2.8 - Focal device</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -19106,14 +19052,14 @@
         <v>A.2.7.3 - Medical devices and implants</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
@@ -19122,7 +19068,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -19133,14 +19079,14 @@
         <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
@@ -19149,7 +19095,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -19160,14 +19106,14 @@
         <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
@@ -19176,7 +19122,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
@@ -19187,14 +19133,14 @@
         <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
@@ -19203,7 +19149,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
@@ -19214,14 +19160,14 @@
         <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
@@ -19230,7 +19176,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
@@ -19241,14 +19187,14 @@
         <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
@@ -19257,7 +19203,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
@@ -19268,14 +19214,14 @@
         <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
@@ -19284,7 +19230,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A26</f>
@@ -19295,7 +19241,7 @@
         <v>A.2.7.3.4 - End date</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="22" t="s">
@@ -19309,7 +19255,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
@@ -19320,7 +19266,7 @@
         <v>A.2.7.3.5 - Reason</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="22" t="s">
@@ -19334,7 +19280,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
@@ -19345,7 +19291,7 @@
         <v>A.2.7.3.5 - Reason</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -19370,14 +19316,14 @@
         <v>A.2.7.5 - Pharmacotherapy</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
@@ -19386,7 +19332,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19397,7 +19343,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -19411,7 +19357,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19422,7 +19368,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
@@ -19436,7 +19382,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19447,7 +19393,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
@@ -19461,7 +19407,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19472,7 +19418,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
@@ -19486,7 +19432,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19497,7 +19443,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
@@ -19511,7 +19457,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19522,7 +19468,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
@@ -19536,7 +19482,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19547,7 +19493,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
@@ -19561,7 +19507,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19572,7 +19518,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
@@ -19586,7 +19532,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19597,7 +19543,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
@@ -19611,7 +19557,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19622,7 +19568,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
@@ -19636,7 +19582,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19647,7 +19593,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
@@ -19661,7 +19607,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="C48" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19672,7 +19618,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
@@ -19686,7 +19632,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19697,7 +19643,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
@@ -19711,7 +19657,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A31</f>
@@ -19722,7 +19668,7 @@
         <v>A.2.7.5.3 - Intended use</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
@@ -19736,7 +19682,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A32</f>
@@ -19747,7 +19693,7 @@
         <v>A.2.7.5.4 - Brand name</v>
       </c>
       <c r="E51" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
@@ -19761,7 +19707,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A33</f>
@@ -19772,7 +19718,7 @@
         <v>A.2.7.5.5 - Active ingredient list</v>
       </c>
       <c r="E52" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
@@ -19786,7 +19732,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A34</f>
@@ -19797,7 +19743,7 @@
         <v>A.2.7.5.6 - Strength</v>
       </c>
       <c r="E53" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
@@ -19811,7 +19757,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A35</f>
@@ -19822,7 +19768,7 @@
         <v>A.2.7.5.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E54" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
@@ -19836,7 +19782,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
@@ -19847,14 +19793,14 @@
         <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E55" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.75">
@@ -19863,7 +19809,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
@@ -19874,14 +19820,14 @@
         <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E56" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.75">
@@ -19890,7 +19836,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
@@ -19901,7 +19847,7 @@
         <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E57" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
@@ -19915,7 +19861,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C58" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
@@ -19926,7 +19872,7 @@
         <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E58" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
@@ -19940,7 +19886,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19951,7 +19897,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E59" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
@@ -19965,7 +19911,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19976,7 +19922,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E60" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
@@ -19990,7 +19936,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -20001,7 +19947,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
@@ -20026,7 +19972,7 @@
         <v>A.2.7.6 - Significant Observation Results</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="13" t="s">
@@ -20040,7 +19986,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A40</f>
@@ -20051,14 +19997,14 @@
         <v>A.2.7.6.1 - Date</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -20067,7 +20013,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A41</f>
@@ -20078,14 +20024,14 @@
         <v>A.2.7.6.2 - Observation status</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -20094,7 +20040,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A42</f>
@@ -20105,14 +20051,14 @@
         <v>A.2.7.6.3 - Result description</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
@@ -20129,7 +20075,7 @@
         <v>A.2.7.6.3 - Result description</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
@@ -20143,7 +20089,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A43</f>
@@ -20154,14 +20100,14 @@
         <v>A.2.7.6.4 - Observation details</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
@@ -20181,7 +20127,7 @@
         <v>A.2.7.6.4 - Observation details</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
@@ -20195,7 +20141,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
@@ -20206,14 +20152,14 @@
         <v>A.2.7.6.5 - Observation result</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -20222,7 +20168,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
@@ -20233,14 +20179,14 @@
         <v>A.2.7.6.5 - Observation result</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -20249,7 +20195,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A45</f>
@@ -20260,14 +20206,14 @@
         <v>A.2.7.6.7 - Reporter</v>
       </c>
       <c r="E71" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
@@ -20287,7 +20233,7 @@
         <v>A.2.7.7 - Synthesis</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="13" t="s">
@@ -20312,7 +20258,7 @@
         <v>A.2.7.7.1 - Problem synthesis</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="13" t="s">
@@ -20337,7 +20283,7 @@
         <v>A.2.7.7.2 - Clinical reasoning</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="13" t="s">
@@ -20493,7 +20439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -21328,10 +21274,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -21442,15 +21388,15 @@
         <f>HospitalDischargeReportEhn!D4</f>
         <v>A.2.0 - Hospital Discharge Report in its narrative form</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>1102</v>
+      <c r="E4" s="14" t="s">
+        <v>1099</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -21474,11 +21420,9 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>1084</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="str">
@@ -21497,14 +21441,14 @@
         <v>A.2.2 - Alerts</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1175</v>
+        <v>1182</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1081</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -21551,14 +21495,14 @@
         <v>A.2.4 - Admission evaluation</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>1084</v>
+      <c r="H8" s="7" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -21578,14 +21522,14 @@
         <v>A.2.5 - Patient history</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1173</v>
+        <v>1182</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>1084</v>
+      <c r="H9" s="7" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
@@ -21605,14 +21549,14 @@
         <v>A.2.6 - Course of hospitalisation (Hospital stay)</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1082</v>
+        <v>1182</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>1084</v>
+      <c r="H10" s="7" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -21631,15 +21575,15 @@
         <f>HospitalDischargeReportEhn!D11</f>
         <v>A.2.7 - Discharge details</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>1172</v>
+      <c r="E11" s="9" t="s">
+        <v>1182</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>1084</v>
+      <c r="H11" s="7" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21658,14 +21602,16 @@
         <f>HospitalDischargeReportEhn!D12</f>
         <v>A.2.7.1 - Objective findings</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>1172</v>
+      <c r="E12" s="35" t="s">
+        <v>1169</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A13" s="8" t="str">
@@ -21683,14 +21629,16 @@
         <f>HospitalDischargeReportEhn!D12</f>
         <v>A.2.7.1 - Objective findings</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>1218</v>
+      <c r="E13" s="35" t="s">
+        <v>1212</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>1393</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" s="8" t="str">
@@ -21708,14 +21656,16 @@
         <f>HospitalDischargeReportEhn!D13</f>
         <v>A.2.7.2 - Functional status</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>1172</v>
+      <c r="E14" s="35" t="s">
+        <v>1169</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A15" s="8" t="str">
@@ -21733,23 +21683,20 @@
         <f>HospitalDischargeReportEhn!D13</f>
         <v>A.2.7.2 - Functional status</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>1219</v>
+      <c r="E15" s="35" t="s">
+        <v>1213</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A16" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$2</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>866</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A14</f>
         <v>HospitalDischargeReport.body.dischargeDetails.dischargeNote</v>
@@ -21758,16 +21705,18 @@
         <f>HospitalDischargeReportEhn!D14</f>
         <v>A.2.7.3 - Discharge note</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>1220</v>
+      <c r="E16" s="35" t="s">
+        <v>1391</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="H16" s="13" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A17" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
@@ -21776,25 +21725,25 @@
         <v>866</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A15</f>
-        <v>HospitalDischargeReport.body.recommendations</v>
+        <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A14</f>
+        <v>HospitalDischargeReport.body.dischargeDetails.dischargeNote</v>
       </c>
       <c r="D17" s="9" t="str">
-        <f>HospitalDischargeReportEhn!D15</f>
-        <v>A.2.8 - Care plan and other recommendations after discharge.</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>1188</v>
+        <f>HospitalDischargeReportEhn!D14</f>
+        <v>A.2.7.3 - Discharge note</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>1214</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="H17" s="13" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
@@ -21803,21 +21752,23 @@
         <v>866</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A16</f>
-        <v>HospitalDischargeReport.body.recommendations.carePlan</v>
+        <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A15</f>
+        <v>HospitalDischargeReport.body.recommendations</v>
       </c>
       <c r="D18" s="9" t="str">
-        <f>HospitalDischargeReportEhn!D16</f>
-        <v>A.2.8.1 - Care plan</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>1083</v>
+        <f>HospitalDischargeReportEhn!D15</f>
+        <v>A.2.8 - Care plan and other recommendations after discharge.</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1182</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A19" s="8" t="str">
@@ -21828,15 +21779,15 @@
         <v>866</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A17</f>
-        <v>HospitalDischargeReport.body.recommendations.medicationSummary</v>
+        <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A16</f>
+        <v>HospitalDischargeReport.body.recommendations.carePlan</v>
       </c>
       <c r="D19" s="9" t="str">
-        <f>HospitalDischargeReportEhn!D17</f>
-        <v>A.2.8.2 - Medication summary</v>
+        <f>HospitalDischargeReportEhn!D16</f>
+        <v>A.2.8.1 - Care plan</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>1111</v>
+        <v>1081</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="13" t="s">
@@ -21853,35 +21804,60 @@
         <v>866</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A18</f>
-        <v>HospitalDischargeReport.body.recommendations.otherRecommendations</v>
+        <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A17</f>
+        <v>HospitalDischargeReport.body.recommendations.medicationSummary</v>
       </c>
       <c r="D20" s="9" t="str">
-        <f>HospitalDischargeReportEhn!D18</f>
-        <v>A.2.8.3 - Other recommendations</v>
+        <f>HospitalDischargeReportEhn!D17</f>
+        <v>A.2.8.2 - Medication summary</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A21" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$2</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C21" s="9" t="str">
+        <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A18</f>
+        <v>HospitalDischargeReport.body.recommendations.otherRecommendations</v>
+      </c>
+      <c r="D21" s="9" t="str">
+        <f>HospitalDischargeReportEhn!D18</f>
+        <v>A.2.8.3 - Other recommendations</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{551E90F3-804E-4605-AAF5-66611C7A3590}"/>
     <hyperlink ref="A2:A5" r:id="rId2" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{9151376A-90CC-4581-9DAD-98C612A4D33E}"/>
-    <hyperlink ref="A3:A17" r:id="rId3" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{525EF6EC-A6D5-4557-8CBF-A840C2F30ECC}"/>
+    <hyperlink ref="A3:A18" r:id="rId3" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{525EF6EC-A6D5-4557-8CBF-A840C2F30ECC}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{FBE31FCF-1D3B-4D72-8076-A6D3870573AE}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{DE8A9151-BF42-4AD5-9B14-FE129887E52C}"/>
-    <hyperlink ref="B18" r:id="rId6" xr:uid="{412E933E-4CF7-4133-B4C1-9CCE00DB4DDA}"/>
-    <hyperlink ref="B19:B20" r:id="rId7" display="http://hl7.eu/fhir/hdr/StructureDefinition/composition-eu-hdr" xr:uid="{4052C557-4576-449E-963D-668B9029AD89}"/>
-    <hyperlink ref="A18:A20" r:id="rId8" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{22338626-9675-4A8B-80BB-5CDB0887E51E}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{412E933E-4CF7-4133-B4C1-9CCE00DB4DDA}"/>
+    <hyperlink ref="B20:B21" r:id="rId7" display="http://hl7.eu/fhir/hdr/StructureDefinition/composition-eu-hdr" xr:uid="{4052C557-4576-449E-963D-668B9029AD89}"/>
+    <hyperlink ref="A19:A21" r:id="rId8" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{22338626-9675-4A8B-80BB-5CDB0887E51E}"/>
     <hyperlink ref="A12" r:id="rId9" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{3839FE08-4A67-45DC-92B4-3789754A3761}"/>
     <hyperlink ref="A14" r:id="rId10" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{C2327ACD-3853-49A1-89B6-E2CC5846388E}"/>
-    <hyperlink ref="A16" r:id="rId11" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{B0243242-4633-4A97-B5EE-0284A7477A1F}"/>
+    <hyperlink ref="A17" r:id="rId11" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{B0243242-4633-4A97-B5EE-0284A7477A1F}"/>
     <hyperlink ref="A13" r:id="rId12" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{C2D1C8E5-B07A-4FA2-B17D-D1DA700EFCA0}"/>
     <hyperlink ref="A15" r:id="rId13" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{BA5515E1-9CCA-4A68-83DF-D6A6D3E66042}"/>
   </hyperlinks>
@@ -21893,8 +21869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -21981,7 +21957,7 @@
       <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>834</v>
       </c>
       <c r="D5" t="s">
@@ -21998,7 +21974,7 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>835</v>
       </c>
       <c r="D6" t="s">
@@ -22015,7 +21991,7 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>837</v>
       </c>
       <c r="D7" t="s">
@@ -22032,7 +22008,7 @@
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>833</v>
       </c>
       <c r="D8" t="s">
@@ -22049,7 +22025,7 @@
       <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>839</v>
       </c>
       <c r="D9" t="s">
@@ -22066,7 +22042,7 @@
       <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>838</v>
       </c>
       <c r="D10" t="s">
@@ -22095,17 +22071,17 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <f>LogicalModels!B12</f>
         <v>ObjectiveFindingsHdrEhn</v>
       </c>
       <c r="D12" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="E12" t="s">
         <v>76</v>
@@ -22113,25 +22089,25 @@
     </row>
     <row r="13" spans="1:5" ht="59" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="1" t="str">
         <f>LogicalModels!B13</f>
         <v>FunctionalStatusHdrEhn</v>
       </c>
       <c r="D13" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -22140,7 +22116,7 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="E14" t="s">
         <v>172</v>
@@ -22165,16 +22141,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
-        <v>1107</v>
+      <c r="C16" s="1" t="s">
+        <v>1104</v>
       </c>
       <c r="D16" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="E16" t="s">
         <v>655</v>
@@ -22182,16 +22158,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
-        <v>1108</v>
+      <c r="C17" s="1" t="s">
+        <v>1105</v>
       </c>
       <c r="D17" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="E17" t="s">
         <v>665</v>
@@ -22199,7 +22175,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -22208,7 +22184,7 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E18" t="s">
         <v>672</v>
@@ -22449,6 +22425,18 @@
       <c r="E98"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" location="AdvanceDirectivesEhn!A1" display="AdvanceDirectivesEhn" xr:uid="{D1C97AA3-A53C-451E-8A92-043BD7DFC58F}"/>
+    <hyperlink ref="C6" location="AlertsEhn!A1" display="AlertsEhn" xr:uid="{05D245BD-A5AE-4EA2-B38A-84668E3361F1}"/>
+    <hyperlink ref="C7" location="EncounterEhn!A1" display="EncounterEhn" xr:uid="{F702D56C-D43D-4814-BA7E-5ABA4AF1A1B9}"/>
+    <hyperlink ref="C8" location="AdmissionEvaluationEhn!A1" display="AdmissionEvaluationEhn" xr:uid="{313C5FC3-3D7F-4337-B620-C2853D6EC8AD}"/>
+    <hyperlink ref="C9" location="PatientHistoryEhn!A1" display="PatientHistoryEhn" xr:uid="{365D6778-944A-45D2-8E69-E7B68CACB210}"/>
+    <hyperlink ref="C10" location="HospitalStayEhn!A1" display="HospitalStayEhn" xr:uid="{A91AA752-D64B-4448-AA9A-CE40F2016AEB}"/>
+    <hyperlink ref="C12" location="ObjectiveFindingsHdrEhn!A1" display="ObjectiveFindingsHdrEhn!A1" xr:uid="{6B4837E9-2269-46AA-A0ED-A8A683C2CA71}"/>
+    <hyperlink ref="C13" location="FunctionalStatusHdrEhn!A1" display="FunctionalStatusHdrEhn!A1" xr:uid="{8612A20B-B924-4C8E-B3AC-6BE5025B96A3}"/>
+    <hyperlink ref="C16" location="PlanOfCareHdrEhn!A1" display="PlanOfCare" xr:uid="{47E1EECE-9475-4B52-A7C1-927BCA7F7769}"/>
+    <hyperlink ref="C17" location="MedicationSummaryHdrEhn!A1" display="MedicationSummary" xr:uid="{38071772-16F8-4001-904F-2A60416D30EE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCC282F-8758-469A-9EE4-1FCB634EC2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365D81A8-5E52-443B-8653-76E0D01AC402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="24" activeTab="25" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="13" activeTab="15" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
   <sheets>
     <sheet name="IG-groups" sheetId="31" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="1390">
   <si>
     <t>Group Source</t>
   </si>
@@ -3320,9 +3320,6 @@
     <t>See details below</t>
   </si>
   <si>
-    <t>TO BE DEFINED</t>
-  </si>
-  <si>
     <t>Composition.section:sectionAdvanceDirectives</t>
   </si>
   <si>
@@ -3344,21 +3341,12 @@
     <t>Composition.section:sectionAdvanceDirectives.entry.ofType(DocumentReference)</t>
   </si>
   <si>
-    <t>Composition.section:sectionAdvanceDirectives.entry.ofType(Consent)</t>
-  </si>
-  <si>
     <t>Consent.dateTime</t>
   </si>
   <si>
     <t>Consent</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Consent</t>
-  </si>
-  <si>
-    <t>TO BE checked</t>
-  </si>
-  <si>
     <t>Consent.source[x]</t>
   </si>
   <si>
@@ -3378,9 +3366,6 @@
   </si>
   <si>
     <t>Consent.category</t>
-  </si>
-  <si>
-    <t>Consent.scope = 'adr'</t>
   </si>
   <si>
     <t>Composition.extension:relatedArtefact.valueRelatedArtefact.document</t>
@@ -4279,6 +4264,13 @@
   </si>
   <si>
     <t>Encounter.extension:legalStatus</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionAdvanceDirectives.entry.ofType(Consent)
+Consent.scope = 'adr'</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/consent-eu-hdr</t>
   </si>
 </sst>
 </file>
@@ -4457,9 +4449,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4498,7 +4487,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -5094,29 +5088,29 @@
     <col min="8" max="8" width="64.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5137,7 +5131,7 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -5150,8 +5144,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>1204</v>
+      <c r="B3" s="24" t="s">
+        <v>1199</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A2</f>
@@ -5162,7 +5156,7 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -5175,8 +5169,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>1204</v>
+      <c r="B4" s="24" t="s">
+        <v>1199</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A3</f>
@@ -5187,7 +5181,7 @@
         <v>A.2.8.2.2 - Onset Date</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -5200,8 +5194,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>1357</v>
+      <c r="B5" s="24" t="s">
+        <v>1352</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A4</f>
@@ -5212,7 +5206,7 @@
         <v>A.2.8.2.3 - Functional assessment description</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="13" t="s">
@@ -5225,8 +5219,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>1357</v>
+      <c r="B6" s="24" t="s">
+        <v>1352</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A5</f>
@@ -5237,7 +5231,7 @@
         <v>A.2.8.2.4 - Functional assessment date</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="13" t="s">
@@ -5250,8 +5244,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>1357</v>
+      <c r="B7" s="35" t="s">
+        <v>1352</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A6</f>
@@ -5262,7 +5256,7 @@
         <v>A.2.8.2.5 - Functional assessment result</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="13" t="s">
@@ -5320,7 +5314,7 @@
     </row>
     <row r="2" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>66</v>
@@ -5337,7 +5331,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>64</v>
@@ -5354,7 +5348,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>64</v>
@@ -5371,7 +5365,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>64</v>
@@ -5388,7 +5382,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>66</v>
@@ -5461,7 +5455,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A2</f>
@@ -5472,14 +5466,14 @@
         <v>A.2.9.2.1 - Medication reason</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -5488,7 +5482,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A3</f>
@@ -5499,7 +5493,7 @@
         <v>A.2.9.2.2 - Reason for change</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -5513,7 +5507,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5524,14 +5518,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -5540,7 +5534,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5551,14 +5545,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -5567,7 +5561,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5578,14 +5572,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -5594,7 +5588,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A5</f>
@@ -5605,7 +5599,7 @@
         <v>A.2.9.2.4 - Brand name</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -5619,7 +5613,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A6</f>
@@ -5630,14 +5624,14 @@
         <v>A.2.9.2.5 - Active ingredient list</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -5646,7 +5640,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A7</f>
@@ -5657,7 +5651,7 @@
         <v>A.2.9.2.6 - Strength</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -5671,7 +5665,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A8</f>
@@ -5682,7 +5676,7 @@
         <v>A.2.9.2.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -5696,7 +5690,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A9</f>
@@ -5707,14 +5701,14 @@
         <v>A.2.9.2.8 - Dosage Regimen</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -5723,7 +5717,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A10</f>
@@ -5734,7 +5728,7 @@
         <v>A.2.9.2.9 - Route of administration</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -5748,7 +5742,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A11</f>
@@ -5759,14 +5753,14 @@
         <v>A.2.9.2.10 - Period of treatment</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -5775,7 +5769,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A12</f>
@@ -5786,7 +5780,7 @@
         <v>A.2.9.2.11 - Days supplied</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="13" t="s">
@@ -5844,7 +5838,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>65</v>
@@ -5861,7 +5855,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>64</v>
@@ -5878,7 +5872,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>66</v>
@@ -5895,7 +5889,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>66</v>
@@ -5912,7 +5906,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
@@ -5929,7 +5923,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -5946,7 +5940,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
@@ -5963,7 +5957,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>65</v>
@@ -5980,7 +5974,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>64</v>
@@ -5997,7 +5991,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>64</v>
@@ -6014,7 +6008,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>66</v>
@@ -6089,7 +6083,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A2</f>
@@ -6100,13 +6094,13 @@
         <v>A.2.9.1.1 - Title</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="str">
@@ -6114,7 +6108,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A3</f>
@@ -6125,13 +6119,13 @@
         <v>A.2.9.1.2 - Addresses</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="str">
@@ -6139,7 +6133,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A4</f>
@@ -6150,7 +6144,7 @@
         <v>A.2.9.1.3 - Description</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -6163,7 +6157,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A5</f>
@@ -6174,7 +6168,7 @@
         <v>A.2.9.1.4 - Plan Period</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -6187,7 +6181,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A6</f>
@@ -6198,7 +6192,7 @@
         <v>A.2.9.1.5 - Other details</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
@@ -6211,7 +6205,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A7</f>
@@ -6222,7 +6216,7 @@
         <v>A.2.9.1.6 - Activity</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -6235,7 +6229,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A8</f>
@@ -6246,7 +6240,7 @@
         <v>A.2.9.1.6.1 - Kind</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -6259,7 +6253,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A9</f>
@@ -6270,7 +6264,7 @@
         <v>A.2.9.1.6.2 - Activity description</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -6283,7 +6277,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A10</f>
@@ -6294,7 +6288,7 @@
         <v>A.2.9.1.6.3 - Specific attributes</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -6348,7 +6342,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>64</v>
@@ -6365,7 +6359,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
@@ -6382,7 +6376,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>64</v>
@@ -6399,7 +6393,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>64</v>
@@ -6416,7 +6410,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
@@ -6433,7 +6427,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -6450,7 +6444,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
@@ -6467,7 +6461,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>64</v>
@@ -6484,7 +6478,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>65</v>
@@ -6509,10 +6503,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6570,7 +6564,7 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -6578,13 +6572,13 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$5</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>863</v>
+        <v>1389</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
@@ -6595,39 +6589,40 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1081</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$5</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
+      </c>
       <c r="B4" s="8" t="s">
-        <v>1084</v>
+        <v>1389</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
-        <v>AdvanceDirectives.livingWill</v>
+        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A3</f>
+        <v>AdvanceDirectives.livingWill.date</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>AdvanceDirectivesEhn!D2</f>
-        <v>A.2.1.1 - Living will</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1083</v>
+        <f>AdvanceDirectivesEhn!D3</f>
+        <v>A.2.1.1.1 - Date and time</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>1080</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>1093</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="str">
@@ -6635,18 +6630,18 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1084</v>
+        <v>1389</v>
       </c>
       <c r="C5" s="7" t="str">
-        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A3</f>
-        <v>AdvanceDirectives.livingWill.date</v>
+        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A4</f>
+        <v>AdvanceDirectives.livingWill.type</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f>AdvanceDirectivesEhn!D3</f>
-        <v>A.2.1.1.1 - Date and time</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1082</v>
+        <f>AdvanceDirectivesEhn!D4</f>
+        <v>A.2.1.1.2 - Type</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>1088</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -6660,26 +6655,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1084</v>
+        <v>1389</v>
       </c>
       <c r="C6" s="7" t="str">
-        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A4</f>
-        <v>AdvanceDirectives.livingWill.type</v>
+        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A5</f>
+        <v>AdvanceDirectives.livingWill.comment</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f>AdvanceDirectivesEhn!D4</f>
-        <v>A.2.1.1.2 - Type</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>1092</v>
+        <f>AdvanceDirectivesEhn!D5</f>
+        <v>A.2.1.1.3 - Comment</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>1385</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>1085</v>
-      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="8" t="str">
@@ -6687,26 +6680,24 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1084</v>
+        <v>1389</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A5</f>
-        <v>AdvanceDirectives.livingWill.comment</v>
+        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A6</f>
+        <v>AdvanceDirectives.livingWill.conditions</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f>AdvanceDirectivesEhn!D5</f>
-        <v>A.2.1.1.3 - Comment</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>1390</v>
+        <f>AdvanceDirectivesEhn!D6</f>
+        <v>A.2.1.1.4 - Related conditions</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>1386</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>1085</v>
-      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="8" t="str">
@@ -6714,31 +6705,32 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1084</v>
+        <v>1389</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A6</f>
-        <v>AdvanceDirectives.livingWill.conditions</v>
+        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A7</f>
+        <v>AdvanceDirectives.livingWill.document</v>
       </c>
       <c r="D8" s="7" t="str">
-        <f>AdvanceDirectivesEhn!D6</f>
-        <v>A.2.1.1.4 - Related conditions</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>1391</v>
+        <f>AdvanceDirectivesEhn!D7</f>
+        <v>A.2.1.1.5 - Living will document</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1082</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A9" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="8" t="str">
+        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$5</f>
+        <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
+      </c>
       <c r="B9" s="8" t="s">
-        <v>1084</v>
+        <v>863</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A7</f>
@@ -6749,53 +6741,26 @@
         <v>A.2.1.1.5 - Living will document</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A10" s="8" t="str">
-        <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$5</f>
-        <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="C10" s="7" t="str">
-        <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A7</f>
-        <v>AdvanceDirectives.livingWill.document</v>
-      </c>
-      <c r="D10" s="7" t="str">
-        <f>AdvanceDirectivesEhn!D7</f>
-        <v>A.2.1.1.5 - Living will document</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>1079</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>1080</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A7" r:id="rId1" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{AA5916B0-54A2-452E-92F1-3647B3F7374E}"/>
-    <hyperlink ref="A5:A10" r:id="rId2" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{D903765B-9165-4E0C-87B2-4068827C319B}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{023EA316-DC01-4267-BDED-086CA5BC77D9}"/>
-    <hyperlink ref="A3" r:id="rId4" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{A32EF906-6997-4335-BA37-975C40A4C800}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{CF2E2ADE-93C6-4F13-BF81-10419567C896}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{BF804330-818A-4C75-935C-6C086FBB462E}"/>
-    <hyperlink ref="B5:B9" r:id="rId7" display="http://hl7.org/fhir/StructureDefinition/Consent" xr:uid="{F03692DE-D3C1-4C7A-9CA8-6F513229509B}"/>
+    <hyperlink ref="A2:A6" r:id="rId1" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{AA5916B0-54A2-452E-92F1-3647B3F7374E}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{023EA316-DC01-4267-BDED-086CA5BC77D9}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{BF804330-818A-4C75-935C-6C086FBB462E}"/>
+    <hyperlink ref="A3:A9" r:id="rId4" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{5B930080-ED6E-411C-8AE8-6353CA4D9730}"/>
+    <hyperlink ref="B4:B8" r:id="rId5" display="http://hl7.org/fhir/StructureDefinition/consent-eu-hdr" xr:uid="{7D718819-A02D-4876-9803-53D21C09A565}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -7729,7 +7694,7 @@
   <dimension ref="A1:AZ16"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7789,7 +7754,7 @@
         <v>1068</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>822</v>
@@ -8074,20 +8039,20 @@
     </row>
     <row r="7" spans="1:52" s="7" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/advanceDirectives2FHIR-eu-hdr</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>822</v>
@@ -8142,20 +8107,20 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/planOfCare2FHIR-eu-hdr</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>822</v>
@@ -8168,20 +8133,20 @@
     </row>
     <row r="9" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/medicationSummary2FHIR-eu-hdr</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>822</v>
@@ -8194,20 +8159,20 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" ref="C10:C14" si="1">"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A10</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hospitalStay2FHIR-eu-hdr</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>822</v>
@@ -8220,20 +8185,20 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="C11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/patientHistory2FHIR-eu-hdr</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>822</v>
@@ -8245,23 +8210,23 @@
       </c>
     </row>
     <row r="12" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A12" s="32" t="s">
-        <v>1354</v>
+      <c r="A12" s="31" t="s">
+        <v>1349</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C12" s="33" t="str">
+        <v>1348</v>
+      </c>
+      <c r="C12" s="32" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/admissionEvaluation2FHIR-eu-hdr</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="D12" s="22" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>822</v>
       </c>
       <c r="G12" s="7"/>
@@ -8272,20 +8237,20 @@
     </row>
     <row r="13" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="C13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/functionalStatus2FHIR-eu-hdr</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>822</v>
@@ -8298,20 +8263,20 @@
     </row>
     <row r="14" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="C14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/objectiveFindings2FHIR-eu-hdr</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>822</v>
@@ -8431,7 +8396,7 @@
         <v>872</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C3" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A2</f>
@@ -8448,7 +8413,7 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
@@ -8492,13 +8457,13 @@
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
@@ -8581,7 +8546,7 @@
         <v>872</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C9" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A4</f>
@@ -8603,7 +8568,7 @@
         <v>872</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C10" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A5</f>
@@ -8650,7 +8615,7 @@
         <v>872</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C12" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A6</f>
@@ -8700,7 +8665,7 @@
         <v>872</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C14" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A8</f>
@@ -8879,7 +8844,7 @@
         <v>872</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C22" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A15</f>
@@ -8904,7 +8869,7 @@
         <v>872</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C23" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A16</f>
@@ -8926,7 +8891,7 @@
         <v>872</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C24" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A17</f>
@@ -8951,7 +8916,7 @@
         <v>872</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C25" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A18</f>
@@ -8976,7 +8941,7 @@
         <v>872</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C26" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A19</f>
@@ -9045,7 +9010,7 @@
         <v>872</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C29" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A21</f>
@@ -9070,7 +9035,7 @@
         <v>872</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C30" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A22</f>
@@ -9092,7 +9057,7 @@
         <v>872</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C31" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A23</f>
@@ -9114,7 +9079,7 @@
         <v>872</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C32" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A24</f>
@@ -9136,7 +9101,7 @@
         <v>872</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C33" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A25</f>
@@ -9205,7 +9170,7 @@
         <v>872</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C36" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A27</f>
@@ -9230,7 +9195,7 @@
         <v>872</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C37" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A28</f>
@@ -9255,7 +9220,7 @@
         <v>872</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C38" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A29</f>
@@ -9280,7 +9245,7 @@
         <v>872</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C39" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A30</f>
@@ -9305,7 +9270,7 @@
         <v>872</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C40" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A31</f>
@@ -10716,7 +10681,7 @@
         <v>957</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C2" t="str">
         <f>SubjectHdrEhn!A2</f>
@@ -10738,7 +10703,7 @@
         <v>957</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C3" t="str">
         <f>SubjectHdrEhn!A3</f>
@@ -10760,7 +10725,7 @@
         <v>957</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C4" t="str">
         <f>SubjectHdrEhn!A4</f>
@@ -10782,7 +10747,7 @@
         <v>957</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C5" t="str">
         <f>SubjectHdrEhn!A5</f>
@@ -10804,7 +10769,7 @@
         <v>957</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C6" t="str">
         <f>SubjectHdrEhn!A6</f>
@@ -10826,7 +10791,7 @@
         <v>957</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C7" t="str">
         <f>SubjectHdrEhn!A7</f>
@@ -10851,7 +10816,7 @@
         <v>957</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C8" t="str">
         <f>SubjectHdrEhn!A8</f>
@@ -10873,7 +10838,7 @@
         <v>957</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>SubjectHdrEhn!A9</f>
@@ -10890,7 +10855,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -10898,7 +10863,7 @@
         <v>957</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C10" t="str">
         <f>SubjectHdrEhn!A10</f>
@@ -10920,7 +10885,7 @@
         <v>957</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C11" t="str">
         <f>SubjectHdrEhn!A11</f>
@@ -10942,7 +10907,7 @@
         <v>957</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C12" t="str">
         <f>SubjectHdrEhn!A12</f>
@@ -10964,7 +10929,7 @@
         <v>957</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C13" t="str">
         <f>SubjectHdrEhn!A13</f>
@@ -10986,7 +10951,7 @@
         <v>957</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C14" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11008,7 +10973,7 @@
         <v>957</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C15" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11033,7 +10998,7 @@
         <v>957</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C16" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11055,7 +11020,7 @@
         <v>957</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C17" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11080,7 +11045,7 @@
         <v>957</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C18" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11102,7 +11067,7 @@
         <v>957</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C19" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11127,7 +11092,7 @@
         <v>957</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C20" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11149,7 +11114,7 @@
         <v>957</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C21" t="str">
         <f>SubjectHdrEhn!A17</f>
@@ -11163,7 +11128,7 @@
         <v>997</v>
       </c>
       <c r="G21" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
@@ -11171,7 +11136,7 @@
         <v>957</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C22" t="str">
         <f>SubjectHdrEhn!A18</f>
@@ -11193,7 +11158,7 @@
         <v>957</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C23" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -11218,7 +11183,7 @@
         <v>957</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C24" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -11240,7 +11205,7 @@
         <v>957</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C25" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -11265,7 +11230,7 @@
         <v>957</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C26" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -11287,7 +11252,7 @@
         <v>957</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C27" t="str">
         <f>SubjectHdrEhn!A21</f>
@@ -11309,7 +11274,7 @@
         <v>957</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C28" t="str">
         <f>SubjectHdrEhn!A22</f>
@@ -11320,7 +11285,7 @@
         <v>A.1.2.3.1 - Role of that person</v>
       </c>
       <c r="E28" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -11331,7 +11296,7 @@
         <v>957</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C29" t="str">
         <f>SubjectHdrEhn!A23</f>
@@ -11342,7 +11307,7 @@
         <v>A.1.2.3.2 - Relationship level</v>
       </c>
       <c r="E29" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -11353,7 +11318,7 @@
         <v>957</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C30" t="str">
         <f>SubjectHdrEhn!A24</f>
@@ -11375,7 +11340,7 @@
         <v>957</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C31" t="str">
         <f>SubjectHdrEhn!A25</f>
@@ -11397,7 +11362,7 @@
         <v>957</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C32" t="str">
         <f>SubjectHdrEhn!A26</f>
@@ -11419,7 +11384,7 @@
         <v>957</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C33" t="str">
         <f>SubjectHdrEhn!A27</f>
@@ -11441,7 +11406,7 @@
         <v>957</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C34" t="str">
         <f>SubjectHdrEhn!A28</f>
@@ -12056,7 +12021,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdmissionEvaluation</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>863</v>
       </c>
       <c r="C2" s="7" t="str">
@@ -12068,14 +12033,14 @@
         <v>A.2.4.1 - Objective findings</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>1389</v>
+      <c r="H2" s="24" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -12083,7 +12048,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdmissionEvaluation</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>863</v>
       </c>
       <c r="C3" s="7" t="str">
@@ -12095,14 +12060,14 @@
         <v>A.2.4.2 - Functional status</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -12158,7 +12123,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="D2" t="s">
         <v>71</v>
@@ -12175,7 +12140,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="D3" t="s">
         <v>72</v>
@@ -12200,7 +12165,7 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -12381,7 +12346,7 @@
         <v>861</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C8" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -12406,7 +12371,7 @@
         <v>861</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C9" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -12431,7 +12396,7 @@
         <v>861</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C10" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
@@ -12456,7 +12421,7 @@
         <v>861</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C11" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
@@ -12575,7 +12540,7 @@
         <v>861</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C16" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -12600,7 +12565,7 @@
         <v>861</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C17" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -12625,7 +12590,7 @@
         <v>861</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C18" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
@@ -12650,7 +12615,7 @@
         <v>861</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C19" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
@@ -12794,12 +12759,12 @@
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A21</f>
         <v>Encounter.admissionReason.legalStatus</v>
       </c>
-      <c r="D25" s="37" t="str">
+      <c r="D25" s="36" t="str">
         <f>EncounterEhn!D21</f>
         <v>A.2.3.4.3 - Admission legal status</v>
       </c>
       <c r="E25" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -12812,7 +12777,7 @@
       <c r="B26" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C26" s="38" t="str">
+      <c r="C26" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A22</f>
         <v>Encounter.discharge</v>
       </c>
@@ -12931,7 +12896,7 @@
         <v>A.2.3.6.1 - Period</v>
       </c>
       <c r="E31" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -12970,7 +12935,7 @@
         <v>861</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C33" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
@@ -12995,7 +12960,7 @@
         <v>861</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C34" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
@@ -13020,7 +12985,7 @@
         <v>861</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C35" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
@@ -13683,8 +13648,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>1366</v>
+      <c r="B2" s="30" t="s">
+        <v>1361</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A2</f>
@@ -13695,7 +13660,7 @@
         <v>A.2.8.1.1 - Date</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="13" t="s">
@@ -13708,7 +13673,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>863</v>
       </c>
       <c r="C3" s="7" t="str">
@@ -13720,14 +13685,14 @@
         <v>A.2.8.1.3 - Anthropometric observations</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>1368</v>
+      <c r="H3" s="15" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -13735,8 +13700,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>1372</v>
+      <c r="B4" s="30" t="s">
+        <v>1367</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A4</f>
@@ -13747,14 +13712,14 @@
         <v>A.2.8.1.3.1 - Result description</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -13762,8 +13727,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>1372</v>
+      <c r="B5" s="30" t="s">
+        <v>1367</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A5</f>
@@ -13774,14 +13739,14 @@
         <v>A.2.8.1.3.2 - Observation details</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -13789,8 +13754,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>1372</v>
+      <c r="B6" s="30" t="s">
+        <v>1367</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A6</f>
@@ -13801,14 +13766,14 @@
         <v>A.2.8.1.3.3 - Observation result</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -13816,7 +13781,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>863</v>
       </c>
       <c r="C7" s="7" t="str">
@@ -13828,7 +13793,7 @@
         <v>A.2.8.1.4 - Vital signs</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -13841,8 +13806,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>1372</v>
+      <c r="B8" s="30" t="s">
+        <v>1367</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A8</f>
@@ -13853,14 +13818,14 @@
         <v>A.2.8.1.4.1 - Result description</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -13868,8 +13833,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>1372</v>
+      <c r="B9" s="30" t="s">
+        <v>1367</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A9</f>
@@ -13880,14 +13845,14 @@
         <v>A.2.8.1.4.2 - Observation details</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
@@ -13895,8 +13860,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>1372</v>
+      <c r="B10" s="30" t="s">
+        <v>1367</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A10</f>
@@ -13907,14 +13872,14 @@
         <v>A.2.8.1.4.3 - Observation result</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -13922,7 +13887,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>863</v>
       </c>
       <c r="C11" s="7" t="str">
@@ -13934,7 +13899,7 @@
         <v>A.2.8.1.5 - Physical examination</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -13947,7 +13912,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>863</v>
       </c>
       <c r="C12" s="7" t="str">
@@ -13959,7 +13924,7 @@
         <v>A.2.8.1.5.1 - Observation Note</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -14014,7 +13979,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -14031,7 +13996,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -14048,7 +14013,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -14065,7 +14030,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -14082,7 +14047,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -14099,7 +14064,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -14116,7 +14081,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -14133,7 +14098,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -14150,7 +14115,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -14167,7 +14132,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -14184,7 +14149,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -14340,10 +14305,10 @@
         <v>836</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
@@ -14354,10 +14319,10 @@
         <v>835</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.75">
@@ -14368,66 +14333,66 @@
         <v>833</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="7" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="7" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
@@ -14478,29 +14443,29 @@
     <col min="8" max="8" width="93.6796875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14521,14 +14486,14 @@
         <v>A.2.6.1 - Medical history</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -14548,14 +14513,14 @@
         <v>A.2.6.1.1 - History of problems</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -14564,7 +14529,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A4</f>
@@ -14575,7 +14540,7 @@
         <v>A.2.6.1.1.1 - Problem description</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -14589,7 +14554,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A5</f>
@@ -14600,7 +14565,7 @@
         <v>A.2.6.1.1.2 - Problem details</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -14614,7 +14579,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A6</f>
@@ -14625,7 +14590,7 @@
         <v>A.2.6.1.1.3 - Onset date</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -14639,7 +14604,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A7</f>
@@ -14650,7 +14615,7 @@
         <v>A.2.6.1.1.4 - End date</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -14664,7 +14629,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A8</f>
@@ -14675,7 +14640,7 @@
         <v>A.2.6.1.1.5 - Clinical status</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -14689,7 +14654,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A9</f>
@@ -14700,14 +14665,14 @@
         <v>A.2.6.1.1.6 - Resolution circumstances</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
@@ -14724,14 +14689,14 @@
         <v>A.2.6.1.1.6 - Resolution circumstances</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -14740,7 +14705,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A10</f>
@@ -14751,7 +14716,7 @@
         <v>A.2.6.1.1.7 - Severity</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -14764,7 +14729,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A11</f>
@@ -14775,7 +14740,7 @@
         <v>A.2.6.1.1.8 - Stage</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -14800,14 +14765,14 @@
         <v>A.2.6.1.2 - Devices and Implants</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -14816,7 +14781,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
@@ -14827,20 +14792,20 @@
         <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
@@ -14851,14 +14816,14 @@
         <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
@@ -14867,7 +14832,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
@@ -14878,20 +14843,20 @@
         <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
@@ -14902,14 +14867,14 @@
         <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
@@ -14918,7 +14883,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
@@ -14929,20 +14894,20 @@
         <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
@@ -14953,14 +14918,14 @@
         <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
@@ -14969,7 +14934,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A16</f>
@@ -14980,10 +14945,10 @@
         <v>A.2.6.1.2.4 - End date</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="9"/>
@@ -14994,7 +14959,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
@@ -15005,14 +14970,14 @@
         <v>A.2.6.1.2.5 - Reason</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
@@ -15021,7 +14986,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
@@ -15032,7 +14997,7 @@
         <v>A.2.6.1.2.5 - Reason</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -15046,7 +15011,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A18</f>
@@ -15057,14 +15022,14 @@
         <v>A.2.6.1.3 - History of procedures</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
@@ -15073,7 +15038,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A19</f>
@@ -15084,7 +15049,7 @@
         <v>A.2.6.1.3.1 - Procedure code</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
@@ -15098,7 +15063,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A20</f>
@@ -15109,7 +15074,7 @@
         <v>A.2.6.1.3.2 - Procedure description</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -15123,7 +15088,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
@@ -15134,7 +15099,7 @@
         <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
@@ -15145,7 +15110,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="8"/>
       <c r="B27" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
@@ -15156,14 +15121,14 @@
         <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
@@ -15172,7 +15137,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A22</f>
@@ -15183,7 +15148,7 @@
         <v>A.2.6.1.3.4 - Procedure date</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
@@ -15197,7 +15162,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
@@ -15208,18 +15173,18 @@
         <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="23"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="8"/>
       <c r="B30" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
@@ -15230,13 +15195,13 @@
         <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="23"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" s="8" t="str">
@@ -15244,7 +15209,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A24</f>
@@ -15255,7 +15220,7 @@
         <v>A.2.6.1.3.6 - Outcome</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
@@ -15269,7 +15234,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A25</f>
@@ -15280,7 +15245,7 @@
         <v>A.2.6.1.3.7 - Focal device</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
@@ -15293,7 +15258,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>863</v>
       </c>
       <c r="C33" s="9" t="str">
@@ -15305,7 +15270,7 @@
         <v>A.2.6.1.4 - Vaccination</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
@@ -15318,8 +15283,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>1319</v>
+      <c r="B34" s="25" t="s">
+        <v>1314</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A27</f>
@@ -15330,7 +15295,7 @@
         <v>A.2.6.1.4.1 - Disease or agent targeted</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>19</v>
@@ -15342,8 +15307,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>1319</v>
+      <c r="B35" s="25" t="s">
+        <v>1314</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A28</f>
@@ -15354,7 +15319,7 @@
         <v>A.2.6.1.4.2 - Vaccine/prophylaxis</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -15367,8 +15332,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>1319</v>
+      <c r="B36" s="25" t="s">
+        <v>1314</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A29</f>
@@ -15379,7 +15344,7 @@
         <v>A.2.6.1.4.4 - Vaccine medicinal product</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
@@ -15392,8 +15357,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>1319</v>
+      <c r="B37" s="25" t="s">
+        <v>1314</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A30</f>
@@ -15404,7 +15369,7 @@
         <v>A.2.6.1.4.5 - Marketing Authorisation Holder</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -15417,8 +15382,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>1319</v>
+      <c r="B38" s="25" t="s">
+        <v>1314</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A31</f>
@@ -15429,7 +15394,7 @@
         <v>A.2.6.1.4.6 - Number in a series of vaccinations / doses</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
@@ -15442,8 +15407,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>1319</v>
+      <c r="B39" s="25" t="s">
+        <v>1314</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A32</f>
@@ -15454,10 +15419,10 @@
         <v>A.2.6.1.4.7 - Date of vaccination</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="9"/>
@@ -15467,8 +15432,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>1320</v>
+      <c r="B40" s="25" t="s">
+        <v>1315</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A33</f>
@@ -15479,10 +15444,10 @@
         <v>A.2.6.1.4.8 - Next vaccination date</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="9"/>
@@ -15492,7 +15457,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>863</v>
       </c>
       <c r="C41" s="9" t="str">
@@ -15504,14 +15469,14 @@
         <v>A.2.6.1.5 - Epidemiological history</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.75">
@@ -15519,7 +15484,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>863</v>
       </c>
       <c r="C42" s="9" t="str">
@@ -15531,7 +15496,7 @@
         <v>A.2.6.1.5.1 - Infectious contacts</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
@@ -15544,8 +15509,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>1345</v>
+      <c r="B43" s="25" t="s">
+        <v>1340</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A36</f>
@@ -15556,7 +15521,7 @@
         <v>A.2.6.1.5.1.1 - Time period</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
@@ -15569,8 +15534,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>1345</v>
+      <c r="B44" s="25" t="s">
+        <v>1340</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A37</f>
@@ -15581,14 +15546,14 @@
         <v>A.2.6.1.5.1.2 - Infectious agent</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.75">
@@ -15596,8 +15561,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>1345</v>
+      <c r="B45" s="25" t="s">
+        <v>1340</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A38</f>
@@ -15608,14 +15573,14 @@
         <v>A.2.6.1.5.1.3 - Proximity</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.75">
@@ -15623,8 +15588,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>1345</v>
+      <c r="B46" s="25" t="s">
+        <v>1340</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A39</f>
@@ -15635,14 +15600,14 @@
         <v>A.2.6.1.5.1.4 - Country</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.75">
@@ -15650,8 +15615,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>1345</v>
+      <c r="B47" s="25" t="s">
+        <v>1340</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A40</f>
@@ -15662,7 +15627,7 @@
         <v>A.2.6.1.5.1.5 - Additional information</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
@@ -15675,7 +15640,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="25" t="s">
         <v>863</v>
       </c>
       <c r="C48" s="9" t="str">
@@ -15687,7 +15652,7 @@
         <v>A.2.6.1.5.2 - Travel history</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
@@ -15700,8 +15665,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>1349</v>
+      <c r="B49" s="25" t="s">
+        <v>1344</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A42</f>
@@ -15712,7 +15677,7 @@
         <v>A.2.6.1.5.2.1 - Time period</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
@@ -15725,8 +15690,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>1349</v>
+      <c r="B50" s="25" t="s">
+        <v>1344</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A43</f>
@@ -15737,7 +15702,7 @@
         <v>A.2.6.1.5.2.2 - Country visited</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
@@ -15750,8 +15715,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>1349</v>
+      <c r="B51" s="25" t="s">
+        <v>1344</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A44</f>
@@ -15762,7 +15727,7 @@
         <v>A.2.6.1.5.2.3 - Comment</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
@@ -15775,7 +15740,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="28" t="s">
         <v>863</v>
       </c>
       <c r="C52" s="9" t="str">
@@ -15786,22 +15751,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D45</f>
         <v>A.2.6.2 - Family history</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>1330</v>
+      <c r="E52" s="26" t="s">
+        <v>1325</v>
       </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="28" t="s">
+      <c r="G52" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A53" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>1336</v>
+      <c r="B53" s="25" t="s">
+        <v>1331</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A46</f>
@@ -15811,22 +15776,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D46</f>
         <v>A.2.6.2.1 - Patient relationship</v>
       </c>
-      <c r="E53" s="18" t="s">
-        <v>1331</v>
+      <c r="E53" s="17" t="s">
+        <v>1326</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A54" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B54" s="26" t="s">
-        <v>1336</v>
+      <c r="B54" s="25" t="s">
+        <v>1331</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A47</f>
@@ -15836,22 +15801,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D47</f>
         <v>A.2.6.2.2 - Date of birth</v>
       </c>
-      <c r="E54" s="18" t="s">
-        <v>1332</v>
+      <c r="E54" s="17" t="s">
+        <v>1327</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="27"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A55" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>1336</v>
+      <c r="B55" s="25" t="s">
+        <v>1331</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A48</f>
@@ -15861,22 +15826,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D48</f>
         <v>A.2.6.2.3 - Age or date of death</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>1333</v>
+      <c r="E55" s="17" t="s">
+        <v>1328</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="27"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A56" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B56" s="26" t="s">
-        <v>1336</v>
+      <c r="B56" s="25" t="s">
+        <v>1331</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A49</f>
@@ -15886,22 +15851,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D49</f>
         <v>A.2.6.2.5 - Condition</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>1334</v>
+      <c r="E56" s="17" t="s">
+        <v>1329</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="27"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A57" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B57" s="26" t="s">
-        <v>1336</v>
+      <c r="B57" s="25" t="s">
+        <v>1331</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A50</f>
@@ -15911,15 +15876,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D50</f>
         <v>A.2.6.2.6 - Cause of death</v>
       </c>
-      <c r="E57" s="18" t="s">
-        <v>1334</v>
+      <c r="E57" s="17" t="s">
+        <v>1329</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="27" t="s">
-        <v>1335</v>
+      <c r="H57" s="26" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.75">
@@ -15927,7 +15892,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="28" t="s">
         <v>863</v>
       </c>
       <c r="C58" s="9" t="str">
@@ -15938,22 +15903,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D51</f>
         <v>A.2.6.3 - Social determinants of health</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>1316</v>
+      <c r="E58" s="26" t="s">
+        <v>1311</v>
       </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="28" t="s">
+      <c r="G58" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="27"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A59" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>1337</v>
+      <c r="B59" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A52</f>
@@ -15964,14 +15929,14 @@
         <v>A.2.6.3.1 - Participation in society</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.75">
@@ -15979,8 +15944,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>1337</v>
+      <c r="B60" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A53</f>
@@ -15991,14 +15956,14 @@
         <v>A.2.6.3.1.1 - Work situation</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.75">
@@ -16006,8 +15971,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B61" s="26" t="s">
-        <v>1337</v>
+      <c r="B61" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A54</f>
@@ -16018,14 +15983,14 @@
         <v>A.2.6.3.1.2 - Hobby</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.75">
@@ -16033,8 +15998,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>1337</v>
+      <c r="B62" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A55</f>
@@ -16045,14 +16010,14 @@
         <v>A.2.6.3.1.3 - Social network</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.75">
@@ -16060,8 +16025,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>1337</v>
+      <c r="B63" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A56</f>
@@ -16072,14 +16037,14 @@
         <v>A.2.6.3.2 - Education</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -16087,8 +16052,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>1337</v>
+      <c r="B64" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A57</f>
@@ -16099,14 +16064,14 @@
         <v>A.2.6.3.2.1 - Education level</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -16114,8 +16079,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B65" s="26" t="s">
-        <v>1337</v>
+      <c r="B65" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A58</f>
@@ -16126,14 +16091,14 @@
         <v>A.2.6.3.2.2 - Comment</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
@@ -16141,8 +16106,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B66" s="26" t="s">
-        <v>1337</v>
+      <c r="B66" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A59</f>
@@ -16153,14 +16118,14 @@
         <v>A.2.6.3.3 - Living situation</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.75">
@@ -16168,8 +16133,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B67" s="26" t="s">
-        <v>1337</v>
+      <c r="B67" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A60</f>
@@ -16180,14 +16145,14 @@
         <v>A.2.6.3.3.1 - House type</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
@@ -16195,8 +16160,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B68" s="26" t="s">
-        <v>1337</v>
+      <c r="B68" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A61</f>
@@ -16207,14 +16172,14 @@
         <v>A.2.6.3.3.2 - Home adaption</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.75">
@@ -16222,8 +16187,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B69" s="26" t="s">
-        <v>1337</v>
+      <c r="B69" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A62</f>
@@ -16234,14 +16199,14 @@
         <v>A.2.6.3.3.3 - Living conditions</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -16249,8 +16214,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B70" s="26" t="s">
-        <v>1337</v>
+      <c r="B70" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A63</f>
@@ -16261,14 +16226,14 @@
         <v>A.2.6.3.4 - Family situation</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -16276,8 +16241,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B71" s="26" t="s">
-        <v>1337</v>
+      <c r="B71" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A64</f>
@@ -16288,14 +16253,14 @@
         <v>A.2.6.3.4.1 - Comment</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
@@ -16303,8 +16268,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>1337</v>
+      <c r="B72" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C72" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A65</f>
@@ -16315,14 +16280,14 @@
         <v>A.2.6.3.4.2 - Family composition</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.75">
@@ -16330,8 +16295,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B73" s="26" t="s">
-        <v>1337</v>
+      <c r="B73" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C73" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A66</f>
@@ -16342,14 +16307,14 @@
         <v>A.2.6.3.4.3 - Marital status</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.75">
@@ -16357,8 +16322,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B74" s="26" t="s">
-        <v>1337</v>
+      <c r="B74" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C74" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A67</f>
@@ -16369,14 +16334,14 @@
         <v>A.2.6.3.4.4 - Number of children</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.75">
@@ -16384,8 +16349,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B75" s="26" t="s">
-        <v>1337</v>
+      <c r="B75" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C75" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A68</f>
@@ -16396,14 +16361,14 @@
         <v>A.2.6.3.4.5 - Number of children at home</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.75">
@@ -16411,8 +16376,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B76" s="26" t="s">
-        <v>1337</v>
+      <c r="B76" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C76" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A69</f>
@@ -16423,14 +16388,14 @@
         <v>A.2.6.3.4.6 - Child details</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.75">
@@ -16438,8 +16403,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B77" s="26" t="s">
-        <v>1337</v>
+      <c r="B77" s="25" t="s">
+        <v>1332</v>
       </c>
       <c r="C77" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A70</f>
@@ -16450,14 +16415,14 @@
         <v>A.2.6.3.4.7 - Care responsibility</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.75">
@@ -16465,7 +16430,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="24" t="s">
         <v>863</v>
       </c>
       <c r="C78" s="9" t="str">
@@ -16477,14 +16442,14 @@
         <v>A.2.6.4 - Use of substances</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.75">
@@ -16492,8 +16457,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B79" s="25" t="s">
-        <v>1341</v>
+      <c r="B79" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C79" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A72</f>
@@ -16504,14 +16469,14 @@
         <v>A.2.6.4.1 - Alcohol use</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.75">
@@ -16519,8 +16484,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B80" s="25" t="s">
-        <v>1341</v>
+      <c r="B80" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C80" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A73</f>
@@ -16531,14 +16496,14 @@
         <v>A.2.6.4.1.1 - Status</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.75">
@@ -16546,8 +16511,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B81" s="25" t="s">
-        <v>1341</v>
+      <c r="B81" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C81" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A74</f>
@@ -16558,14 +16523,14 @@
         <v>A.2.6.4.1.2 - Period and quantity</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.75">
@@ -16573,8 +16538,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B82" s="25" t="s">
-        <v>1341</v>
+      <c r="B82" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C82" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A75</f>
@@ -16585,14 +16550,14 @@
         <v>A.2.6.4.1.3 - Comment</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.75">
@@ -16600,8 +16565,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B83" s="25" t="s">
-        <v>1341</v>
+      <c r="B83" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C83" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A76</f>
@@ -16612,14 +16577,14 @@
         <v>A.2.6.4.2 - Tobacco use</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.75">
@@ -16627,8 +16592,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B84" s="25" t="s">
-        <v>1341</v>
+      <c r="B84" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C84" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A77</f>
@@ -16639,14 +16604,14 @@
         <v>A.2.6.4.2.1 - Status</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.75">
@@ -16654,8 +16619,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B85" s="25" t="s">
-        <v>1341</v>
+      <c r="B85" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C85" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A78</f>
@@ -16666,14 +16631,14 @@
         <v>A.2.6.4.2.2 - Period and quantity</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.75">
@@ -16681,8 +16646,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B86" s="25" t="s">
-        <v>1341</v>
+      <c r="B86" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C86" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A79</f>
@@ -16693,14 +16658,14 @@
         <v>A.2.6.4.2.3 - Comment</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.75">
@@ -16708,8 +16673,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B87" s="25" t="s">
-        <v>1341</v>
+      <c r="B87" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C87" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A80</f>
@@ -16720,14 +16685,14 @@
         <v>A.2.6.4.3 - Drug consumption</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.75">
@@ -16735,8 +16700,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B88" s="25" t="s">
-        <v>1341</v>
+      <c r="B88" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C88" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A81</f>
@@ -16747,14 +16712,14 @@
         <v>A.2.6.4.3.1 - Status</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.75">
@@ -16762,8 +16727,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B89" s="25" t="s">
-        <v>1341</v>
+      <c r="B89" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C89" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A82</f>
@@ -16774,14 +16739,14 @@
         <v>A.2.6.4.3.2 - Period and quantity</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.75">
@@ -16789,8 +16754,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B90" s="25" t="s">
-        <v>1341</v>
+      <c r="B90" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C90" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A83</f>
@@ -16801,14 +16766,14 @@
         <v>A.2.6.4.3.3 - Drug or medication type</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.75">
@@ -16816,8 +16781,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B91" s="25" t="s">
-        <v>1341</v>
+      <c r="B91" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C91" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A84</f>
@@ -16828,14 +16793,14 @@
         <v>A.2.6.4.3.4 - Route of administration</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.75">
@@ -16843,8 +16808,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B92" s="25" t="s">
-        <v>1341</v>
+      <c r="B92" s="24" t="s">
+        <v>1336</v>
       </c>
       <c r="C92" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A85</f>
@@ -16855,14 +16820,14 @@
         <v>A.2.6.4.3.5 - Comment</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.75">
@@ -16876,7 +16841,7 @@
       <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="C95" s="30"/>
+      <c r="C95" s="29"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -18428,29 +18393,29 @@
     <col min="8" max="8" width="64.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -18471,14 +18436,14 @@
         <v>A.2.7.1 - Diagnostic summary</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -18487,7 +18452,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A3</f>
@@ -18498,7 +18463,7 @@
         <v>A.2.7.1.1 - Problem description</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -18512,7 +18477,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A4</f>
@@ -18523,7 +18488,7 @@
         <v>A.2.7.1.2 - Problem details</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -18537,7 +18502,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A5</f>
@@ -18548,7 +18513,7 @@
         <v>A.2.7.1.3 - Onset date</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -18562,7 +18527,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A6</f>
@@ -18573,7 +18538,7 @@
         <v>A.2.7.1.4 - End date</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -18587,7 +18552,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A7</f>
@@ -18598,7 +18563,7 @@
         <v>A.2.7.1.5 - Category</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -18612,7 +18577,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A8</f>
@@ -18623,7 +18588,7 @@
         <v>A.2.7.1.6 - Treatment class</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -18637,7 +18602,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A9</f>
@@ -18648,7 +18613,7 @@
         <v>A.2.7.1.7 - Clinical status</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -18662,7 +18627,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A10</f>
@@ -18673,14 +18638,14 @@
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="59" x14ac:dyDescent="0.75">
@@ -18697,14 +18662,14 @@
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -18713,7 +18678,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A11</f>
@@ -18724,7 +18689,7 @@
         <v>A.2.7.1.9 - Severity</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -18738,7 +18703,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A12</f>
@@ -18749,7 +18714,7 @@
         <v>A.2.7.1.10 - Stage</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
@@ -18774,14 +18739,14 @@
         <v>A.2.7.2 - Significant procedures</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
@@ -18790,7 +18755,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A14</f>
@@ -18801,7 +18766,7 @@
         <v>A.2.7.2.1 - Procedure code</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -18815,7 +18780,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A15</f>
@@ -18826,7 +18791,7 @@
         <v>A.2.7.2.2 - Procedure description</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -18840,7 +18805,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -18851,7 +18816,7 @@
         <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
@@ -18865,7 +18830,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -18876,14 +18841,14 @@
         <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
@@ -18892,7 +18857,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A17</f>
@@ -18903,7 +18868,7 @@
         <v>A.2.7.2.4 - Procedure date</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
@@ -18917,7 +18882,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -18928,7 +18893,7 @@
         <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
@@ -18942,7 +18907,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -18953,7 +18918,7 @@
         <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
@@ -18967,7 +18932,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A19</f>
@@ -18978,7 +18943,7 @@
         <v>A.2.7.2.6 - Outcome</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -18992,7 +18957,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -19003,7 +18968,7 @@
         <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
@@ -19017,7 +18982,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -19028,12 +18993,12 @@
         <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="8" t="str">
@@ -19041,7 +19006,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A21</f>
@@ -19052,7 +19017,7 @@
         <v>A.2.7.2.8 - Focal device</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -19077,14 +19042,14 @@
         <v>A.2.7.3 - Medical devices and implants</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
@@ -19093,7 +19058,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -19104,14 +19069,14 @@
         <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
@@ -19120,7 +19085,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -19131,14 +19096,14 @@
         <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
@@ -19147,7 +19112,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
@@ -19158,14 +19123,14 @@
         <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
@@ -19174,7 +19139,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
@@ -19185,14 +19150,14 @@
         <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
@@ -19201,7 +19166,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
@@ -19212,14 +19177,14 @@
         <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
@@ -19228,7 +19193,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
@@ -19239,14 +19204,14 @@
         <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
@@ -19255,7 +19220,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A26</f>
@@ -19266,13 +19231,13 @@
         <v>A.2.7.3.4 - End date</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="23"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" s="8" t="str">
@@ -19280,7 +19245,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
@@ -19291,13 +19256,13 @@
         <v>A.2.7.3.5 - Reason</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="23"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35" s="8" t="str">
@@ -19305,7 +19270,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
@@ -19316,7 +19281,7 @@
         <v>A.2.7.3.5 - Reason</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -19341,14 +19306,14 @@
         <v>A.2.7.5 - Pharmacotherapy</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
@@ -19356,8 +19321,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>1275</v>
+      <c r="B37" s="24" t="s">
+        <v>1270</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19368,7 +19333,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -19381,8 +19346,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>1275</v>
+      <c r="B38" s="24" t="s">
+        <v>1270</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19393,7 +19358,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
@@ -19407,7 +19372,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19418,7 +19383,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
@@ -19432,7 +19397,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19443,7 +19408,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
@@ -19457,7 +19422,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19468,7 +19433,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
@@ -19482,7 +19447,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19493,7 +19458,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
@@ -19507,7 +19472,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19518,7 +19483,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
@@ -19532,7 +19497,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19543,7 +19508,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
@@ -19557,7 +19522,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19568,7 +19533,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
@@ -19582,7 +19547,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19593,7 +19558,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
@@ -19607,7 +19572,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19618,7 +19583,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
@@ -19632,7 +19597,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="C48" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19643,7 +19608,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
@@ -19657,7 +19622,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19668,7 +19633,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
@@ -19682,7 +19647,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A31</f>
@@ -19693,7 +19658,7 @@
         <v>A.2.7.5.3 - Intended use</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
@@ -19707,7 +19672,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A32</f>
@@ -19718,7 +19683,7 @@
         <v>A.2.7.5.4 - Brand name</v>
       </c>
       <c r="E51" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
@@ -19732,7 +19697,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A33</f>
@@ -19743,7 +19708,7 @@
         <v>A.2.7.5.5 - Active ingredient list</v>
       </c>
       <c r="E52" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
@@ -19757,7 +19722,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A34</f>
@@ -19768,7 +19733,7 @@
         <v>A.2.7.5.6 - Strength</v>
       </c>
       <c r="E53" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
@@ -19782,7 +19747,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A35</f>
@@ -19793,7 +19758,7 @@
         <v>A.2.7.5.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E54" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
@@ -19807,7 +19772,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
@@ -19818,14 +19783,14 @@
         <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E55" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.75">
@@ -19834,7 +19799,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
@@ -19845,14 +19810,14 @@
         <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E56" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="24" t="s">
-        <v>1271</v>
+      <c r="H56" s="23" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.75">
@@ -19861,7 +19826,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
@@ -19872,7 +19837,7 @@
         <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E57" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
@@ -19886,7 +19851,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="C58" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
@@ -19897,7 +19862,7 @@
         <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E58" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
@@ -19911,7 +19876,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19922,7 +19887,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E59" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
@@ -19936,7 +19901,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19947,7 +19912,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E60" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
@@ -19961,7 +19926,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19972,7 +19937,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
@@ -19997,7 +19962,7 @@
         <v>A.2.7.6 - Significant Observation Results</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="13" t="s">
@@ -20011,7 +19976,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A40</f>
@@ -20022,14 +19987,14 @@
         <v>A.2.7.6.1 - Date</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -20038,7 +20003,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A41</f>
@@ -20049,14 +20014,14 @@
         <v>A.2.7.6.2 - Observation status</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -20065,7 +20030,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A42</f>
@@ -20076,14 +20041,14 @@
         <v>A.2.7.6.3 - Result description</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
@@ -20100,7 +20065,7 @@
         <v>A.2.7.6.3 - Result description</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
@@ -20114,7 +20079,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A43</f>
@@ -20125,14 +20090,14 @@
         <v>A.2.7.6.4 - Observation details</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
@@ -20152,7 +20117,7 @@
         <v>A.2.7.6.4 - Observation details</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
@@ -20166,7 +20131,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
@@ -20177,14 +20142,14 @@
         <v>A.2.7.6.5 - Observation result</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -20193,7 +20158,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
@@ -20204,14 +20169,14 @@
         <v>A.2.7.6.5 - Observation result</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -20220,7 +20185,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A45</f>
@@ -20231,14 +20196,14 @@
         <v>A.2.7.6.7 - Reporter</v>
       </c>
       <c r="E71" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
@@ -20258,7 +20223,7 @@
         <v>A.2.7.7 - Synthesis</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="13" t="s">
@@ -20283,7 +20248,7 @@
         <v>A.2.7.7.1 - Problem synthesis</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="13" t="s">
@@ -20308,7 +20273,7 @@
         <v>A.2.7.7.2 - Clinical reasoning</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="13" t="s">
@@ -21317,29 +21282,29 @@
     <col min="8" max="8" width="64.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -21414,14 +21379,14 @@
         <v>A.2.0 - Hospital Discharge Report in its narrative form</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -21441,13 +21406,13 @@
         <v>A.2.1 - Advance directives</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="str">
@@ -21466,14 +21431,14 @@
         <v>A.2.2 - Alerts</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -21493,14 +21458,14 @@
         <v>A.2.3 - Encounter</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -21520,14 +21485,14 @@
         <v>A.2.4 - Admission evaluation</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -21547,14 +21512,14 @@
         <v>A.2.5 - Patient history</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
@@ -21574,14 +21539,14 @@
         <v>A.2.6 - Course of hospitalisation (Hospital stay)</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -21601,14 +21566,14 @@
         <v>A.2.7 - Discharge details</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21627,15 +21592,15 @@
         <f>HospitalDischargeReportEhn!D12</f>
         <v>A.2.7.1 - Objective findings</v>
       </c>
-      <c r="E12" s="35" t="s">
-        <v>1164</v>
+      <c r="E12" s="34" t="s">
+        <v>1159</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21654,15 +21619,15 @@
         <f>HospitalDischargeReportEhn!D12</f>
         <v>A.2.7.1 - Objective findings</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>1207</v>
+      <c r="E13" s="34" t="s">
+        <v>1202</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21681,15 +21646,15 @@
         <f>HospitalDischargeReportEhn!D13</f>
         <v>A.2.7.2 - Functional status</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>1164</v>
+      <c r="E14" s="34" t="s">
+        <v>1159</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21708,15 +21673,15 @@
         <f>HospitalDischargeReportEhn!D13</f>
         <v>A.2.7.2 - Functional status</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>1208</v>
+      <c r="E15" s="34" t="s">
+        <v>1203</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21730,15 +21695,15 @@
         <f>HospitalDischargeReportEhn!D14</f>
         <v>A.2.7.3 - Discharge note</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>1383</v>
+      <c r="E16" s="34" t="s">
+        <v>1378</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21757,15 +21722,15 @@
         <f>HospitalDischargeReportEhn!D14</f>
         <v>A.2.7.3 - Discharge note</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>1209</v>
+      <c r="E17" s="34" t="s">
+        <v>1204</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
@@ -21785,14 +21750,14 @@
         <v>A.2.8 - Care plan and other recommendations after discharge.</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21812,7 +21777,7 @@
         <v>A.2.8.1 - Care plan</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="13" t="s">
@@ -21837,7 +21802,7 @@
         <v>A.2.8.2 - Medication summary</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="13" t="s">
@@ -21862,7 +21827,7 @@
         <v>A.2.8.3 - Other recommendations</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="13" t="s">
@@ -22096,7 +22061,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -22106,7 +22071,7 @@
         <v>ObjectiveFindingsHdrEhn</v>
       </c>
       <c r="D12" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="E12" t="s">
         <v>73</v>
@@ -22114,7 +22079,7 @@
     </row>
     <row r="13" spans="1:5" ht="59" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -22124,15 +22089,15 @@
         <v>FunctionalStatusHdrEhn</v>
       </c>
       <c r="D13" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -22141,7 +22106,7 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="E14" t="s">
         <v>169</v>
@@ -22166,16 +22131,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="D16" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="E16" t="s">
         <v>652</v>
@@ -22183,16 +22148,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="D17" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="E17" t="s">
         <v>662</v>
@@ -22200,7 +22165,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -22209,7 +22174,7 @@
         <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="E18" t="s">
         <v>669</v>

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365D81A8-5E52-443B-8653-76E0D01AC402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D0D82D-3EEE-44CB-9DD9-D2FABE8EAA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="13" activeTab="15" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
@@ -4421,7 +4421,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4487,10 +4487,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5072,7 +5069,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -5409,7 +5406,9 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -5769,7 +5768,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1132</v>
+        <v>1152</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A12</f>
@@ -5799,9 +5798,10 @@
     <hyperlink ref="B6" r:id="rId4" xr:uid="{336E94C6-ED7B-44F9-A5A9-826A1FA82CC0}"/>
     <hyperlink ref="B11" r:id="rId5" xr:uid="{9A61A77A-3B2E-4EDD-A9EB-421D6100337D}"/>
     <hyperlink ref="B12:B13" r:id="rId6" display="http://hl7.org/fhir/StructureDefinition/Dosage" xr:uid="{8EA8C0BB-2D98-4F28-8641-84CBF6E2AFBE}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{8612410F-32AD-4C8C-8E0E-77060F3881C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6035,7 +6035,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6505,7 +6505,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -6615,7 +6615,7 @@
         <f>AdvanceDirectivesEhn!D3</f>
         <v>A.2.1.1.1 - Date and time</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="9" t="s">
         <v>1080</v>
       </c>
       <c r="F4" s="7"/>
@@ -6640,7 +6640,7 @@
         <f>AdvanceDirectivesEhn!D4</f>
         <v>A.2.1.1.2 - Type</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="9" t="s">
         <v>1088</v>
       </c>
       <c r="F5" s="7"/>
@@ -6665,7 +6665,7 @@
         <f>AdvanceDirectivesEhn!D5</f>
         <v>A.2.1.1.3 - Comment</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>1385</v>
       </c>
       <c r="F6" s="7"/>
@@ -6690,7 +6690,7 @@
         <f>AdvanceDirectivesEhn!D6</f>
         <v>A.2.1.1.4 - Related conditions</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="9" t="s">
         <v>1386</v>
       </c>
       <c r="F7" s="7"/>
@@ -14427,7 +14427,7 @@
   </sheetPr>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="D47" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D67" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -18377,7 +18377,7 @@
   </sheetPr>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="C69" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="C68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -21266,7 +21266,7 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D0D82D-3EEE-44CB-9DD9-D2FABE8EAA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD3EF39-8316-4244-991F-CDB0B63F3119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="13" activeTab="15" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
+    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="22" activeTab="27" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
   <sheets>
     <sheet name="IG-groups" sheetId="31" r:id="rId1"/>
@@ -86,8 +86,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={78F1206E-DAC4-4BEC-B605-DD5B39B8E8AB}</author>
+  </authors>
+  <commentList>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{78F1206E-DAC4-4BEC-B605-DD5B39B8E8AB}">
+      <text>
+        <t xml:space="preserve">[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+CHECK it is used the name period but the impression is that is the duration not the period </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="1387">
   <si>
     <t>Group Source</t>
   </si>
@@ -2822,9 +2840,6 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Encounter.location.location.managingOrganization; to be checked</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -3116,9 +3131,6 @@
     <t>subject2FHIR-eu-hdr</t>
   </si>
   <si>
-    <t>To be disucssed if the payor data are conveyed with the request or thorugh other means. Check also the extension to be used.</t>
-  </si>
-  <si>
     <t>If treated as one of the Patient identifiers; this applies in some jurisdictions.</t>
   </si>
   <si>
@@ -3368,12 +3380,6 @@
     <t>Consent.category</t>
   </si>
   <si>
-    <t>Composition.extension:relatedArtefact.valueRelatedArtefact.document</t>
-  </si>
-  <si>
-    <t>TO BE checked; valueRelatedArtefact.type = 'transformed-into'</t>
-  </si>
-  <si>
     <t xml:space="preserve">Composition.section:sectionPayers.entry	</t>
   </si>
   <si>
@@ -3528,9 +3534,6 @@
   </si>
   <si>
     <t>Preferred mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHECK it is used the name period but the imression is that is the duration not the period </t>
   </si>
   <si>
     <t>PlanOfCare2FHIREuHdr</t>
@@ -4271,13 +4274,19 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/consent-eu-hdr</t>
+  </si>
+  <si>
+    <t>Information about the payer are mapped into a Coverage resource that can be listed in the section payers or referred thìrough the admission request (if present)</t>
+  </si>
+  <si>
+    <t>Composition.extension:presentedForm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4322,8 +4331,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4339,6 +4354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4421,7 +4442,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4442,9 +4463,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4481,7 +4499,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4490,6 +4507,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4890,6 +4921,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E13" dT="2025-02-22T11:14:24.59" personId="{0ED1A3BF-09DC-4862-84BA-73539F1D2998}" id="{78F1206E-DAC4-4BEC-B605-DD5B39B8E8AB}">
+    <text xml:space="preserve">CHECK it is used the name period but the impression is that is the duration not the period </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BB872A-9AFB-4D24-BD9C-EB65B5EB34C4}">
   <dimension ref="B9:B38"/>
@@ -5085,29 +5124,29 @@
     <col min="8" max="8" width="64.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5128,7 +5167,7 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -5141,8 +5180,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>1199</v>
+      <c r="B3" s="23" t="s">
+        <v>1194</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A2</f>
@@ -5153,7 +5192,7 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -5166,8 +5205,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>1199</v>
+      <c r="B4" s="23" t="s">
+        <v>1194</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A3</f>
@@ -5178,7 +5217,7 @@
         <v>A.2.8.2.2 - Onset Date</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -5191,8 +5230,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>1352</v>
+      <c r="B5" s="23" t="s">
+        <v>1347</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A4</f>
@@ -5202,11 +5241,11 @@
         <f>FunctionalStatusHdrEhn!D4</f>
         <v>A.2.8.2.3 - Functional assessment description</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>1351</v>
+      <c r="E5" s="13" t="s">
+        <v>1346</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="7"/>
@@ -5216,8 +5255,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>1352</v>
+      <c r="B6" s="23" t="s">
+        <v>1347</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A5</f>
@@ -5227,11 +5266,11 @@
         <f>FunctionalStatusHdrEhn!D5</f>
         <v>A.2.8.2.4 - Functional assessment date</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>1353</v>
+      <c r="E6" s="13" t="s">
+        <v>1348</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="7"/>
@@ -5241,8 +5280,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>1352</v>
+      <c r="B7" s="33" t="s">
+        <v>1347</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A6</f>
@@ -5252,11 +5291,11 @@
         <f>FunctionalStatusHdrEhn!D6</f>
         <v>A.2.8.2.5 - Functional assessment result</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>1354</v>
+      <c r="E7" s="13" t="s">
+        <v>1349</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="7"/>
@@ -5311,7 +5350,7 @@
     </row>
     <row r="2" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>66</v>
@@ -5328,7 +5367,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>64</v>
@@ -5345,7 +5384,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>64</v>
@@ -5362,7 +5401,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>64</v>
@@ -5379,7 +5418,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>66</v>
@@ -5400,14 +5439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAEE075-AA9B-49EA-9E14-94EE68FFE0C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAEE075-AA9B-49EA-9E14-94EE68FFE0C1}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5454,7 +5493,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A2</f>
@@ -5465,14 +5504,14 @@
         <v>A.2.9.2.1 - Medication reason</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -5481,7 +5520,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A3</f>
@@ -5492,7 +5531,7 @@
         <v>A.2.9.2.2 - Reason for change</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -5506,7 +5545,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5517,14 +5556,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -5533,7 +5572,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5544,14 +5583,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -5560,7 +5599,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5571,14 +5610,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -5587,7 +5626,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A5</f>
@@ -5598,7 +5637,7 @@
         <v>A.2.9.2.4 - Brand name</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -5612,7 +5651,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A6</f>
@@ -5623,14 +5662,14 @@
         <v>A.2.9.2.5 - Active ingredient list</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -5639,7 +5678,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A7</f>
@@ -5650,7 +5689,7 @@
         <v>A.2.9.2.6 - Strength</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -5664,7 +5703,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A8</f>
@@ -5675,7 +5714,7 @@
         <v>A.2.9.2.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -5689,7 +5728,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A9</f>
@@ -5700,14 +5739,14 @@
         <v>A.2.9.2.8 - Dosage Regimen</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -5716,7 +5755,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A10</f>
@@ -5727,7 +5766,7 @@
         <v>A.2.9.2.9 - Route of administration</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -5741,7 +5780,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A11</f>
@@ -5751,16 +5790,14 @@
         <f>MedicationSummaryHdrEhn!D11</f>
         <v>A.2.9.2.10 - Period of treatment</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>1262</v>
+      <c r="E13" s="12" t="s">
+        <v>1257</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>1143</v>
-      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="8" t="str">
@@ -5768,21 +5805,21 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A12</f>
         <v>MedicationSummary.daysSupplied</v>
       </c>
-      <c r="D14" s="13" t="str">
+      <c r="D14" s="37" t="str">
         <f>MedicationSummaryHdrEhn!D12</f>
         <v>A.2.9.2.11 - Days supplied</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="37" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7"/>
@@ -5802,6 +5839,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -5838,7 +5876,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>65</v>
@@ -5855,7 +5893,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>64</v>
@@ -5872,7 +5910,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>66</v>
@@ -5889,7 +5927,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>66</v>
@@ -5906,7 +5944,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
@@ -5923,7 +5961,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -5940,7 +5978,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
@@ -5957,7 +5995,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>65</v>
@@ -5974,7 +6012,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>64</v>
@@ -5991,7 +6029,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>64</v>
@@ -6008,7 +6046,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>66</v>
@@ -6035,7 +6073,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6083,7 +6121,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A2</f>
@@ -6094,13 +6132,13 @@
         <v>A.2.9.1.1 - Title</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="str">
@@ -6108,7 +6146,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A3</f>
@@ -6119,13 +6157,13 @@
         <v>A.2.9.1.2 - Addresses</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="str">
@@ -6133,7 +6171,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A4</f>
@@ -6144,7 +6182,7 @@
         <v>A.2.9.1.3 - Description</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -6157,7 +6195,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A5</f>
@@ -6168,7 +6206,7 @@
         <v>A.2.9.1.4 - Plan Period</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -6181,7 +6219,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A6</f>
@@ -6192,7 +6230,7 @@
         <v>A.2.9.1.5 - Other details</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
@@ -6205,7 +6243,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A7</f>
@@ -6216,7 +6254,7 @@
         <v>A.2.9.1.6 - Activity</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -6229,7 +6267,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A8</f>
@@ -6240,7 +6278,7 @@
         <v>A.2.9.1.6.1 - Kind</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -6253,7 +6291,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A9</f>
@@ -6264,7 +6302,7 @@
         <v>A.2.9.1.6.2 - Activity description</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -6277,7 +6315,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A10</f>
@@ -6288,7 +6326,7 @@
         <v>A.2.9.1.6.3 - Specific attributes</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -6342,7 +6380,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>64</v>
@@ -6359,7 +6397,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
@@ -6376,7 +6414,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>64</v>
@@ -6393,7 +6431,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>64</v>
@@ -6410,7 +6448,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
@@ -6427,7 +6465,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -6444,7 +6482,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
@@ -6461,7 +6499,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>64</v>
@@ -6478,7 +6516,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>65</v>
@@ -6505,7 +6543,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -6564,7 +6602,7 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -6578,7 +6616,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
@@ -6589,14 +6627,14 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -6605,7 +6643,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A3</f>
@@ -6616,7 +6654,7 @@
         <v>A.2.1.1.1 - Date and time</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -6630,7 +6668,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A4</f>
@@ -6641,7 +6679,7 @@
         <v>A.2.1.1.2 - Type</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -6655,7 +6693,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A5</f>
@@ -6665,8 +6703,8 @@
         <f>AdvanceDirectivesEhn!D5</f>
         <v>A.2.1.1.3 - Comment</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>1385</v>
+      <c r="E6" s="35" t="s">
+        <v>1380</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -6680,7 +6718,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A6</f>
@@ -6691,7 +6729,7 @@
         <v>A.2.1.1.4 - Related conditions</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -6705,7 +6743,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A7</f>
@@ -6716,7 +6754,7 @@
         <v>A.2.1.1.5 - Living will document</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10" t="s">
@@ -6741,14 +6779,14 @@
         <v>A.2.1.1.5 - Living will document</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
@@ -6907,7 +6945,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="C26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9:G13"/>
     </sheetView>
   </sheetViews>
@@ -6951,7 +6989,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>863</v>
@@ -6965,7 +7003,7 @@
         <v>A.2.2.1 - Allergy and Intolerance</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -6974,10 +7012,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A2</f>
@@ -6988,7 +7026,7 @@
         <v>A.2.2.1 - Allergy and Intolerance</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -6997,10 +7035,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A3</f>
@@ -7011,7 +7049,7 @@
         <v>A.2.2.1.1 - Allergy description</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -7020,10 +7058,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A4</f>
@@ -7034,7 +7072,7 @@
         <v>A.2.2.1.2 - Type of propensity</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -7043,10 +7081,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A5</f>
@@ -7057,7 +7095,7 @@
         <v>A.2.2.1.3 - Allergy manifestation</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -7066,10 +7104,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A5</f>
@@ -7080,7 +7118,7 @@
         <v>A.2.2.1.3 - Allergy manifestation</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -7089,10 +7127,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A6</f>
@@ -7103,7 +7141,7 @@
         <v>A.2.2.1.4 - Severity</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -7112,10 +7150,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A7</f>
@@ -7126,7 +7164,7 @@
         <v>A.2.2.1.5 - Criticality</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -7135,10 +7173,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A8</f>
@@ -7149,7 +7187,7 @@
         <v>A.2.2.1.6 - Onset date</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -7158,10 +7196,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A11</f>
@@ -7172,7 +7210,7 @@
         <v>A.2.2.1.7 - End date</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -7181,10 +7219,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A14</f>
@@ -7195,7 +7233,7 @@
         <v>A.2.2.1.8 - Status</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -7204,10 +7242,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A15</f>
@@ -7218,7 +7256,7 @@
         <v>A.2.2.1.9 - Certainty</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
@@ -7227,10 +7265,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A16</f>
@@ -7241,7 +7279,7 @@
         <v>A.2.2.1.10 - Agent or Allergen</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
@@ -7250,7 +7288,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>863</v>
@@ -7264,7 +7302,7 @@
         <v>A.2.2.2 - Medical alerts (relevant for the respective hospital stay)</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -7273,7 +7311,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>863</v>
@@ -7287,7 +7325,7 @@
         <v>A.2.2.2.1 - Healthcare alert description</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -7297,10 +7335,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>1057</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>1059</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A18</f>
@@ -7311,7 +7349,7 @@
         <v>A.2.2.2.1 - Healthcare alert description</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
@@ -7321,10 +7359,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>1057</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>1059</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>"Alerts."&amp;AlertsEhn!A18</f>
@@ -7335,7 +7373,7 @@
         <v>A.2.2.2.1 - Healthcare alert description</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
@@ -7741,20 +7779,20 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A2</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hdr2FHIR-eu-hdr</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>822</v>
@@ -7777,10 +7815,10 @@
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hdrHeader2FHIR-eu-hdr</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>822</v>
@@ -7835,20 +7873,20 @@
     </row>
     <row r="4" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/subject2FHIR-eu-hdr</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>822</v>
@@ -7971,20 +8009,20 @@
     </row>
     <row r="6" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/alerts2FHIR-eu-hdr</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>822</v>
@@ -8039,20 +8077,20 @@
     </row>
     <row r="7" spans="1:52" s="7" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/advanceDirectives2FHIR-eu-hdr</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>822</v>
@@ -8107,20 +8145,20 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/planOfCare2FHIR-eu-hdr</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>822</v>
@@ -8133,20 +8171,20 @@
     </row>
     <row r="9" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/medicationSummary2FHIR-eu-hdr</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>822</v>
@@ -8159,20 +8197,20 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" ref="C10:C14" si="1">"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A10</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hospitalStay2FHIR-eu-hdr</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>822</v>
@@ -8185,20 +8223,20 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="C11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/patientHistory2FHIR-eu-hdr</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>822</v>
@@ -8210,23 +8248,23 @@
       </c>
     </row>
     <row r="12" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A12" s="31" t="s">
-        <v>1349</v>
+      <c r="A12" s="30" t="s">
+        <v>1344</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C12" s="32" t="str">
+        <v>1343</v>
+      </c>
+      <c r="C12" s="31" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/admissionEvaluation2FHIR-eu-hdr</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F12" s="21" t="s">
+      <c r="D12" s="21" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>822</v>
       </c>
       <c r="G12" s="7"/>
@@ -8237,20 +8275,20 @@
     </row>
     <row r="13" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="C13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/functionalStatus2FHIR-eu-hdr</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>822</v>
@@ -8263,20 +8301,20 @@
     </row>
     <row r="14" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="C14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/objectiveFindings2FHIR-eu-hdr</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>822</v>
@@ -8327,8 +8365,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8385,7 +8423,7 @@
         <v>A.1.1 - Identification and A.1.2 - related contact information of the Patient/subject</v>
       </c>
       <c r="E2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -8396,7 +8434,7 @@
         <v>872</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C3" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A2</f>
@@ -8407,13 +8445,13 @@
         <v>A.1.1 - Identification and A.1.2 - related contact information of the Patient/subject</v>
       </c>
       <c r="E3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
@@ -8431,14 +8469,15 @@
         <f>HeaderHdrEhn!D3</f>
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="39" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>1005</v>
+      <c r="H4" s="39" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
@@ -8456,14 +8495,15 @@
         <f>HeaderHdrEhn!D3</f>
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>1092</v>
+      <c r="H5" s="40" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
@@ -8471,7 +8511,7 @@
         <v>872</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C6" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A3</f>
@@ -8481,14 +8521,14 @@
         <f>HeaderHdrEhn!D3</f>
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>1015</v>
+      <c r="E6" s="39" t="s">
+        <v>1013</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>1063</v>
+      <c r="H6" s="39" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -8496,7 +8536,7 @@
         <v>872</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C7" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A4</f>
@@ -8506,14 +8546,14 @@
         <f>HeaderHdrEhn!D4</f>
         <v>A.1.3.1 - Health insurance code</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>1065</v>
+      <c r="E7" s="39" t="s">
+        <v>1063</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>1061</v>
+      <c r="H7" s="39" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -8521,7 +8561,7 @@
         <v>872</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C8" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A5</f>
@@ -8531,14 +8571,14 @@
         <f>HeaderHdrEhn!D5</f>
         <v>A.1.3.2 - Health insurance name</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>1065</v>
+      <c r="E8" s="39" t="s">
+        <v>1063</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>1061</v>
+      <c r="H8" s="39" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -8546,7 +8586,7 @@
         <v>872</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C9" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A4</f>
@@ -8556,19 +8596,20 @@
         <f>HeaderHdrEhn!D4</f>
         <v>A.1.3.1 - Health insurance code</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="39" t="s">
         <v>890</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>872</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C10" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A5</f>
@@ -8578,7 +8619,7 @@
         <f>HeaderHdrEhn!D5</f>
         <v>A.1.3.2 - Health insurance name</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="39" t="s">
         <v>906</v>
       </c>
       <c r="G10" t="s">
@@ -8590,7 +8631,7 @@
         <v>872</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C11" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A6</f>
@@ -8601,13 +8642,13 @@
         <v>A.1.3.3 - Health insurance number</v>
       </c>
       <c r="E11" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -8615,7 +8656,7 @@
         <v>872</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C12" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A6</f>
@@ -8626,13 +8667,13 @@
         <v>A.1.3.3 - Health insurance number</v>
       </c>
       <c r="E12" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -8657,7 +8698,7 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -8665,7 +8706,7 @@
         <v>872</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C14" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A8</f>
@@ -8682,7 +8723,7 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
@@ -8701,7 +8742,7 @@
         <v>A.1.4.2 - Recipient name</v>
       </c>
       <c r="E15" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -8723,7 +8764,7 @@
         <v>A.1.4.3 - Recipient organisation ID</v>
       </c>
       <c r="E16" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -8745,7 +8786,7 @@
         <v>A.1.4.4 - Recipient organisation</v>
       </c>
       <c r="E17" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -8767,7 +8808,7 @@
         <v>A.1.4.5 - Address</v>
       </c>
       <c r="E18" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -8789,7 +8830,7 @@
         <v>A.1.4.6 - Country</v>
       </c>
       <c r="E19" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -8811,7 +8852,7 @@
         <v>A.1.4.7 - Telecom</v>
       </c>
       <c r="E20" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G20" t="s">
         <v>32</v>
@@ -8844,7 +8885,7 @@
         <v>872</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C22" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A15</f>
@@ -8855,13 +8896,13 @@
         <v>A.1.5 - Author (by whom the Hospital discharge report was/were authored). Multiple authors could be provided.</v>
       </c>
       <c r="E22" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
@@ -8869,7 +8910,7 @@
         <v>872</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C23" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A16</f>
@@ -8880,7 +8921,7 @@
         <v>A.1.5.1 - Author identifier</v>
       </c>
       <c r="E23" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -8891,7 +8932,7 @@
         <v>872</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C24" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A17</f>
@@ -8902,13 +8943,13 @@
         <v>A.1.5.2 - Author name</v>
       </c>
       <c r="E24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
@@ -8916,7 +8957,7 @@
         <v>872</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C25" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A18</f>
@@ -8927,7 +8968,7 @@
         <v>A.1.5.3 - Author organisation ID</v>
       </c>
       <c r="E25" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -8941,7 +8982,7 @@
         <v>872</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C26" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A19</f>
@@ -8952,7 +8993,7 @@
         <v>A.1.5.4 - Author organisation</v>
       </c>
       <c r="E26" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -9010,7 +9051,7 @@
         <v>872</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C29" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A21</f>
@@ -9021,13 +9062,13 @@
         <v>A.1.6 - Attester (multiple attesters could be provided)</v>
       </c>
       <c r="E29" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
@@ -9035,7 +9076,7 @@
         <v>872</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C30" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A22</f>
@@ -9046,7 +9087,7 @@
         <v>A.1.6.1 - Attester identifier</v>
       </c>
       <c r="E30" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -9057,7 +9098,7 @@
         <v>872</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C31" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A23</f>
@@ -9068,7 +9109,7 @@
         <v>A.1.6.2 - Attester name</v>
       </c>
       <c r="E31" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -9079,7 +9120,7 @@
         <v>872</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C32" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A24</f>
@@ -9090,7 +9131,7 @@
         <v>A.1.6.3 - Attester organisation ID</v>
       </c>
       <c r="E32" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
@@ -9101,7 +9142,7 @@
         <v>872</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C33" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A25</f>
@@ -9112,7 +9153,7 @@
         <v>A.1.6.4 - Attester organisation</v>
       </c>
       <c r="E33" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -9170,7 +9211,7 @@
         <v>872</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C36" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A27</f>
@@ -9181,13 +9222,13 @@
         <v>A.1.7 - Legal authenticator (The person taking responsibility for the medical content of the document)</v>
       </c>
       <c r="E36" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
@@ -9195,7 +9236,7 @@
         <v>872</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C37" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A28</f>
@@ -9206,7 +9247,7 @@
         <v>A.1.7.1 - Legal authenticator identifier</v>
       </c>
       <c r="E37" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
@@ -9220,7 +9261,7 @@
         <v>872</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C38" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A29</f>
@@ -9231,7 +9272,7 @@
         <v>A.1.7.2 - Legal authenticator name</v>
       </c>
       <c r="E38" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
@@ -9245,7 +9286,7 @@
         <v>872</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C39" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A30</f>
@@ -9256,7 +9297,7 @@
         <v>A.1.7.3 - Legal authenticator organisation ID</v>
       </c>
       <c r="E39" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -9270,7 +9311,7 @@
         <v>872</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C40" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A31</f>
@@ -9281,7 +9322,7 @@
         <v>A.1.7.4 - Legal authenticator organisation</v>
       </c>
       <c r="E40" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -9359,7 +9400,7 @@
         <v>33</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.75">
@@ -9378,13 +9419,13 @@
         <v>A.1.8.1 - Document ID</v>
       </c>
       <c r="E44" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.75">
@@ -9453,7 +9494,7 @@
         <v>33</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -9472,13 +9513,13 @@
         <v>A.1.8.4 - Report date and time</v>
       </c>
       <c r="E48" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.75">
@@ -9563,7 +9604,7 @@
         <v>A.1.8.8 - Language</v>
       </c>
       <c r="E52" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -9584,13 +9625,13 @@
         <f>HeaderHdrEhn!D42</f>
         <v>A.1.8.9 - Version</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="36" t="s">
         <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="36" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9680,24 +9721,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>909</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>911</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>64</v>
@@ -9714,7 +9755,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>64</v>
@@ -9731,7 +9772,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>64</v>
@@ -9748,7 +9789,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>64</v>
@@ -9765,7 +9806,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -9782,7 +9823,7 @@
     </row>
     <row r="8" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
@@ -9799,7 +9840,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>64</v>
@@ -9816,7 +9857,7 @@
     </row>
     <row r="10" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>65</v>
@@ -9833,7 +9874,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>64</v>
@@ -9850,7 +9891,7 @@
     </row>
     <row r="12" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>64</v>
@@ -9867,7 +9908,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>66</v>
@@ -9884,7 +9925,7 @@
     </row>
     <row r="14" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>65</v>
@@ -9901,7 +9942,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>90</v>
@@ -9918,7 +9959,7 @@
     </row>
     <row r="16" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A16" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>90</v>
@@ -9935,7 +9976,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>66</v>
@@ -9952,7 +9993,7 @@
     </row>
     <row r="18" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>65</v>
@@ -9969,7 +10010,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>66</v>
@@ -9986,7 +10027,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>66</v>
@@ -10003,7 +10044,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>65</v>
@@ -10020,7 +10061,7 @@
     </row>
     <row r="22" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A22" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>90</v>
@@ -10037,7 +10078,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>66</v>
@@ -10054,7 +10095,7 @@
     </row>
     <row r="24" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A24" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>65</v>
@@ -10071,7 +10112,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>66</v>
@@ -10088,7 +10129,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>66</v>
@@ -10105,7 +10146,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>64</v>
@@ -10122,7 +10163,7 @@
     </row>
     <row r="28" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A28" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>90</v>
@@ -10139,7 +10180,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>66</v>
@@ -10156,7 +10197,7 @@
     </row>
     <row r="30" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A30" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>65</v>
@@ -10173,7 +10214,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>66</v>
@@ -10190,7 +10231,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>66</v>
@@ -10207,7 +10248,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>66</v>
@@ -10224,7 +10265,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>66</v>
@@ -10241,7 +10282,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>66</v>
@@ -10258,7 +10299,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>66</v>
@@ -10275,7 +10316,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>66</v>
@@ -10292,7 +10333,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>66</v>
@@ -10309,7 +10350,7 @@
     </row>
     <row r="39" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A39" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>66</v>
@@ -10326,7 +10367,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A40" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>66</v>
@@ -10343,7 +10384,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A41" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>66</v>
@@ -10360,7 +10401,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A42" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>64</v>
@@ -10634,7 +10675,7 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -10678,10 +10719,10 @@
     </row>
     <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C2" t="str">
         <f>SubjectHdrEhn!A2</f>
@@ -10692,7 +10733,7 @@
         <v>A.1.1 - Identification of the patient/subject</v>
       </c>
       <c r="E2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -10700,10 +10741,10 @@
     </row>
     <row r="3" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C3" t="str">
         <f>SubjectHdrEhn!A3</f>
@@ -10722,10 +10763,10 @@
     </row>
     <row r="4" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C4" t="str">
         <f>SubjectHdrEhn!A4</f>
@@ -10744,10 +10785,10 @@
     </row>
     <row r="5" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C5" t="str">
         <f>SubjectHdrEhn!A5</f>
@@ -10766,10 +10807,10 @@
     </row>
     <row r="6" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C6" t="str">
         <f>SubjectHdrEhn!A6</f>
@@ -10788,10 +10829,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C7" t="str">
         <f>SubjectHdrEhn!A7</f>
@@ -10802,21 +10843,21 @@
         <v>A.1.1.5 - Nationality</v>
       </c>
       <c r="E7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C8" t="str">
         <f>SubjectHdrEhn!A8</f>
@@ -10835,10 +10876,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>SubjectHdrEhn!A9</f>
@@ -10849,21 +10890,21 @@
         <v>A.1.1.7 - Country of affiliation</v>
       </c>
       <c r="E9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C10" t="str">
         <f>SubjectHdrEhn!A10</f>
@@ -10882,10 +10923,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C11" t="str">
         <f>SubjectHdrEhn!A11</f>
@@ -10904,10 +10945,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C12" t="str">
         <f>SubjectHdrEhn!A12</f>
@@ -10926,10 +10967,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C13" t="str">
         <f>SubjectHdrEhn!A13</f>
@@ -10948,10 +10989,10 @@
     </row>
     <row r="14" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C14" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -10970,10 +11011,10 @@
     </row>
     <row r="15" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C15" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -10984,21 +11025,21 @@
         <v>A.1.2.2 - Preferred health professional (HP) - This section can be repeated and linked to any specific information in the document, for example a link between a rare disease problem and the rare disease specialist responsible for the care of the individual patient (this section).</v>
       </c>
       <c r="E15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C16" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11009,7 +11050,7 @@
         <v>A.1.2.2 - Preferred health professional (HP) - This section can be repeated and linked to any specific information in the document, for example a link between a rare disease problem and the rare disease specialist responsible for the care of the individual patient (this section).</v>
       </c>
       <c r="E16" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -11017,10 +11058,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C17" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11031,21 +11072,21 @@
         <v>A.1.2.2.1 - Identifier of the HP</v>
       </c>
       <c r="E17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C18" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11056,7 +11097,7 @@
         <v>A.1.2.2.1 - Identifier of the HP</v>
       </c>
       <c r="E18" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -11064,10 +11105,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C19" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11078,21 +11119,21 @@
         <v>A.1.2.2.2 - Name of the HP</v>
       </c>
       <c r="E19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C20" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11103,7 +11144,7 @@
         <v>A.1.2.2.2 - Name of the HP</v>
       </c>
       <c r="E20" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -11111,10 +11152,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C21" t="str">
         <f>SubjectHdrEhn!A17</f>
@@ -11125,18 +11166,18 @@
         <v>A.1.2.2.3 - Role of the HP</v>
       </c>
       <c r="E21" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G21" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C22" t="str">
         <f>SubjectHdrEhn!A18</f>
@@ -11147,7 +11188,7 @@
         <v>A.1.2.2.4 - HP Organisation</v>
       </c>
       <c r="E22" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -11155,10 +11196,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C23" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -11169,21 +11210,21 @@
         <v>A.1.2.2.5 - Address</v>
       </c>
       <c r="E23" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C24" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -11194,7 +11235,7 @@
         <v>A.1.2.2.5 - Address</v>
       </c>
       <c r="E24" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -11202,10 +11243,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C25" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -11216,21 +11257,21 @@
         <v>A.1.2.2.6 - Telecom</v>
       </c>
       <c r="E25" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C26" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -11241,7 +11282,7 @@
         <v>A.1.2.2.6 - Telecom</v>
       </c>
       <c r="E26" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -11249,10 +11290,10 @@
     </row>
     <row r="27" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C27" t="str">
         <f>SubjectHdrEhn!A21</f>
@@ -11271,10 +11312,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C28" t="str">
         <f>SubjectHdrEhn!A22</f>
@@ -11285,7 +11326,7 @@
         <v>A.1.2.3.1 - Role of that person</v>
       </c>
       <c r="E28" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -11293,10 +11334,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C29" t="str">
         <f>SubjectHdrEhn!A23</f>
@@ -11307,7 +11348,7 @@
         <v>A.1.2.3.2 - Relationship level</v>
       </c>
       <c r="E29" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -11315,10 +11356,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C30" t="str">
         <f>SubjectHdrEhn!A24</f>
@@ -11337,10 +11378,10 @@
     </row>
     <row r="31" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C31" t="str">
         <f>SubjectHdrEhn!A25</f>
@@ -11359,10 +11400,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C32" t="str">
         <f>SubjectHdrEhn!A26</f>
@@ -11381,10 +11422,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C33" t="str">
         <f>SubjectHdrEhn!A27</f>
@@ -11403,10 +11444,10 @@
     </row>
     <row r="34" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C34" t="str">
         <f>SubjectHdrEhn!A28</f>
@@ -11505,7 +11546,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -11522,7 +11563,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
@@ -11539,7 +11580,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -11556,7 +11597,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -11573,7 +11614,7 @@
     </row>
     <row r="6" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B6" t="s">
         <v>90</v>
@@ -11590,7 +11631,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -11607,7 +11648,7 @@
     </row>
     <row r="8" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -11624,7 +11665,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -11641,7 +11682,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -11658,7 +11699,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -11675,7 +11716,7 @@
     </row>
     <row r="12" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -11692,7 +11733,7 @@
     </row>
     <row r="13" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -11709,7 +11750,7 @@
     </row>
     <row r="14" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -11726,7 +11767,7 @@
     </row>
     <row r="15" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -11743,7 +11784,7 @@
     </row>
     <row r="16" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
@@ -11760,7 +11801,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -11777,7 +11818,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -11794,7 +11835,7 @@
     </row>
     <row r="19" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -11811,7 +11852,7 @@
     </row>
     <row r="20" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -11828,7 +11869,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -11845,7 +11886,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -11862,7 +11903,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -11879,7 +11920,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B24" t="s">
         <v>90</v>
@@ -11896,7 +11937,7 @@
     </row>
     <row r="25" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B25" t="s">
         <v>90</v>
@@ -11913,7 +11954,7 @@
     </row>
     <row r="26" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -11930,7 +11971,7 @@
     </row>
     <row r="27" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
@@ -11947,7 +11988,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
@@ -11975,7 +12016,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D2" sqref="D2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -12021,26 +12062,26 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdmissionEvaluation</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>863</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$8&amp;"."&amp;AdmissionEvaluationEhn!A2</f>
         <v>AdmissionEvaluation.objectiveFindings</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="37" t="str">
         <f>AdmissionEvaluationEhn!D2</f>
         <v>A.2.4.1 - Objective findings</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="37" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>1384</v>
+      <c r="H2" s="38" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -12048,26 +12089,26 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdmissionEvaluation</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>863</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$8&amp;"."&amp;AdmissionEvaluationEhn!A3</f>
         <v>AdmissionEvaluation.functionalStatus</v>
       </c>
-      <c r="D3" s="7" t="str">
+      <c r="D3" s="37" t="str">
         <f>AdmissionEvaluationEhn!D3</f>
         <v>A.2.4.2 - Functional status</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="37" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>1347</v>
+      <c r="H3" s="38" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
@@ -12123,7 +12164,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="D2" t="s">
         <v>71</v>
@@ -12140,7 +12181,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="D3" t="s">
         <v>72</v>
@@ -12165,8 +12206,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -12346,7 +12387,7 @@
         <v>861</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C8" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -12371,7 +12412,7 @@
         <v>861</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C9" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -12396,7 +12437,7 @@
         <v>861</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C10" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
@@ -12421,7 +12462,7 @@
         <v>861</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C11" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
@@ -12540,7 +12581,7 @@
         <v>861</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C16" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -12565,7 +12606,7 @@
         <v>861</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C17" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -12590,7 +12631,7 @@
         <v>861</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C18" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
@@ -12615,7 +12656,7 @@
         <v>861</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C19" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
@@ -12759,12 +12800,12 @@
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A21</f>
         <v>Encounter.admissionReason.legalStatus</v>
       </c>
-      <c r="D25" s="36" t="str">
+      <c r="D25" s="34" t="str">
         <f>EncounterEhn!D21</f>
         <v>A.2.3.4.3 - Admission legal status</v>
       </c>
       <c r="E25" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -12896,7 +12937,7 @@
         <v>A.2.3.6.1 - Period</v>
       </c>
       <c r="E31" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -12935,7 +12976,7 @@
         <v>861</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C33" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
@@ -12960,7 +13001,7 @@
         <v>861</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C34" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
@@ -12985,24 +13026,24 @@
         <v>861</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C35" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
         <v>Encounter.location.organization.details</v>
       </c>
-      <c r="D35" s="6" t="str">
+      <c r="D35" s="36" t="str">
         <f>EncounterEhn!D31</f>
         <v>A.2.3.6.4 - Organisation Part Details</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="36" t="s">
         <v>229</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>907</v>
+      <c r="H35" s="36" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -13601,8 +13642,8 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -13644,12 +13685,12 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" t="str">
+      <c r="A2" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>1361</v>
+      <c r="B2" s="23" t="s">
+        <v>1356</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A2</f>
@@ -13659,49 +13700,49 @@
         <f>ObjectiveFindingsHdrEhn!D2</f>
         <v>A.2.8.1.1 - Date</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>1362</v>
+      <c r="E2" s="12" t="s">
+        <v>1357</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" t="str">
+      <c r="A3" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="23" t="s">
         <v>863</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A3</f>
         <v>ObjectiveFindings.anthropometricObservations</v>
       </c>
-      <c r="D3" s="13" t="str">
+      <c r="D3" s="12" t="str">
         <f>ObjectiveFindingsHdrEhn!D3</f>
         <v>A.2.8.1.3 - Anthropometric observations</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>1172</v>
+      <c r="E3" s="12" t="s">
+        <v>1167</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>1363</v>
+      <c r="H3" s="14" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" t="str">
+      <c r="A4" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>1367</v>
+      <c r="B4" s="23" t="s">
+        <v>1362</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A4</f>
@@ -13712,23 +13753,23 @@
         <v>A.2.8.1.3.1 - Result description</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>1368</v>
+      <c r="H4" s="12" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" t="str">
+      <c r="A5" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>1367</v>
+      <c r="B5" s="23" t="s">
+        <v>1362</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A5</f>
@@ -13739,23 +13780,23 @@
         <v>A.2.8.1.3.2 - Observation details</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>1368</v>
+      <c r="H5" s="12" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A6" t="str">
+      <c r="A6" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>1367</v>
+      <c r="B6" s="23" t="s">
+        <v>1362</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A6</f>
@@ -13766,22 +13807,22 @@
         <v>A.2.8.1.3.3 - Observation result</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>1368</v>
+      <c r="H6" s="12" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A7" t="str">
+      <c r="A7" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="23" t="s">
         <v>863</v>
       </c>
       <c r="C7" s="7" t="str">
@@ -13793,7 +13834,7 @@
         <v>A.2.8.1.4 - Vital signs</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -13802,92 +13843,92 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A8" t="str">
+      <c r="A8" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>1367</v>
+      <c r="B8" s="23" t="s">
+        <v>1362</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A8</f>
         <v>ObjectiveFindings.vitalSigns.description</v>
       </c>
-      <c r="D8" s="13" t="str">
+      <c r="D8" s="12" t="str">
         <f>ObjectiveFindingsHdrEhn!D8</f>
         <v>A.2.8.1.4.1 - Result description</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>1368</v>
+      <c r="H8" s="12" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A9" t="str">
+      <c r="A9" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>1367</v>
+      <c r="B9" s="23" t="s">
+        <v>1362</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A9</f>
         <v>ObjectiveFindings.vitalSigns.details</v>
       </c>
-      <c r="D9" s="13" t="str">
+      <c r="D9" s="12" t="str">
         <f>ObjectiveFindingsHdrEhn!D9</f>
         <v>A.2.8.1.4.2 - Observation details</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>1368</v>
+      <c r="H9" s="12" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10" t="str">
+      <c r="A10" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>1367</v>
+      <c r="B10" s="23" t="s">
+        <v>1362</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A10</f>
         <v>ObjectiveFindings.vitalSigns.result</v>
       </c>
-      <c r="D10" s="13" t="str">
+      <c r="D10" s="12" t="str">
         <f>ObjectiveFindingsHdrEhn!D10</f>
         <v>A.2.8.1.4.3 - Observation result</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>1368</v>
+      <c r="H10" s="12" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" t="str">
+      <c r="A11" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="24" t="s">
         <v>863</v>
       </c>
       <c r="C11" s="7" t="str">
@@ -13899,7 +13940,7 @@
         <v>A.2.8.1.5 - Physical examination</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -13908,11 +13949,11 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12" t="str">
+      <c r="A12" s="7" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$12</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="24" t="s">
         <v>863</v>
       </c>
       <c r="C12" s="7" t="str">
@@ -13924,7 +13965,7 @@
         <v>A.2.8.1.5.1 - Observation Note</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -13979,7 +14020,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -13996,7 +14037,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -14013,7 +14054,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -14030,7 +14071,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -14047,7 +14088,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -14064,7 +14105,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -14081,7 +14122,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -14098,7 +14139,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -14115,7 +14156,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -14132,7 +14173,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -14149,7 +14190,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -14229,16 +14270,16 @@
     </row>
     <row r="4" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>958</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
@@ -14305,10 +14346,10 @@
         <v>836</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
@@ -14319,10 +14360,10 @@
         <v>835</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.75">
@@ -14333,66 +14374,66 @@
         <v>833</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="7" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="7" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -14427,8 +14468,8 @@
   </sheetPr>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="D67" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="B1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -14443,29 +14484,29 @@
     <col min="8" max="8" width="93.6796875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14486,14 +14527,14 @@
         <v>A.2.6.1 - Medical history</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -14512,15 +14553,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D3</f>
         <v>A.2.6.1.1 - History of problems</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>1323</v>
+      <c r="E3" s="13" t="s">
+        <v>1318</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>1324</v>
+      <c r="H3" s="13" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -14529,7 +14570,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A4</f>
@@ -14540,7 +14581,7 @@
         <v>A.2.6.1.1.1 - Problem description</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -14554,7 +14595,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A5</f>
@@ -14565,7 +14606,7 @@
         <v>A.2.6.1.1.2 - Problem details</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -14579,7 +14620,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A6</f>
@@ -14590,7 +14631,7 @@
         <v>A.2.6.1.1.3 - Onset date</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -14604,7 +14645,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A7</f>
@@ -14615,7 +14656,7 @@
         <v>A.2.6.1.1.4 - End date</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -14629,7 +14670,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A8</f>
@@ -14640,7 +14681,7 @@
         <v>A.2.6.1.1.5 - Clinical status</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -14654,7 +14695,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A9</f>
@@ -14665,14 +14706,14 @@
         <v>A.2.6.1.1.6 - Resolution circumstances</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
@@ -14689,14 +14730,14 @@
         <v>A.2.6.1.1.6 - Resolution circumstances</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -14705,7 +14746,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A10</f>
@@ -14716,7 +14757,7 @@
         <v>A.2.6.1.1.7 - Severity</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -14729,7 +14770,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A11</f>
@@ -14740,7 +14781,7 @@
         <v>A.2.6.1.1.8 - Stage</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -14760,19 +14801,19 @@
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A12</f>
         <v>PatientHistory.medicalHistory.medicalDevices</v>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="13" t="str">
         <f xml:space="preserve"> PatientHistoryEhn!D12</f>
         <v>A.2.6.1.2 - Devices and Implants</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>1301</v>
+      <c r="H13" s="13" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -14781,7 +14822,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
@@ -14792,20 +14833,20 @@
         <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
@@ -14816,14 +14857,14 @@
         <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
@@ -14832,7 +14873,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
@@ -14843,20 +14884,20 @@
         <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
@@ -14867,14 +14908,14 @@
         <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
@@ -14883,7 +14924,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
@@ -14894,20 +14935,20 @@
         <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
@@ -14918,14 +14959,14 @@
         <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
@@ -14934,7 +14975,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A16</f>
@@ -14945,10 +14986,10 @@
         <v>A.2.6.1.2.4 - End date</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="9"/>
@@ -14959,7 +15000,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
@@ -14970,14 +15011,14 @@
         <v>A.2.6.1.2.5 - Reason</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
@@ -14986,7 +15027,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
@@ -14997,7 +15038,7 @@
         <v>A.2.6.1.2.5 - Reason</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -15011,7 +15052,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A18</f>
@@ -15021,15 +15062,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D18</f>
         <v>A.2.6.1.3 - History of procedures</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
+      <c r="E23" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>1301</v>
+      <c r="H23" s="13" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
@@ -15038,7 +15079,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A19</f>
@@ -15049,7 +15090,7 @@
         <v>A.2.6.1.3.1 - Procedure code</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
@@ -15063,7 +15104,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A20</f>
@@ -15074,7 +15115,7 @@
         <v>A.2.6.1.3.2 - Procedure description</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -15088,7 +15129,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
@@ -15099,7 +15140,7 @@
         <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
@@ -15110,7 +15151,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="8"/>
       <c r="B27" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
@@ -15121,14 +15162,14 @@
         <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
@@ -15137,7 +15178,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A22</f>
@@ -15148,7 +15189,7 @@
         <v>A.2.6.1.3.4 - Procedure date</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
@@ -15162,7 +15203,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
@@ -15173,18 +15214,18 @@
         <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="22"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="8"/>
       <c r="B30" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
@@ -15195,13 +15236,13 @@
         <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="22"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" s="8" t="str">
@@ -15209,7 +15250,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A24</f>
@@ -15220,7 +15261,7 @@
         <v>A.2.6.1.3.6 - Outcome</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
@@ -15234,7 +15275,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A25</f>
@@ -15245,7 +15286,7 @@
         <v>A.2.6.1.3.7 - Focal device</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
@@ -15258,7 +15299,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>863</v>
       </c>
       <c r="C33" s="9" t="str">
@@ -15270,7 +15311,7 @@
         <v>A.2.6.1.4 - Vaccination</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
@@ -15283,8 +15324,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>1314</v>
+      <c r="B34" s="24" t="s">
+        <v>1309</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A27</f>
@@ -15295,7 +15336,7 @@
         <v>A.2.6.1.4.1 - Disease or agent targeted</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>19</v>
@@ -15307,8 +15348,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>1314</v>
+      <c r="B35" s="24" t="s">
+        <v>1309</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A28</f>
@@ -15319,7 +15360,7 @@
         <v>A.2.6.1.4.2 - Vaccine/prophylaxis</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -15332,8 +15373,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>1314</v>
+      <c r="B36" s="24" t="s">
+        <v>1309</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A29</f>
@@ -15344,7 +15385,7 @@
         <v>A.2.6.1.4.4 - Vaccine medicinal product</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
@@ -15357,8 +15398,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>1314</v>
+      <c r="B37" s="24" t="s">
+        <v>1309</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A30</f>
@@ -15369,7 +15410,7 @@
         <v>A.2.6.1.4.5 - Marketing Authorisation Holder</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -15382,8 +15423,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>1314</v>
+      <c r="B38" s="24" t="s">
+        <v>1309</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A31</f>
@@ -15394,7 +15435,7 @@
         <v>A.2.6.1.4.6 - Number in a series of vaccinations / doses</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
@@ -15407,8 +15448,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>1314</v>
+      <c r="B39" s="24" t="s">
+        <v>1309</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A32</f>
@@ -15419,10 +15460,10 @@
         <v>A.2.6.1.4.7 - Date of vaccination</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="9"/>
@@ -15432,8 +15473,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>1315</v>
+      <c r="B40" s="24" t="s">
+        <v>1310</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A33</f>
@@ -15444,10 +15485,10 @@
         <v>A.2.6.1.4.8 - Next vaccination date</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="9"/>
@@ -15457,26 +15498,26 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>863</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A34</f>
         <v>PatientHistory.medicalHistory.epidemiologicalHistory</v>
       </c>
-      <c r="D41" s="14" t="str">
+      <c r="D41" s="13" t="str">
         <f xml:space="preserve"> PatientHistoryEhn!D34</f>
         <v>A.2.6.1.5 - Epidemiological history</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>1172</v>
+      <c r="E41" s="13" t="s">
+        <v>1167</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="14" t="s">
-        <v>1300</v>
+      <c r="H41" s="13" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.75">
@@ -15484,7 +15525,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>863</v>
       </c>
       <c r="C42" s="9" t="str">
@@ -15496,7 +15537,7 @@
         <v>A.2.6.1.5.1 - Infectious contacts</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
@@ -15509,8 +15550,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>1340</v>
+      <c r="B43" s="24" t="s">
+        <v>1335</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A36</f>
@@ -15521,7 +15562,7 @@
         <v>A.2.6.1.5.1.1 - Time period</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
@@ -15534,8 +15575,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>1340</v>
+      <c r="B44" s="24" t="s">
+        <v>1335</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A37</f>
@@ -15546,14 +15587,14 @@
         <v>A.2.6.1.5.1.2 - Infectious agent</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.75">
@@ -15561,26 +15602,26 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>1340</v>
+      <c r="B45" s="24" t="s">
+        <v>1335</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A38</f>
         <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.proximity</v>
       </c>
-      <c r="D45" s="14" t="str">
+      <c r="D45" s="13" t="str">
         <f xml:space="preserve"> PatientHistoryEhn!D38</f>
         <v>A.2.6.1.5.1.3 - Proximity</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>1339</v>
+      <c r="E45" s="13" t="s">
+        <v>1334</v>
       </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="14" t="s">
-        <v>1342</v>
+      <c r="H45" s="13" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.75">
@@ -15588,26 +15629,26 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>1340</v>
+      <c r="B46" s="24" t="s">
+        <v>1335</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A39</f>
         <v>PatientHistory.medicalHistory.epidemiologicalHistory.infectiousContacts.country</v>
       </c>
-      <c r="D46" s="14" t="str">
+      <c r="D46" s="13" t="str">
         <f xml:space="preserve"> PatientHistoryEhn!D39</f>
         <v>A.2.6.1.5.1.4 - Country</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>1339</v>
+      <c r="E46" s="13" t="s">
+        <v>1334</v>
       </c>
       <c r="F46" s="7"/>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="14" t="s">
-        <v>1342</v>
+      <c r="H46" s="13" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.75">
@@ -15615,8 +15656,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>1340</v>
+      <c r="B47" s="24" t="s">
+        <v>1335</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A40</f>
@@ -15627,7 +15668,7 @@
         <v>A.2.6.1.5.1.5 - Additional information</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
@@ -15640,7 +15681,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>863</v>
       </c>
       <c r="C48" s="9" t="str">
@@ -15652,7 +15693,7 @@
         <v>A.2.6.1.5.2 - Travel history</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
@@ -15665,8 +15706,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>1344</v>
+      <c r="B49" s="24" t="s">
+        <v>1339</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A42</f>
@@ -15677,7 +15718,7 @@
         <v>A.2.6.1.5.2.1 - Time period</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
@@ -15690,8 +15731,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>1344</v>
+      <c r="B50" s="24" t="s">
+        <v>1339</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A43</f>
@@ -15702,7 +15743,7 @@
         <v>A.2.6.1.5.2.2 - Country visited</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
@@ -15715,8 +15756,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>1344</v>
+      <c r="B51" s="24" t="s">
+        <v>1339</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A44</f>
@@ -15727,7 +15768,7 @@
         <v>A.2.6.1.5.2.3 - Comment</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
@@ -15740,7 +15781,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="27" t="s">
         <v>863</v>
       </c>
       <c r="C52" s="9" t="str">
@@ -15751,22 +15792,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D45</f>
         <v>A.2.6.2 - Family history</v>
       </c>
-      <c r="E52" s="26" t="s">
-        <v>1325</v>
+      <c r="E52" s="25" t="s">
+        <v>1320</v>
       </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="26"/>
+      <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A53" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>1331</v>
+      <c r="B53" s="24" t="s">
+        <v>1326</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A46</f>
@@ -15776,22 +15817,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D46</f>
         <v>A.2.6.2.1 - Patient relationship</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>1326</v>
+      <c r="E53" s="16" t="s">
+        <v>1321</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="26"/>
+      <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A54" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>1331</v>
+      <c r="B54" s="24" t="s">
+        <v>1326</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A47</f>
@@ -15801,22 +15842,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D47</f>
         <v>A.2.6.2.2 - Date of birth</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>1327</v>
+      <c r="E54" s="16" t="s">
+        <v>1322</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="26"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A55" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>1331</v>
+      <c r="B55" s="24" t="s">
+        <v>1326</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A48</f>
@@ -15826,22 +15867,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D48</f>
         <v>A.2.6.2.3 - Age or date of death</v>
       </c>
-      <c r="E55" s="17" t="s">
-        <v>1328</v>
+      <c r="E55" s="16" t="s">
+        <v>1323</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="26"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A56" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>1331</v>
+      <c r="B56" s="24" t="s">
+        <v>1326</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A49</f>
@@ -15851,22 +15892,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D49</f>
         <v>A.2.6.2.5 - Condition</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>1329</v>
+      <c r="E56" s="16" t="s">
+        <v>1324</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="26"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A57" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B57" s="25" t="s">
-        <v>1331</v>
+      <c r="B57" s="24" t="s">
+        <v>1326</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A50</f>
@@ -15876,15 +15917,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D50</f>
         <v>A.2.6.2.6 - Cause of death</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>1329</v>
+      <c r="E57" s="16" t="s">
+        <v>1324</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="26" t="s">
-        <v>1330</v>
+      <c r="H57" s="25" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.75">
@@ -15892,7 +15933,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="27" t="s">
         <v>863</v>
       </c>
       <c r="C58" s="9" t="str">
@@ -15903,22 +15944,22 @@
         <f xml:space="preserve"> PatientHistoryEhn!D51</f>
         <v>A.2.6.3 - Social determinants of health</v>
       </c>
-      <c r="E58" s="26" t="s">
-        <v>1311</v>
+      <c r="E58" s="25" t="s">
+        <v>1306</v>
       </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="27" t="s">
+      <c r="G58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="26"/>
+      <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A59" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B59" s="25" t="s">
-        <v>1332</v>
+      <c r="B59" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A52</f>
@@ -15928,15 +15969,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D52</f>
         <v>A.2.6.3.1 - Participation in society</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>1283</v>
+      <c r="E59" s="13" t="s">
+        <v>1278</v>
       </c>
       <c r="F59" s="7"/>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="14" t="s">
-        <v>1334</v>
+      <c r="H59" s="13" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.75">
@@ -15944,8 +15985,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>1332</v>
+      <c r="B60" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A53</f>
@@ -15955,15 +15996,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D53</f>
         <v>A.2.6.3.1.1 - Work situation</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>1287</v>
+      <c r="E60" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F60" s="7"/>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="14" t="s">
-        <v>1333</v>
+      <c r="H60" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.75">
@@ -15971,8 +16012,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>1332</v>
+      <c r="B61" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A54</f>
@@ -15982,15 +16023,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D54</f>
         <v>A.2.6.3.1.2 - Hobby</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>1287</v>
+      <c r="E61" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="14" t="s">
-        <v>1333</v>
+      <c r="H61" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.75">
@@ -15998,8 +16039,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>1332</v>
+      <c r="B62" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A55</f>
@@ -16009,15 +16050,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D55</f>
         <v>A.2.6.3.1.3 - Social network</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>1287</v>
+      <c r="E62" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="14" t="s">
-        <v>1333</v>
+      <c r="H62" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.75">
@@ -16025,8 +16066,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>1332</v>
+      <c r="B63" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A56</f>
@@ -16036,15 +16077,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D56</f>
         <v>A.2.6.3.2 - Education</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>1283</v>
+      <c r="E63" s="13" t="s">
+        <v>1278</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="14" t="s">
-        <v>1334</v>
+      <c r="H63" s="13" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -16052,8 +16093,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>1332</v>
+      <c r="B64" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A57</f>
@@ -16063,15 +16104,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D57</f>
         <v>A.2.6.3.2.1 - Education level</v>
       </c>
-      <c r="E64" s="14" t="s">
-        <v>1287</v>
+      <c r="E64" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="14" t="s">
-        <v>1333</v>
+      <c r="H64" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -16079,8 +16120,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B65" s="25" t="s">
-        <v>1332</v>
+      <c r="B65" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A58</f>
@@ -16090,15 +16131,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D58</f>
         <v>A.2.6.3.2.2 - Comment</v>
       </c>
-      <c r="E65" s="14" t="s">
-        <v>1335</v>
+      <c r="E65" s="13" t="s">
+        <v>1330</v>
       </c>
       <c r="F65" s="7"/>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="14" t="s">
-        <v>1333</v>
+      <c r="H65" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
@@ -16106,8 +16147,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>1332</v>
+      <c r="B66" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A59</f>
@@ -16117,15 +16158,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D59</f>
         <v>A.2.6.3.3 - Living situation</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>1283</v>
+      <c r="E66" s="13" t="s">
+        <v>1278</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="14" t="s">
-        <v>1334</v>
+      <c r="H66" s="13" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.75">
@@ -16133,8 +16174,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B67" s="25" t="s">
-        <v>1332</v>
+      <c r="B67" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A60</f>
@@ -16144,15 +16185,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D60</f>
         <v>A.2.6.3.3.1 - House type</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>1287</v>
+      <c r="E67" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F67" s="7"/>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="14" t="s">
-        <v>1333</v>
+      <c r="H67" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
@@ -16160,8 +16201,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B68" s="25" t="s">
-        <v>1332</v>
+      <c r="B68" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A61</f>
@@ -16171,15 +16212,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D61</f>
         <v>A.2.6.3.3.2 - Home adaption</v>
       </c>
-      <c r="E68" s="14" t="s">
-        <v>1287</v>
+      <c r="E68" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F68" s="7"/>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="14" t="s">
-        <v>1333</v>
+      <c r="H68" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.75">
@@ -16187,8 +16228,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B69" s="25" t="s">
-        <v>1332</v>
+      <c r="B69" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A62</f>
@@ -16198,15 +16239,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D62</f>
         <v>A.2.6.3.3.3 - Living conditions</v>
       </c>
-      <c r="E69" s="14" t="s">
-        <v>1287</v>
+      <c r="E69" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F69" s="7"/>
-      <c r="G69" s="13" t="s">
+      <c r="G69" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="14" t="s">
-        <v>1333</v>
+      <c r="H69" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -16214,8 +16255,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B70" s="25" t="s">
-        <v>1332</v>
+      <c r="B70" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A63</f>
@@ -16225,15 +16266,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D63</f>
         <v>A.2.6.3.4 - Family situation</v>
       </c>
-      <c r="E70" s="14" t="s">
-        <v>1283</v>
+      <c r="E70" s="13" t="s">
+        <v>1278</v>
       </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H70" s="14" t="s">
-        <v>1334</v>
+      <c r="H70" s="13" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -16241,8 +16282,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B71" s="25" t="s">
-        <v>1332</v>
+      <c r="B71" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A64</f>
@@ -16252,15 +16293,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D64</f>
         <v>A.2.6.3.4.1 - Comment</v>
       </c>
-      <c r="E71" s="14" t="s">
-        <v>1287</v>
+      <c r="E71" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="14" t="s">
-        <v>1333</v>
+      <c r="H71" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
@@ -16268,8 +16309,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B72" s="25" t="s">
-        <v>1332</v>
+      <c r="B72" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C72" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A65</f>
@@ -16279,15 +16320,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D65</f>
         <v>A.2.6.3.4.2 - Family composition</v>
       </c>
-      <c r="E72" s="14" t="s">
-        <v>1287</v>
+      <c r="E72" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F72" s="7"/>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="14" t="s">
-        <v>1333</v>
+      <c r="H72" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.75">
@@ -16295,8 +16336,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B73" s="25" t="s">
-        <v>1332</v>
+      <c r="B73" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C73" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A66</f>
@@ -16306,15 +16347,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D66</f>
         <v>A.2.6.3.4.3 - Marital status</v>
       </c>
-      <c r="E73" s="14" t="s">
-        <v>1287</v>
+      <c r="E73" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F73" s="7"/>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="14" t="s">
-        <v>1333</v>
+      <c r="H73" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.75">
@@ -16322,8 +16363,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B74" s="25" t="s">
-        <v>1332</v>
+      <c r="B74" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C74" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A67</f>
@@ -16333,15 +16374,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D67</f>
         <v>A.2.6.3.4.4 - Number of children</v>
       </c>
-      <c r="E74" s="14" t="s">
-        <v>1287</v>
+      <c r="E74" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="14" t="s">
-        <v>1333</v>
+      <c r="H74" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.75">
@@ -16349,8 +16390,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B75" s="25" t="s">
-        <v>1332</v>
+      <c r="B75" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C75" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A68</f>
@@ -16360,15 +16401,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D68</f>
         <v>A.2.6.3.4.5 - Number of children at home</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>1287</v>
+      <c r="E75" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H75" s="14" t="s">
-        <v>1333</v>
+      <c r="H75" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.75">
@@ -16376,8 +16417,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B76" s="25" t="s">
-        <v>1332</v>
+      <c r="B76" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C76" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A69</f>
@@ -16387,15 +16428,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D69</f>
         <v>A.2.6.3.4.6 - Child details</v>
       </c>
-      <c r="E76" s="14" t="s">
-        <v>1287</v>
+      <c r="E76" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F76" s="7"/>
-      <c r="G76" s="13" t="s">
+      <c r="G76" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="14" t="s">
-        <v>1333</v>
+      <c r="H76" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.75">
@@ -16403,8 +16444,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B77" s="25" t="s">
-        <v>1332</v>
+      <c r="B77" s="24" t="s">
+        <v>1327</v>
       </c>
       <c r="C77" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A70</f>
@@ -16414,15 +16455,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D70</f>
         <v>A.2.6.3.4.7 - Care responsibility</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>1287</v>
+      <c r="E77" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F77" s="7"/>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H77" s="14" t="s">
-        <v>1333</v>
+      <c r="H77" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.75">
@@ -16430,7 +16471,7 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="23" t="s">
         <v>863</v>
       </c>
       <c r="C78" s="9" t="str">
@@ -16442,14 +16483,14 @@
         <v>A.2.6.4 - Use of substances</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="14" t="s">
-        <v>1346</v>
+      <c r="H78" s="13" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.75">
@@ -16457,8 +16498,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B79" s="24" t="s">
-        <v>1336</v>
+      <c r="B79" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C79" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A72</f>
@@ -16468,15 +16509,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D72</f>
         <v>A.2.6.4.1 - Alcohol use</v>
       </c>
-      <c r="E79" s="14" t="s">
-        <v>1283</v>
+      <c r="E79" s="13" t="s">
+        <v>1278</v>
       </c>
       <c r="F79" s="7"/>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="14" t="s">
-        <v>1333</v>
+      <c r="H79" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.75">
@@ -16484,8 +16525,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B80" s="24" t="s">
-        <v>1336</v>
+      <c r="B80" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C80" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A73</f>
@@ -16495,15 +16536,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D73</f>
         <v>A.2.6.4.1.1 - Status</v>
       </c>
-      <c r="E80" s="14" t="s">
-        <v>1287</v>
+      <c r="E80" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F80" s="7"/>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H80" s="14" t="s">
-        <v>1333</v>
+      <c r="H80" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.75">
@@ -16511,8 +16552,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B81" s="24" t="s">
-        <v>1336</v>
+      <c r="B81" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C81" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A74</f>
@@ -16522,15 +16563,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D74</f>
         <v>A.2.6.4.1.2 - Period and quantity</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>1287</v>
+      <c r="E81" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F81" s="7"/>
-      <c r="G81" s="13" t="s">
+      <c r="G81" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="14" t="s">
-        <v>1333</v>
+      <c r="H81" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.75">
@@ -16538,8 +16579,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B82" s="24" t="s">
-        <v>1336</v>
+      <c r="B82" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C82" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A75</f>
@@ -16549,15 +16590,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D75</f>
         <v>A.2.6.4.1.3 - Comment</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>1335</v>
+      <c r="E82" s="13" t="s">
+        <v>1330</v>
       </c>
       <c r="F82" s="7"/>
-      <c r="G82" s="13" t="s">
+      <c r="G82" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="14" t="s">
-        <v>1333</v>
+      <c r="H82" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.75">
@@ -16565,8 +16606,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B83" s="24" t="s">
-        <v>1336</v>
+      <c r="B83" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C83" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A76</f>
@@ -16576,15 +16617,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D76</f>
         <v>A.2.6.4.2 - Tobacco use</v>
       </c>
-      <c r="E83" s="14" t="s">
-        <v>1283</v>
+      <c r="E83" s="13" t="s">
+        <v>1278</v>
       </c>
       <c r="F83" s="7"/>
-      <c r="G83" s="13" t="s">
+      <c r="G83" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H83" s="14" t="s">
-        <v>1333</v>
+      <c r="H83" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.75">
@@ -16592,8 +16633,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B84" s="24" t="s">
-        <v>1336</v>
+      <c r="B84" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C84" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A77</f>
@@ -16603,15 +16644,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D77</f>
         <v>A.2.6.4.2.1 - Status</v>
       </c>
-      <c r="E84" s="14" t="s">
-        <v>1287</v>
+      <c r="E84" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F84" s="7"/>
-      <c r="G84" s="13" t="s">
+      <c r="G84" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H84" s="14" t="s">
-        <v>1333</v>
+      <c r="H84" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.75">
@@ -16619,8 +16660,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B85" s="24" t="s">
-        <v>1336</v>
+      <c r="B85" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C85" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A78</f>
@@ -16630,15 +16671,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D78</f>
         <v>A.2.6.4.2.2 - Period and quantity</v>
       </c>
-      <c r="E85" s="14" t="s">
-        <v>1287</v>
+      <c r="E85" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F85" s="7"/>
-      <c r="G85" s="13" t="s">
+      <c r="G85" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H85" s="14" t="s">
-        <v>1333</v>
+      <c r="H85" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.75">
@@ -16646,8 +16687,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B86" s="24" t="s">
-        <v>1336</v>
+      <c r="B86" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C86" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A79</f>
@@ -16657,15 +16698,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D79</f>
         <v>A.2.6.4.2.3 - Comment</v>
       </c>
-      <c r="E86" s="14" t="s">
-        <v>1335</v>
+      <c r="E86" s="13" t="s">
+        <v>1330</v>
       </c>
       <c r="F86" s="7"/>
-      <c r="G86" s="13" t="s">
+      <c r="G86" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H86" s="14" t="s">
-        <v>1333</v>
+      <c r="H86" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.75">
@@ -16673,8 +16714,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B87" s="24" t="s">
-        <v>1336</v>
+      <c r="B87" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C87" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A80</f>
@@ -16684,15 +16725,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D80</f>
         <v>A.2.6.4.3 - Drug consumption</v>
       </c>
-      <c r="E87" s="14" t="s">
-        <v>1283</v>
+      <c r="E87" s="13" t="s">
+        <v>1278</v>
       </c>
       <c r="F87" s="7"/>
-      <c r="G87" s="13" t="s">
+      <c r="G87" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H87" s="14" t="s">
-        <v>1333</v>
+      <c r="H87" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.75">
@@ -16700,8 +16741,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B88" s="24" t="s">
-        <v>1336</v>
+      <c r="B88" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C88" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A81</f>
@@ -16711,15 +16752,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D81</f>
         <v>A.2.6.4.3.1 - Status</v>
       </c>
-      <c r="E88" s="14" t="s">
-        <v>1287</v>
+      <c r="E88" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F88" s="7"/>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H88" s="14" t="s">
-        <v>1333</v>
+      <c r="H88" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.75">
@@ -16727,8 +16768,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B89" s="24" t="s">
-        <v>1336</v>
+      <c r="B89" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C89" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A82</f>
@@ -16738,15 +16779,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D82</f>
         <v>A.2.6.4.3.2 - Period and quantity</v>
       </c>
-      <c r="E89" s="14" t="s">
-        <v>1287</v>
+      <c r="E89" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F89" s="7"/>
-      <c r="G89" s="13" t="s">
+      <c r="G89" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="14" t="s">
-        <v>1333</v>
+      <c r="H89" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.75">
@@ -16754,8 +16795,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B90" s="24" t="s">
-        <v>1336</v>
+      <c r="B90" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C90" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A83</f>
@@ -16765,15 +16806,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D83</f>
         <v>A.2.6.4.3.3 - Drug or medication type</v>
       </c>
-      <c r="E90" s="14" t="s">
-        <v>1283</v>
+      <c r="E90" s="13" t="s">
+        <v>1278</v>
       </c>
       <c r="F90" s="7"/>
-      <c r="G90" s="13" t="s">
+      <c r="G90" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="14" t="s">
-        <v>1333</v>
+      <c r="H90" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.75">
@@ -16781,8 +16822,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B91" s="24" t="s">
-        <v>1336</v>
+      <c r="B91" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C91" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A84</f>
@@ -16792,15 +16833,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D84</f>
         <v>A.2.6.4.3.4 - Route of administration</v>
       </c>
-      <c r="E91" s="14" t="s">
-        <v>1287</v>
+      <c r="E91" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F91" s="7"/>
-      <c r="G91" s="13" t="s">
+      <c r="G91" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H91" s="14" t="s">
-        <v>1333</v>
+      <c r="H91" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.75">
@@ -16808,8 +16849,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$B$9</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
-      <c r="B92" s="24" t="s">
-        <v>1336</v>
+      <c r="B92" s="23" t="s">
+        <v>1331</v>
       </c>
       <c r="C92" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A85</f>
@@ -16819,15 +16860,15 @@
         <f xml:space="preserve"> PatientHistoryEhn!D85</f>
         <v>A.2.6.4.3.5 - Comment</v>
       </c>
-      <c r="E92" s="14" t="s">
-        <v>1335</v>
+      <c r="E92" s="13" t="s">
+        <v>1330</v>
       </c>
       <c r="F92" s="7"/>
-      <c r="G92" s="13" t="s">
+      <c r="G92" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="14" t="s">
-        <v>1333</v>
+      <c r="H92" s="13" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.75">
@@ -16841,7 +16882,7 @@
       <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="C95" s="29"/>
+      <c r="C95" s="28"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -18377,8 +18418,8 @@
   </sheetPr>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="C68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="C31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -18393,29 +18434,29 @@
     <col min="8" max="8" width="64.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -18436,14 +18477,14 @@
         <v>A.2.7.1 - Diagnostic summary</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -18452,7 +18493,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A3</f>
@@ -18463,7 +18504,7 @@
         <v>A.2.7.1.1 - Problem description</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -18477,7 +18518,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A4</f>
@@ -18488,7 +18529,7 @@
         <v>A.2.7.1.2 - Problem details</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -18502,7 +18543,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A5</f>
@@ -18513,7 +18554,7 @@
         <v>A.2.7.1.3 - Onset date</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -18527,7 +18568,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A6</f>
@@ -18538,7 +18579,7 @@
         <v>A.2.7.1.4 - End date</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -18552,7 +18593,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A7</f>
@@ -18563,7 +18604,7 @@
         <v>A.2.7.1.5 - Category</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -18577,7 +18618,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A8</f>
@@ -18588,7 +18629,7 @@
         <v>A.2.7.1.6 - Treatment class</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -18602,7 +18643,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A9</f>
@@ -18613,7 +18654,7 @@
         <v>A.2.7.1.7 - Clinical status</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -18627,7 +18668,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A10</f>
@@ -18638,14 +18679,14 @@
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="59" x14ac:dyDescent="0.75">
@@ -18662,14 +18703,14 @@
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -18678,7 +18719,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A11</f>
@@ -18689,7 +18730,7 @@
         <v>A.2.7.1.9 - Severity</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -18703,7 +18744,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A12</f>
@@ -18714,7 +18755,7 @@
         <v>A.2.7.1.10 - Stage</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
@@ -18738,15 +18779,15 @@
         <f xml:space="preserve"> HospitalStayEhn!D13</f>
         <v>A.2.7.2 - Significant procedures</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>1216</v>
+      <c r="E14" s="13" t="s">
+        <v>1211</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
@@ -18755,7 +18796,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A14</f>
@@ -18766,7 +18807,7 @@
         <v>A.2.7.2.1 - Procedure code</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -18780,7 +18821,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A15</f>
@@ -18791,7 +18832,7 @@
         <v>A.2.7.2.2 - Procedure description</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -18805,7 +18846,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -18816,7 +18857,7 @@
         <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
@@ -18830,7 +18871,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -18841,14 +18882,14 @@
         <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
@@ -18857,7 +18898,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A17</f>
@@ -18868,7 +18909,7 @@
         <v>A.2.7.2.4 - Procedure date</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
@@ -18882,7 +18923,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -18893,7 +18934,7 @@
         <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
@@ -18907,7 +18948,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -18918,7 +18959,7 @@
         <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
@@ -18932,7 +18973,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A19</f>
@@ -18943,7 +18984,7 @@
         <v>A.2.7.2.6 - Outcome</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -18957,7 +18998,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -18968,7 +19009,7 @@
         <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
@@ -18982,7 +19023,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -18993,12 +19034,12 @@
         <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="8" t="str">
@@ -19006,7 +19047,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A21</f>
@@ -19017,7 +19058,7 @@
         <v>A.2.7.2.8 - Focal device</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -19042,14 +19083,14 @@
         <v>A.2.7.3 - Medical devices and implants</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
@@ -19058,7 +19099,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -19069,14 +19110,14 @@
         <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
@@ -19085,7 +19126,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -19096,14 +19137,14 @@
         <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
@@ -19112,7 +19153,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
@@ -19123,14 +19164,14 @@
         <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
@@ -19139,7 +19180,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
@@ -19150,14 +19191,14 @@
         <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
@@ -19166,25 +19207,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
         <v>HospitalStay.medicalDevices.implantDate</v>
       </c>
-      <c r="D31" s="14" t="str">
+      <c r="D31" s="41" t="str">
         <f xml:space="preserve"> HospitalStayEhn!D25</f>
         <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
@@ -19193,25 +19234,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
         <v>HospitalStay.medicalDevices.implantDate</v>
       </c>
-      <c r="D32" s="14" t="str">
+      <c r="D32" s="41" t="str">
         <f xml:space="preserve"> HospitalStayEhn!D25</f>
         <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
@@ -19220,7 +19261,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A26</f>
@@ -19231,13 +19272,13 @@
         <v>A.2.7.3.4 - End date</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" s="8" t="str">
@@ -19245,7 +19286,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
@@ -19256,13 +19297,13 @@
         <v>A.2.7.3.5 - Reason</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="22"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35" s="8" t="str">
@@ -19270,7 +19311,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
@@ -19281,7 +19322,7 @@
         <v>A.2.7.3.5 - Reason</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -19305,15 +19346,15 @@
         <f xml:space="preserve"> HospitalStayEhn!D28</f>
         <v>A.2.7.5 - Pharmacotherapy</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>1218</v>
+      <c r="E36" s="13" t="s">
+        <v>1213</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
@@ -19321,8 +19362,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>1270</v>
+      <c r="B37" s="23" t="s">
+        <v>1265</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19333,7 +19374,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -19346,8 +19387,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>1270</v>
+      <c r="B38" s="23" t="s">
+        <v>1265</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19358,7 +19399,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
@@ -19372,7 +19413,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19383,7 +19424,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
@@ -19397,7 +19438,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19408,7 +19449,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
@@ -19422,7 +19463,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19433,7 +19474,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
@@ -19447,7 +19488,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19458,7 +19499,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
@@ -19472,7 +19513,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19483,7 +19524,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
@@ -19497,7 +19538,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19508,7 +19549,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
@@ -19522,7 +19563,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19533,7 +19574,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
@@ -19547,7 +19588,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19558,7 +19599,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
@@ -19572,7 +19613,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19583,7 +19624,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
@@ -19597,7 +19638,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="C48" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19608,7 +19649,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
@@ -19622,7 +19663,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19633,7 +19674,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
@@ -19647,7 +19688,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A31</f>
@@ -19658,7 +19699,7 @@
         <v>A.2.7.5.3 - Intended use</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
@@ -19672,7 +19713,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A32</f>
@@ -19683,7 +19724,7 @@
         <v>A.2.7.5.4 - Brand name</v>
       </c>
       <c r="E51" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
@@ -19697,7 +19738,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A33</f>
@@ -19708,7 +19749,7 @@
         <v>A.2.7.5.5 - Active ingredient list</v>
       </c>
       <c r="E52" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
@@ -19722,7 +19763,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A34</f>
@@ -19733,7 +19774,7 @@
         <v>A.2.7.5.6 - Strength</v>
       </c>
       <c r="E53" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
@@ -19747,7 +19788,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A35</f>
@@ -19758,7 +19799,7 @@
         <v>A.2.7.5.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E54" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
@@ -19772,7 +19813,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
@@ -19783,14 +19824,14 @@
         <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E55" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.75">
@@ -19799,7 +19840,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
@@ -19810,14 +19851,14 @@
         <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E56" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="23" t="s">
-        <v>1266</v>
+      <c r="H56" s="22" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.75">
@@ -19826,7 +19867,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
@@ -19837,7 +19878,7 @@
         <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E57" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
@@ -19851,7 +19892,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="C58" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
@@ -19862,7 +19903,7 @@
         <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E58" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
@@ -19876,7 +19917,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19887,7 +19928,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E59" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
@@ -19901,7 +19942,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19912,7 +19953,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E60" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
@@ -19926,7 +19967,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19937,7 +19978,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
@@ -19961,14 +20002,14 @@
         <f xml:space="preserve"> HospitalStayEhn!D39</f>
         <v>A.2.7.6 - Significant Observation Results</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>1219</v>
+      <c r="E62" s="13" t="s">
+        <v>1214</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="14"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A63" s="8" t="str">
@@ -19976,7 +20017,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A40</f>
@@ -19987,14 +20028,14 @@
         <v>A.2.7.6.1 - Date</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -20003,7 +20044,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A41</f>
@@ -20014,14 +20055,14 @@
         <v>A.2.7.6.2 - Observation status</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -20030,7 +20071,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A42</f>
@@ -20041,14 +20082,14 @@
         <v>A.2.7.6.3 - Result description</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
@@ -20065,7 +20106,7 @@
         <v>A.2.7.6.3 - Result description</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
@@ -20079,7 +20120,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A43</f>
@@ -20090,14 +20131,14 @@
         <v>A.2.7.6.4 - Observation details</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
@@ -20117,7 +20158,7 @@
         <v>A.2.7.6.4 - Observation details</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
@@ -20131,7 +20172,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
@@ -20142,14 +20183,14 @@
         <v>A.2.7.6.5 - Observation result</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -20158,7 +20199,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
@@ -20169,14 +20210,14 @@
         <v>A.2.7.6.5 - Observation result</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -20185,7 +20226,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A45</f>
@@ -20196,14 +20237,14 @@
         <v>A.2.7.6.7 - Reporter</v>
       </c>
       <c r="E71" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
@@ -20218,18 +20259,18 @@
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A46</f>
         <v>HospitalStay.synthesis</v>
       </c>
-      <c r="D72" s="14" t="str">
+      <c r="D72" s="13" t="str">
         <f xml:space="preserve"> HospitalStayEhn!D46</f>
         <v>A.2.7.7 - Synthesis</v>
       </c>
-      <c r="E72" s="14" t="s">
-        <v>1220</v>
+      <c r="E72" s="13" t="s">
+        <v>1215</v>
       </c>
       <c r="F72" s="7"/>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="14"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A73" s="8" t="str">
@@ -20247,14 +20288,14 @@
         <f xml:space="preserve"> HospitalStayEhn!D47</f>
         <v>A.2.7.7.1 - Problem synthesis</v>
       </c>
-      <c r="E73" s="14" t="s">
-        <v>1298</v>
+      <c r="E73" s="13" t="s">
+        <v>1293</v>
       </c>
       <c r="F73" s="7"/>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="14"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A74" s="8" t="str">
@@ -20272,14 +20313,14 @@
         <f xml:space="preserve"> HospitalStayEhn!D48</f>
         <v>A.2.7.7.2 - Clinical reasoning</v>
       </c>
-      <c r="E74" s="14" t="s">
-        <v>1298</v>
+      <c r="E74" s="13" t="s">
+        <v>1293</v>
       </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="14"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C77"/>
@@ -21266,8 +21307,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -21282,29 +21323,29 @@
     <col min="8" max="8" width="64.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -21325,14 +21366,14 @@
         <v>A.1 - Hospital Discharge Report header data element</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -21352,17 +21393,17 @@
         <v>A.2 - Hospital Discharge Report body data element</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="str">
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalDischargeReport</v>
@@ -21370,24 +21411,22 @@
       <c r="B4" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="42" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A4</f>
         <v>HospitalDischargeReport.body.presentedForm</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="42" t="str">
         <f>HospitalDischargeReportEhn!D4</f>
         <v>A.2.0 - Hospital Discharge Report in its narrative form</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>1090</v>
-      </c>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="str">
@@ -21406,13 +21445,13 @@
         <v>A.2.1 - Advance directives</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="str">
@@ -21431,14 +21470,14 @@
         <v>A.2.2 - Alerts</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -21458,14 +21497,14 @@
         <v>A.2.3 - Encounter</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -21485,14 +21524,14 @@
         <v>A.2.4 - Admission evaluation</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -21512,14 +21551,14 @@
         <v>A.2.5 - Patient history</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
@@ -21539,14 +21578,14 @@
         <v>A.2.6 - Course of hospitalisation (Hospital stay)</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -21566,14 +21605,14 @@
         <v>A.2.7 - Discharge details</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21592,15 +21631,15 @@
         <f>HospitalDischargeReportEhn!D12</f>
         <v>A.2.7.1 - Objective findings</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>1159</v>
+      <c r="E12" s="32" t="s">
+        <v>1154</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>1379</v>
+      <c r="H12" s="12" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21619,15 +21658,15 @@
         <f>HospitalDischargeReportEhn!D12</f>
         <v>A.2.7.1 - Objective findings</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>1202</v>
+      <c r="E13" s="32" t="s">
+        <v>1197</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>1380</v>
+      <c r="H13" s="12" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21646,15 +21685,15 @@
         <f>HospitalDischargeReportEhn!D13</f>
         <v>A.2.7.2 - Functional status</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>1159</v>
+      <c r="E14" s="32" t="s">
+        <v>1154</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>1379</v>
+      <c r="H14" s="12" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21673,15 +21712,15 @@
         <f>HospitalDischargeReportEhn!D13</f>
         <v>A.2.7.2 - Functional status</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>1203</v>
+      <c r="E15" s="32" t="s">
+        <v>1198</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>1381</v>
+      <c r="H15" s="12" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21695,15 +21734,15 @@
         <f>HospitalDischargeReportEhn!D14</f>
         <v>A.2.7.3 - Discharge note</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>1378</v>
+      <c r="E16" s="32" t="s">
+        <v>1373</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>1379</v>
+      <c r="H16" s="12" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21722,15 +21761,15 @@
         <f>HospitalDischargeReportEhn!D14</f>
         <v>A.2.7.3 - Discharge note</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>1204</v>
+      <c r="E17" s="32" t="s">
+        <v>1199</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>1380</v>
+      <c r="H17" s="12" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
@@ -21750,14 +21789,14 @@
         <v>A.2.8 - Care plan and other recommendations after discharge.</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21776,11 +21815,11 @@
         <f>HospitalDischargeReportEhn!D16</f>
         <v>A.2.8.1 - Care plan</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>1076</v>
+      <c r="E19" s="13" t="s">
+        <v>1074</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="9"/>
@@ -21801,11 +21840,11 @@
         <f>HospitalDischargeReportEhn!D17</f>
         <v>A.2.8.2 - Medication summary</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>1098</v>
+      <c r="E20" s="13" t="s">
+        <v>1094</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="9"/>
@@ -21826,11 +21865,11 @@
         <f>HospitalDischargeReportEhn!D18</f>
         <v>A.2.8.3 - Other recommendations</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>1099</v>
+      <c r="E21" s="13" t="s">
+        <v>1095</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="9"/>
@@ -22061,7 +22100,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -22071,7 +22110,7 @@
         <v>ObjectiveFindingsHdrEhn</v>
       </c>
       <c r="D12" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="E12" t="s">
         <v>73</v>
@@ -22079,7 +22118,7 @@
     </row>
     <row r="13" spans="1:5" ht="59" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -22089,15 +22128,15 @@
         <v>FunctionalStatusHdrEhn</v>
       </c>
       <c r="D13" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -22106,7 +22145,7 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="E14" t="s">
         <v>169</v>
@@ -22131,16 +22170,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D16" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="E16" t="s">
         <v>652</v>
@@ -22148,16 +22187,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="D17" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="E17" t="s">
         <v>662</v>
@@ -22165,7 +22204,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -22174,7 +22213,7 @@
         <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="E18" t="s">
         <v>669</v>

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD3EF39-8316-4244-991F-CDB0B63F3119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBAE77F-219B-4B34-B2DB-BFD5F785CAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="22" activeTab="27" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
+    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
   <sheets>
     <sheet name="IG-groups" sheetId="31" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="1387">
   <si>
     <t>Group Source</t>
   </si>
@@ -3434,9 +3434,6 @@
     <t>activity.attribute</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CarePlan</t>
-  </si>
-  <si>
     <t>period</t>
   </si>
   <si>
@@ -4008,9 +4005,6 @@
     <t>several sections</t>
   </si>
   <si>
-    <t>The same section usd by the hospital stay ?</t>
-  </si>
-  <si>
     <t>Composition.section:sectionImmunizations</t>
   </si>
   <si>
@@ -4280,13 +4274,19 @@
   </si>
   <si>
     <t>Composition.extension:presentedForm</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/hdr/StructureDefinition/carePlan-eu-hdr</t>
+  </si>
+  <si>
+    <t>decison not to have as distict section</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4330,12 +4330,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4442,7 +4436,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4497,8 +4491,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4510,10 +4502,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4521,6 +4509,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -5167,7 +5156,7 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -5181,7 +5170,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A2</f>
@@ -5192,7 +5181,7 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -5206,7 +5195,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A3</f>
@@ -5217,7 +5206,7 @@
         <v>A.2.8.2.2 - Onset Date</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -5231,7 +5220,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A4</f>
@@ -5242,7 +5231,7 @@
         <v>A.2.8.2.3 - Functional assessment description</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="12" t="s">
@@ -5256,7 +5245,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A5</f>
@@ -5267,7 +5256,7 @@
         <v>A.2.8.2.4 - Functional assessment date</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="12" t="s">
@@ -5280,8 +5269,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$13</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>1347</v>
+      <c r="B7" s="31" t="s">
+        <v>1345</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A6</f>
@@ -5292,7 +5281,7 @@
         <v>A.2.8.2.5 - Functional assessment result</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="12" t="s">
@@ -5367,7 +5356,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>64</v>
@@ -5384,7 +5373,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>64</v>
@@ -5401,7 +5390,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>64</v>
@@ -5418,7 +5407,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>66</v>
@@ -5445,8 +5434,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5493,7 +5482,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A2</f>
@@ -5504,14 +5493,14 @@
         <v>A.2.9.2.1 - Medication reason</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -5520,7 +5509,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A3</f>
@@ -5531,7 +5520,7 @@
         <v>A.2.9.2.2 - Reason for change</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -5545,7 +5534,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5556,14 +5545,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -5572,7 +5561,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5583,14 +5572,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -5599,7 +5588,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5610,14 +5599,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -5626,7 +5615,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A5</f>
@@ -5637,7 +5626,7 @@
         <v>A.2.9.2.4 - Brand name</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -5651,7 +5640,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A6</f>
@@ -5662,14 +5651,14 @@
         <v>A.2.9.2.5 - Active ingredient list</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -5678,7 +5667,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A7</f>
@@ -5689,7 +5678,7 @@
         <v>A.2.9.2.6 - Strength</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -5703,7 +5692,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A8</f>
@@ -5714,7 +5703,7 @@
         <v>A.2.9.2.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -5728,7 +5717,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A9</f>
@@ -5739,14 +5728,14 @@
         <v>A.2.9.2.8 - Dosage Regimen</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -5755,7 +5744,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A10</f>
@@ -5766,7 +5755,7 @@
         <v>A.2.9.2.9 - Route of administration</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -5780,7 +5769,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A11</f>
@@ -5791,7 +5780,7 @@
         <v>A.2.9.2.10 - Period of treatment</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="12" t="s">
@@ -5805,21 +5794,21 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A12</f>
         <v>MedicationSummary.daysSupplied</v>
       </c>
-      <c r="D14" s="37" t="str">
+      <c r="D14" s="35" t="str">
         <f>MedicationSummaryHdrEhn!D12</f>
         <v>A.2.9.2.11 - Days supplied</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37" t="s">
+      <c r="E14" s="35" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7"/>
@@ -5876,7 +5865,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>65</v>
@@ -5893,7 +5882,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>64</v>
@@ -5910,7 +5899,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>66</v>
@@ -5927,7 +5916,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>66</v>
@@ -5944,7 +5933,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
@@ -5961,7 +5950,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -5978,7 +5967,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
@@ -5995,7 +5984,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>65</v>
@@ -6012,7 +6001,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>64</v>
@@ -6029,7 +6018,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>64</v>
@@ -6046,7 +6035,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>66</v>
@@ -6074,7 +6063,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6120,8 +6109,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$14</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>1105</v>
+      <c r="B2" s="1" t="s">
+        <v>1385</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A2</f>
@@ -6132,7 +6121,7 @@
         <v>A.2.9.1.1 - Title</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -6145,8 +6134,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$14</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1105</v>
+      <c r="B3" s="1" t="s">
+        <v>1385</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A3</f>
@@ -6157,7 +6146,7 @@
         <v>A.2.9.1.2 - Addresses</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -6170,8 +6159,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$14</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>1105</v>
+      <c r="B4" s="1" t="s">
+        <v>1385</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A4</f>
@@ -6182,7 +6171,7 @@
         <v>A.2.9.1.3 - Description</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -6194,8 +6183,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$14</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>1105</v>
+      <c r="B5" s="1" t="s">
+        <v>1385</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A5</f>
@@ -6206,7 +6195,7 @@
         <v>A.2.9.1.4 - Plan Period</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -6218,8 +6207,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$14</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>1105</v>
+      <c r="B6" s="1" t="s">
+        <v>1385</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A6</f>
@@ -6230,7 +6219,7 @@
         <v>A.2.9.1.5 - Other details</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
@@ -6242,8 +6231,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$14</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>1105</v>
+      <c r="B7" s="1" t="s">
+        <v>1385</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A7</f>
@@ -6254,7 +6243,7 @@
         <v>A.2.9.1.6 - Activity</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -6266,8 +6255,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$14</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>1105</v>
+      <c r="B8" s="1" t="s">
+        <v>1385</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A8</f>
@@ -6278,7 +6267,7 @@
         <v>A.2.9.1.6.1 - Kind</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -6290,8 +6279,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$14</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1105</v>
+      <c r="B9" s="1" t="s">
+        <v>1385</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A9</f>
@@ -6302,7 +6291,7 @@
         <v>A.2.9.1.6.2 - Activity description</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -6314,8 +6303,8 @@
         <f>"http://hl7.eu/fhir/hdr/StructureDefinition/"&amp;LogicalModels!$A$14</f>
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>1105</v>
+      <c r="B10" s="1" t="s">
+        <v>1385</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A10</f>
@@ -6326,24 +6315,26 @@
         <v>A.2.9.1.6.3 - Specific attributes</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="B12" s="1"/>
+    </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="F14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2:B3" r:id="rId1" display="http://hl7.eu/fhir/hdr/StructureDefinition/composition-eu-hdr" xr:uid="{4D1CF07B-792B-471E-B944-4AD0215C7F6C}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{76D12E29-0574-4F01-9D74-C915C6141450}"/>
-    <hyperlink ref="B3:B10" r:id="rId3" display="http://hl7.eu/fhir/hdr/StructureDefinition/composition-eu-hdr" xr:uid="{212847F4-E6C1-4655-84EB-DF20FBF34A5D}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{261051E3-E677-48B9-908A-B4778105A1C3}"/>
+    <hyperlink ref="B3:B10" r:id="rId2" display="http://hl7.eu/fhir/hdr/StructureDefinition/carePlan-eu-hdr" xr:uid="{C8290051-BCDC-45FD-A650-80DC3FD2F557}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6544,7 +6535,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6616,7 +6607,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
@@ -6634,7 +6625,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -6643,7 +6634,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A3</f>
@@ -6668,7 +6659,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A4</f>
@@ -6693,7 +6684,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A5</f>
@@ -6703,8 +6694,8 @@
         <f>AdvanceDirectivesEhn!D5</f>
         <v>A.2.1.1.3 - Comment</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>1380</v>
+      <c r="E6" s="33" t="s">
+        <v>1378</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -6718,7 +6709,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A6</f>
@@ -6729,7 +6720,7 @@
         <v>A.2.1.1.4 - Related conditions</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -6743,7 +6734,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A7</f>
@@ -6796,9 +6787,10 @@
     <hyperlink ref="B3" r:id="rId3" xr:uid="{BF804330-818A-4C75-935C-6C086FBB462E}"/>
     <hyperlink ref="A3:A9" r:id="rId4" display="http://hl7.eu/fhir/hdr/StructureDefinition/Alerts2FHIREuHdr" xr:uid="{5B930080-ED6E-411C-8AE8-6353CA4D9730}"/>
     <hyperlink ref="B4:B8" r:id="rId5" display="http://hl7.org/fhir/StructureDefinition/consent-eu-hdr" xr:uid="{7D718819-A02D-4876-9803-53D21C09A565}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{D8D647AF-E97F-47F1-A3AB-6CA7D300A813}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -7732,7 +7724,7 @@
   <dimension ref="A1:AZ16"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8145,20 +8137,20 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/planOfCare2FHIR-eu-hdr</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>822</v>
@@ -8171,20 +8163,20 @@
     </row>
     <row r="9" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>1142</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>1143</v>
       </c>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/medicationSummary2FHIR-eu-hdr</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>822</v>
@@ -8197,20 +8189,20 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>1216</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>1217</v>
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" ref="C10:C14" si="1">"http://hl7.eu/fhir/hdr/ConceptMap/"&amp;A10</f>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/hospitalStay2FHIR-eu-hdr</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>1218</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>1219</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>822</v>
@@ -8223,20 +8215,20 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/patientHistory2FHIR-eu-hdr</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>1218</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>1219</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>822</v>
@@ -8248,23 +8240,23 @@
       </c>
     </row>
     <row r="12" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A12" s="30" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C12" s="31" t="str">
+      <c r="A12" s="10" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/admissionEvaluation2FHIR-eu-hdr</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="D12" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>822</v>
       </c>
       <c r="G12" s="7"/>
@@ -8275,20 +8267,20 @@
     </row>
     <row r="13" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/functionalStatus2FHIR-eu-hdr</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>822</v>
@@ -8300,21 +8292,21 @@
       </c>
     </row>
     <row r="14" spans="1:52" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1364</v>
+      <c r="A14" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1362</v>
       </c>
       <c r="C14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.eu/fhir/hdr/ConceptMap/objectiveFindings2FHIR-eu-hdr</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>822</v>
@@ -8365,7 +8357,7 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -8434,7 +8426,7 @@
         <v>872</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C3" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A2</f>
@@ -8451,10 +8443,10 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="147.5" x14ac:dyDescent="0.75">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>872</v>
       </c>
@@ -8469,15 +8461,14 @@
         <f>HeaderHdrEhn!D3</f>
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" t="s">
         <v>1014</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>1385</v>
+      <c r="H4" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="88.5" x14ac:dyDescent="0.75">
@@ -8495,14 +8486,13 @@
         <f>HeaderHdrEhn!D3</f>
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" t="s">
         <v>1087</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="5" t="s">
         <v>1088</v>
       </c>
     </row>
@@ -8521,13 +8511,13 @@
         <f>HeaderHdrEhn!D3</f>
         <v>A.1.3 - Health insurance and payment information - Health insurance information is not always required, however, in some jurisdictions, the insurance number is also used as the patient identifier. It is necessary not just for identification but also forms access to funding for care.</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" t="s">
         <v>1013</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -8546,13 +8536,13 @@
         <f>HeaderHdrEhn!D4</f>
         <v>A.1.3.1 - Health insurance code</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" t="s">
         <v>1063</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -8571,13 +8561,13 @@
         <f>HeaderHdrEhn!D5</f>
         <v>A.1.3.2 - Health insurance name</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" t="s">
         <v>1063</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -8586,7 +8576,7 @@
         <v>872</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C9" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A4</f>
@@ -8596,20 +8586,19 @@
         <f>HeaderHdrEhn!D4</f>
         <v>A.1.3.1 - Health insurance code</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" t="s">
         <v>890</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>872</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C10" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A5</f>
@@ -8619,7 +8608,7 @@
         <f>HeaderHdrEhn!D5</f>
         <v>A.1.3.2 - Health insurance name</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" t="s">
         <v>906</v>
       </c>
       <c r="G10" t="s">
@@ -8656,7 +8645,7 @@
         <v>872</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C12" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A6</f>
@@ -8706,7 +8695,7 @@
         <v>872</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C14" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A8</f>
@@ -8885,7 +8874,7 @@
         <v>872</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C22" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A15</f>
@@ -8910,7 +8899,7 @@
         <v>872</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C23" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A16</f>
@@ -8932,7 +8921,7 @@
         <v>872</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C24" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A17</f>
@@ -8957,7 +8946,7 @@
         <v>872</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C25" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A18</f>
@@ -8982,7 +8971,7 @@
         <v>872</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C26" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A19</f>
@@ -9051,7 +9040,7 @@
         <v>872</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C29" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A21</f>
@@ -9076,7 +9065,7 @@
         <v>872</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C30" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A22</f>
@@ -9098,7 +9087,7 @@
         <v>872</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C31" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A23</f>
@@ -9120,7 +9109,7 @@
         <v>872</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C32" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A24</f>
@@ -9142,7 +9131,7 @@
         <v>872</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C33" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A25</f>
@@ -9211,7 +9200,7 @@
         <v>872</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C36" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A27</f>
@@ -9236,7 +9225,7 @@
         <v>872</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C37" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A28</f>
@@ -9261,7 +9250,7 @@
         <v>872</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C38" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A29</f>
@@ -9286,7 +9275,7 @@
         <v>872</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C39" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A30</f>
@@ -9311,7 +9300,7 @@
         <v>872</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C40" t="str">
         <f>"Header"&amp;"."&amp;HeaderHdrEhn!A31</f>
@@ -9625,13 +9614,13 @@
         <f>HeaderHdrEhn!D42</f>
         <v>A.1.8.9 - Version</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="34" t="s">
         <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="H53" s="34" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10676,7 +10665,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10722,7 +10711,7 @@
         <v>956</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C2" t="str">
         <f>SubjectHdrEhn!A2</f>
@@ -10744,7 +10733,7 @@
         <v>956</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C3" t="str">
         <f>SubjectHdrEhn!A3</f>
@@ -10766,7 +10755,7 @@
         <v>956</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C4" t="str">
         <f>SubjectHdrEhn!A4</f>
@@ -10788,7 +10777,7 @@
         <v>956</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C5" t="str">
         <f>SubjectHdrEhn!A5</f>
@@ -10810,7 +10799,7 @@
         <v>956</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C6" t="str">
         <f>SubjectHdrEhn!A6</f>
@@ -10832,7 +10821,7 @@
         <v>956</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C7" t="str">
         <f>SubjectHdrEhn!A7</f>
@@ -10857,7 +10846,7 @@
         <v>956</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C8" t="str">
         <f>SubjectHdrEhn!A8</f>
@@ -10879,7 +10868,7 @@
         <v>956</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>SubjectHdrEhn!A9</f>
@@ -10904,7 +10893,7 @@
         <v>956</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C10" t="str">
         <f>SubjectHdrEhn!A10</f>
@@ -10926,7 +10915,7 @@
         <v>956</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C11" t="str">
         <f>SubjectHdrEhn!A11</f>
@@ -10948,7 +10937,7 @@
         <v>956</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C12" t="str">
         <f>SubjectHdrEhn!A12</f>
@@ -10970,7 +10959,7 @@
         <v>956</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C13" t="str">
         <f>SubjectHdrEhn!A13</f>
@@ -10992,7 +10981,7 @@
         <v>956</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C14" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11014,7 +11003,7 @@
         <v>956</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C15" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11039,7 +11028,7 @@
         <v>956</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C16" t="str">
         <f>SubjectHdrEhn!A14</f>
@@ -11061,7 +11050,7 @@
         <v>956</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C17" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11086,7 +11075,7 @@
         <v>956</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C18" t="str">
         <f>SubjectHdrEhn!A15</f>
@@ -11108,7 +11097,7 @@
         <v>956</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C19" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11133,7 +11122,7 @@
         <v>956</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C20" t="str">
         <f>SubjectHdrEhn!A16</f>
@@ -11155,7 +11144,7 @@
         <v>956</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C21" t="str">
         <f>SubjectHdrEhn!A17</f>
@@ -11169,7 +11158,7 @@
         <v>996</v>
       </c>
       <c r="G21" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
@@ -11177,7 +11166,7 @@
         <v>956</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C22" t="str">
         <f>SubjectHdrEhn!A18</f>
@@ -11199,7 +11188,7 @@
         <v>956</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C23" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -11224,7 +11213,7 @@
         <v>956</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C24" t="str">
         <f>SubjectHdrEhn!A19</f>
@@ -11246,7 +11235,7 @@
         <v>956</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C25" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -11271,7 +11260,7 @@
         <v>956</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C26" t="str">
         <f>SubjectHdrEhn!A20</f>
@@ -11293,7 +11282,7 @@
         <v>956</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C27" t="str">
         <f>SubjectHdrEhn!A21</f>
@@ -11315,7 +11304,7 @@
         <v>956</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C28" t="str">
         <f>SubjectHdrEhn!A22</f>
@@ -11326,7 +11315,7 @@
         <v>A.1.2.3.1 - Role of that person</v>
       </c>
       <c r="E28" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -11337,7 +11326,7 @@
         <v>956</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C29" t="str">
         <f>SubjectHdrEhn!A23</f>
@@ -11348,7 +11337,7 @@
         <v>A.1.2.3.2 - Relationship level</v>
       </c>
       <c r="E29" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -11359,7 +11348,7 @@
         <v>956</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C30" t="str">
         <f>SubjectHdrEhn!A24</f>
@@ -11381,7 +11370,7 @@
         <v>956</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C31" t="str">
         <f>SubjectHdrEhn!A25</f>
@@ -11403,7 +11392,7 @@
         <v>956</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C32" t="str">
         <f>SubjectHdrEhn!A26</f>
@@ -11425,7 +11414,7 @@
         <v>956</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C33" t="str">
         <f>SubjectHdrEhn!A27</f>
@@ -11447,7 +11436,7 @@
         <v>956</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C34" t="str">
         <f>SubjectHdrEhn!A28</f>
@@ -12069,19 +12058,19 @@
         <f>LogicalModels!$A$8&amp;"."&amp;AdmissionEvaluationEhn!A2</f>
         <v>AdmissionEvaluation.objectiveFindings</v>
       </c>
-      <c r="D2" s="37" t="str">
+      <c r="D2" s="35" t="str">
         <f>AdmissionEvaluationEhn!D2</f>
         <v>A.2.4.1 - Objective findings</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="E2" s="35" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="38" t="s">
-        <v>1379</v>
+      <c r="H2" s="36" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -12096,19 +12085,19 @@
         <f>LogicalModels!$A$8&amp;"."&amp;AdmissionEvaluationEhn!A3</f>
         <v>AdmissionEvaluation.functionalStatus</v>
       </c>
-      <c r="D3" s="37" t="str">
+      <c r="D3" s="35" t="str">
         <f>AdmissionEvaluationEhn!D3</f>
         <v>A.2.4.2 - Functional status</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37" t="s">
+      <c r="E3" s="35" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>1342</v>
+      <c r="H3" s="36" t="s">
+        <v>1340</v>
       </c>
     </row>
   </sheetData>
@@ -12164,7 +12153,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D2" t="s">
         <v>71</v>
@@ -12181,7 +12170,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D3" t="s">
         <v>72</v>
@@ -12387,7 +12376,7 @@
         <v>861</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C8" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -12412,7 +12401,7 @@
         <v>861</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C9" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A8</f>
@@ -12437,7 +12426,7 @@
         <v>861</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C10" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A9</f>
@@ -12462,7 +12451,7 @@
         <v>861</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C11" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A10</f>
@@ -12581,7 +12570,7 @@
         <v>861</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C16" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -12606,7 +12595,7 @@
         <v>861</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C17" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A14</f>
@@ -12631,7 +12620,7 @@
         <v>861</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C18" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A15</f>
@@ -12656,7 +12645,7 @@
         <v>861</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C19" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A16</f>
@@ -12800,12 +12789,12 @@
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A21</f>
         <v>Encounter.admissionReason.legalStatus</v>
       </c>
-      <c r="D25" s="34" t="str">
+      <c r="D25" s="32" t="str">
         <f>EncounterEhn!D21</f>
         <v>A.2.3.4.3 - Admission legal status</v>
       </c>
       <c r="E25" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -12937,7 +12926,7 @@
         <v>A.2.3.6.1 - Period</v>
       </c>
       <c r="E31" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -12976,7 +12965,7 @@
         <v>861</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C33" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A29</f>
@@ -13001,7 +12990,7 @@
         <v>861</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C34" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A30</f>
@@ -13026,23 +13015,23 @@
         <v>861</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C35" t="str">
         <f>"Encounter"&amp;"."&amp;EncounterEhn!A31</f>
         <v>Encounter.location.organization.details</v>
       </c>
-      <c r="D35" s="36" t="str">
+      <c r="D35" s="34" t="str">
         <f>EncounterEhn!D31</f>
         <v>A.2.3.6.4 - Organisation Part Details</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="34" t="s">
         <v>229</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13642,7 +13631,7 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -13690,7 +13679,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A2</f>
@@ -13701,7 +13690,7 @@
         <v>A.2.8.1.1 - Date</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="12" t="s">
@@ -13726,14 +13715,14 @@
         <v>A.2.8.1.3 - Anthropometric observations</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -13742,7 +13731,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A4</f>
@@ -13753,14 +13742,14 @@
         <v>A.2.8.1.3.1 - Result description</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -13769,7 +13758,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A5</f>
@@ -13780,14 +13769,14 @@
         <v>A.2.8.1.3.2 - Observation details</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -13796,7 +13785,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A6</f>
@@ -13807,14 +13796,14 @@
         <v>A.2.8.1.3.3 - Observation result</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -13834,7 +13823,7 @@
         <v>A.2.8.1.4 - Vital signs</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -13848,7 +13837,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A8</f>
@@ -13859,14 +13848,14 @@
         <v>A.2.8.1.4.1 - Result description</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -13875,7 +13864,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A9</f>
@@ -13886,14 +13875,14 @@
         <v>A.2.8.1.4.2 - Observation details</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
@@ -13902,7 +13891,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/ObjectiveFindings</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$12&amp;"."&amp;ObjectiveFindingsHdrEhn!A10</f>
@@ -13913,14 +13902,14 @@
         <v>A.2.8.1.4.3 - Observation result</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -13940,7 +13929,7 @@
         <v>A.2.8.1.5 - Physical examination</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -13965,7 +13954,7 @@
         <v>A.2.8.1.5.1 - Observation Note</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -14020,7 +14009,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -14037,7 +14026,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -14054,7 +14043,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -14071,7 +14060,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -14088,7 +14077,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -14105,7 +14094,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -14122,7 +14111,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -14139,7 +14128,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -14156,7 +14145,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -14173,7 +14162,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -14190,7 +14179,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -14346,10 +14335,10 @@
         <v>836</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
@@ -14360,10 +14349,10 @@
         <v>835</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.75">
@@ -14374,38 +14363,38 @@
         <v>833</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.75">
@@ -14416,10 +14405,10 @@
         <v>1092</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.75">
@@ -14430,10 +14419,10 @@
         <v>1093</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -14468,8 +14457,8 @@
   </sheetPr>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:D77"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -14527,14 +14516,14 @@
         <v>A.2.6.1 - Medical history</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -14554,14 +14543,14 @@
         <v>A.2.6.1.1 - History of problems</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -14570,7 +14559,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A4</f>
@@ -14581,7 +14570,7 @@
         <v>A.2.6.1.1.1 - Problem description</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -14595,7 +14584,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A5</f>
@@ -14606,7 +14595,7 @@
         <v>A.2.6.1.1.2 - Problem details</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -14620,7 +14609,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A6</f>
@@ -14631,7 +14620,7 @@
         <v>A.2.6.1.1.3 - Onset date</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -14645,7 +14634,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A7</f>
@@ -14656,7 +14645,7 @@
         <v>A.2.6.1.1.4 - End date</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -14670,7 +14659,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A8</f>
@@ -14681,7 +14670,7 @@
         <v>A.2.6.1.1.5 - Clinical status</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -14695,7 +14684,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A9</f>
@@ -14706,14 +14695,14 @@
         <v>A.2.6.1.1.6 - Resolution circumstances</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
@@ -14730,14 +14719,14 @@
         <v>A.2.6.1.1.6 - Resolution circumstances</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -14746,7 +14735,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A10</f>
@@ -14757,7 +14746,7 @@
         <v>A.2.6.1.1.7 - Severity</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -14770,7 +14759,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A11</f>
@@ -14781,7 +14770,7 @@
         <v>A.2.6.1.1.8 - Stage</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -14801,20 +14790,18 @@
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A12</f>
         <v>PatientHistory.medicalHistory.medicalDevices</v>
       </c>
-      <c r="D13" s="13" t="str">
+      <c r="D13" s="38" t="str">
         <f xml:space="preserve"> PatientHistoryEhn!D12</f>
         <v>A.2.6.1.2 - Devices and Implants</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
+      <c r="E13" s="38" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>1296</v>
-      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="8" t="str">
@@ -14822,7 +14809,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
@@ -14833,20 +14820,20 @@
         <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A13</f>
@@ -14857,14 +14844,14 @@
         <v>A.2.6.1.2.1 - Device and implant description</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
@@ -14873,7 +14860,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
@@ -14884,20 +14871,20 @@
         <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A14</f>
@@ -14908,14 +14895,14 @@
         <v>A.2.6.1.2.2 - Device ID</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
@@ -14924,7 +14911,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
@@ -14935,20 +14922,20 @@
         <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A15</f>
@@ -14959,14 +14946,14 @@
         <v>A.2.6.1.2.3 - Implant date</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
@@ -14975,7 +14962,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A16</f>
@@ -14986,7 +14973,7 @@
         <v>A.2.6.1.2.4 - End date</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="20" t="s">
@@ -15000,7 +14987,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
@@ -15011,14 +14998,14 @@
         <v>A.2.6.1.2.5 - Reason</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
@@ -15027,7 +15014,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A17</f>
@@ -15037,8 +15024,8 @@
         <f xml:space="preserve"> PatientHistoryEhn!D17</f>
         <v>A.2.6.1.2.5 - Reason</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>1250</v>
+      <c r="E22" s="38" t="s">
+        <v>1249</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -15052,7 +15039,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A18</f>
@@ -15062,16 +15049,14 @@
         <f xml:space="preserve"> PatientHistoryEhn!D18</f>
         <v>A.2.6.1.3 - History of procedures</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>1211</v>
+      <c r="E23" s="38" t="s">
+        <v>1210</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>1296</v>
-      </c>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="8" t="str">
@@ -15079,7 +15064,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A19</f>
@@ -15090,7 +15075,7 @@
         <v>A.2.6.1.3.1 - Procedure code</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
@@ -15104,7 +15089,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A20</f>
@@ -15115,7 +15100,7 @@
         <v>A.2.6.1.3.2 - Procedure description</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -15129,7 +15114,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
@@ -15140,7 +15125,7 @@
         <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
@@ -15151,7 +15136,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="8"/>
       <c r="B27" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A21</f>
@@ -15162,14 +15147,14 @@
         <v>A.2.6.1.3.3 - Body site</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
@@ -15178,7 +15163,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A22</f>
@@ -15189,7 +15174,7 @@
         <v>A.2.6.1.3.4 - Procedure date</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
@@ -15203,7 +15188,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
@@ -15214,7 +15199,7 @@
         <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
@@ -15225,7 +15210,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="8"/>
       <c r="B30" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A23</f>
@@ -15236,7 +15221,7 @@
         <v>A.2.6.1.3.5 - Procedure reason</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
@@ -15250,7 +15235,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A24</f>
@@ -15261,7 +15246,7 @@
         <v>A.2.6.1.3.6 - Outcome</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
@@ -15275,7 +15260,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A25</f>
@@ -15286,7 +15271,7 @@
         <v>A.2.6.1.3.7 - Focal device</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
@@ -15311,7 +15296,7 @@
         <v>A.2.6.1.4 - Vaccination</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
@@ -15325,7 +15310,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A27</f>
@@ -15336,7 +15321,7 @@
         <v>A.2.6.1.4.1 - Disease or agent targeted</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>19</v>
@@ -15349,7 +15334,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A28</f>
@@ -15360,7 +15345,7 @@
         <v>A.2.6.1.4.2 - Vaccine/prophylaxis</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -15374,7 +15359,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A29</f>
@@ -15385,7 +15370,7 @@
         <v>A.2.6.1.4.4 - Vaccine medicinal product</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
@@ -15399,7 +15384,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A30</f>
@@ -15410,7 +15395,7 @@
         <v>A.2.6.1.4.5 - Marketing Authorisation Holder</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -15424,7 +15409,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A31</f>
@@ -15435,7 +15420,7 @@
         <v>A.2.6.1.4.6 - Number in a series of vaccinations / doses</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
@@ -15449,7 +15434,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A32</f>
@@ -15460,7 +15445,7 @@
         <v>A.2.6.1.4.7 - Date of vaccination</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="20" t="s">
@@ -15474,7 +15459,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A33</f>
@@ -15485,7 +15470,7 @@
         <v>A.2.6.1.4.8 - Next vaccination date</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="20" t="s">
@@ -15510,14 +15495,14 @@
         <v>A.2.6.1.5 - Epidemiological history</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="12" t="s">
-        <v>20</v>
+      <c r="G41" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>1295</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.75">
@@ -15537,7 +15522,7 @@
         <v>A.2.6.1.5.1 - Infectious contacts</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
@@ -15551,7 +15536,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A36</f>
@@ -15562,7 +15547,7 @@
         <v>A.2.6.1.5.1.1 - Time period</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
@@ -15576,7 +15561,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A37</f>
@@ -15587,14 +15572,14 @@
         <v>A.2.6.1.5.1.2 - Infectious agent</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.75">
@@ -15603,7 +15588,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A38</f>
@@ -15614,14 +15599,14 @@
         <v>A.2.6.1.5.1.3 - Proximity</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.75">
@@ -15630,7 +15615,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A39</f>
@@ -15641,14 +15626,14 @@
         <v>A.2.6.1.5.1.4 - Country</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.75">
@@ -15657,7 +15642,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A40</f>
@@ -15668,7 +15653,7 @@
         <v>A.2.6.1.5.1.5 - Additional information</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
@@ -15693,7 +15678,7 @@
         <v>A.2.6.1.5.2 - Travel history</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
@@ -15707,7 +15692,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A42</f>
@@ -15718,7 +15703,7 @@
         <v>A.2.6.1.5.2.1 - Time period</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
@@ -15732,7 +15717,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A43</f>
@@ -15743,7 +15728,7 @@
         <v>A.2.6.1.5.2.2 - Country visited</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
@@ -15757,7 +15742,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A44</f>
@@ -15768,7 +15753,7 @@
         <v>A.2.6.1.5.2.3 - Comment</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
@@ -15793,7 +15778,7 @@
         <v>A.2.6.2 - Family history</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="26" t="s">
@@ -15807,7 +15792,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A46</f>
@@ -15818,7 +15803,7 @@
         <v>A.2.6.2.1 - Patient relationship</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
@@ -15832,7 +15817,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A47</f>
@@ -15843,7 +15828,7 @@
         <v>A.2.6.2.2 - Date of birth</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
@@ -15857,7 +15842,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A48</f>
@@ -15868,7 +15853,7 @@
         <v>A.2.6.2.3 - Age or date of death</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="7" t="s">
@@ -15882,7 +15867,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A49</f>
@@ -15893,7 +15878,7 @@
         <v>A.2.6.2.5 - Condition</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
@@ -15907,7 +15892,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A50</f>
@@ -15918,14 +15903,14 @@
         <v>A.2.6.2.6 - Cause of death</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.75">
@@ -15945,7 +15930,7 @@
         <v>A.2.6.3 - Social determinants of health</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="26" t="s">
@@ -15959,7 +15944,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A52</f>
@@ -15970,14 +15955,14 @@
         <v>A.2.6.3.1 - Participation in society</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.75">
@@ -15986,7 +15971,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A53</f>
@@ -15997,14 +15982,14 @@
         <v>A.2.6.3.1.1 - Work situation</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.75">
@@ -16013,7 +15998,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A54</f>
@@ -16024,14 +16009,14 @@
         <v>A.2.6.3.1.2 - Hobby</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.75">
@@ -16040,7 +16025,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C62" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A55</f>
@@ -16051,14 +16036,14 @@
         <v>A.2.6.3.1.3 - Social network</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.75">
@@ -16067,7 +16052,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A56</f>
@@ -16078,14 +16063,14 @@
         <v>A.2.6.3.2 - Education</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -16094,7 +16079,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A57</f>
@@ -16105,14 +16090,14 @@
         <v>A.2.6.3.2.1 - Education level</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -16121,7 +16106,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A58</f>
@@ -16132,14 +16117,14 @@
         <v>A.2.6.3.2.2 - Comment</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
@@ -16148,7 +16133,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A59</f>
@@ -16159,14 +16144,14 @@
         <v>A.2.6.3.3 - Living situation</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.75">
@@ -16175,7 +16160,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A60</f>
@@ -16186,14 +16171,14 @@
         <v>A.2.6.3.3.1 - House type</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
@@ -16202,7 +16187,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A61</f>
@@ -16213,14 +16198,14 @@
         <v>A.2.6.3.3.2 - Home adaption</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.75">
@@ -16229,7 +16214,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A62</f>
@@ -16240,14 +16225,14 @@
         <v>A.2.6.3.3.3 - Living conditions</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -16256,7 +16241,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A63</f>
@@ -16267,14 +16252,14 @@
         <v>A.2.6.3.4 - Family situation</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -16283,7 +16268,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A64</f>
@@ -16294,14 +16279,14 @@
         <v>A.2.6.3.4.1 - Comment</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
@@ -16310,7 +16295,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C72" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A65</f>
@@ -16321,14 +16306,14 @@
         <v>A.2.6.3.4.2 - Family composition</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.75">
@@ -16337,7 +16322,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C73" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A66</f>
@@ -16348,14 +16333,14 @@
         <v>A.2.6.3.4.3 - Marital status</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.75">
@@ -16364,7 +16349,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C74" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A67</f>
@@ -16375,14 +16360,14 @@
         <v>A.2.6.3.4.4 - Number of children</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.75">
@@ -16391,7 +16376,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C75" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A68</f>
@@ -16402,14 +16387,14 @@
         <v>A.2.6.3.4.5 - Number of children at home</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.75">
@@ -16418,7 +16403,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C76" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A69</f>
@@ -16429,14 +16414,14 @@
         <v>A.2.6.3.4.6 - Child details</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.75">
@@ -16445,7 +16430,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C77" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A70</f>
@@ -16456,14 +16441,14 @@
         <v>A.2.6.3.4.7 - Care responsibility</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.75">
@@ -16483,14 +16468,14 @@
         <v>A.2.6.4 - Use of substances</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.75">
@@ -16499,7 +16484,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C79" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A72</f>
@@ -16510,14 +16495,14 @@
         <v>A.2.6.4.1 - Alcohol use</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.75">
@@ -16526,7 +16511,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C80" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A73</f>
@@ -16537,14 +16522,14 @@
         <v>A.2.6.4.1.1 - Status</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.75">
@@ -16553,7 +16538,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C81" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A74</f>
@@ -16564,14 +16549,14 @@
         <v>A.2.6.4.1.2 - Period and quantity</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.75">
@@ -16580,7 +16565,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C82" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A75</f>
@@ -16591,14 +16576,14 @@
         <v>A.2.6.4.1.3 - Comment</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.75">
@@ -16607,7 +16592,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C83" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A76</f>
@@ -16618,14 +16603,14 @@
         <v>A.2.6.4.2 - Tobacco use</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.75">
@@ -16634,7 +16619,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C84" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A77</f>
@@ -16645,14 +16630,14 @@
         <v>A.2.6.4.2.1 - Status</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.75">
@@ -16661,7 +16646,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C85" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A78</f>
@@ -16672,14 +16657,14 @@
         <v>A.2.6.4.2.2 - Period and quantity</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.75">
@@ -16688,7 +16673,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C86" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A79</f>
@@ -16699,14 +16684,14 @@
         <v>A.2.6.4.2.3 - Comment</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.75">
@@ -16715,7 +16700,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C87" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A80</f>
@@ -16726,14 +16711,14 @@
         <v>A.2.6.4.3 - Drug consumption</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.75">
@@ -16742,7 +16727,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C88" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A81</f>
@@ -16753,14 +16738,14 @@
         <v>A.2.6.4.3.1 - Status</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.75">
@@ -16769,7 +16754,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C89" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A82</f>
@@ -16780,14 +16765,14 @@
         <v>A.2.6.4.3.2 - Period and quantity</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.75">
@@ -16796,7 +16781,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C90" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A83</f>
@@ -16807,14 +16792,14 @@
         <v>A.2.6.4.3.3 - Drug or medication type</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.75">
@@ -16823,7 +16808,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C91" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A84</f>
@@ -16834,14 +16819,14 @@
         <v>A.2.6.4.3.4 - Route of administration</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.75">
@@ -16850,7 +16835,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PatientHistoryEhn</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C92" s="9" t="str">
         <f>LogicalModels!$A$9&amp;"."&amp;PatientHistoryEhn!A85</f>
@@ -16861,14 +16846,14 @@
         <v>A.2.6.4.3.5 - Comment</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.75">
@@ -18418,7 +18403,7 @@
   </sheetPr>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="C42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
@@ -18477,14 +18462,14 @@
         <v>A.2.7.1 - Diagnostic summary</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -18493,7 +18478,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A3</f>
@@ -18504,7 +18489,7 @@
         <v>A.2.7.1.1 - Problem description</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -18518,7 +18503,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A4</f>
@@ -18529,7 +18514,7 @@
         <v>A.2.7.1.2 - Problem details</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -18543,7 +18528,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A5</f>
@@ -18554,7 +18539,7 @@
         <v>A.2.7.1.3 - Onset date</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -18568,7 +18553,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A6</f>
@@ -18579,7 +18564,7 @@
         <v>A.2.7.1.4 - End date</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -18593,7 +18578,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A7</f>
@@ -18604,7 +18589,7 @@
         <v>A.2.7.1.5 - Category</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -18618,7 +18603,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A8</f>
@@ -18629,7 +18614,7 @@
         <v>A.2.7.1.6 - Treatment class</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -18643,7 +18628,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A9</f>
@@ -18654,7 +18639,7 @@
         <v>A.2.7.1.7 - Clinical status</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -18668,7 +18653,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A10</f>
@@ -18679,14 +18664,14 @@
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="59" x14ac:dyDescent="0.75">
@@ -18703,14 +18688,14 @@
         <v>A.2.7.1.8 - Resolution circumstances</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -18719,7 +18704,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A11</f>
@@ -18730,7 +18715,7 @@
         <v>A.2.7.1.9 - Severity</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -18744,7 +18729,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A12</f>
@@ -18755,7 +18740,7 @@
         <v>A.2.7.1.10 - Stage</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
@@ -18780,14 +18765,14 @@
         <v>A.2.7.2 - Significant procedures</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
@@ -18796,7 +18781,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A14</f>
@@ -18807,7 +18792,7 @@
         <v>A.2.7.2.1 - Procedure code</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -18821,7 +18806,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A15</f>
@@ -18832,7 +18817,7 @@
         <v>A.2.7.2.2 - Procedure description</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -18846,7 +18831,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -18857,7 +18842,7 @@
         <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
@@ -18871,7 +18856,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A16</f>
@@ -18882,14 +18867,14 @@
         <v>A.2.7.2.3 - Body site</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
@@ -18898,7 +18883,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A17</f>
@@ -18909,7 +18894,7 @@
         <v>A.2.7.2.4 - Procedure date</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
@@ -18923,7 +18908,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -18934,7 +18919,7 @@
         <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
@@ -18948,7 +18933,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A18</f>
@@ -18959,7 +18944,7 @@
         <v>A.2.7.2.5 - Procedure reason</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
@@ -18973,7 +18958,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A19</f>
@@ -18984,7 +18969,7 @@
         <v>A.2.7.2.6 - Outcome</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -18998,7 +18983,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -19009,7 +18994,7 @@
         <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
@@ -19023,7 +19008,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A20</f>
@@ -19034,7 +19019,7 @@
         <v>A.2.7.2.7 - Complication</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>19</v>
@@ -19047,7 +19032,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A21</f>
@@ -19058,7 +19043,7 @@
         <v>A.2.7.2.8 - Focal device</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -19083,14 +19068,14 @@
         <v>A.2.7.3 - Medical devices and implants</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
@@ -19099,7 +19084,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -19110,14 +19095,14 @@
         <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
@@ -19126,7 +19111,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A23</f>
@@ -19137,14 +19122,14 @@
         <v>A.2.7.3.1 - Device and implant description</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
@@ -19153,7 +19138,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
@@ -19164,14 +19149,14 @@
         <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
@@ -19180,7 +19165,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A24</f>
@@ -19191,14 +19176,14 @@
         <v>A.2.7.3.2 - Device ID</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
@@ -19207,25 +19192,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
         <v>HospitalStay.medicalDevices.implantDate</v>
       </c>
-      <c r="D31" s="41" t="str">
+      <c r="D31" s="37" t="str">
         <f xml:space="preserve"> HospitalStayEhn!D25</f>
         <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
@@ -19234,25 +19219,25 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A25</f>
         <v>HospitalStay.medicalDevices.implantDate</v>
       </c>
-      <c r="D32" s="41" t="str">
+      <c r="D32" s="37" t="str">
         <f xml:space="preserve"> HospitalStayEhn!D25</f>
         <v>A.2.7.3.3 - Implant date</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
@@ -19261,7 +19246,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A26</f>
@@ -19272,7 +19257,7 @@
         <v>A.2.7.3.4 - End date</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="20" t="s">
@@ -19286,7 +19271,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
@@ -19297,7 +19282,7 @@
         <v>A.2.7.3.5 - Reason</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="20" t="s">
@@ -19311,7 +19296,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A27</f>
@@ -19322,7 +19307,7 @@
         <v>A.2.7.3.5 - Reason</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -19347,14 +19332,14 @@
         <v>A.2.7.5 - Pharmacotherapy</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
@@ -19363,7 +19348,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19374,7 +19359,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -19388,7 +19373,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19399,7 +19384,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
@@ -19413,7 +19398,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19424,7 +19409,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
@@ -19438,7 +19423,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19449,7 +19434,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
@@ -19463,7 +19448,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19474,7 +19459,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
@@ -19488,7 +19473,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19499,7 +19484,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
@@ -19513,7 +19498,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C43" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19524,7 +19509,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
@@ -19538,7 +19523,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C44" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A29</f>
@@ -19549,7 +19534,7 @@
         <v>A.2.7.5.1 - Medication reason</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
@@ -19563,7 +19548,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C45" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19574,7 +19559,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
@@ -19588,7 +19573,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19599,7 +19584,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
@@ -19613,7 +19598,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19624,7 +19609,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
@@ -19638,7 +19623,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C48" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19649,7 +19634,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
@@ -19663,7 +19648,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C49" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A30</f>
@@ -19674,7 +19659,7 @@
         <v>A.2.7.5.2 - Code</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
@@ -19688,7 +19673,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C50" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A31</f>
@@ -19699,7 +19684,7 @@
         <v>A.2.7.5.3 - Intended use</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
@@ -19713,7 +19698,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C51" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A32</f>
@@ -19724,7 +19709,7 @@
         <v>A.2.7.5.4 - Brand name</v>
       </c>
       <c r="E51" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
@@ -19738,7 +19723,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C52" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A33</f>
@@ -19749,7 +19734,7 @@
         <v>A.2.7.5.5 - Active ingredient list</v>
       </c>
       <c r="E52" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
@@ -19763,7 +19748,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C53" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A34</f>
@@ -19774,7 +19759,7 @@
         <v>A.2.7.5.6 - Strength</v>
       </c>
       <c r="E53" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
@@ -19788,7 +19773,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A35</f>
@@ -19799,7 +19784,7 @@
         <v>A.2.7.5.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E54" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
@@ -19813,7 +19798,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
@@ -19824,14 +19809,14 @@
         <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E55" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.75">
@@ -19840,7 +19825,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C56" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A36</f>
@@ -19851,14 +19836,14 @@
         <v>A.2.7.5.8 - Dosage Regimen</v>
       </c>
       <c r="E56" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.75">
@@ -19867,7 +19852,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C57" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
@@ -19878,7 +19863,7 @@
         <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E57" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
@@ -19892,7 +19877,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C58" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A37</f>
@@ -19903,7 +19888,7 @@
         <v>A.2.7.5.9 - Route of administration</v>
       </c>
       <c r="E58" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
@@ -19917,7 +19902,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19928,7 +19913,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E59" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
@@ -19942,7 +19927,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19953,7 +19938,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E60" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
@@ -19967,7 +19952,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C61" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A38</f>
@@ -19978,7 +19963,7 @@
         <v>A.2.7.5.10 - Period of treatment</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
@@ -20003,7 +19988,7 @@
         <v>A.2.7.6 - Significant Observation Results</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="12" t="s">
@@ -20017,7 +20002,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C63" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A40</f>
@@ -20028,14 +20013,14 @@
         <v>A.2.7.6.1 - Date</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.75">
@@ -20044,7 +20029,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A41</f>
@@ -20055,14 +20040,14 @@
         <v>A.2.7.6.2 - Observation status</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.75">
@@ -20071,7 +20056,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C65" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A42</f>
@@ -20082,14 +20067,14 @@
         <v>A.2.7.6.3 - Result description</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.75">
@@ -20106,7 +20091,7 @@
         <v>A.2.7.6.3 - Result description</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
@@ -20120,7 +20105,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A43</f>
@@ -20131,14 +20116,14 @@
         <v>A.2.7.6.4 - Observation details</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.75">
@@ -20158,7 +20143,7 @@
         <v>A.2.7.6.4 - Observation details</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
@@ -20172,7 +20157,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C69" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
@@ -20183,14 +20168,14 @@
         <v>A.2.7.6.5 - Observation result</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.75">
@@ -20199,7 +20184,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C70" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A44</f>
@@ -20210,14 +20195,14 @@
         <v>A.2.7.6.5 - Observation result</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.75">
@@ -20226,7 +20211,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/HospitalStay</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C71" s="9" t="str">
         <f>LogicalModels!$A$10&amp;"."&amp;HospitalStayEhn!A45</f>
@@ -20237,14 +20222,14 @@
         <v>A.2.7.6.7 - Reporter</v>
       </c>
       <c r="E71" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.75">
@@ -20264,7 +20249,7 @@
         <v>A.2.7.7 - Synthesis</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="12" t="s">
@@ -20289,7 +20274,7 @@
         <v>A.2.7.7.1 - Problem synthesis</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="12" t="s">
@@ -20314,7 +20299,7 @@
         <v>A.2.7.7.2 - Clinical reasoning</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="12" t="s">
@@ -21317,7 +21302,7 @@
     <col min="2" max="2" width="59" customWidth="1"/>
     <col min="3" max="3" width="46.1796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="53.54296875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.90625" customWidth="1"/>
+    <col min="5" max="5" width="49.08984375" customWidth="1"/>
     <col min="6" max="6" width="15.58984375" customWidth="1"/>
     <col min="7" max="7" width="11.1328125" customWidth="1"/>
     <col min="8" max="8" width="64.7265625" customWidth="1"/>
@@ -21411,22 +21396,22 @@
       <c r="B4" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="C4" s="42" t="str">
+      <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$2&amp;"."&amp;HospitalDischargeReportEhn!A4</f>
         <v>HospitalDischargeReport.body.presentedForm</v>
       </c>
-      <c r="D4" s="42" t="str">
+      <c r="D4" s="9" t="str">
         <f>HospitalDischargeReportEhn!D4</f>
         <v>A.2.0 - Hospital Discharge Report in its narrative form</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43" t="s">
+      <c r="E4" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="str">
@@ -21470,14 +21455,14 @@
         <v>A.2.2 - Alerts</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -21524,14 +21509,14 @@
         <v>A.2.4 - Admission evaluation</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -21551,14 +21536,14 @@
         <v>A.2.5 - Patient history</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
@@ -21578,14 +21563,14 @@
         <v>A.2.6 - Course of hospitalisation (Hospital stay)</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
@@ -21605,14 +21590,14 @@
         <v>A.2.7 - Discharge details</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21631,15 +21616,15 @@
         <f>HospitalDischargeReportEhn!D12</f>
         <v>A.2.7.1 - Objective findings</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>1154</v>
+      <c r="E12" s="30" t="s">
+        <v>1153</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21658,15 +21643,15 @@
         <f>HospitalDischargeReportEhn!D12</f>
         <v>A.2.7.1 - Objective findings</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>1197</v>
+      <c r="E13" s="30" t="s">
+        <v>1196</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21685,15 +21670,15 @@
         <f>HospitalDischargeReportEhn!D13</f>
         <v>A.2.7.2 - Functional status</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>1154</v>
+      <c r="E14" s="30" t="s">
+        <v>1153</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21712,15 +21697,15 @@
         <f>HospitalDischargeReportEhn!D13</f>
         <v>A.2.7.2 - Functional status</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>1198</v>
+      <c r="E15" s="30" t="s">
+        <v>1197</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21734,15 +21719,15 @@
         <f>HospitalDischargeReportEhn!D14</f>
         <v>A.2.7.3 - Discharge note</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>1373</v>
+      <c r="E16" s="30" t="s">
+        <v>1371</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -21761,15 +21746,15 @@
         <f>HospitalDischargeReportEhn!D14</f>
         <v>A.2.7.3 - Discharge note</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>1199</v>
+      <c r="E17" s="30" t="s">
+        <v>1198</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
@@ -21789,14 +21774,14 @@
         <v>A.2.8 - Care plan and other recommendations after discharge.</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -22100,7 +22085,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -22110,7 +22095,7 @@
         <v>ObjectiveFindingsHdrEhn</v>
       </c>
       <c r="D12" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E12" t="s">
         <v>73</v>
@@ -22118,7 +22103,7 @@
     </row>
     <row r="13" spans="1:5" ht="59" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -22128,15 +22113,15 @@
         <v>FunctionalStatusHdrEhn</v>
       </c>
       <c r="D13" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -22145,7 +22130,7 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E14" t="s">
         <v>169</v>
@@ -22170,7 +22155,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -22179,7 +22164,7 @@
         <v>1090</v>
       </c>
       <c r="D16" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E16" t="s">
         <v>652</v>
@@ -22187,7 +22172,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -22196,7 +22181,7 @@
         <v>1091</v>
       </c>
       <c r="D17" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E17" t="s">
         <v>662</v>
@@ -22204,7 +22189,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -22213,7 +22198,7 @@
         <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E18" t="s">
         <v>669</v>

--- a/models-src/hl7-hdr-models-and-maps.xlsx
+++ b/models-src/hl7-hdr-models-and-maps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hl7eu-hdr\models-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBAE77F-219B-4B34-B2DB-BFD5F785CAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C9EEFD-8CFF-41FD-8939-FD434E98FD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="13" activeTab="15" xr2:uid="{FA01C668-562A-4AF9-BDB0-B212F14DE883}"/>
   </bookViews>
   <sheets>
     <sheet name="IG-groups" sheetId="31" r:id="rId1"/>
@@ -2773,9 +2773,6 @@
     <t>Encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">where participant.type is 'ADM' </t>
-  </si>
-  <si>
     <t>Practitioner.identifier</t>
   </si>
   <si>
@@ -2795,33 +2792,9 @@
     <t>Encounter.participant.individual.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Encounter.participant.individual.ofType(Practitioner) and where participant.type is 'ADM' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">and where participant.type is 'ADM' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encounter.participant.individual.ofType(PractitionerRole).organization and where participant.type is 'ADM' </t>
-  </si>
-  <si>
-    <t>where participant.type is 'ADM'  and Encounter.participant.individual.ofType(PractitionerRole)</t>
-  </si>
-  <si>
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Encounter.participant.individual.ofType(Practitioner) and where participant.type is 'REF' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">and where participant.type is 'REF' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encounter.participant.individual.ofType(PractitionerRole).organization and where participant.type is 'REF' </t>
-  </si>
-  <si>
-    <t>where participant.type is 'REF'  and Encounter.participant.individual.ofType(PractitionerRole)</t>
-  </si>
-  <si>
     <t>Encounter.reasonReference</t>
   </si>
   <si>
@@ -3285,9 +3258,6 @@
   </si>
   <si>
     <t>http://hl7.eu/fhir/hdr/StructureDefinition/Alerts</t>
-  </si>
-  <si>
-    <t>http://hl7.eu/fhir/hdr/StructureDefinition/allergyIntolerance-eu-eps</t>
   </si>
   <si>
     <t>http://hl7.eu/fhir/hdr/StructureDefinition/flag-eu-eps</t>
@@ -4267,9 +4237,6 @@
 Consent.scope = 'adr'</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/consent-eu-hdr</t>
-  </si>
-  <si>
     <t>Information about the payer are mapped into a Coverage resource that can be listed in the section payers or referred thìrough the admission request (if present)</t>
   </si>
   <si>
@@ -4280,6 +4247,39 @@
   </si>
   <si>
     <t>decison not to have as distict section</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/hdr/StructureDefinition/consent-eu-hdr</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/hdr/StructureDefinition/allergyIntolerance-eu-hdr</t>
+  </si>
+  <si>
+    <t>where participant.type is 'ADM'</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.ofType(Practitioner) and where participant.type is 'ADM'</t>
+  </si>
+  <si>
+    <t>and where participant.type is 'ADM'</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.ofType(PractitionerRole).organization and where participant.type is 'ADM'</t>
+  </si>
+  <si>
+    <t>where participant.type is 'ADM' and Encounter.participant.individual.ofType(PractitionerRole)</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.ofType(Practitioner) and where participant.type is 'REF'</t>
+  </si>
+  <si>
+    <t>and where participant.type is 'REF'</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.ofType(PractitionerRole).organization and where participant.type is 'REF'</t>
+  </si>
+  <si>
+    <t>where participant.type is 'REF' and Encounter.participant.individual.ofType(PractitionerRole)</t>
   </si>
 </sst>
 </file>
@@ -4436,7 +4436,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4505,10 +4505,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -5156,7 +5152,7 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -5170,7 +5166,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A2</f>
@@ -5181,7 +5177,7 @@
         <v>A.2.8.2.1 - Description</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -5195,7 +5191,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A3</f>
@@ -5206,7 +5202,7 @@
         <v>A.2.8.2.2 - Onset Date</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -5220,7 +5216,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A4</f>
@@ -5231,7 +5227,7 @@
         <v>A.2.8.2.3 - Functional assessment description</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="12" t="s">
@@ -5245,7 +5241,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A5</f>
@@ -5256,7 +5252,7 @@
         <v>A.2.8.2.4 - Functional assessment date</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="12" t="s">
@@ -5270,7 +5266,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/FunctionalStatus</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>LogicalModels!$A$13&amp;"."&amp;FunctionalStatusHdrEhn!A6</f>
@@ -5281,7 +5277,7 @@
         <v>A.2.8.2.5 - Functional assessment result</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="12" t="s">
@@ -5339,7 +5335,7 @@
     </row>
     <row r="2" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>66</v>
@@ -5356,7 +5352,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>64</v>
@@ -5373,7 +5369,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>64</v>
@@ -5390,7 +5386,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>64</v>
@@ -5407,7 +5403,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>66</v>
@@ -5482,7 +5478,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A2</f>
@@ -5493,14 +5489,14 @@
         <v>A.2.9.2.1 - Medication reason</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -5509,7 +5505,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A3</f>
@@ -5520,7 +5516,7 @@
         <v>A.2.9.2.2 - Reason for change</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -5534,7 +5530,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5545,14 +5541,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -5561,7 +5557,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5572,14 +5568,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -5588,7 +5584,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A4</f>
@@ -5599,14 +5595,14 @@
         <v>A.2.9.2.3 - Code</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -5615,7 +5611,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A5</f>
@@ -5626,7 +5622,7 @@
         <v>A.2.9.2.4 - Brand name</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -5640,7 +5636,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A6</f>
@@ -5651,14 +5647,14 @@
         <v>A.2.9.2.5 - Active ingredient list</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -5667,7 +5663,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A7</f>
@@ -5678,7 +5674,7 @@
         <v>A.2.9.2.6 - Strength</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -5692,7 +5688,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A8</f>
@@ -5703,7 +5699,7 @@
         <v>A.2.9.2.7 - Pharmaceutical dose form</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -5717,7 +5713,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A9</f>
@@ -5728,14 +5724,14 @@
         <v>A.2.9.2.8 - Dosage Regimen</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
@@ -5744,7 +5740,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A10</f>
@@ -5755,7 +5751,7 @@
         <v>A.2.9.2.9 - Route of administration</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -5769,7 +5765,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A11</f>
@@ -5780,7 +5776,7 @@
         <v>A.2.9.2.10 - Period of treatment</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="12" t="s">
@@ -5794,7 +5790,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/MedicationSummary</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>LogicalModels!$A$15&amp;"."&amp;MedicationSummaryHdrEhn!A12</f>
@@ -5805,7 +5801,7 @@
         <v>A.2.9.2.11 - Days supplied</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="35" t="s">
@@ -5865,7 +5861,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>65</v>
@@ -5882,7 +5878,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>64</v>
@@ -5899,7 +5895,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>66</v>
@@ -5916,7 +5912,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>66</v>
@@ -5933,7 +5929,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
@@ -5950,7 +5946,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -5967,7 +5963,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
@@ -5984,7 +5980,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>65</v>
@@ -6001,7 +5997,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>64</v>
@@ -6018,7 +6014,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>64</v>
@@ -6035,7 +6031,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>66</v>
@@ -6110,7 +6106,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A2</f>
@@ -6121,7 +6117,7 @@
         <v>A.2.9.1.1 - Title</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -6135,7 +6131,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A3</f>
@@ -6146,7 +6142,7 @@
         <v>A.2.9.1.2 - Addresses</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -6160,7 +6156,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A4</f>
@@ -6171,7 +6167,7 @@
         <v>A.2.9.1.3 - Description</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -6184,7 +6180,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A5</f>
@@ -6195,7 +6191,7 @@
         <v>A.2.9.1.4 - Plan Period</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -6208,7 +6204,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A6</f>
@@ -6219,7 +6215,7 @@
         <v>A.2.9.1.5 - Other details</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
@@ -6232,7 +6228,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A7</f>
@@ -6243,7 +6239,7 @@
         <v>A.2.9.1.6 - Activity</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -6256,7 +6252,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A8</f>
@@ -6267,7 +6263,7 @@
         <v>A.2.9.1.6.1 - Kind</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -6280,7 +6276,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A9</f>
@@ -6291,7 +6287,7 @@
         <v>A.2.9.1.6.2 - Activity description</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
@@ -6304,7 +6300,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/PlanOfCare</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>LogicalModels!$A$14&amp;"."&amp;PlanOfCareHdrEhn!A10</f>
@@ -6315,7 +6311,7 @@
         <v>A.2.9.1.6.3 - Specific attributes</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
@@ -6371,7 +6367,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>64</v>
@@ -6388,7 +6384,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
@@ -6405,7 +6401,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>64</v>
@@ -6422,7 +6418,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>64</v>
@@ -6439,7 +6435,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
@@ -6456,7 +6452,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -6473,7 +6469,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
@@ -6490,7 +6486,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>64</v>
@@ -6507,7 +6503,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>65</v>
@@ -6534,8 +6530,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6593,7 +6589,7 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
@@ -6607,7 +6603,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A2</f>
@@ -6618,14 +6614,14 @@
         <v>A.2.1.1 - Living will</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -6634,7 +6630,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A3</f>
@@ -6645,7 +6641,7 @@
         <v>A.2.1.1.1 - Date and time</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -6659,7 +6655,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A4</f>
@@ -6670,7 +6666,7 @@
         <v>A.2.1.1.2 - Type</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -6684,7 +6680,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A5</f>
@@ -6695,7 +6691,7 @@
         <v>A.2.1.1.3 - Comment</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -6709,7 +6705,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;AdvanceDirectivesEhn!A6</f>
@@ -6720,7 +6716,7 @@
         <v>A.2.1.1.4 - Related conditions</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -6734,7 +6730,7 @@
         <v>http://hl7.eu/fhir/hdr/StructureDefinition/AdvanceDirectives</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>LogicalModels!$A$5&amp;"."&amp;Advance